--- a/Metro_Arcs_Par_Station_IDs.xlsx
+++ b/Metro_Arcs_Par_Station_IDs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noe\Documents\GitHub\ProbSciANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1592159-FE60-4F62-BB20-835F888D0B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856A0F87-AACA-42A6-990D-666723AB8BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
   <si>
     <t>ID STATION</t>
   </si>
@@ -142,9 +142,6 @@
     <t>George V</t>
   </si>
   <si>
-    <t>Franklin D. Roosevelt</t>
-  </si>
-  <si>
     <t>Champs-Elysées - Clemenceau</t>
   </si>
   <si>
@@ -868,1474 +865,7 @@
     <t>Olympiades</t>
   </si>
   <si>
-    <t>2.28258384736155</t>
-  </si>
-  <si>
-    <t>48.8781626526965</t>
-  </si>
-  <si>
-    <t>2.28943541854221</t>
-  </si>
-  <si>
-    <t>48.8756673756517</t>
-  </si>
-  <si>
-    <t>2.29581177523576</t>
-  </si>
-  <si>
-    <t>48.874994575223</t>
-  </si>
-  <si>
-    <t>2.30075978497892</t>
-  </si>
-  <si>
-    <t>48.872037763641</t>
-  </si>
-  <si>
-    <t>2.30948819233711</t>
-  </si>
-  <si>
-    <t>48.8687248870505</t>
-  </si>
-  <si>
-    <t>2.31446450132278</t>
-  </si>
-  <si>
-    <t>48.8676562912457</t>
-  </si>
-  <si>
-    <t>2.32296144579826</t>
-  </si>
-  <si>
-    <t>48.8665579920016</t>
-  </si>
-  <si>
-    <t>2.32967809471164</t>
-  </si>
-  <si>
-    <t>48.8644778383665</t>
-  </si>
-  <si>
-    <t>2.33645436775425</t>
-  </si>
-  <si>
-    <t>48.862222264626</t>
-  </si>
-  <si>
-    <t>2.34096962328527</t>
-  </si>
-  <si>
-    <t>48.8608712117595</t>
-  </si>
-  <si>
-    <t>2.34816099123458</t>
-  </si>
-  <si>
-    <t>48.8569534598372</t>
-  </si>
-  <si>
-    <t>2.3520676701391</t>
-  </si>
-  <si>
-    <t>48.8573524042377</t>
-  </si>
-  <si>
-    <t>2.36088525627519</t>
-  </si>
-  <si>
-    <t>48.8551874206563</t>
-  </si>
-  <si>
-    <t>2.36871896103409</t>
-  </si>
-  <si>
-    <t>48.8520542925495</t>
-  </si>
-  <si>
-    <t>2.3731565937892</t>
-  </si>
-  <si>
-    <t>48.8456832057876</t>
-  </si>
-  <si>
-    <t>2.38720107040939</t>
-  </si>
-  <si>
-    <t>48.8472129257497</t>
-  </si>
-  <si>
-    <t>2.39584398872374</t>
-  </si>
-  <si>
-    <t>48.8480842890258</t>
-  </si>
-  <si>
-    <t>2.4108049967015</t>
-  </si>
-  <si>
-    <t>48.8470077301404</t>
-  </si>
-  <si>
-    <t>2.44054009540611</t>
-  </si>
-  <si>
-    <t>48.8443175133653</t>
-  </si>
-  <si>
-    <t>2.27763271754527</t>
-  </si>
-  <si>
-    <t>48.8713967943003</t>
-  </si>
-  <si>
-    <t>2.28582876591298</t>
-  </si>
-  <si>
-    <t>48.8699260814626</t>
-  </si>
-  <si>
-    <t>2.29811328861724</t>
-  </si>
-  <si>
-    <t>48.8782277299144</t>
-  </si>
-  <si>
-    <t>2.30329436242521</t>
-  </si>
-  <si>
-    <t>48.8792652531651</t>
-  </si>
-  <si>
-    <t>2.3094129673747</t>
-  </si>
-  <si>
-    <t>48.8805687691788</t>
-  </si>
-  <si>
-    <t>2.31581509264638</t>
-  </si>
-  <si>
-    <t>48.8810731821276</t>
-  </si>
-  <si>
-    <t>2.32135917382297</t>
-  </si>
-  <si>
-    <t>48.8823458178481</t>
-  </si>
-  <si>
-    <t>2.32795832801022</t>
-  </si>
-  <si>
-    <t>48.8836690873247</t>
-  </si>
-  <si>
-    <t>2.33248437543436</t>
-  </si>
-  <si>
-    <t>48.8837663535292</t>
-  </si>
-  <si>
-    <t>2.33721116470113</t>
-  </si>
-  <si>
-    <t>48.8820209311193</t>
-  </si>
-  <si>
-    <t>2.34415484033029</t>
-  </si>
-  <si>
-    <t>48.8828685678959</t>
-  </si>
-  <si>
-    <t>2.3506070793551</t>
-  </si>
-  <si>
-    <t>48.8837760886089</t>
-  </si>
-  <si>
-    <t>2.3604041692741</t>
-  </si>
-  <si>
-    <t>48.8843864099048</t>
-  </si>
-  <si>
-    <t>2.36577437055817</t>
-  </si>
-  <si>
-    <t>48.8843205479219</t>
-  </si>
-  <si>
-    <t>2.37143895998561</t>
-  </si>
-  <si>
-    <t>48.8830239124814</t>
-  </si>
-  <si>
-    <t>2.37046757479386</t>
-  </si>
-  <si>
-    <t>48.8776498075734</t>
-  </si>
-  <si>
-    <t>2.37673558655729</t>
-  </si>
-  <si>
-    <t>48.8722866011648</t>
-  </si>
-  <si>
-    <t>2.38028898292719</t>
-  </si>
-  <si>
-    <t>48.8691933441843</t>
-  </si>
-  <si>
-    <t>2.3834303882303</t>
-  </si>
-  <si>
-    <t>48.8663901391973</t>
-  </si>
-  <si>
-    <t>2.38757989125445</t>
-  </si>
-  <si>
-    <t>48.8624498439893</t>
-  </si>
-  <si>
-    <t>2.39049759674529</t>
-  </si>
-  <si>
-    <t>48.8580894271876</t>
-  </si>
-  <si>
-    <t>2.39471273375548</t>
-  </si>
-  <si>
-    <t>48.8562446774892</t>
-  </si>
-  <si>
-    <t>2.3981875566594</t>
-  </si>
-  <si>
-    <t>48.851648542649</t>
-  </si>
-  <si>
-    <t>2.29211248215884</t>
-  </si>
-  <si>
-    <t>48.8856523921859</t>
-  </si>
-  <si>
-    <t>2.29768318601258</t>
-  </si>
-  <si>
-    <t>48.8848443217919</t>
-  </si>
-  <si>
-    <t>2.30467308758443</t>
-  </si>
-  <si>
-    <t>48.8838463897792</t>
-  </si>
-  <si>
-    <t>2.30948784696001</t>
-  </si>
-  <si>
-    <t>48.8828400216298</t>
-  </si>
-  <si>
-    <t>2.32218591952051</t>
-  </si>
-  <si>
-    <t>48.8787531630967</t>
-  </si>
-  <si>
-    <t>2.32548839067261</t>
-  </si>
-  <si>
-    <t>48.8753813150599</t>
-  </si>
-  <si>
-    <t>2.32765110341878</t>
-  </si>
-  <si>
-    <t>48.8736667509971</t>
-  </si>
-  <si>
-    <t>2.33104728671124</t>
-  </si>
-  <si>
-    <t>48.8714374280492</t>
-  </si>
-  <si>
-    <t>2.33631873559549</t>
-  </si>
-  <si>
-    <t>48.8696590964362</t>
-  </si>
-  <si>
-    <t>2.34066537071104</t>
-  </si>
-  <si>
-    <t>48.8687567967076</t>
-  </si>
-  <si>
-    <t>2.34755381593779</t>
-  </si>
-  <si>
-    <t>48.8673466033457</t>
-  </si>
-  <si>
-    <t>2.35205078710284</t>
-  </si>
-  <si>
-    <t>48.8663817558035</t>
-  </si>
-  <si>
-    <t>2.35650814364354</t>
-  </si>
-  <si>
-    <t>48.8652996116968</t>
-  </si>
-  <si>
-    <t>2.36156123452636</t>
-  </si>
-  <si>
-    <t>48.8667566284863</t>
-  </si>
-  <si>
-    <t>2.36330234078045</t>
-  </si>
-  <si>
-    <t>48.8675123568631</t>
-  </si>
-  <si>
-    <t>2.3747477503599</t>
-  </si>
-  <si>
-    <t>48.8652523948625</t>
-  </si>
-  <si>
-    <t>2.38050775608986</t>
-  </si>
-  <si>
-    <t>48.8641177000146</t>
-  </si>
-  <si>
-    <t>2.39853730570457</t>
-  </si>
-  <si>
-    <t>48.8650325635159</t>
-  </si>
-  <si>
-    <t>2.40875422118954</t>
-  </si>
-  <si>
-    <t>48.8645393719864</t>
-  </si>
-  <si>
-    <t>2.4070619733808</t>
-  </si>
-  <si>
-    <t>48.87656859808</t>
-  </si>
-  <si>
-    <t>2.40449818316887</t>
-  </si>
-  <si>
-    <t>48.8718433712749</t>
-  </si>
-  <si>
-    <t>2.40149679228792</t>
-  </si>
-  <si>
-    <t>48.8684648860667</t>
-  </si>
-  <si>
-    <t>2.34462409910279</t>
-  </si>
-  <si>
-    <t>48.8975256303301</t>
-  </si>
-  <si>
-    <t>2.34759605535164</t>
-  </si>
-  <si>
-    <t>48.8941244426855</t>
-  </si>
-  <si>
-    <t>2.34968154172248</t>
-  </si>
-  <si>
-    <t>48.8912804388966</t>
-  </si>
-  <si>
-    <t>2.34936580800484</t>
-  </si>
-  <si>
-    <t>48.8870788765196</t>
-  </si>
-  <si>
-    <t>2.35680878820541</t>
-  </si>
-  <si>
-    <t>48.8795917064621</t>
-  </si>
-  <si>
-    <t>2.35806459441865</t>
-  </si>
-  <si>
-    <t>48.8761629935184</t>
-  </si>
-  <si>
-    <t>2.35605174140158</t>
-  </si>
-  <si>
-    <t>48.8724469166474</t>
-  </si>
-  <si>
-    <t>2.35449161656383</t>
-  </si>
-  <si>
-    <t>48.8696235816895</t>
-  </si>
-  <si>
-    <t>2.34897619687911</t>
-  </si>
-  <si>
-    <t>48.8637030110762</t>
-  </si>
-  <si>
-    <t>2.34612732517368</t>
-  </si>
-  <si>
-    <t>48.8625048393913</t>
-  </si>
-  <si>
-    <t>2.34723223493191</t>
-  </si>
-  <si>
-    <t>48.8549338481585</t>
-  </si>
-  <si>
-    <t>2.34399179903329</t>
-  </si>
-  <si>
-    <t>48.8535940766199</t>
-  </si>
-  <si>
-    <t>2.34069229106652</t>
-  </si>
-  <si>
-    <t>48.8520245535667</t>
-  </si>
-  <si>
-    <t>2.33394781079819</t>
-  </si>
-  <si>
-    <t>48.8535745628742</t>
-  </si>
-  <si>
-    <t>2.33061195308154</t>
-  </si>
-  <si>
-    <t>48.8512086266185</t>
-  </si>
-  <si>
-    <t>2.32705481506631</t>
-  </si>
-  <si>
-    <t>48.8470066506411</t>
-  </si>
-  <si>
-    <t>2.323989185205</t>
-  </si>
-  <si>
-    <t>48.8438236103062</t>
-  </si>
-  <si>
-    <t>2.3288628540691</t>
-  </si>
-  <si>
-    <t>48.8420523223441</t>
-  </si>
-  <si>
-    <t>2.33046699371987</t>
-  </si>
-  <si>
-    <t>48.8391563585773</t>
-  </si>
-  <si>
-    <t>2.33201883521639</t>
-  </si>
-  <si>
-    <t>48.833948692744</t>
-  </si>
-  <si>
-    <t>2.32988764040842</t>
-  </si>
-  <si>
-    <t>48.8313375846232</t>
-  </si>
-  <si>
-    <t>2.32709323494845</t>
-  </si>
-  <si>
-    <t>48.8282010632709</t>
-  </si>
-  <si>
-    <t>2.3254932653821</t>
-  </si>
-  <si>
-    <t>48.8234163501918</t>
-  </si>
-  <si>
-    <t>2.39212297232815</t>
-  </si>
-  <si>
-    <t>48.8884592103989</t>
-  </si>
-  <si>
-    <t>2.38665201675988</t>
-  </si>
-  <si>
-    <t>48.886915952247</t>
-  </si>
-  <si>
-    <t>2.37939098935239</t>
-  </si>
-  <si>
-    <t>48.8851338471378</t>
-  </si>
-  <si>
-    <t>2.36102390204892</t>
-  </si>
-  <si>
-    <t>48.8706209253172</t>
-  </si>
-  <si>
-    <t>2.36815584539455</t>
-  </si>
-  <si>
-    <t>48.8647770975732</t>
-  </si>
-  <si>
-    <t>2.37181363047695</t>
-  </si>
-  <si>
-    <t>48.8598769369206</t>
-  </si>
-  <si>
-    <t>2.37019466858975</t>
-  </si>
-  <si>
-    <t>48.8562440537382</t>
-  </si>
-  <si>
-    <t>2.3658846507504</t>
-  </si>
-  <si>
-    <t>48.8464273245315</t>
-  </si>
-  <si>
-    <t>2.36417731069183</t>
-  </si>
-  <si>
-    <t>48.8434054085772</t>
-  </si>
-  <si>
-    <t>2.36072185971764</t>
-  </si>
-  <si>
-    <t>48.8385124457356</t>
-  </si>
-  <si>
-    <t>2.35874195669934</t>
-  </si>
-  <si>
-    <t>48.835542932801</t>
-  </si>
-  <si>
-    <t>2.35550159148148</t>
-  </si>
-  <si>
-    <t>48.8309657123443</t>
-  </si>
-  <si>
-    <t>2.29314613724863</t>
-  </si>
-  <si>
-    <t>48.871489411987</t>
-  </si>
-  <si>
-    <t>2.29003283760744</t>
-  </si>
-  <si>
-    <t>48.8668483424692</t>
-  </si>
-  <si>
-    <t>2.28749279696644</t>
-  </si>
-  <si>
-    <t>48.8634876640714</t>
-  </si>
-  <si>
-    <t>2.28583941888146</t>
-  </si>
-  <si>
-    <t>48.8575150886722</t>
-  </si>
-  <si>
-    <t>2.2894007376346</t>
-  </si>
-  <si>
-    <t>48.8539253674278</t>
-  </si>
-  <si>
-    <t>2.29366372673104</t>
-  </si>
-  <si>
-    <t>48.8504116248585</t>
-  </si>
-  <si>
-    <t>2.29852572623663</t>
-  </si>
-  <si>
-    <t>48.8496308034842</t>
-  </si>
-  <si>
-    <t>2.30294172833761</t>
-  </si>
-  <si>
-    <t>48.8475431112453</t>
-  </si>
-  <si>
-    <t>2.30952961043039</t>
-  </si>
-  <si>
-    <t>48.8456476817025</t>
-  </si>
-  <si>
-    <t>2.31291468047394</t>
-  </si>
-  <si>
-    <t>48.842528386595</t>
-  </si>
-  <si>
-    <t>2.3252865779433</t>
-  </si>
-  <si>
-    <t>48.84090350075</t>
-  </si>
-  <si>
-    <t>2.33715437092501</t>
-  </si>
-  <si>
-    <t>48.8329160052708</t>
-  </si>
-  <si>
-    <t>2.3434382366787</t>
-  </si>
-  <si>
-    <t>48.8311159466681</t>
-  </si>
-  <si>
-    <t>2.35061122592617</t>
-  </si>
-  <si>
-    <t>48.829860012364</t>
-  </si>
-  <si>
-    <t>2.36280417159351</t>
-  </si>
-  <si>
-    <t>48.8332352787279</t>
-  </si>
-  <si>
-    <t>2.36808128297274</t>
-  </si>
-  <si>
-    <t>48.8349630811609</t>
-  </si>
-  <si>
-    <t>2.37276624894817</t>
-  </si>
-  <si>
-    <t>48.8370742696613</t>
-  </si>
-  <si>
-    <t>2.37946307018526</t>
-  </si>
-  <si>
-    <t>48.8401760271736</t>
-  </si>
-  <si>
-    <t>2.38959977007981</t>
-  </si>
-  <si>
-    <t>48.8390365273806</t>
-  </si>
-  <si>
-    <t>2.39614862848937</t>
-  </si>
-  <si>
-    <t>48.8394340071049</t>
-  </si>
-  <si>
-    <t>2.40086713199526</t>
-  </si>
-  <si>
-    <t>48.8414273312853</t>
-  </si>
-  <si>
-    <t>2.40127453882237</t>
-  </si>
-  <si>
-    <t>48.8451032465536</t>
-  </si>
-  <si>
-    <t>2.38586903314334</t>
-  </si>
-  <si>
-    <t>48.8978026914078</t>
-  </si>
-  <si>
-    <t>2.38229155716463</t>
-  </si>
-  <si>
-    <t>48.8946726591084</t>
-  </si>
-  <si>
-    <t>2.37693573698238</t>
-  </si>
-  <si>
-    <t>48.8908857579809</t>
-  </si>
-  <si>
-    <t>2.3736694647432</t>
-  </si>
-  <si>
-    <t>48.8881572611178</t>
-  </si>
-  <si>
-    <t>2.36442486249368</t>
-  </si>
-  <si>
-    <t>48.881206210878</t>
-  </si>
-  <si>
-    <t>2.36201793551061</t>
-  </si>
-  <si>
-    <t>48.8784414547844</t>
-  </si>
-  <si>
-    <t>2.34873975139007</t>
-  </si>
-  <si>
-    <t>48.8771648483022</t>
-  </si>
-  <si>
-    <t>2.34444630970227</t>
-  </si>
-  <si>
-    <t>48.8759632841275</t>
-  </si>
-  <si>
-    <t>2.34015055970637</t>
-  </si>
-  <si>
-    <t>48.8749594050929</t>
-  </si>
-  <si>
-    <t>2.3337385944087</t>
-  </si>
-  <si>
-    <t>48.8731342048266</t>
-  </si>
-  <si>
-    <t>2.33462360600492</t>
-  </si>
-  <si>
-    <t>48.8657555264287</t>
-  </si>
-  <si>
-    <t>2.34177674914854</t>
-  </si>
-  <si>
-    <t>48.8585463383202</t>
-  </si>
-  <si>
-    <t>2.3573766690444</t>
-  </si>
-  <si>
-    <t>48.8534598594796</t>
-  </si>
-  <si>
-    <t>2.36185316969725</t>
-  </si>
-  <si>
-    <t>48.8512714074456</t>
-  </si>
-  <si>
-    <t>2.35493167182323</t>
-  </si>
-  <si>
-    <t>48.8461978906888</t>
-  </si>
-  <si>
-    <t>2.35215486857877</t>
-  </si>
-  <si>
-    <t>48.8426663846946</t>
-  </si>
-  <si>
-    <t>2.3516265726055</t>
-  </si>
-  <si>
-    <t>48.8402262475657</t>
-  </si>
-  <si>
-    <t>2.35241680189827</t>
-  </si>
-  <si>
-    <t>48.8358416213962</t>
-  </si>
-  <si>
-    <t>2.35731843921319</t>
-  </si>
-  <si>
-    <t>48.8261368608053</t>
-  </si>
-  <si>
-    <t>2.35841294615594</t>
-  </si>
-  <si>
-    <t>48.8221495051266</t>
-  </si>
-  <si>
-    <t>2.35952973310717</t>
-  </si>
-  <si>
-    <t>48.8191065956103</t>
-  </si>
-  <si>
-    <t>2.36467859404946</t>
-  </si>
-  <si>
-    <t>48.8200559281997</t>
-  </si>
-  <si>
-    <t>2.36951125431949</t>
-  </si>
-  <si>
-    <t>48.8214890346144</t>
-  </si>
-  <si>
-    <t>2.37412487118754</t>
-  </si>
-  <si>
-    <t>48.8807896620271</t>
-  </si>
-  <si>
-    <t>2.38156984208801</t>
-  </si>
-  <si>
-    <t>48.8784990874506</t>
-  </si>
-  <si>
-    <t>2.38890095131574</t>
-  </si>
-  <si>
-    <t>48.8795349903204</t>
-  </si>
-  <si>
-    <t>2.3931393703605</t>
-  </si>
-  <si>
-    <t>48.8767236610252</t>
-  </si>
-  <si>
-    <t>2.39858077069353</t>
-  </si>
-  <si>
-    <t>48.8801595797163</t>
-  </si>
-  <si>
-    <t>2.39322847122749</t>
-  </si>
-  <si>
-    <t>48.8819492139726</t>
-  </si>
-  <si>
-    <t>2.2783626618092</t>
-  </si>
-  <si>
-    <t>48.8366678938828</t>
-  </si>
-  <si>
-    <t>2.28224195985507</t>
-  </si>
-  <si>
-    <t>48.8386608627116</t>
-  </si>
-  <si>
-    <t>2.28791843112456</t>
-  </si>
-  <si>
-    <t>48.841024160045</t>
-  </si>
-  <si>
-    <t>2.29184722036797</t>
-  </si>
-  <si>
-    <t>48.8426843338484</t>
-  </si>
-  <si>
-    <t>2.29379684219286</t>
-  </si>
-  <si>
-    <t>48.8446115114202</t>
-  </si>
-  <si>
-    <t>2.30634568382008</t>
-  </si>
-  <si>
-    <t>48.8549196596389</t>
-  </si>
-  <si>
-    <t>2.31047353593698</t>
-  </si>
-  <si>
-    <t>48.8577270225864</t>
-  </si>
-  <si>
-    <t>2.31463266044452</t>
-  </si>
-  <si>
-    <t>48.861092010433</t>
-  </si>
-  <si>
-    <t>2.32581004879328</t>
-  </si>
-  <si>
-    <t>48.8705446757682</t>
-  </si>
-  <si>
-    <t>2.33859122153854</t>
-  </si>
-  <si>
-    <t>48.8721358693699</t>
-  </si>
-  <si>
-    <t>2.34320726640509</t>
-  </si>
-  <si>
-    <t>48.8715047688147</t>
-  </si>
-  <si>
-    <t>2.34848136571839</t>
-  </si>
-  <si>
-    <t>48.8705712985549</t>
-  </si>
-  <si>
-    <t>2.3667452977427</t>
-  </si>
-  <si>
-    <t>48.8630698825026</t>
-  </si>
-  <si>
-    <t>2.36726153971727</t>
-  </si>
-  <si>
-    <t>48.8609681448082</t>
-  </si>
-  <si>
-    <t>2.36809508538599</t>
-  </si>
-  <si>
-    <t>48.8570873668721</t>
-  </si>
-  <si>
-    <t>2.37614122331859</t>
-  </si>
-  <si>
-    <t>48.8513377658502</t>
-  </si>
-  <si>
-    <t>2.38402856638311</t>
-  </si>
-  <si>
-    <t>48.8501105431855</t>
-  </si>
-  <si>
-    <t>2.39040001363536</t>
-  </si>
-  <si>
-    <t>48.8440050747607</t>
-  </si>
-  <si>
-    <t>2.402366739988</t>
-  </si>
-  <si>
-    <t>48.8370774300875</t>
-  </si>
-  <si>
-    <t>2.40587391298756</t>
-  </si>
-  <si>
-    <t>48.8350173731456</t>
-  </si>
-  <si>
-    <t>2.40251187285007</t>
-  </si>
-  <si>
-    <t>48.8334492219311</t>
-  </si>
-  <si>
-    <t>2.25704619292215</t>
-  </si>
-  <si>
-    <t>48.8379584046712</t>
-  </si>
-  <si>
-    <t>2.25980084514434</t>
-  </si>
-  <si>
-    <t>48.8425802753283</t>
-  </si>
-  <si>
-    <t>2.2615119169052</t>
-  </si>
-  <si>
-    <t>48.844911226615</t>
-  </si>
-  <si>
-    <t>2.26398952533333</t>
-  </si>
-  <si>
-    <t>48.8479753532281</t>
-  </si>
-  <si>
-    <t>2.26793329164707</t>
-  </si>
-  <si>
-    <t>48.8524334177774</t>
-  </si>
-  <si>
-    <t>2.26994815793463</t>
-  </si>
-  <si>
-    <t>48.8555035574475</t>
-  </si>
-  <si>
-    <t>2.27409624466972</t>
-  </si>
-  <si>
-    <t>48.8580919659505</t>
-  </si>
-  <si>
-    <t>2.27788589795906</t>
-  </si>
-  <si>
-    <t>48.8639517079318</t>
-  </si>
-  <si>
-    <t>2.29386422568227</t>
-  </si>
-  <si>
-    <t>48.8647800213093</t>
-  </si>
-  <si>
-    <t>2.30110435239267</t>
-  </si>
-  <si>
-    <t>48.8646471469577</t>
-  </si>
-  <si>
-    <t>2.31013720568782</t>
-  </si>
-  <si>
-    <t>48.8721551301294</t>
-  </si>
-  <si>
-    <t>2.31601069312102</t>
-  </si>
-  <si>
-    <t>48.8734479148472</t>
-  </si>
-  <si>
-    <t>2.3210135978086</t>
-  </si>
-  <si>
-    <t>48.8745466119868</t>
-  </si>
-  <si>
-    <t>2.37388053821155</t>
-  </si>
-  <si>
-    <t>48.861416656961</t>
-  </si>
-  <si>
-    <t>2.3800316941488</t>
-  </si>
-  <si>
-    <t>48.8576624334379</t>
-  </si>
-  <si>
-    <t>2.38478239644889</t>
-  </si>
-  <si>
-    <t>48.8549394425003</t>
-  </si>
-  <si>
-    <t>2.38910470503224</t>
-  </si>
-  <si>
-    <t>48.8522140723837</t>
-  </si>
-  <si>
-    <t>2.40117076936841</t>
-  </si>
-  <si>
-    <t>48.8517624388841</t>
-  </si>
-  <si>
-    <t>2.40603854479805</t>
-  </si>
-  <si>
-    <t>48.8527310195318</t>
-  </si>
-  <si>
-    <t>2.41071815402749</t>
-  </si>
-  <si>
-    <t>48.8534826302583</t>
-  </si>
-  <si>
-    <t>2.35132800167318</t>
-  </si>
-  <si>
-    <t>48.8467000343149</t>
-  </si>
-  <si>
-    <t>2.34828041316949</t>
-  </si>
-  <si>
-    <t>48.8501954651213</t>
-  </si>
-  <si>
-    <t>2.34489630121208</t>
-  </si>
-  <si>
-    <t>48.8510268759263</t>
-  </si>
-  <si>
-    <t>2.33514281934647</t>
-  </si>
-  <si>
-    <t>48.8528437373513</t>
-  </si>
-  <si>
-    <t>2.32685966312174</t>
-  </si>
-  <si>
-    <t>48.8515653054432</t>
-  </si>
-  <si>
-    <t>2.32135124235473</t>
-  </si>
-  <si>
-    <t>48.8488945691107</t>
-  </si>
-  <si>
-    <t>2.31652121945652</t>
-  </si>
-  <si>
-    <t>48.8470098926637</t>
-  </si>
-  <si>
-    <t>2.30713784940338</t>
-  </si>
-  <si>
-    <t>48.8471672690468</t>
-  </si>
-  <si>
-    <t>2.29501899714355</t>
-  </si>
-  <si>
-    <t>48.8470380127569</t>
-  </si>
-  <si>
-    <t>2.28562101336672</t>
-  </si>
-  <si>
-    <t>48.8466045314492</t>
-  </si>
-  <si>
-    <t>2.27800949652736</t>
-  </si>
-  <si>
-    <t>48.846181105275</t>
-  </si>
-  <si>
-    <t>2.26911138902189</t>
-  </si>
-  <si>
-    <t>48.8471433605089</t>
-  </si>
-  <si>
-    <t>2.25828074459554</t>
-  </si>
-  <si>
-    <t>48.847904122681</t>
-  </si>
-  <si>
-    <t>2.26690547594029</t>
-  </si>
-  <si>
-    <t>48.8450882982306</t>
-  </si>
-  <si>
-    <t>2.27306412637283</t>
-  </si>
-  <si>
-    <t>48.8470775063978</t>
-  </si>
-  <si>
-    <t>2.35327394859477</t>
-  </si>
-  <si>
-    <t>48.8611901560022</t>
-  </si>
-  <si>
-    <t>2.3707644347484</t>
-  </si>
-  <si>
-    <t>48.8700070168905</t>
-  </si>
-  <si>
-    <t>2.38520291556953</t>
-  </si>
-  <si>
-    <t>48.8738187892325</t>
-  </si>
-  <si>
-    <t>2.3893253789101</t>
-  </si>
-  <si>
-    <t>48.8752473476934</t>
-  </si>
-  <si>
-    <t>2.39864808996059</t>
-  </si>
-  <si>
-    <t>48.8755103832327</t>
-  </si>
-  <si>
-    <t>2.35924854231036</t>
-  </si>
-  <si>
-    <t>48.8974024217225</t>
-  </si>
-  <si>
-    <t>2.35980847808402</t>
-  </si>
-  <si>
-    <t>48.8905795776193</t>
-  </si>
-  <si>
-    <t>2.34432002938048</t>
-  </si>
-  <si>
-    <t>48.892492267254</t>
-  </si>
-  <si>
-    <t>2.33858382438319</t>
-  </si>
-  <si>
-    <t>48.8896818090189</t>
-  </si>
-  <si>
-    <t>2.33839463522091</t>
-  </si>
-  <si>
-    <t>48.8843927170434</t>
-  </si>
-  <si>
-    <t>2.33757064037967</t>
-  </si>
-  <si>
-    <t>48.8784165939537</t>
-  </si>
-  <si>
-    <t>2.33787361922264</t>
-  </si>
-  <si>
-    <t>48.8760350303326</t>
-  </si>
-  <si>
-    <t>2.33304917241824</t>
-  </si>
-  <si>
-    <t>48.8763365063593</t>
-  </si>
-  <si>
-    <t>2.32057583664755</t>
-  </si>
-  <si>
-    <t>48.8610719385779</t>
-  </si>
-  <si>
-    <t>2.32307596425154</t>
-  </si>
-  <si>
-    <t>48.8585319487804</t>
-  </si>
-  <si>
-    <t>2.32569989845241</t>
-  </si>
-  <si>
-    <t>48.8558846775373</t>
-  </si>
-  <si>
-    <t>2.32778718478739</t>
-  </si>
-  <si>
-    <t>48.8483328280924</t>
-  </si>
-  <si>
-    <t>2.32869580549871</t>
-  </si>
-  <si>
-    <t>48.8450777446896</t>
-  </si>
-  <si>
-    <t>2.31755123561703</t>
-  </si>
-  <si>
-    <t>48.8443176825861</t>
-  </si>
-  <si>
-    <t>2.30798338057685</t>
-  </si>
-  <si>
-    <t>48.8414117274667</t>
-  </si>
-  <si>
-    <t>2.30107451565455</t>
-  </si>
-  <si>
-    <t>48.8394379171286</t>
-  </si>
-  <si>
-    <t>2.29639138648092</t>
-  </si>
-  <si>
-    <t>48.8371350528567</t>
-  </si>
-  <si>
-    <t>2.28774170914233</t>
-  </si>
-  <si>
-    <t>48.8325195315652</t>
-  </si>
-  <si>
-    <t>2.30533238665747</t>
-  </si>
-  <si>
-    <t>48.8276134630559</t>
-  </si>
-  <si>
-    <t>2.31386048934431</t>
-  </si>
-  <si>
-    <t>48.8317503621191</t>
-  </si>
-  <si>
-    <t>2.3183937066147</t>
-  </si>
-  <si>
-    <t>48.8340786788266</t>
-  </si>
-  <si>
-    <t>2.32235399677881</t>
-  </si>
-  <si>
-    <t>48.8385260840742</t>
-  </si>
-  <si>
-    <t>2.31428594618056</t>
-  </si>
-  <si>
-    <t>48.8512915499903</t>
-  </si>
-  <si>
-    <t>2.31511393050966</t>
-  </si>
-  <si>
-    <t>48.8566249817984</t>
-  </si>
-  <si>
-    <t>2.32685267123976</t>
-  </si>
-  <si>
-    <t>48.8795349364277</t>
-  </si>
-  <si>
-    <t>2.32571411716613</t>
-  </si>
-  <si>
-    <t>48.887433655789</t>
-  </si>
-  <si>
-    <t>2.32748325862612</t>
-  </si>
-  <si>
-    <t>48.8930014410137</t>
-  </si>
-  <si>
-    <t>2.32904834074465</t>
-  </si>
-  <si>
-    <t>48.8974978363796</t>
-  </si>
-  <si>
-    <t>2.31990481720936</t>
-  </si>
-  <si>
-    <t>48.8906518702421</t>
-  </si>
-  <si>
-    <t>2.31320835075881</t>
-  </si>
-  <si>
-    <t>48.8944312870695</t>
-  </si>
-  <si>
-    <t>2.31536814050515</t>
-  </si>
-  <si>
-    <t>48.888103402695</t>
-  </si>
-  <si>
-    <t>2.38661785021406</t>
-  </si>
-  <si>
-    <t>48.8333193028951</t>
-  </si>
-  <si>
-    <t>2.3764873711683</t>
-  </si>
-  <si>
-    <t>48.8299257649806</t>
-  </si>
-  <si>
-    <t>2.36692312153081</t>
-  </si>
-  <si>
-    <t>48.827123440481</t>
+    <t>Franklin D, Roosevelt</t>
   </si>
 </sst>
 </file>
@@ -2705,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2828,11 +1358,11 @@
       <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D2" t="s">
-        <v>283</v>
+      <c r="C2">
+        <v>2.2825838473615501</v>
+      </c>
+      <c r="D2">
+        <v>48.878162652696503</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -2845,11 +1375,11 @@
       <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D3" t="s">
-        <v>285</v>
+      <c r="C3">
+        <v>2.2894354185422099</v>
+      </c>
+      <c r="D3">
+        <v>48.875667375651702</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2865,11 +1395,11 @@
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D4" t="s">
-        <v>287</v>
+      <c r="C4">
+        <v>2.2958117752357601</v>
+      </c>
+      <c r="D4">
+        <v>48.874994575222999</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -2885,11 +1415,11 @@
       <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D5" t="s">
-        <v>289</v>
+      <c r="C5">
+        <v>2.3007597849789199</v>
+      </c>
+      <c r="D5">
+        <v>48.872037763641003</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -2903,13 +1433,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D6" t="s">
-        <v>291</v>
+        <v>281</v>
+      </c>
+      <c r="C6">
+        <v>2.3094881923371098</v>
+      </c>
+      <c r="D6">
+        <v>48.868724887050497</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -2923,13 +1453,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>292</v>
-      </c>
-      <c r="D7" t="s">
-        <v>293</v>
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>2.3144645013227798</v>
+      </c>
+      <c r="D7">
+        <v>48.867656291245702</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -2943,13 +1473,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>294</v>
-      </c>
-      <c r="D8" t="s">
-        <v>295</v>
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>2.3229614457982599</v>
+      </c>
+      <c r="D8">
+        <v>48.866557992001603</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -2963,13 +1493,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>296</v>
-      </c>
-      <c r="D9" t="s">
-        <v>297</v>
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>2.3296780947116398</v>
+      </c>
+      <c r="D9">
+        <v>48.864477838366497</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -2983,13 +1513,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>298</v>
-      </c>
-      <c r="D10" t="s">
-        <v>299</v>
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>2.33645436775425</v>
+      </c>
+      <c r="D10">
+        <v>48.862222264625998</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -3003,13 +1533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>300</v>
-      </c>
-      <c r="D11" t="s">
-        <v>301</v>
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>2.3409696232852699</v>
+      </c>
+      <c r="D11">
+        <v>48.860871211759502</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -3023,13 +1553,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>302</v>
-      </c>
-      <c r="D12" t="s">
-        <v>303</v>
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>2.3481609912345802</v>
+      </c>
+      <c r="D12">
+        <v>48.8569534598372</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -3043,13 +1573,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>304</v>
-      </c>
-      <c r="D13" t="s">
-        <v>305</v>
+        <v>46</v>
+      </c>
+      <c r="C13">
+        <v>2.3520676701391001</v>
+      </c>
+      <c r="D13">
+        <v>48.857352404237702</v>
       </c>
       <c r="E13">
         <v>11</v>
@@ -3063,13 +1593,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>306</v>
-      </c>
-      <c r="D14" t="s">
-        <v>307</v>
+        <v>47</v>
+      </c>
+      <c r="C14">
+        <v>2.3608852562751901</v>
+      </c>
+      <c r="D14">
+        <v>48.8551874206563</v>
       </c>
       <c r="E14">
         <v>12</v>
@@ -3083,13 +1613,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>308</v>
-      </c>
-      <c r="D15" t="s">
-        <v>309</v>
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <v>2.36871896103409</v>
+      </c>
+      <c r="D15">
+        <v>48.852054292549496</v>
       </c>
       <c r="E15">
         <v>13</v>
@@ -3103,13 +1633,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>310</v>
-      </c>
-      <c r="D16" t="s">
-        <v>311</v>
+        <v>49</v>
+      </c>
+      <c r="C16">
+        <v>2.3731565937891999</v>
+      </c>
+      <c r="D16">
+        <v>48.845683205787601</v>
       </c>
       <c r="E16">
         <v>14</v>
@@ -3123,13 +1653,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>312</v>
-      </c>
-      <c r="D17" t="s">
-        <v>313</v>
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>2.38720107040939</v>
+      </c>
+      <c r="D17">
+        <v>48.847212925749702</v>
       </c>
       <c r="E17">
         <v>15</v>
@@ -3143,13 +1673,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>314</v>
-      </c>
-      <c r="D18" t="s">
-        <v>315</v>
+        <v>51</v>
+      </c>
+      <c r="C18">
+        <v>2.3958439887237399</v>
+      </c>
+      <c r="D18">
+        <v>48.848084289025799</v>
       </c>
       <c r="E18">
         <v>16</v>
@@ -3163,13 +1693,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" t="s">
-        <v>316</v>
-      </c>
-      <c r="D19" t="s">
-        <v>317</v>
+        <v>52</v>
+      </c>
+      <c r="C19">
+        <v>2.4108049967015002</v>
+      </c>
+      <c r="D19">
+        <v>48.847007730140398</v>
       </c>
       <c r="E19">
         <v>17</v>
@@ -3183,13 +1713,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>318</v>
-      </c>
-      <c r="D20" t="s">
-        <v>319</v>
+        <v>53</v>
+      </c>
+      <c r="C20">
+        <v>2.4405400954061101</v>
+      </c>
+      <c r="D20">
+        <v>48.844317513365297</v>
       </c>
       <c r="E20">
         <v>18</v>
@@ -3200,13 +1730,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>320</v>
-      </c>
-      <c r="D21" t="s">
-        <v>321</v>
+        <v>54</v>
+      </c>
+      <c r="C21">
+        <v>2.27763271754527</v>
+      </c>
+      <c r="D21">
+        <v>48.871396794300303</v>
       </c>
       <c r="H21">
         <v>21</v>
@@ -3217,13 +1747,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>322</v>
-      </c>
-      <c r="D22" t="s">
-        <v>323</v>
+        <v>55</v>
+      </c>
+      <c r="C22">
+        <v>2.2858287659129801</v>
+      </c>
+      <c r="D22">
+        <v>48.869926081462602</v>
       </c>
       <c r="G22">
         <v>20</v>
@@ -3237,13 +1767,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
-        <v>324</v>
-      </c>
-      <c r="D23" t="s">
-        <v>325</v>
+        <v>56</v>
+      </c>
+      <c r="C23">
+        <v>2.2981132886172402</v>
+      </c>
+      <c r="D23">
+        <v>48.8782277299144</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -3257,13 +1787,13 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>326</v>
-      </c>
-      <c r="D24" t="s">
-        <v>327</v>
+        <v>57</v>
+      </c>
+      <c r="C24">
+        <v>2.30329436242521</v>
+      </c>
+      <c r="D24">
+        <v>48.879265253165102</v>
       </c>
       <c r="G24">
         <v>23</v>
@@ -3277,13 +1807,13 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" t="s">
-        <v>328</v>
-      </c>
-      <c r="D25" t="s">
-        <v>329</v>
+        <v>58</v>
+      </c>
+      <c r="C25">
+        <v>2.3094129673746999</v>
+      </c>
+      <c r="D25">
+        <v>48.880568769178801</v>
       </c>
       <c r="G25">
         <v>24</v>
@@ -3297,13 +1827,13 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" t="s">
-        <v>330</v>
-      </c>
-      <c r="D26" t="s">
-        <v>331</v>
+        <v>59</v>
+      </c>
+      <c r="C26">
+        <v>2.3158150926463801</v>
+      </c>
+      <c r="D26">
+        <v>48.881073182127601</v>
       </c>
       <c r="G26">
         <v>25</v>
@@ -3317,13 +1847,13 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" t="s">
-        <v>332</v>
-      </c>
-      <c r="D27" t="s">
-        <v>333</v>
+        <v>60</v>
+      </c>
+      <c r="C27">
+        <v>2.32135917382297</v>
+      </c>
+      <c r="D27">
+        <v>48.882345817848098</v>
       </c>
       <c r="G27">
         <v>26</v>
@@ -3337,13 +1867,13 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" t="s">
-        <v>334</v>
-      </c>
-      <c r="D28" t="s">
-        <v>335</v>
+        <v>61</v>
+      </c>
+      <c r="C28">
+        <v>2.3279583280102201</v>
+      </c>
+      <c r="D28">
+        <v>48.883669087324698</v>
       </c>
       <c r="G28">
         <v>27</v>
@@ -3357,13 +1887,13 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" t="s">
-        <v>336</v>
-      </c>
-      <c r="D29" t="s">
-        <v>337</v>
+        <v>62</v>
+      </c>
+      <c r="C29">
+        <v>2.33248437543436</v>
+      </c>
+      <c r="D29">
+        <v>48.883766353529197</v>
       </c>
       <c r="G29">
         <v>28</v>
@@ -3377,13 +1907,13 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s">
-        <v>338</v>
-      </c>
-      <c r="D30" t="s">
-        <v>339</v>
+        <v>63</v>
+      </c>
+      <c r="C30">
+        <v>2.33721116470113</v>
+      </c>
+      <c r="D30">
+        <v>48.8820209311193</v>
       </c>
       <c r="G30">
         <v>29</v>
@@ -3397,13 +1927,13 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" t="s">
-        <v>340</v>
-      </c>
-      <c r="D31" t="s">
-        <v>341</v>
+        <v>64</v>
+      </c>
+      <c r="C31">
+        <v>2.3441548403302899</v>
+      </c>
+      <c r="D31">
+        <v>48.882868567895898</v>
       </c>
       <c r="G31">
         <v>30</v>
@@ -3417,13 +1947,13 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" t="s">
-        <v>342</v>
-      </c>
-      <c r="D32" t="s">
-        <v>343</v>
+        <v>65</v>
+      </c>
+      <c r="C32">
+        <v>2.3506070793550999</v>
+      </c>
+      <c r="D32">
+        <v>48.883776088608897</v>
       </c>
       <c r="G32">
         <v>31</v>
@@ -3437,13 +1967,13 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" t="s">
-        <v>344</v>
-      </c>
-      <c r="D33" t="s">
-        <v>345</v>
+        <v>66</v>
+      </c>
+      <c r="C33">
+        <v>2.3604041692741</v>
+      </c>
+      <c r="D33">
+        <v>48.884386409904799</v>
       </c>
       <c r="G33">
         <v>32</v>
@@ -3457,13 +1987,13 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" t="s">
-        <v>346</v>
-      </c>
-      <c r="D34" t="s">
-        <v>347</v>
+        <v>67</v>
+      </c>
+      <c r="C34">
+        <v>2.36577437055817</v>
+      </c>
+      <c r="D34">
+        <v>48.884320547921902</v>
       </c>
       <c r="G34">
         <v>33</v>
@@ -3477,13 +2007,13 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" t="s">
-        <v>348</v>
-      </c>
-      <c r="D35" t="s">
-        <v>349</v>
+        <v>68</v>
+      </c>
+      <c r="C35">
+        <v>2.3714389599856101</v>
+      </c>
+      <c r="D35">
+        <v>48.883023912481399</v>
       </c>
       <c r="G35">
         <v>34</v>
@@ -3497,13 +2027,13 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" t="s">
-        <v>350</v>
-      </c>
-      <c r="D36" t="s">
-        <v>351</v>
+        <v>69</v>
+      </c>
+      <c r="C36">
+        <v>2.3704675747938602</v>
+      </c>
+      <c r="D36">
+        <v>48.877649807573398</v>
       </c>
       <c r="G36">
         <v>35</v>
@@ -3517,13 +2047,13 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" t="s">
-        <v>352</v>
-      </c>
-      <c r="D37" t="s">
-        <v>353</v>
+        <v>70</v>
+      </c>
+      <c r="C37">
+        <v>2.3767355865572899</v>
+      </c>
+      <c r="D37">
+        <v>48.872286601164802</v>
       </c>
       <c r="G37">
         <v>36</v>
@@ -3537,13 +2067,13 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" t="s">
-        <v>354</v>
-      </c>
-      <c r="D38" t="s">
-        <v>355</v>
+        <v>71</v>
+      </c>
+      <c r="C38">
+        <v>2.38028898292719</v>
+      </c>
+      <c r="D38">
+        <v>48.869193344184303</v>
       </c>
       <c r="G38">
         <v>37</v>
@@ -3557,13 +2087,13 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" t="s">
-        <v>356</v>
-      </c>
-      <c r="D39" t="s">
-        <v>357</v>
+        <v>72</v>
+      </c>
+      <c r="C39">
+        <v>2.3834303882303001</v>
+      </c>
+      <c r="D39">
+        <v>48.8663901391973</v>
       </c>
       <c r="G39">
         <v>38</v>
@@ -3577,13 +2107,13 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" t="s">
-        <v>358</v>
-      </c>
-      <c r="D40" t="s">
-        <v>359</v>
+        <v>73</v>
+      </c>
+      <c r="C40">
+        <v>2.3875798912544499</v>
+      </c>
+      <c r="D40">
+        <v>48.862449843989303</v>
       </c>
       <c r="G40">
         <v>39</v>
@@ -3597,13 +2127,13 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" t="s">
-        <v>360</v>
-      </c>
-      <c r="D41" t="s">
-        <v>361</v>
+        <v>74</v>
+      </c>
+      <c r="C41">
+        <v>2.3904975967452899</v>
+      </c>
+      <c r="D41">
+        <v>48.858089427187601</v>
       </c>
       <c r="G41">
         <v>40</v>
@@ -3617,13 +2147,13 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" t="s">
-        <v>362</v>
-      </c>
-      <c r="D42" t="s">
-        <v>363</v>
+        <v>75</v>
+      </c>
+      <c r="C42">
+        <v>2.3947127337554801</v>
+      </c>
+      <c r="D42">
+        <v>48.856244677489201</v>
       </c>
       <c r="G42">
         <v>41</v>
@@ -3637,13 +2167,13 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" t="s">
-        <v>364</v>
-      </c>
-      <c r="D43" t="s">
-        <v>365</v>
+        <v>76</v>
+      </c>
+      <c r="C43">
+        <v>2.3981875566594</v>
+      </c>
+      <c r="D43">
+        <v>48.851648542649002</v>
       </c>
       <c r="G43">
         <v>42</v>
@@ -3657,13 +2187,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" t="s">
-        <v>366</v>
-      </c>
-      <c r="D44" t="s">
-        <v>367</v>
+        <v>77</v>
+      </c>
+      <c r="C44">
+        <v>2.2921124821588399</v>
+      </c>
+      <c r="D44">
+        <v>48.885652392185897</v>
       </c>
       <c r="J44">
         <v>46</v>
@@ -3674,13 +2204,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" t="s">
-        <v>368</v>
-      </c>
-      <c r="D45" t="s">
-        <v>369</v>
+        <v>78</v>
+      </c>
+      <c r="C45">
+        <v>2.2976831860125801</v>
+      </c>
+      <c r="D45">
+        <v>48.884844321791903</v>
       </c>
       <c r="I45">
         <v>45</v>
@@ -3694,13 +2224,13 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
-      </c>
-      <c r="C46" t="s">
-        <v>370</v>
-      </c>
-      <c r="D46" t="s">
-        <v>371</v>
+        <v>79</v>
+      </c>
+      <c r="C46">
+        <v>2.3046730875844301</v>
+      </c>
+      <c r="D46">
+        <v>48.883846389779201</v>
       </c>
       <c r="I46">
         <v>46</v>
@@ -3714,13 +2244,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" t="s">
-        <v>372</v>
-      </c>
-      <c r="D47" t="s">
-        <v>373</v>
+        <v>80</v>
+      </c>
+      <c r="C47">
+        <v>2.30948784696001</v>
+      </c>
+      <c r="D47">
+        <v>48.882840021629796</v>
       </c>
       <c r="I47">
         <v>47</v>
@@ -3734,13 +2264,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" t="s">
-        <v>374</v>
-      </c>
-      <c r="D48" t="s">
-        <v>375</v>
+        <v>81</v>
+      </c>
+      <c r="C48">
+        <v>2.3221859195205101</v>
+      </c>
+      <c r="D48">
+        <v>48.878753163096697</v>
       </c>
       <c r="I48">
         <v>26</v>
@@ -3754,13 +2284,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" t="s">
-        <v>376</v>
-      </c>
-      <c r="D49" t="s">
-        <v>377</v>
+        <v>82</v>
+      </c>
+      <c r="C49">
+        <v>2.3254883906726098</v>
+      </c>
+      <c r="D49">
+        <v>48.875381315059897</v>
       </c>
       <c r="I49">
         <v>50</v>
@@ -3774,13 +2304,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" t="s">
-        <v>378</v>
-      </c>
-      <c r="D50" t="s">
-        <v>379</v>
+        <v>83</v>
+      </c>
+      <c r="C50">
+        <v>2.3276511034187801</v>
+      </c>
+      <c r="D50">
+        <v>48.873666750997103</v>
       </c>
       <c r="I50">
         <v>51</v>
@@ -3794,13 +2324,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" t="s">
-        <v>380</v>
-      </c>
-      <c r="D51" t="s">
-        <v>381</v>
+        <v>84</v>
+      </c>
+      <c r="C51">
+        <v>2.33104728671124</v>
+      </c>
+      <c r="D51">
+        <v>48.871437428049198</v>
       </c>
       <c r="I51">
         <v>52</v>
@@ -3814,13 +2344,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" t="s">
-        <v>382</v>
-      </c>
-      <c r="D52" t="s">
-        <v>383</v>
+        <v>85</v>
+      </c>
+      <c r="C52">
+        <v>2.3363187355954902</v>
+      </c>
+      <c r="D52">
+        <v>48.869659096436202</v>
       </c>
       <c r="I52">
         <v>53</v>
@@ -3834,13 +2364,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53" t="s">
-        <v>384</v>
-      </c>
-      <c r="D53" t="s">
-        <v>385</v>
+        <v>86</v>
+      </c>
+      <c r="C53">
+        <v>2.3406653707110401</v>
+      </c>
+      <c r="D53">
+        <v>48.868756796707601</v>
       </c>
       <c r="I53">
         <v>54</v>
@@ -3854,13 +2384,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" t="s">
-        <v>386</v>
-      </c>
-      <c r="D54" t="s">
-        <v>387</v>
+        <v>87</v>
+      </c>
+      <c r="C54">
+        <v>2.3475538159377898</v>
+      </c>
+      <c r="D54">
+        <v>48.867346603345702</v>
       </c>
       <c r="I54">
         <v>55</v>
@@ -3874,13 +2404,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
-      </c>
-      <c r="C55" t="s">
-        <v>388</v>
-      </c>
-      <c r="D55" t="s">
-        <v>389</v>
+        <v>88</v>
+      </c>
+      <c r="C55">
+        <v>2.35205078710284</v>
+      </c>
+      <c r="D55">
+        <v>48.866381755803502</v>
       </c>
       <c r="I55">
         <v>56</v>
@@ -3894,13 +2424,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" t="s">
-        <v>390</v>
-      </c>
-      <c r="D56" t="s">
-        <v>391</v>
+        <v>89</v>
+      </c>
+      <c r="C56">
+        <v>2.35650814364354</v>
+      </c>
+      <c r="D56">
+        <v>48.865299611696798</v>
       </c>
       <c r="I56">
         <v>57</v>
@@ -3914,13 +2444,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57" t="s">
-        <v>392</v>
-      </c>
-      <c r="D57" t="s">
-        <v>393</v>
+        <v>90</v>
+      </c>
+      <c r="C57">
+        <v>2.3615612345263601</v>
+      </c>
+      <c r="D57">
+        <v>48.8667566284863</v>
       </c>
       <c r="I57">
         <v>58</v>
@@ -3934,13 +2464,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
-      </c>
-      <c r="C58" t="s">
-        <v>394</v>
-      </c>
-      <c r="D58" t="s">
-        <v>395</v>
+        <v>91</v>
+      </c>
+      <c r="C58">
+        <v>2.3633023407804501</v>
+      </c>
+      <c r="D58">
+        <v>48.867512356863102</v>
       </c>
       <c r="I58">
         <v>59</v>
@@ -3954,13 +2484,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>93</v>
-      </c>
-      <c r="C59" t="s">
-        <v>396</v>
-      </c>
-      <c r="D59" t="s">
-        <v>397</v>
+        <v>92</v>
+      </c>
+      <c r="C59">
+        <v>2.3747477503599002</v>
+      </c>
+      <c r="D59">
+        <v>48.865252394862502</v>
       </c>
       <c r="I59">
         <v>60</v>
@@ -3974,13 +2504,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" t="s">
-        <v>398</v>
-      </c>
-      <c r="D60" t="s">
-        <v>399</v>
+        <v>93</v>
+      </c>
+      <c r="C60">
+        <v>2.3805077560898602</v>
+      </c>
+      <c r="D60">
+        <v>48.864117700014603</v>
       </c>
       <c r="I60">
         <v>61</v>
@@ -3994,13 +2524,13 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" t="s">
-        <v>400</v>
-      </c>
-      <c r="D61" t="s">
-        <v>401</v>
+        <v>94</v>
+      </c>
+      <c r="C61">
+        <v>2.3985373057045698</v>
+      </c>
+      <c r="D61">
+        <v>48.865032563515904</v>
       </c>
       <c r="I61">
         <v>40</v>
@@ -4014,13 +2544,13 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
-      </c>
-      <c r="C62" t="s">
-        <v>402</v>
-      </c>
-      <c r="D62" t="s">
-        <v>403</v>
+        <v>95</v>
+      </c>
+      <c r="C62">
+        <v>2.4087542211895401</v>
+      </c>
+      <c r="D62">
+        <v>48.864539371986403</v>
       </c>
       <c r="I62">
         <v>64</v>
@@ -4031,13 +2561,13 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
-      </c>
-      <c r="C63" t="s">
-        <v>404</v>
-      </c>
-      <c r="D63" t="s">
-        <v>405</v>
+        <v>96</v>
+      </c>
+      <c r="C63">
+        <v>2.4070619733808001</v>
+      </c>
+      <c r="D63">
+        <v>48.876568598079999</v>
       </c>
       <c r="AH63">
         <v>67</v>
@@ -4048,13 +2578,13 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
-      </c>
-      <c r="C64" t="s">
-        <v>406</v>
-      </c>
-      <c r="D64" t="s">
-        <v>407</v>
+        <v>97</v>
+      </c>
+      <c r="C64">
+        <v>2.4044981831688701</v>
+      </c>
+      <c r="D64">
+        <v>48.871843371274899</v>
       </c>
       <c r="AG64">
         <v>66</v>
@@ -4068,13 +2598,13 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
-      </c>
-      <c r="C65" t="s">
-        <v>408</v>
-      </c>
-      <c r="D65" t="s">
-        <v>409</v>
+        <v>98</v>
+      </c>
+      <c r="C65">
+        <v>2.40149679228792</v>
+      </c>
+      <c r="D65">
+        <v>48.868464886066697</v>
       </c>
       <c r="AG65">
         <v>67</v>
@@ -4088,13 +2618,13 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
-      </c>
-      <c r="C66" t="s">
-        <v>410</v>
-      </c>
-      <c r="D66" t="s">
-        <v>411</v>
+        <v>99</v>
+      </c>
+      <c r="C66">
+        <v>2.34462409910279</v>
+      </c>
+      <c r="D66">
+        <v>48.897525630330101</v>
       </c>
       <c r="L66">
         <v>71</v>
@@ -4105,13 +2635,13 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
-      </c>
-      <c r="C67" t="s">
-        <v>412</v>
-      </c>
-      <c r="D67" t="s">
-        <v>413</v>
+        <v>100</v>
+      </c>
+      <c r="C67">
+        <v>2.34759605535164</v>
+      </c>
+      <c r="D67">
+        <v>48.894124442685502</v>
       </c>
       <c r="K67">
         <v>70</v>
@@ -4125,13 +2655,13 @@
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
-      </c>
-      <c r="C68" t="s">
-        <v>414</v>
-      </c>
-      <c r="D68" t="s">
-        <v>415</v>
+        <v>101</v>
+      </c>
+      <c r="C68">
+        <v>2.3496815417224801</v>
+      </c>
+      <c r="D68">
+        <v>48.891280438896601</v>
       </c>
       <c r="K68">
         <v>71</v>
@@ -4145,13 +2675,13 @@
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
-      </c>
-      <c r="C69" t="s">
-        <v>416</v>
-      </c>
-      <c r="D69" t="s">
-        <v>417</v>
+        <v>102</v>
+      </c>
+      <c r="C69">
+        <v>2.3493658080048401</v>
+      </c>
+      <c r="D69">
+        <v>48.887078876519602</v>
       </c>
       <c r="K69">
         <v>72</v>
@@ -4165,13 +2695,13 @@
         <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>104</v>
-      </c>
-      <c r="C70" t="s">
-        <v>418</v>
-      </c>
-      <c r="D70" t="s">
-        <v>419</v>
+        <v>103</v>
+      </c>
+      <c r="C70">
+        <v>2.3568087882054098</v>
+      </c>
+      <c r="D70">
+        <v>48.879591706462101</v>
       </c>
       <c r="K70">
         <v>32</v>
@@ -4185,13 +2715,13 @@
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>105</v>
-      </c>
-      <c r="C71" t="s">
-        <v>420</v>
-      </c>
-      <c r="D71" t="s">
-        <v>421</v>
+        <v>104</v>
+      </c>
+      <c r="C71">
+        <v>2.35806459441865</v>
+      </c>
+      <c r="D71">
+        <v>48.876162993518399</v>
       </c>
       <c r="K71">
         <v>75</v>
@@ -4205,13 +2735,13 @@
         <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>106</v>
-      </c>
-      <c r="C72" t="s">
-        <v>422</v>
-      </c>
-      <c r="D72" t="s">
-        <v>423</v>
+        <v>105</v>
+      </c>
+      <c r="C72">
+        <v>2.35605174140158</v>
+      </c>
+      <c r="D72">
+        <v>48.872446916647398</v>
       </c>
       <c r="K72">
         <v>76</v>
@@ -4225,13 +2755,13 @@
         <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>107</v>
-      </c>
-      <c r="C73" t="s">
-        <v>424</v>
-      </c>
-      <c r="D73" t="s">
-        <v>425</v>
+        <v>106</v>
+      </c>
+      <c r="C73">
+        <v>2.3544916165638301</v>
+      </c>
+      <c r="D73">
+        <v>48.869623581689503</v>
       </c>
       <c r="K73">
         <v>77</v>
@@ -4245,13 +2775,13 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>108</v>
-      </c>
-      <c r="C74" t="s">
-        <v>426</v>
-      </c>
-      <c r="D74" t="s">
-        <v>427</v>
+        <v>107</v>
+      </c>
+      <c r="C74">
+        <v>2.3489761968791099</v>
+      </c>
+      <c r="D74">
+        <v>48.863703011076197</v>
       </c>
       <c r="K74">
         <v>57</v>
@@ -4265,13 +2795,13 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>109</v>
-      </c>
-      <c r="C75" t="s">
-        <v>428</v>
-      </c>
-      <c r="D75" t="s">
-        <v>429</v>
+        <v>108</v>
+      </c>
+      <c r="C75">
+        <v>2.3461273251736801</v>
+      </c>
+      <c r="D75">
+        <v>48.862504839391299</v>
       </c>
       <c r="K75">
         <v>80</v>
@@ -4285,13 +2815,13 @@
         <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>110</v>
-      </c>
-      <c r="C76" t="s">
-        <v>430</v>
-      </c>
-      <c r="D76" t="s">
-        <v>431</v>
+        <v>109</v>
+      </c>
+      <c r="C76">
+        <v>2.3472322349319099</v>
+      </c>
+      <c r="D76">
+        <v>48.854933848158502</v>
       </c>
       <c r="K76">
         <v>11</v>
@@ -4305,13 +2835,13 @@
         <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>111</v>
-      </c>
-      <c r="C77" t="s">
-        <v>432</v>
-      </c>
-      <c r="D77" t="s">
-        <v>433</v>
+        <v>110</v>
+      </c>
+      <c r="C77">
+        <v>2.3439917990332901</v>
+      </c>
+      <c r="D77">
+        <v>48.853594076619899</v>
       </c>
       <c r="K77">
         <v>83</v>
@@ -4325,13 +2855,13 @@
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>112</v>
-      </c>
-      <c r="C78" t="s">
-        <v>434</v>
-      </c>
-      <c r="D78" t="s">
-        <v>435</v>
+        <v>111</v>
+      </c>
+      <c r="C78">
+        <v>2.34069229106652</v>
+      </c>
+      <c r="D78">
+        <v>48.8520245535667</v>
       </c>
       <c r="K78">
         <v>84</v>
@@ -4345,13 +2875,13 @@
         <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>113</v>
-      </c>
-      <c r="C79" t="s">
-        <v>436</v>
-      </c>
-      <c r="D79" t="s">
-        <v>437</v>
+        <v>112</v>
+      </c>
+      <c r="C79">
+        <v>2.3339478107981901</v>
+      </c>
+      <c r="D79">
+        <v>48.853574562874201</v>
       </c>
       <c r="K79">
         <v>85</v>
@@ -4365,13 +2895,13 @@
         <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>114</v>
-      </c>
-      <c r="C80" t="s">
-        <v>438</v>
-      </c>
-      <c r="D80" t="s">
-        <v>439</v>
+        <v>113</v>
+      </c>
+      <c r="C80">
+        <v>2.3306119530815401</v>
+      </c>
+      <c r="D80">
+        <v>48.851208626618501</v>
       </c>
       <c r="K80">
         <v>86</v>
@@ -4385,13 +2915,13 @@
         <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>115</v>
-      </c>
-      <c r="C81" t="s">
-        <v>440</v>
-      </c>
-      <c r="D81" t="s">
-        <v>441</v>
+        <v>114</v>
+      </c>
+      <c r="C81">
+        <v>2.32705481506631</v>
+      </c>
+      <c r="D81">
+        <v>48.847006650641099</v>
       </c>
       <c r="K81">
         <v>87</v>
@@ -4405,13 +2935,13 @@
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>116</v>
-      </c>
-      <c r="C82" t="s">
-        <v>442</v>
-      </c>
-      <c r="D82" t="s">
-        <v>443</v>
+        <v>115</v>
+      </c>
+      <c r="C82">
+        <v>2.3239891852049999</v>
+      </c>
+      <c r="D82">
+        <v>48.843823610306202</v>
       </c>
       <c r="K82">
         <v>88</v>
@@ -4425,13 +2955,13 @@
         <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
-      </c>
-      <c r="C83" t="s">
-        <v>444</v>
-      </c>
-      <c r="D83" t="s">
-        <v>445</v>
+        <v>116</v>
+      </c>
+      <c r="C83">
+        <v>2.3288628540690999</v>
+      </c>
+      <c r="D83">
+        <v>48.842052322344102</v>
       </c>
       <c r="K83">
         <v>89</v>
@@ -4445,13 +2975,13 @@
         <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>118</v>
-      </c>
-      <c r="C84" t="s">
-        <v>446</v>
-      </c>
-      <c r="D84" t="s">
-        <v>447</v>
+        <v>117</v>
+      </c>
+      <c r="C84">
+        <v>2.3304669937198699</v>
+      </c>
+      <c r="D84">
+        <v>48.839156358577299</v>
       </c>
       <c r="K84">
         <v>90</v>
@@ -4465,13 +2995,13 @@
         <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
-      </c>
-      <c r="C85" t="s">
-        <v>448</v>
-      </c>
-      <c r="D85" t="s">
-        <v>449</v>
+        <v>118</v>
+      </c>
+      <c r="C85">
+        <v>2.33201883521639</v>
+      </c>
+      <c r="D85">
+        <v>48.833948692744002</v>
       </c>
       <c r="K85">
         <v>91</v>
@@ -4485,13 +3015,13 @@
         <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>120</v>
-      </c>
-      <c r="C86" t="s">
-        <v>450</v>
-      </c>
-      <c r="D86" t="s">
-        <v>451</v>
+        <v>119</v>
+      </c>
+      <c r="C86">
+        <v>2.3298876404084199</v>
+      </c>
+      <c r="D86">
+        <v>48.831337584623199</v>
       </c>
       <c r="K86">
         <v>92</v>
@@ -4505,13 +3035,13 @@
         <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>121</v>
-      </c>
-      <c r="C87" t="s">
-        <v>452</v>
-      </c>
-      <c r="D87" t="s">
-        <v>453</v>
+        <v>120</v>
+      </c>
+      <c r="C87">
+        <v>2.3270932349484501</v>
+      </c>
+      <c r="D87">
+        <v>48.828201063270903</v>
       </c>
       <c r="K87">
         <v>93</v>
@@ -4525,13 +3055,13 @@
         <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>122</v>
-      </c>
-      <c r="C88" t="s">
-        <v>454</v>
-      </c>
-      <c r="D88" t="s">
-        <v>455</v>
+        <v>121</v>
+      </c>
+      <c r="C88">
+        <v>2.3254932653821001</v>
+      </c>
+      <c r="D88">
+        <v>48.823416350191799</v>
       </c>
       <c r="K88">
         <v>94</v>
@@ -4542,13 +3072,13 @@
         <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>123</v>
-      </c>
-      <c r="C89" t="s">
-        <v>456</v>
-      </c>
-      <c r="D89" t="s">
-        <v>457</v>
+        <v>122</v>
+      </c>
+      <c r="C89">
+        <v>2.3921229723281501</v>
+      </c>
+      <c r="D89">
+        <v>48.888459210398899</v>
       </c>
       <c r="N89">
         <v>97</v>
@@ -4559,13 +3089,13 @@
         <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>124</v>
-      </c>
-      <c r="C90" t="s">
-        <v>458</v>
-      </c>
-      <c r="D90" t="s">
-        <v>459</v>
+        <v>123</v>
+      </c>
+      <c r="C90">
+        <v>2.3866520167598799</v>
+      </c>
+      <c r="D90">
+        <v>48.886915952247001</v>
       </c>
       <c r="M90">
         <v>96</v>
@@ -4579,13 +3109,13 @@
         <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>125</v>
-      </c>
-      <c r="C91" t="s">
-        <v>460</v>
-      </c>
-      <c r="D91" t="s">
-        <v>461</v>
+        <v>124</v>
+      </c>
+      <c r="C91">
+        <v>2.3793909893523901</v>
+      </c>
+      <c r="D91">
+        <v>48.885133847137801</v>
       </c>
       <c r="M91">
         <v>97</v>
@@ -4599,13 +3129,13 @@
         <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>126</v>
-      </c>
-      <c r="C92" t="s">
-        <v>462</v>
-      </c>
-      <c r="D92" t="s">
-        <v>463</v>
+        <v>125</v>
+      </c>
+      <c r="C92">
+        <v>2.3610239020489199</v>
+      </c>
+      <c r="D92">
+        <v>48.870620925317198</v>
       </c>
       <c r="M92">
         <v>76</v>
@@ -4619,13 +3149,13 @@
         <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>127</v>
-      </c>
-      <c r="C93" t="s">
-        <v>464</v>
-      </c>
-      <c r="D93" t="s">
-        <v>465</v>
+        <v>126</v>
+      </c>
+      <c r="C93">
+        <v>2.3681558453945502</v>
+      </c>
+      <c r="D93">
+        <v>48.864777097573203</v>
       </c>
       <c r="M93">
         <v>60</v>
@@ -4639,13 +3169,13 @@
         <v>106</v>
       </c>
       <c r="B94" t="s">
-        <v>128</v>
-      </c>
-      <c r="C94" t="s">
-        <v>466</v>
-      </c>
-      <c r="D94" t="s">
-        <v>467</v>
+        <v>127</v>
+      </c>
+      <c r="C94">
+        <v>2.3718136304769502</v>
+      </c>
+      <c r="D94">
+        <v>48.8598769369206</v>
       </c>
       <c r="M94">
         <v>105</v>
@@ -4659,13 +3189,13 @@
         <v>107</v>
       </c>
       <c r="B95" t="s">
-        <v>129</v>
-      </c>
-      <c r="C95" t="s">
-        <v>468</v>
-      </c>
-      <c r="D95" t="s">
-        <v>469</v>
+        <v>128</v>
+      </c>
+      <c r="C95">
+        <v>2.3701946685897499</v>
+      </c>
+      <c r="D95">
+        <v>48.856244053738202</v>
       </c>
       <c r="M95">
         <v>106</v>
@@ -4679,13 +3209,13 @@
         <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>130</v>
-      </c>
-      <c r="C96" t="s">
-        <v>470</v>
-      </c>
-      <c r="D96" t="s">
-        <v>471</v>
+        <v>129</v>
+      </c>
+      <c r="C96">
+        <v>2.3658846507504001</v>
+      </c>
+      <c r="D96">
+        <v>48.846427324531497</v>
       </c>
       <c r="M96">
         <v>14</v>
@@ -4699,13 +3229,13 @@
         <v>110</v>
       </c>
       <c r="B97" t="s">
-        <v>131</v>
-      </c>
-      <c r="C97" t="s">
-        <v>472</v>
-      </c>
-      <c r="D97" t="s">
-        <v>473</v>
+        <v>130</v>
+      </c>
+      <c r="C97">
+        <v>2.3641773106918298</v>
+      </c>
+      <c r="D97">
+        <v>48.843405408577198</v>
       </c>
       <c r="M97">
         <v>109</v>
@@ -4719,13 +3249,13 @@
         <v>111</v>
       </c>
       <c r="B98" t="s">
-        <v>132</v>
-      </c>
-      <c r="C98" t="s">
-        <v>474</v>
-      </c>
-      <c r="D98" t="s">
-        <v>475</v>
+        <v>131</v>
+      </c>
+      <c r="C98">
+        <v>2.36072185971764</v>
+      </c>
+      <c r="D98">
+        <v>48.838512445735603</v>
       </c>
       <c r="M98">
         <v>110</v>
@@ -4739,13 +3269,13 @@
         <v>112</v>
       </c>
       <c r="B99" t="s">
-        <v>133</v>
-      </c>
-      <c r="C99" t="s">
-        <v>476</v>
-      </c>
-      <c r="D99" t="s">
-        <v>477</v>
+        <v>132</v>
+      </c>
+      <c r="C99">
+        <v>2.3587419566993399</v>
+      </c>
+      <c r="D99">
+        <v>48.835542932800998</v>
       </c>
       <c r="M99">
         <v>111</v>
@@ -4759,13 +3289,13 @@
         <v>113</v>
       </c>
       <c r="B100" t="s">
-        <v>134</v>
-      </c>
-      <c r="C100" t="s">
-        <v>478</v>
-      </c>
-      <c r="D100" t="s">
-        <v>479</v>
+        <v>133</v>
+      </c>
+      <c r="C100">
+        <v>2.3555015914814801</v>
+      </c>
+      <c r="D100">
+        <v>48.830965712344302</v>
       </c>
       <c r="M100">
         <v>112</v>
@@ -4776,13 +3306,13 @@
         <v>115</v>
       </c>
       <c r="B101" t="s">
-        <v>135</v>
-      </c>
-      <c r="C101" t="s">
-        <v>480</v>
-      </c>
-      <c r="D101" t="s">
-        <v>481</v>
+        <v>134</v>
+      </c>
+      <c r="C101">
+        <v>2.2931461372486299</v>
+      </c>
+      <c r="D101">
+        <v>48.871489411987</v>
       </c>
       <c r="O101">
         <v>3</v>
@@ -4796,13 +3326,13 @@
         <v>116</v>
       </c>
       <c r="B102" t="s">
-        <v>136</v>
-      </c>
-      <c r="C102" t="s">
-        <v>482</v>
-      </c>
-      <c r="D102" t="s">
-        <v>483</v>
+        <v>135</v>
+      </c>
+      <c r="C102">
+        <v>2.2900328376074399</v>
+      </c>
+      <c r="D102">
+        <v>48.866848342469197</v>
       </c>
       <c r="O102">
         <v>115</v>
@@ -4816,13 +3346,13 @@
         <v>117</v>
       </c>
       <c r="B103" t="s">
-        <v>137</v>
-      </c>
-      <c r="C103" t="s">
-        <v>484</v>
-      </c>
-      <c r="D103" t="s">
-        <v>485</v>
+        <v>136</v>
+      </c>
+      <c r="C103">
+        <v>2.2874927969664398</v>
+      </c>
+      <c r="D103">
+        <v>48.8634876640714</v>
       </c>
       <c r="O103">
         <v>116</v>
@@ -4836,13 +3366,13 @@
         <v>118</v>
       </c>
       <c r="B104" t="s">
-        <v>138</v>
-      </c>
-      <c r="C104" t="s">
-        <v>486</v>
-      </c>
-      <c r="D104" t="s">
-        <v>487</v>
+        <v>137</v>
+      </c>
+      <c r="C104">
+        <v>2.2858394188814599</v>
+      </c>
+      <c r="D104">
+        <v>48.857515088672201</v>
       </c>
       <c r="O104">
         <v>117</v>
@@ -4856,13 +3386,13 @@
         <v>119</v>
       </c>
       <c r="B105" t="s">
-        <v>139</v>
-      </c>
-      <c r="C105" t="s">
-        <v>488</v>
-      </c>
-      <c r="D105" t="s">
-        <v>489</v>
+        <v>138</v>
+      </c>
+      <c r="C105">
+        <v>2.2894007376346002</v>
+      </c>
+      <c r="D105">
+        <v>48.853925367427799</v>
       </c>
       <c r="O105">
         <v>118</v>
@@ -4876,13 +3406,13 @@
         <v>120</v>
       </c>
       <c r="B106" t="s">
-        <v>140</v>
-      </c>
-      <c r="C106" t="s">
-        <v>490</v>
-      </c>
-      <c r="D106" t="s">
-        <v>491</v>
+        <v>139</v>
+      </c>
+      <c r="C106">
+        <v>2.2936637267310398</v>
+      </c>
+      <c r="D106">
+        <v>48.850411624858502</v>
       </c>
       <c r="O106">
         <v>119</v>
@@ -4896,13 +3426,13 @@
         <v>121</v>
       </c>
       <c r="B107" t="s">
-        <v>141</v>
-      </c>
-      <c r="C107" t="s">
-        <v>492</v>
-      </c>
-      <c r="D107" t="s">
-        <v>493</v>
+        <v>140</v>
+      </c>
+      <c r="C107">
+        <v>2.2985257262366301</v>
+      </c>
+      <c r="D107">
+        <v>48.849630803484203</v>
       </c>
       <c r="O107">
         <v>120</v>
@@ -4916,13 +3446,13 @@
         <v>122</v>
       </c>
       <c r="B108" t="s">
-        <v>142</v>
-      </c>
-      <c r="C108" t="s">
-        <v>494</v>
-      </c>
-      <c r="D108" t="s">
-        <v>495</v>
+        <v>141</v>
+      </c>
+      <c r="C108">
+        <v>2.3029417283376099</v>
+      </c>
+      <c r="D108">
+        <v>48.847543111245301</v>
       </c>
       <c r="O108">
         <v>121</v>
@@ -4936,13 +3466,13 @@
         <v>123</v>
       </c>
       <c r="B109" t="s">
-        <v>143</v>
-      </c>
-      <c r="C109" t="s">
-        <v>496</v>
-      </c>
-      <c r="D109" t="s">
-        <v>497</v>
+        <v>142</v>
+      </c>
+      <c r="C109">
+        <v>2.3095296104303902</v>
+      </c>
+      <c r="D109">
+        <v>48.845647681702502</v>
       </c>
       <c r="O109">
         <v>122</v>
@@ -4956,13 +3486,13 @@
         <v>124</v>
       </c>
       <c r="B110" t="s">
-        <v>144</v>
-      </c>
-      <c r="C110" t="s">
-        <v>498</v>
-      </c>
-      <c r="D110" t="s">
-        <v>499</v>
+        <v>143</v>
+      </c>
+      <c r="C110">
+        <v>2.31291468047394</v>
+      </c>
+      <c r="D110">
+        <v>48.842528386594999</v>
       </c>
       <c r="O110">
         <v>123</v>
@@ -4976,13 +3506,13 @@
         <v>126</v>
       </c>
       <c r="B111" t="s">
-        <v>145</v>
-      </c>
-      <c r="C111" t="s">
-        <v>500</v>
-      </c>
-      <c r="D111" t="s">
-        <v>501</v>
+        <v>144</v>
+      </c>
+      <c r="C111">
+        <v>2.3252865779433001</v>
+      </c>
+      <c r="D111">
+        <v>48.840903500750002</v>
       </c>
       <c r="O111">
         <v>89</v>
@@ -4996,13 +3526,13 @@
         <v>129</v>
       </c>
       <c r="B112" t="s">
-        <v>146</v>
-      </c>
-      <c r="C112" t="s">
-        <v>502</v>
-      </c>
-      <c r="D112" t="s">
-        <v>503</v>
+        <v>145</v>
+      </c>
+      <c r="C112">
+        <v>2.3371543709250102</v>
+      </c>
+      <c r="D112">
+        <v>48.832916005270803</v>
       </c>
       <c r="O112">
         <v>92</v>
@@ -5016,13 +3546,13 @@
         <v>130</v>
       </c>
       <c r="B113" t="s">
-        <v>147</v>
-      </c>
-      <c r="C113" t="s">
-        <v>504</v>
-      </c>
-      <c r="D113" t="s">
-        <v>505</v>
+        <v>146</v>
+      </c>
+      <c r="C113">
+        <v>2.3434382366787001</v>
+      </c>
+      <c r="D113">
+        <v>48.831115946668099</v>
       </c>
       <c r="O113">
         <v>129</v>
@@ -5036,13 +3566,13 @@
         <v>131</v>
       </c>
       <c r="B114" t="s">
-        <v>148</v>
-      </c>
-      <c r="C114" t="s">
-        <v>506</v>
-      </c>
-      <c r="D114" t="s">
-        <v>507</v>
+        <v>147</v>
+      </c>
+      <c r="C114">
+        <v>2.35061122592617</v>
+      </c>
+      <c r="D114">
+        <v>48.829860012364001</v>
       </c>
       <c r="O114">
         <v>130</v>
@@ -5056,13 +3586,13 @@
         <v>133</v>
       </c>
       <c r="B115" t="s">
-        <v>149</v>
-      </c>
-      <c r="C115" t="s">
-        <v>508</v>
-      </c>
-      <c r="D115" t="s">
-        <v>509</v>
+        <v>148</v>
+      </c>
+      <c r="C115">
+        <v>2.3628041715935102</v>
+      </c>
+      <c r="D115">
+        <v>48.833235278727898</v>
       </c>
       <c r="O115">
         <v>113</v>
@@ -5076,13 +3606,13 @@
         <v>134</v>
       </c>
       <c r="B116" t="s">
-        <v>150</v>
-      </c>
-      <c r="C116" t="s">
-        <v>510</v>
-      </c>
-      <c r="D116" t="s">
-        <v>511</v>
+        <v>149</v>
+      </c>
+      <c r="C116">
+        <v>2.36808128297274</v>
+      </c>
+      <c r="D116">
+        <v>48.8349630811609</v>
       </c>
       <c r="O116">
         <v>133</v>
@@ -5096,13 +3626,13 @@
         <v>135</v>
       </c>
       <c r="B117" t="s">
-        <v>151</v>
-      </c>
-      <c r="C117" t="s">
-        <v>512</v>
-      </c>
-      <c r="D117" t="s">
-        <v>513</v>
+        <v>150</v>
+      </c>
+      <c r="C117">
+        <v>2.37276624894817</v>
+      </c>
+      <c r="D117">
+        <v>48.837074269661301</v>
       </c>
       <c r="O117">
         <v>134</v>
@@ -5116,13 +3646,13 @@
         <v>136</v>
       </c>
       <c r="B118" t="s">
-        <v>152</v>
-      </c>
-      <c r="C118" t="s">
-        <v>514</v>
-      </c>
-      <c r="D118" t="s">
-        <v>515</v>
+        <v>151</v>
+      </c>
+      <c r="C118">
+        <v>2.3794630701852602</v>
+      </c>
+      <c r="D118">
+        <v>48.840176027173598</v>
       </c>
       <c r="O118">
         <v>135</v>
@@ -5136,13 +3666,13 @@
         <v>137</v>
       </c>
       <c r="B119" t="s">
-        <v>153</v>
-      </c>
-      <c r="C119" t="s">
-        <v>516</v>
-      </c>
-      <c r="D119" t="s">
-        <v>517</v>
+        <v>152</v>
+      </c>
+      <c r="C119">
+        <v>2.3895997700798102</v>
+      </c>
+      <c r="D119">
+        <v>48.8390365273806</v>
       </c>
       <c r="O119">
         <v>136</v>
@@ -5156,13 +3686,13 @@
         <v>138</v>
       </c>
       <c r="B120" t="s">
-        <v>154</v>
-      </c>
-      <c r="C120" t="s">
-        <v>518</v>
-      </c>
-      <c r="D120" t="s">
-        <v>519</v>
+        <v>153</v>
+      </c>
+      <c r="C120">
+        <v>2.39614862848937</v>
+      </c>
+      <c r="D120">
+        <v>48.839434007104899</v>
       </c>
       <c r="O120">
         <v>137</v>
@@ -5176,13 +3706,13 @@
         <v>139</v>
       </c>
       <c r="B121" t="s">
-        <v>155</v>
-      </c>
-      <c r="C121" t="s">
-        <v>520</v>
-      </c>
-      <c r="D121" t="s">
-        <v>521</v>
+        <v>154</v>
+      </c>
+      <c r="C121">
+        <v>2.4008671319952599</v>
+      </c>
+      <c r="D121">
+        <v>48.841427331285303</v>
       </c>
       <c r="O121">
         <v>138</v>
@@ -5196,13 +3726,13 @@
         <v>140</v>
       </c>
       <c r="B122" t="s">
-        <v>156</v>
-      </c>
-      <c r="C122" t="s">
-        <v>522</v>
-      </c>
-      <c r="D122" t="s">
-        <v>523</v>
+        <v>155</v>
+      </c>
+      <c r="C122">
+        <v>2.4012745388223702</v>
+      </c>
+      <c r="D122">
+        <v>48.845103246553599</v>
       </c>
       <c r="O122">
         <v>139</v>
@@ -5216,13 +3746,13 @@
         <v>142</v>
       </c>
       <c r="B123" t="s">
-        <v>157</v>
-      </c>
-      <c r="C123" t="s">
-        <v>524</v>
-      </c>
-      <c r="D123" t="s">
-        <v>525</v>
+        <v>156</v>
+      </c>
+      <c r="C123">
+        <v>2.3858690331433401</v>
+      </c>
+      <c r="D123">
+        <v>48.897802691407797</v>
       </c>
       <c r="R123">
         <v>143</v>
@@ -5233,13 +3763,13 @@
         <v>143</v>
       </c>
       <c r="B124" t="s">
-        <v>158</v>
-      </c>
-      <c r="C124" t="s">
-        <v>526</v>
-      </c>
-      <c r="D124" t="s">
-        <v>527</v>
+        <v>157</v>
+      </c>
+      <c r="C124">
+        <v>2.3822915571646299</v>
+      </c>
+      <c r="D124">
+        <v>48.894672659108402</v>
       </c>
       <c r="Q124">
         <v>142</v>
@@ -5253,13 +3783,13 @@
         <v>144</v>
       </c>
       <c r="B125" t="s">
-        <v>159</v>
-      </c>
-      <c r="C125" t="s">
-        <v>528</v>
-      </c>
-      <c r="D125" t="s">
-        <v>529</v>
+        <v>158</v>
+      </c>
+      <c r="C125">
+        <v>2.37693573698238</v>
+      </c>
+      <c r="D125">
+        <v>48.890885757980897</v>
       </c>
       <c r="Q125">
         <v>143</v>
@@ -5273,13 +3803,13 @@
         <v>145</v>
       </c>
       <c r="B126" t="s">
-        <v>160</v>
-      </c>
-      <c r="C126" t="s">
-        <v>530</v>
-      </c>
-      <c r="D126" t="s">
-        <v>531</v>
+        <v>159</v>
+      </c>
+      <c r="C126">
+        <v>2.3736694647432</v>
+      </c>
+      <c r="D126">
+        <v>48.888157261117797</v>
       </c>
       <c r="Q126">
         <v>144</v>
@@ -5293,13 +3823,13 @@
         <v>147</v>
       </c>
       <c r="B127" t="s">
-        <v>161</v>
-      </c>
-      <c r="C127" t="s">
-        <v>532</v>
-      </c>
-      <c r="D127" t="s">
-        <v>533</v>
+        <v>160</v>
+      </c>
+      <c r="C127">
+        <v>2.3644248624936801</v>
+      </c>
+      <c r="D127">
+        <v>48.881206210877998</v>
       </c>
       <c r="Q127">
         <v>34</v>
@@ -5313,13 +3843,13 @@
         <v>148</v>
       </c>
       <c r="B128" t="s">
-        <v>162</v>
-      </c>
-      <c r="C128" t="s">
-        <v>534</v>
-      </c>
-      <c r="D128" t="s">
-        <v>535</v>
+        <v>161</v>
+      </c>
+      <c r="C128">
+        <v>2.3620179355106101</v>
+      </c>
+      <c r="D128">
+        <v>48.878441454784401</v>
       </c>
       <c r="Q128">
         <v>147</v>
@@ -5333,13 +3863,13 @@
         <v>150</v>
       </c>
       <c r="B129" t="s">
-        <v>163</v>
-      </c>
-      <c r="C129" t="s">
-        <v>536</v>
-      </c>
-      <c r="D129" t="s">
-        <v>537</v>
+        <v>162</v>
+      </c>
+      <c r="C129">
+        <v>2.3487397513900699</v>
+      </c>
+      <c r="D129">
+        <v>48.877164848302201</v>
       </c>
       <c r="Q129">
         <v>76</v>
@@ -5353,13 +3883,13 @@
         <v>151</v>
       </c>
       <c r="B130" t="s">
-        <v>164</v>
-      </c>
-      <c r="C130" t="s">
-        <v>538</v>
-      </c>
-      <c r="D130" t="s">
-        <v>539</v>
+        <v>163</v>
+      </c>
+      <c r="C130">
+        <v>2.3444463097022701</v>
+      </c>
+      <c r="D130">
+        <v>48.875963284127501</v>
       </c>
       <c r="Q130">
         <v>150</v>
@@ -5373,13 +3903,13 @@
         <v>152</v>
       </c>
       <c r="B131" t="s">
-        <v>165</v>
-      </c>
-      <c r="C131" t="s">
-        <v>540</v>
-      </c>
-      <c r="D131" t="s">
-        <v>541</v>
+        <v>164</v>
+      </c>
+      <c r="C131">
+        <v>2.3401505597063701</v>
+      </c>
+      <c r="D131">
+        <v>48.874959405092902</v>
       </c>
       <c r="Q131">
         <v>151</v>
@@ -5393,13 +3923,13 @@
         <v>153</v>
       </c>
       <c r="B132" t="s">
-        <v>166</v>
-      </c>
-      <c r="C132" t="s">
-        <v>542</v>
-      </c>
-      <c r="D132" t="s">
-        <v>543</v>
+        <v>165</v>
+      </c>
+      <c r="C132">
+        <v>2.3337385944086999</v>
+      </c>
+      <c r="D132">
+        <v>48.873134204826599</v>
       </c>
       <c r="Q132">
         <v>152</v>
@@ -5413,13 +3943,13 @@
         <v>155</v>
       </c>
       <c r="B133" t="s">
-        <v>167</v>
-      </c>
-      <c r="C133" t="s">
-        <v>544</v>
-      </c>
-      <c r="D133" t="s">
-        <v>545</v>
+        <v>166</v>
+      </c>
+      <c r="C133">
+        <v>2.3346236060049201</v>
+      </c>
+      <c r="D133">
+        <v>48.8657555264287</v>
       </c>
       <c r="Q133">
         <v>53</v>
@@ -5433,13 +3963,13 @@
         <v>157</v>
       </c>
       <c r="B134" t="s">
-        <v>168</v>
-      </c>
-      <c r="C134" t="s">
-        <v>546</v>
-      </c>
-      <c r="D134" t="s">
-        <v>547</v>
+        <v>167</v>
+      </c>
+      <c r="C134">
+        <v>2.3417767491485399</v>
+      </c>
+      <c r="D134">
+        <v>48.858546338320203</v>
       </c>
       <c r="Q134">
         <v>9</v>
@@ -5453,13 +3983,13 @@
         <v>159</v>
       </c>
       <c r="B135" t="s">
-        <v>169</v>
-      </c>
-      <c r="C135" t="s">
-        <v>548</v>
-      </c>
-      <c r="D135" t="s">
-        <v>549</v>
+        <v>168</v>
+      </c>
+      <c r="C135">
+        <v>2.3573766690443998</v>
+      </c>
+      <c r="D135">
+        <v>48.853459859479599</v>
       </c>
       <c r="Q135">
         <v>11</v>
@@ -5473,13 +4003,13 @@
         <v>160</v>
       </c>
       <c r="B136" t="s">
-        <v>170</v>
-      </c>
-      <c r="C136" t="s">
-        <v>550</v>
-      </c>
-      <c r="D136" t="s">
-        <v>551</v>
+        <v>169</v>
+      </c>
+      <c r="C136">
+        <v>2.36185316969725</v>
+      </c>
+      <c r="D136">
+        <v>48.851271407445601</v>
       </c>
       <c r="Q136">
         <v>159</v>
@@ -5493,13 +4023,13 @@
         <v>161</v>
       </c>
       <c r="B137" t="s">
-        <v>171</v>
-      </c>
-      <c r="C137" t="s">
-        <v>552</v>
-      </c>
-      <c r="D137" t="s">
-        <v>553</v>
+        <v>170</v>
+      </c>
+      <c r="C137">
+        <v>2.35493167182323</v>
+      </c>
+      <c r="D137">
+        <v>48.846197890688799</v>
       </c>
       <c r="Q137">
         <v>160</v>
@@ -5513,13 +4043,13 @@
         <v>162</v>
       </c>
       <c r="B138" t="s">
-        <v>172</v>
-      </c>
-      <c r="C138" t="s">
-        <v>554</v>
-      </c>
-      <c r="D138" t="s">
-        <v>555</v>
+        <v>171</v>
+      </c>
+      <c r="C138">
+        <v>2.3521548685787699</v>
+      </c>
+      <c r="D138">
+        <v>48.842666384694603</v>
       </c>
       <c r="Q138">
         <v>161</v>
@@ -5533,13 +4063,13 @@
         <v>163</v>
       </c>
       <c r="B139" t="s">
-        <v>173</v>
-      </c>
-      <c r="C139" t="s">
-        <v>556</v>
-      </c>
-      <c r="D139" t="s">
-        <v>557</v>
+        <v>172</v>
+      </c>
+      <c r="C139">
+        <v>2.3516265726054999</v>
+      </c>
+      <c r="D139">
+        <v>48.840226247565703</v>
       </c>
       <c r="Q139">
         <v>162</v>
@@ -5553,13 +4083,13 @@
         <v>164</v>
       </c>
       <c r="B140" t="s">
-        <v>174</v>
-      </c>
-      <c r="C140" t="s">
-        <v>558</v>
-      </c>
-      <c r="D140" t="s">
-        <v>559</v>
+        <v>173</v>
+      </c>
+      <c r="C140">
+        <v>2.3524168018982698</v>
+      </c>
+      <c r="D140">
+        <v>48.835841621396199</v>
       </c>
       <c r="Q140">
         <v>163</v>
@@ -5573,13 +4103,13 @@
         <v>166</v>
       </c>
       <c r="B141" t="s">
-        <v>175</v>
-      </c>
-      <c r="C141" t="s">
-        <v>560</v>
-      </c>
-      <c r="D141" t="s">
-        <v>561</v>
+        <v>174</v>
+      </c>
+      <c r="C141">
+        <v>2.3573184392131901</v>
+      </c>
+      <c r="D141">
+        <v>48.826136860805299</v>
       </c>
       <c r="Q141">
         <v>113</v>
@@ -5593,13 +4123,13 @@
         <v>167</v>
       </c>
       <c r="B142" t="s">
-        <v>176</v>
-      </c>
-      <c r="C142" t="s">
-        <v>562</v>
-      </c>
-      <c r="D142" t="s">
-        <v>563</v>
+        <v>175</v>
+      </c>
+      <c r="C142">
+        <v>2.3584129461559402</v>
+      </c>
+      <c r="D142">
+        <v>48.822149505126603</v>
       </c>
       <c r="Q142">
         <v>166</v>
@@ -5613,13 +4143,13 @@
         <v>168</v>
       </c>
       <c r="B143" t="s">
-        <v>177</v>
-      </c>
-      <c r="C143" t="s">
-        <v>564</v>
-      </c>
-      <c r="D143" t="s">
-        <v>565</v>
+        <v>176</v>
+      </c>
+      <c r="C143">
+        <v>2.3595297331071698</v>
+      </c>
+      <c r="D143">
+        <v>48.8191065956103</v>
       </c>
       <c r="Q143">
         <v>167</v>
@@ -5633,13 +4163,13 @@
         <v>169</v>
       </c>
       <c r="B144" t="s">
-        <v>178</v>
-      </c>
-      <c r="C144" t="s">
-        <v>566</v>
-      </c>
-      <c r="D144" t="s">
-        <v>567</v>
+        <v>177</v>
+      </c>
+      <c r="C144">
+        <v>2.3646785940494599</v>
+      </c>
+      <c r="D144">
+        <v>48.8200559281997</v>
       </c>
       <c r="Q144">
         <v>168</v>
@@ -5653,13 +4183,13 @@
         <v>170</v>
       </c>
       <c r="B145" t="s">
-        <v>179</v>
-      </c>
-      <c r="C145" t="s">
-        <v>568</v>
-      </c>
-      <c r="D145" t="s">
-        <v>569</v>
+        <v>178</v>
+      </c>
+      <c r="C145">
+        <v>2.3695112543194901</v>
+      </c>
+      <c r="D145">
+        <v>48.821489034614402</v>
       </c>
       <c r="Q145">
         <v>169</v>
@@ -5673,13 +4203,13 @@
         <v>174</v>
       </c>
       <c r="B146" t="s">
-        <v>180</v>
-      </c>
-      <c r="C146" t="s">
-        <v>570</v>
-      </c>
-      <c r="D146" t="s">
-        <v>571</v>
+        <v>179</v>
+      </c>
+      <c r="C146">
+        <v>2.37412487118754</v>
+      </c>
+      <c r="D146">
+        <v>48.880789662027098</v>
       </c>
       <c r="AI146">
         <v>35</v>
@@ -5693,13 +4223,13 @@
         <v>175</v>
       </c>
       <c r="B147" t="s">
-        <v>181</v>
-      </c>
-      <c r="C147" t="s">
-        <v>572</v>
-      </c>
-      <c r="D147" t="s">
-        <v>573</v>
+        <v>180</v>
+      </c>
+      <c r="C147">
+        <v>2.3815698420880098</v>
+      </c>
+      <c r="D147">
+        <v>48.878499087450599</v>
       </c>
       <c r="AI147">
         <v>174</v>
@@ -5713,13 +4243,13 @@
         <v>176</v>
       </c>
       <c r="B148" t="s">
-        <v>182</v>
-      </c>
-      <c r="C148" t="s">
-        <v>574</v>
-      </c>
-      <c r="D148" t="s">
-        <v>575</v>
+        <v>181</v>
+      </c>
+      <c r="C148">
+        <v>2.38890095131574</v>
+      </c>
+      <c r="D148">
+        <v>48.879534990320401</v>
       </c>
       <c r="AI148">
         <v>175</v>
@@ -5733,13 +4263,13 @@
         <v>177</v>
       </c>
       <c r="B149" t="s">
-        <v>183</v>
-      </c>
-      <c r="C149" t="s">
-        <v>576</v>
-      </c>
-      <c r="D149" t="s">
-        <v>577</v>
+        <v>182</v>
+      </c>
+      <c r="C149">
+        <v>2.3931393703605002</v>
+      </c>
+      <c r="D149">
+        <v>48.876723661025203</v>
       </c>
       <c r="AI149">
         <v>176</v>
@@ -5753,13 +4283,13 @@
         <v>178</v>
       </c>
       <c r="B150" t="s">
-        <v>184</v>
-      </c>
-      <c r="C150" t="s">
-        <v>578</v>
-      </c>
-      <c r="D150" t="s">
-        <v>579</v>
+        <v>183</v>
+      </c>
+      <c r="C150">
+        <v>2.3985807706935298</v>
+      </c>
+      <c r="D150">
+        <v>48.880159579716299</v>
       </c>
       <c r="AI150">
         <v>177</v>
@@ -5773,13 +4303,13 @@
         <v>179</v>
       </c>
       <c r="B151" t="s">
-        <v>185</v>
-      </c>
-      <c r="C151" t="s">
-        <v>580</v>
-      </c>
-      <c r="D151" t="s">
-        <v>581</v>
+        <v>184</v>
+      </c>
+      <c r="C151">
+        <v>2.3932284712274901</v>
+      </c>
+      <c r="D151">
+        <v>48.881949213972597</v>
       </c>
       <c r="AI151">
         <v>178</v>
@@ -5793,13 +4323,13 @@
         <v>181</v>
       </c>
       <c r="B152" t="s">
-        <v>186</v>
-      </c>
-      <c r="C152" t="s">
-        <v>582</v>
-      </c>
-      <c r="D152" t="s">
-        <v>583</v>
+        <v>185</v>
+      </c>
+      <c r="C152">
+        <v>2.2783626618091999</v>
+      </c>
+      <c r="D152">
+        <v>48.836667893882797</v>
       </c>
       <c r="T152">
         <v>182</v>
@@ -5810,13 +4340,13 @@
         <v>182</v>
       </c>
       <c r="B153" t="s">
-        <v>187</v>
-      </c>
-      <c r="C153" t="s">
-        <v>584</v>
-      </c>
-      <c r="D153" t="s">
-        <v>585</v>
+        <v>186</v>
+      </c>
+      <c r="C153">
+        <v>2.2822419598550701</v>
+      </c>
+      <c r="D153">
+        <v>48.838660862711599</v>
       </c>
       <c r="S153">
         <v>181</v>
@@ -5830,13 +4360,13 @@
         <v>183</v>
       </c>
       <c r="B154" t="s">
-        <v>188</v>
-      </c>
-      <c r="C154" t="s">
-        <v>586</v>
-      </c>
-      <c r="D154" t="s">
-        <v>587</v>
+        <v>187</v>
+      </c>
+      <c r="C154">
+        <v>2.2879184311245599</v>
+      </c>
+      <c r="D154">
+        <v>48.841024160045002</v>
       </c>
       <c r="S154">
         <v>182</v>
@@ -5850,13 +4380,13 @@
         <v>184</v>
       </c>
       <c r="B155" t="s">
-        <v>189</v>
-      </c>
-      <c r="C155" t="s">
-        <v>588</v>
-      </c>
-      <c r="D155" t="s">
-        <v>589</v>
+        <v>188</v>
+      </c>
+      <c r="C155">
+        <v>2.2918472203679698</v>
+      </c>
+      <c r="D155">
+        <v>48.842684333848403</v>
       </c>
       <c r="S155">
         <v>183</v>
@@ -5870,13 +4400,13 @@
         <v>185</v>
       </c>
       <c r="B156" t="s">
-        <v>190</v>
-      </c>
-      <c r="C156" t="s">
-        <v>590</v>
-      </c>
-      <c r="D156" t="s">
-        <v>591</v>
+        <v>189</v>
+      </c>
+      <c r="C156">
+        <v>2.2937968421928598</v>
+      </c>
+      <c r="D156">
+        <v>48.844611511420197</v>
       </c>
       <c r="S156">
         <v>184</v>
@@ -5890,13 +4420,13 @@
         <v>187</v>
       </c>
       <c r="B157" t="s">
-        <v>191</v>
-      </c>
-      <c r="C157" t="s">
-        <v>592</v>
-      </c>
-      <c r="D157" t="s">
-        <v>593</v>
+        <v>190</v>
+      </c>
+      <c r="C157">
+        <v>2.30634568382008</v>
+      </c>
+      <c r="D157">
+        <v>48.854919659638902</v>
       </c>
       <c r="S157">
         <v>121</v>
@@ -5910,13 +4440,13 @@
         <v>188</v>
       </c>
       <c r="B158" t="s">
-        <v>192</v>
-      </c>
-      <c r="C158" t="s">
-        <v>594</v>
-      </c>
-      <c r="D158" t="s">
-        <v>595</v>
+        <v>191</v>
+      </c>
+      <c r="C158">
+        <v>2.3104735359369801</v>
+      </c>
+      <c r="D158">
+        <v>48.857727022586403</v>
       </c>
       <c r="S158">
         <v>187</v>
@@ -5930,13 +4460,13 @@
         <v>189</v>
       </c>
       <c r="B159" t="s">
-        <v>193</v>
-      </c>
-      <c r="C159" t="s">
-        <v>596</v>
-      </c>
-      <c r="D159" t="s">
-        <v>597</v>
+        <v>192</v>
+      </c>
+      <c r="C159">
+        <v>2.31463266044452</v>
+      </c>
+      <c r="D159">
+        <v>48.861092010432998</v>
       </c>
       <c r="S159">
         <v>188</v>
@@ -5950,13 +4480,13 @@
         <v>191</v>
       </c>
       <c r="B160" t="s">
-        <v>194</v>
-      </c>
-      <c r="C160" t="s">
-        <v>598</v>
-      </c>
-      <c r="D160" t="s">
-        <v>599</v>
+        <v>193</v>
+      </c>
+      <c r="C160">
+        <v>2.3258100487932798</v>
+      </c>
+      <c r="D160">
+        <v>48.870544675768201</v>
       </c>
       <c r="S160">
         <v>7</v>
@@ -5970,13 +4500,13 @@
         <v>193</v>
       </c>
       <c r="B161" t="s">
-        <v>195</v>
-      </c>
-      <c r="C161" t="s">
-        <v>600</v>
-      </c>
-      <c r="D161" t="s">
-        <v>601</v>
+        <v>194</v>
+      </c>
+      <c r="C161">
+        <v>2.33859122153854</v>
+      </c>
+      <c r="D161">
+        <v>48.872135869369899</v>
       </c>
       <c r="S161">
         <v>53</v>
@@ -5990,13 +4520,13 @@
         <v>194</v>
       </c>
       <c r="B162" t="s">
-        <v>196</v>
-      </c>
-      <c r="C162" t="s">
-        <v>602</v>
-      </c>
-      <c r="D162" t="s">
-        <v>603</v>
+        <v>195</v>
+      </c>
+      <c r="C162">
+        <v>2.34320726640509</v>
+      </c>
+      <c r="D162">
+        <v>48.871504768814702</v>
       </c>
       <c r="S162">
         <v>193</v>
@@ -6010,13 +4540,13 @@
         <v>195</v>
       </c>
       <c r="B163" t="s">
-        <v>197</v>
-      </c>
-      <c r="C163" t="s">
-        <v>604</v>
-      </c>
-      <c r="D163" t="s">
-        <v>605</v>
+        <v>196</v>
+      </c>
+      <c r="C163">
+        <v>2.3484813657183898</v>
+      </c>
+      <c r="D163">
+        <v>48.8705712985549</v>
       </c>
       <c r="S163">
         <v>194</v>
@@ -6030,13 +4560,13 @@
         <v>198</v>
       </c>
       <c r="B164" t="s">
-        <v>198</v>
-      </c>
-      <c r="C164" t="s">
-        <v>606</v>
-      </c>
-      <c r="D164" t="s">
-        <v>607</v>
+        <v>197</v>
+      </c>
+      <c r="C164">
+        <v>2.3667452977427001</v>
+      </c>
+      <c r="D164">
+        <v>48.8630698825026</v>
       </c>
       <c r="S164">
         <v>60</v>
@@ -6050,13 +4580,13 @@
         <v>199</v>
       </c>
       <c r="B165" t="s">
-        <v>199</v>
-      </c>
-      <c r="C165" t="s">
-        <v>608</v>
-      </c>
-      <c r="D165" t="s">
-        <v>609</v>
+        <v>198</v>
+      </c>
+      <c r="C165">
+        <v>2.36726153971727</v>
+      </c>
+      <c r="D165">
+        <v>48.860968144808197</v>
       </c>
       <c r="S165">
         <v>198</v>
@@ -6070,13 +4600,13 @@
         <v>200</v>
       </c>
       <c r="B166" t="s">
-        <v>200</v>
-      </c>
-      <c r="C166" t="s">
-        <v>610</v>
-      </c>
-      <c r="D166" t="s">
-        <v>611</v>
+        <v>199</v>
+      </c>
+      <c r="C166">
+        <v>2.3680950853859901</v>
+      </c>
+      <c r="D166">
+        <v>48.857087366872101</v>
       </c>
       <c r="S166">
         <v>199</v>
@@ -6090,13 +4620,13 @@
         <v>202</v>
       </c>
       <c r="B167" t="s">
-        <v>201</v>
-      </c>
-      <c r="C167" t="s">
-        <v>612</v>
-      </c>
-      <c r="D167" t="s">
-        <v>613</v>
+        <v>200</v>
+      </c>
+      <c r="C167">
+        <v>2.3761412233185899</v>
+      </c>
+      <c r="D167">
+        <v>48.851337765850197</v>
       </c>
       <c r="S167">
         <v>14</v>
@@ -6110,13 +4640,13 @@
         <v>203</v>
       </c>
       <c r="B168" t="s">
-        <v>202</v>
-      </c>
-      <c r="C168" t="s">
-        <v>614</v>
-      </c>
-      <c r="D168" t="s">
-        <v>615</v>
+        <v>201</v>
+      </c>
+      <c r="C168">
+        <v>2.38402856638311</v>
+      </c>
+      <c r="D168">
+        <v>48.850110543185501</v>
       </c>
       <c r="S168">
         <v>202</v>
@@ -6130,13 +4660,13 @@
         <v>205</v>
       </c>
       <c r="B169" t="s">
-        <v>203</v>
-      </c>
-      <c r="C169" t="s">
-        <v>616</v>
-      </c>
-      <c r="D169" t="s">
-        <v>617</v>
+        <v>202</v>
+      </c>
+      <c r="C169">
+        <v>2.39040001363536</v>
+      </c>
+      <c r="D169">
+        <v>48.844005074760702</v>
       </c>
       <c r="S169">
         <v>16</v>
@@ -6150,13 +4680,13 @@
         <v>207</v>
       </c>
       <c r="B170" t="s">
-        <v>204</v>
-      </c>
-      <c r="C170" t="s">
-        <v>618</v>
-      </c>
-      <c r="D170" t="s">
-        <v>619</v>
+        <v>203</v>
+      </c>
+      <c r="C170">
+        <v>2.402366739988</v>
+      </c>
+      <c r="D170">
+        <v>48.837077430087497</v>
       </c>
       <c r="S170">
         <v>138</v>
@@ -6170,13 +4700,13 @@
         <v>208</v>
       </c>
       <c r="B171" t="s">
-        <v>205</v>
-      </c>
-      <c r="C171" t="s">
-        <v>620</v>
-      </c>
-      <c r="D171" t="s">
-        <v>621</v>
+        <v>204</v>
+      </c>
+      <c r="C171">
+        <v>2.4058739129875599</v>
+      </c>
+      <c r="D171">
+        <v>48.835017373145597</v>
       </c>
       <c r="S171">
         <v>207</v>
@@ -6190,13 +4720,13 @@
         <v>209</v>
       </c>
       <c r="B172" t="s">
-        <v>206</v>
-      </c>
-      <c r="C172" t="s">
-        <v>622</v>
-      </c>
-      <c r="D172" t="s">
-        <v>623</v>
+        <v>205</v>
+      </c>
+      <c r="C172">
+        <v>2.4025118728500701</v>
+      </c>
+      <c r="D172">
+        <v>48.833449221931097</v>
       </c>
       <c r="S172">
         <v>208</v>
@@ -6207,13 +4737,13 @@
         <v>210</v>
       </c>
       <c r="B173" t="s">
-        <v>207</v>
-      </c>
-      <c r="C173" t="s">
-        <v>624</v>
-      </c>
-      <c r="D173" t="s">
-        <v>625</v>
+        <v>206</v>
+      </c>
+      <c r="C173">
+        <v>2.2570461929221501</v>
+      </c>
+      <c r="D173">
+        <v>48.837958404671198</v>
       </c>
       <c r="V173">
         <v>211</v>
@@ -6224,13 +4754,13 @@
         <v>211</v>
       </c>
       <c r="B174" t="s">
-        <v>208</v>
-      </c>
-      <c r="C174" t="s">
-        <v>626</v>
-      </c>
-      <c r="D174" t="s">
-        <v>627</v>
+        <v>207</v>
+      </c>
+      <c r="C174">
+        <v>2.2598008451443401</v>
+      </c>
+      <c r="D174">
+        <v>48.842580275328302</v>
       </c>
       <c r="U174">
         <v>210</v>
@@ -6244,13 +4774,13 @@
         <v>212</v>
       </c>
       <c r="B175" t="s">
-        <v>209</v>
-      </c>
-      <c r="C175" t="s">
-        <v>628</v>
-      </c>
-      <c r="D175" t="s">
-        <v>629</v>
+        <v>208</v>
+      </c>
+      <c r="C175">
+        <v>2.2615119169051998</v>
+      </c>
+      <c r="D175">
+        <v>48.844911226614997</v>
       </c>
       <c r="U175">
         <v>211</v>
@@ -6264,13 +4794,13 @@
         <v>213</v>
       </c>
       <c r="B176" t="s">
-        <v>210</v>
-      </c>
-      <c r="C176" t="s">
-        <v>630</v>
-      </c>
-      <c r="D176" t="s">
-        <v>631</v>
+        <v>209</v>
+      </c>
+      <c r="C176">
+        <v>2.2639895253333302</v>
+      </c>
+      <c r="D176">
+        <v>48.847975353228101</v>
       </c>
       <c r="U176">
         <v>212</v>
@@ -6284,13 +4814,13 @@
         <v>214</v>
       </c>
       <c r="B177" t="s">
-        <v>211</v>
-      </c>
-      <c r="C177" t="s">
-        <v>632</v>
-      </c>
-      <c r="D177" t="s">
-        <v>633</v>
+        <v>210</v>
+      </c>
+      <c r="C177">
+        <v>2.2679332916470698</v>
+      </c>
+      <c r="D177">
+        <v>48.852433417777398</v>
       </c>
       <c r="U177">
         <v>213</v>
@@ -6304,13 +4834,13 @@
         <v>215</v>
       </c>
       <c r="B178" t="s">
-        <v>212</v>
-      </c>
-      <c r="C178" t="s">
-        <v>634</v>
-      </c>
-      <c r="D178" t="s">
-        <v>635</v>
+        <v>211</v>
+      </c>
+      <c r="C178">
+        <v>2.2699481579346301</v>
+      </c>
+      <c r="D178">
+        <v>48.855503557447499</v>
       </c>
       <c r="U178">
         <v>214</v>
@@ -6324,13 +4854,13 @@
         <v>216</v>
       </c>
       <c r="B179" t="s">
-        <v>213</v>
-      </c>
-      <c r="C179" t="s">
-        <v>636</v>
-      </c>
-      <c r="D179" t="s">
-        <v>637</v>
+        <v>212</v>
+      </c>
+      <c r="C179">
+        <v>2.2740962446697202</v>
+      </c>
+      <c r="D179">
+        <v>48.8580919659505</v>
       </c>
       <c r="U179">
         <v>215</v>
@@ -6344,13 +4874,13 @@
         <v>217</v>
       </c>
       <c r="B180" t="s">
-        <v>214</v>
-      </c>
-      <c r="C180" t="s">
-        <v>638</v>
-      </c>
-      <c r="D180" t="s">
-        <v>639</v>
+        <v>213</v>
+      </c>
+      <c r="C180">
+        <v>2.2778858979590599</v>
+      </c>
+      <c r="D180">
+        <v>48.863951707931797</v>
       </c>
       <c r="U180">
         <v>216</v>
@@ -6364,13 +4894,13 @@
         <v>219</v>
       </c>
       <c r="B181" t="s">
-        <v>215</v>
-      </c>
-      <c r="C181" t="s">
-        <v>640</v>
-      </c>
-      <c r="D181" t="s">
-        <v>641</v>
+        <v>214</v>
+      </c>
+      <c r="C181">
+        <v>2.2938642256822699</v>
+      </c>
+      <c r="D181">
+        <v>48.864780021309301</v>
       </c>
       <c r="U181">
         <v>117</v>
@@ -6384,13 +4914,13 @@
         <v>220</v>
       </c>
       <c r="B182" t="s">
-        <v>216</v>
-      </c>
-      <c r="C182" t="s">
-        <v>642</v>
-      </c>
-      <c r="D182" t="s">
-        <v>643</v>
+        <v>215</v>
+      </c>
+      <c r="C182">
+        <v>2.3011043523926702</v>
+      </c>
+      <c r="D182">
+        <v>48.864647146957701</v>
       </c>
       <c r="U182">
         <v>219</v>
@@ -6404,13 +4934,13 @@
         <v>222</v>
       </c>
       <c r="B183" t="s">
-        <v>217</v>
-      </c>
-      <c r="C183" t="s">
-        <v>644</v>
-      </c>
-      <c r="D183" t="s">
-        <v>645</v>
+        <v>216</v>
+      </c>
+      <c r="C183">
+        <v>2.3101372056878202</v>
+      </c>
+      <c r="D183">
+        <v>48.8721551301294</v>
       </c>
       <c r="U183">
         <v>5</v>
@@ -6424,13 +4954,13 @@
         <v>223</v>
       </c>
       <c r="B184" t="s">
-        <v>218</v>
-      </c>
-      <c r="C184" t="s">
-        <v>646</v>
-      </c>
-      <c r="D184" t="s">
-        <v>647</v>
+        <v>217</v>
+      </c>
+      <c r="C184">
+        <v>2.31601069312102</v>
+      </c>
+      <c r="D184">
+        <v>48.873447914847198</v>
       </c>
       <c r="U184">
         <v>222</v>
@@ -6444,13 +4974,13 @@
         <v>224</v>
       </c>
       <c r="B185" t="s">
-        <v>219</v>
-      </c>
-      <c r="C185" t="s">
-        <v>648</v>
-      </c>
-      <c r="D185" t="s">
-        <v>649</v>
+        <v>218</v>
+      </c>
+      <c r="C185">
+        <v>2.3210135978086002</v>
+      </c>
+      <c r="D185">
+        <v>48.874546611986801</v>
       </c>
       <c r="U185">
         <v>223</v>
@@ -6464,13 +4994,13 @@
         <v>233</v>
       </c>
       <c r="B186" t="s">
-        <v>220</v>
-      </c>
-      <c r="C186" t="s">
-        <v>650</v>
-      </c>
-      <c r="D186" t="s">
-        <v>651</v>
+        <v>219</v>
+      </c>
+      <c r="C186">
+        <v>2.3738805382115502</v>
+      </c>
+      <c r="D186">
+        <v>48.861416656960998</v>
       </c>
       <c r="U186">
         <v>105</v>
@@ -6484,13 +5014,13 @@
         <v>234</v>
       </c>
       <c r="B187" t="s">
-        <v>221</v>
-      </c>
-      <c r="C187" t="s">
-        <v>652</v>
-      </c>
-      <c r="D187" t="s">
-        <v>653</v>
+        <v>220</v>
+      </c>
+      <c r="C187">
+        <v>2.3800316941488</v>
+      </c>
+      <c r="D187">
+        <v>48.857662433437902</v>
       </c>
       <c r="U187">
         <v>233</v>
@@ -6504,13 +5034,13 @@
         <v>235</v>
       </c>
       <c r="B188" t="s">
-        <v>222</v>
-      </c>
-      <c r="C188" t="s">
-        <v>654</v>
-      </c>
-      <c r="D188" t="s">
-        <v>655</v>
+        <v>221</v>
+      </c>
+      <c r="C188">
+        <v>2.3847823964488901</v>
+      </c>
+      <c r="D188">
+        <v>48.854939442500303</v>
       </c>
       <c r="U188">
         <v>234</v>
@@ -6524,13 +5054,13 @@
         <v>236</v>
       </c>
       <c r="B189" t="s">
-        <v>223</v>
-      </c>
-      <c r="C189" t="s">
-        <v>656</v>
-      </c>
-      <c r="D189" t="s">
-        <v>657</v>
+        <v>222</v>
+      </c>
+      <c r="C189">
+        <v>2.3891047050322398</v>
+      </c>
+      <c r="D189">
+        <v>48.852214072383703</v>
       </c>
       <c r="U189">
         <v>235</v>
@@ -6544,13 +5074,13 @@
         <v>238</v>
       </c>
       <c r="B190" t="s">
-        <v>224</v>
-      </c>
-      <c r="C190" t="s">
-        <v>658</v>
-      </c>
-      <c r="D190" t="s">
-        <v>659</v>
+        <v>223</v>
+      </c>
+      <c r="C190">
+        <v>2.4011707693684099</v>
+      </c>
+      <c r="D190">
+        <v>48.851762438884101</v>
       </c>
       <c r="U190">
         <v>17</v>
@@ -6564,13 +5094,13 @@
         <v>239</v>
       </c>
       <c r="B191" t="s">
-        <v>225</v>
-      </c>
-      <c r="C191" t="s">
-        <v>660</v>
-      </c>
-      <c r="D191" t="s">
-        <v>661</v>
+        <v>224</v>
+      </c>
+      <c r="C191">
+        <v>2.4060385447980499</v>
+      </c>
+      <c r="D191">
+        <v>48.852731019531802</v>
       </c>
       <c r="U191">
         <v>238</v>
@@ -6584,13 +5114,13 @@
         <v>240</v>
       </c>
       <c r="B192" t="s">
-        <v>226</v>
-      </c>
-      <c r="C192" t="s">
-        <v>662</v>
-      </c>
-      <c r="D192" t="s">
-        <v>663</v>
+        <v>225</v>
+      </c>
+      <c r="C192">
+        <v>2.41071815402749</v>
+      </c>
+      <c r="D192">
+        <v>48.853482630258299</v>
       </c>
       <c r="U192">
         <v>239</v>
@@ -6601,13 +5131,13 @@
         <v>243</v>
       </c>
       <c r="B193" t="s">
-        <v>227</v>
-      </c>
-      <c r="C193" t="s">
-        <v>664</v>
-      </c>
-      <c r="D193" t="s">
-        <v>665</v>
+        <v>226</v>
+      </c>
+      <c r="C193">
+        <v>2.3513280016731799</v>
+      </c>
+      <c r="D193">
+        <v>48.8467000343149</v>
       </c>
       <c r="W193">
         <v>161</v>
@@ -6621,13 +5151,13 @@
         <v>244</v>
       </c>
       <c r="B194" t="s">
-        <v>228</v>
-      </c>
-      <c r="C194" t="s">
-        <v>666</v>
-      </c>
-      <c r="D194" t="s">
-        <v>667</v>
+        <v>227</v>
+      </c>
+      <c r="C194">
+        <v>2.3482804131694901</v>
+      </c>
+      <c r="D194">
+        <v>48.850195465121303</v>
       </c>
       <c r="W194">
         <v>243</v>
@@ -6641,13 +5171,13 @@
         <v>245</v>
       </c>
       <c r="B195" t="s">
-        <v>229</v>
-      </c>
-      <c r="C195" t="s">
-        <v>668</v>
-      </c>
-      <c r="D195" t="s">
-        <v>669</v>
+        <v>228</v>
+      </c>
+      <c r="C195">
+        <v>2.34489630121208</v>
+      </c>
+      <c r="D195">
+        <v>48.851026875926301</v>
       </c>
       <c r="W195">
         <v>244</v>
@@ -6661,13 +5191,13 @@
         <v>247</v>
       </c>
       <c r="B196" t="s">
-        <v>230</v>
-      </c>
-      <c r="C196" t="s">
-        <v>670</v>
-      </c>
-      <c r="D196" t="s">
-        <v>671</v>
+        <v>229</v>
+      </c>
+      <c r="C196">
+        <v>2.3351428193464701</v>
+      </c>
+      <c r="D196">
+        <v>48.8528437373513</v>
       </c>
       <c r="W196">
         <v>85</v>
@@ -6681,13 +5211,13 @@
         <v>248</v>
       </c>
       <c r="B197" t="s">
-        <v>231</v>
-      </c>
-      <c r="C197" t="s">
-        <v>672</v>
-      </c>
-      <c r="D197" t="s">
-        <v>673</v>
+        <v>230</v>
+      </c>
+      <c r="C197">
+        <v>2.32685966312174</v>
+      </c>
+      <c r="D197">
+        <v>48.851565305443202</v>
       </c>
       <c r="W197">
         <v>247</v>
@@ -6701,13 +5231,13 @@
         <v>249</v>
       </c>
       <c r="B198" t="s">
-        <v>232</v>
-      </c>
-      <c r="C198" t="s">
-        <v>674</v>
-      </c>
-      <c r="D198" t="s">
-        <v>675</v>
+        <v>231</v>
+      </c>
+      <c r="C198">
+        <v>2.32135124235473</v>
+      </c>
+      <c r="D198">
+        <v>48.848894569110698</v>
       </c>
       <c r="W198">
         <v>248</v>
@@ -6721,13 +5251,13 @@
         <v>250</v>
       </c>
       <c r="B199" t="s">
-        <v>233</v>
-      </c>
-      <c r="C199" t="s">
-        <v>676</v>
-      </c>
-      <c r="D199" t="s">
-        <v>677</v>
+        <v>232</v>
+      </c>
+      <c r="C199">
+        <v>2.3165212194565199</v>
+      </c>
+      <c r="D199">
+        <v>48.847009892663699</v>
       </c>
       <c r="W199">
         <v>249</v>
@@ -6741,13 +5271,13 @@
         <v>251</v>
       </c>
       <c r="B200" t="s">
-        <v>234</v>
-      </c>
-      <c r="C200" t="s">
-        <v>678</v>
-      </c>
-      <c r="D200" t="s">
-        <v>679</v>
+        <v>233</v>
+      </c>
+      <c r="C200">
+        <v>2.3071378494033801</v>
+      </c>
+      <c r="D200">
+        <v>48.8471672690468</v>
       </c>
       <c r="W200">
         <v>250</v>
@@ -6761,13 +5291,13 @@
         <v>253</v>
       </c>
       <c r="B201" t="s">
-        <v>235</v>
-      </c>
-      <c r="C201" t="s">
-        <v>680</v>
-      </c>
-      <c r="D201" t="s">
-        <v>681</v>
+        <v>234</v>
+      </c>
+      <c r="C201">
+        <v>2.2950189971435502</v>
+      </c>
+      <c r="D201">
+        <v>48.847038012756897</v>
       </c>
       <c r="W201">
         <v>121</v>
@@ -6781,13 +5311,13 @@
         <v>254</v>
       </c>
       <c r="B202" t="s">
-        <v>236</v>
-      </c>
-      <c r="C202" t="s">
-        <v>682</v>
-      </c>
-      <c r="D202" t="s">
-        <v>683</v>
+        <v>235</v>
+      </c>
+      <c r="C202">
+        <v>2.2856210133667201</v>
+      </c>
+      <c r="D202">
+        <v>48.846604531449202</v>
       </c>
       <c r="W202">
         <v>253</v>
@@ -6801,13 +5331,13 @@
         <v>255</v>
       </c>
       <c r="B203" t="s">
-        <v>237</v>
-      </c>
-      <c r="C203" t="s">
-        <v>684</v>
-      </c>
-      <c r="D203" t="s">
-        <v>685</v>
+        <v>236</v>
+      </c>
+      <c r="C203">
+        <v>2.2780094965273601</v>
+      </c>
+      <c r="D203">
+        <v>48.846181105275001</v>
       </c>
       <c r="W203">
         <v>254</v>
@@ -6821,13 +5351,13 @@
         <v>256</v>
       </c>
       <c r="B204" t="s">
-        <v>238</v>
-      </c>
-      <c r="C204" t="s">
-        <v>686</v>
-      </c>
-      <c r="D204" t="s">
-        <v>687</v>
+        <v>237</v>
+      </c>
+      <c r="C204">
+        <v>2.2691113890218899</v>
+      </c>
+      <c r="D204">
+        <v>48.847143360508902</v>
       </c>
       <c r="W204">
         <v>255</v>
@@ -6841,13 +5371,13 @@
         <v>258</v>
       </c>
       <c r="B205" t="s">
-        <v>239</v>
-      </c>
-      <c r="C205" t="s">
-        <v>688</v>
-      </c>
-      <c r="D205" t="s">
-        <v>689</v>
+        <v>238</v>
+      </c>
+      <c r="C205">
+        <v>2.25828074459554</v>
+      </c>
+      <c r="D205">
+        <v>48.847904122681001</v>
       </c>
       <c r="W205">
         <v>213</v>
@@ -6861,13 +5391,13 @@
         <v>260</v>
       </c>
       <c r="B206" t="s">
-        <v>240</v>
-      </c>
-      <c r="C206" t="s">
-        <v>690</v>
-      </c>
-      <c r="D206" t="s">
-        <v>691</v>
+        <v>239</v>
+      </c>
+      <c r="C206">
+        <v>2.2669054759402898</v>
+      </c>
+      <c r="D206">
+        <v>48.8450882982306</v>
       </c>
       <c r="W206">
         <v>212</v>
@@ -6881,13 +5411,13 @@
         <v>261</v>
       </c>
       <c r="B207" t="s">
-        <v>241</v>
-      </c>
-      <c r="C207" t="s">
-        <v>692</v>
-      </c>
-      <c r="D207" t="s">
-        <v>693</v>
+        <v>240</v>
+      </c>
+      <c r="C207">
+        <v>2.2730641263728302</v>
+      </c>
+      <c r="D207">
+        <v>48.847077506397802</v>
       </c>
       <c r="W207">
         <v>260</v>
@@ -6898,13 +5428,13 @@
         <v>264</v>
       </c>
       <c r="B208" t="s">
-        <v>242</v>
-      </c>
-      <c r="C208" t="s">
-        <v>694</v>
-      </c>
-      <c r="D208" t="s">
-        <v>695</v>
+        <v>241</v>
+      </c>
+      <c r="C208">
+        <v>2.35327394859477</v>
+      </c>
+      <c r="D208">
+        <v>48.861190156002202</v>
       </c>
       <c r="Y208">
         <v>12</v>
@@ -6918,13 +5448,13 @@
         <v>267</v>
       </c>
       <c r="B209" t="s">
-        <v>243</v>
-      </c>
-      <c r="C209" t="s">
-        <v>696</v>
-      </c>
-      <c r="D209" t="s">
-        <v>697</v>
+        <v>242</v>
+      </c>
+      <c r="C209">
+        <v>2.3707644347483998</v>
+      </c>
+      <c r="D209">
+        <v>48.870007016890497</v>
       </c>
       <c r="Y209">
         <v>60</v>
@@ -6938,13 +5468,13 @@
         <v>269</v>
       </c>
       <c r="B210" t="s">
-        <v>244</v>
-      </c>
-      <c r="C210" t="s">
-        <v>698</v>
-      </c>
-      <c r="D210" t="s">
-        <v>699</v>
+        <v>243</v>
+      </c>
+      <c r="C210">
+        <v>2.38520291556953</v>
+      </c>
+      <c r="D210">
+        <v>48.873818789232502</v>
       </c>
       <c r="Y210">
         <v>37</v>
@@ -6958,13 +5488,13 @@
         <v>270</v>
       </c>
       <c r="B211" t="s">
-        <v>245</v>
-      </c>
-      <c r="C211" t="s">
-        <v>700</v>
-      </c>
-      <c r="D211" t="s">
-        <v>701</v>
+        <v>244</v>
+      </c>
+      <c r="C211">
+        <v>2.3893253789101001</v>
+      </c>
+      <c r="D211">
+        <v>48.875247347693403</v>
       </c>
       <c r="Y211">
         <v>269</v>
@@ -6978,13 +5508,13 @@
         <v>271</v>
       </c>
       <c r="B212" t="s">
-        <v>246</v>
-      </c>
-      <c r="C212" t="s">
-        <v>576</v>
-      </c>
-      <c r="D212" t="s">
-        <v>577</v>
+        <v>245</v>
+      </c>
+      <c r="C212">
+        <v>2.3931393703605002</v>
+      </c>
+      <c r="D212">
+        <v>48.876723661025203</v>
       </c>
       <c r="Y212">
         <v>270</v>
@@ -6998,13 +5528,13 @@
         <v>272</v>
       </c>
       <c r="B213" t="s">
-        <v>247</v>
-      </c>
-      <c r="C213" t="s">
-        <v>702</v>
-      </c>
-      <c r="D213" t="s">
-        <v>703</v>
+        <v>246</v>
+      </c>
+      <c r="C213">
+        <v>2.3986480899605902</v>
+      </c>
+      <c r="D213">
+        <v>48.875510383232701</v>
       </c>
       <c r="Y213">
         <v>271</v>
@@ -7018,13 +5548,13 @@
         <v>274</v>
       </c>
       <c r="B214" t="s">
-        <v>248</v>
-      </c>
-      <c r="C214" t="s">
-        <v>704</v>
-      </c>
-      <c r="D214" t="s">
-        <v>705</v>
+        <v>247</v>
+      </c>
+      <c r="C214">
+        <v>2.3592485423103602</v>
+      </c>
+      <c r="D214">
+        <v>48.897402421722497</v>
       </c>
       <c r="AB214">
         <v>275</v>
@@ -7035,13 +5565,13 @@
         <v>275</v>
       </c>
       <c r="B215" t="s">
-        <v>249</v>
-      </c>
-      <c r="C215" t="s">
-        <v>706</v>
-      </c>
-      <c r="D215" t="s">
-        <v>707</v>
+        <v>248</v>
+      </c>
+      <c r="C215">
+        <v>2.3598084780840201</v>
+      </c>
+      <c r="D215">
+        <v>48.890579577619299</v>
       </c>
       <c r="AA215">
         <v>274</v>
@@ -7055,13 +5585,13 @@
         <v>277</v>
       </c>
       <c r="B216" t="s">
-        <v>250</v>
-      </c>
-      <c r="C216" t="s">
-        <v>708</v>
-      </c>
-      <c r="D216" t="s">
-        <v>709</v>
+        <v>249</v>
+      </c>
+      <c r="C216">
+        <v>2.34432002938048</v>
+      </c>
+      <c r="D216">
+        <v>48.892492267253999</v>
       </c>
       <c r="AA216">
         <v>72</v>
@@ -7075,13 +5605,13 @@
         <v>278</v>
       </c>
       <c r="B217" t="s">
-        <v>251</v>
-      </c>
-      <c r="C217" t="s">
-        <v>710</v>
-      </c>
-      <c r="D217" t="s">
-        <v>711</v>
+        <v>250</v>
+      </c>
+      <c r="C217">
+        <v>2.33858382438319</v>
+      </c>
+      <c r="D217">
+        <v>48.889681809018903</v>
       </c>
       <c r="AA217">
         <v>277</v>
@@ -7095,13 +5625,13 @@
         <v>279</v>
       </c>
       <c r="B218" t="s">
-        <v>252</v>
-      </c>
-      <c r="C218" t="s">
-        <v>712</v>
-      </c>
-      <c r="D218" t="s">
-        <v>713</v>
+        <v>251</v>
+      </c>
+      <c r="C218">
+        <v>2.3383946352209102</v>
+      </c>
+      <c r="D218">
+        <v>48.884392717043397</v>
       </c>
       <c r="AA218">
         <v>278</v>
@@ -7115,13 +5645,13 @@
         <v>281</v>
       </c>
       <c r="B219" t="s">
-        <v>253</v>
-      </c>
-      <c r="C219" t="s">
-        <v>714</v>
-      </c>
-      <c r="D219" t="s">
-        <v>715</v>
+        <v>252</v>
+      </c>
+      <c r="C219">
+        <v>2.3375706403796701</v>
+      </c>
+      <c r="D219">
+        <v>48.878416593953702</v>
       </c>
       <c r="AA219">
         <v>30</v>
@@ -7135,13 +5665,13 @@
         <v>282</v>
       </c>
       <c r="B220" t="s">
-        <v>254</v>
-      </c>
-      <c r="C220" t="s">
-        <v>716</v>
-      </c>
-      <c r="D220" t="s">
-        <v>717</v>
+        <v>253</v>
+      </c>
+      <c r="C220">
+        <v>2.3378736192226399</v>
+      </c>
+      <c r="D220">
+        <v>48.876035030332602</v>
       </c>
       <c r="AA220">
         <v>281</v>
@@ -7155,13 +5685,13 @@
         <v>283</v>
       </c>
       <c r="B221" t="s">
-        <v>255</v>
-      </c>
-      <c r="C221" t="s">
-        <v>718</v>
-      </c>
-      <c r="D221" t="s">
-        <v>719</v>
+        <v>254</v>
+      </c>
+      <c r="C221">
+        <v>2.3330491724182401</v>
+      </c>
+      <c r="D221">
+        <v>48.876336506359301</v>
       </c>
       <c r="AA221">
         <v>282</v>
@@ -7175,13 +5705,13 @@
         <v>287</v>
       </c>
       <c r="B222" t="s">
-        <v>256</v>
-      </c>
-      <c r="C222" t="s">
-        <v>720</v>
-      </c>
-      <c r="D222" t="s">
-        <v>721</v>
+        <v>255</v>
+      </c>
+      <c r="C222">
+        <v>2.3205758366475502</v>
+      </c>
+      <c r="D222">
+        <v>48.861071938577901</v>
       </c>
       <c r="AA222">
         <v>7</v>
@@ -7195,13 +5725,13 @@
         <v>288</v>
       </c>
       <c r="B223" t="s">
-        <v>257</v>
-      </c>
-      <c r="C223" t="s">
-        <v>722</v>
-      </c>
-      <c r="D223" t="s">
-        <v>723</v>
+        <v>256</v>
+      </c>
+      <c r="C223">
+        <v>2.3230759642515402</v>
+      </c>
+      <c r="D223">
+        <v>48.858531948780403</v>
       </c>
       <c r="AA223">
         <v>287</v>
@@ -7215,13 +5745,13 @@
         <v>289</v>
       </c>
       <c r="B224" t="s">
-        <v>258</v>
-      </c>
-      <c r="C224" t="s">
-        <v>724</v>
-      </c>
-      <c r="D224" t="s">
-        <v>725</v>
+        <v>257</v>
+      </c>
+      <c r="C224">
+        <v>2.32569989845241</v>
+      </c>
+      <c r="D224">
+        <v>48.855884677537297</v>
       </c>
       <c r="AA224">
         <v>288</v>
@@ -7235,13 +5765,13 @@
         <v>291</v>
       </c>
       <c r="B225" t="s">
-        <v>259</v>
-      </c>
-      <c r="C225" t="s">
-        <v>726</v>
-      </c>
-      <c r="D225" t="s">
-        <v>727</v>
+        <v>258</v>
+      </c>
+      <c r="C225">
+        <v>2.3277871847873901</v>
+      </c>
+      <c r="D225">
+        <v>48.848332828092403</v>
       </c>
       <c r="AA225">
         <v>248</v>
@@ -7255,13 +5785,13 @@
         <v>292</v>
       </c>
       <c r="B226" t="s">
-        <v>260</v>
-      </c>
-      <c r="C226" t="s">
-        <v>728</v>
-      </c>
-      <c r="D226" t="s">
-        <v>729</v>
+        <v>259</v>
+      </c>
+      <c r="C226">
+        <v>2.3286958054987101</v>
+      </c>
+      <c r="D226">
+        <v>48.845077744689597</v>
       </c>
       <c r="AA226">
         <v>291</v>
@@ -7275,13 +5805,13 @@
         <v>294</v>
       </c>
       <c r="B227" t="s">
-        <v>261</v>
-      </c>
-      <c r="C227" t="s">
-        <v>730</v>
-      </c>
-      <c r="D227" t="s">
-        <v>731</v>
+        <v>260</v>
+      </c>
+      <c r="C227">
+        <v>2.3175512356170298</v>
+      </c>
+      <c r="D227">
+        <v>48.844317682586102</v>
       </c>
       <c r="AA227">
         <v>89</v>
@@ -7295,13 +5825,13 @@
         <v>296</v>
       </c>
       <c r="B228" t="s">
-        <v>262</v>
-      </c>
-      <c r="C228" t="s">
-        <v>732</v>
-      </c>
-      <c r="D228" t="s">
-        <v>733</v>
+        <v>261</v>
+      </c>
+      <c r="C228">
+        <v>2.3079833805768502</v>
+      </c>
+      <c r="D228">
+        <v>48.841411727466699</v>
       </c>
       <c r="AA228">
         <v>124</v>
@@ -7315,13 +5845,13 @@
         <v>297</v>
       </c>
       <c r="B229" t="s">
-        <v>263</v>
-      </c>
-      <c r="C229" t="s">
-        <v>734</v>
-      </c>
-      <c r="D229" t="s">
-        <v>735</v>
+        <v>262</v>
+      </c>
+      <c r="C229">
+        <v>2.30107451565455</v>
+      </c>
+      <c r="D229">
+        <v>48.839437917128599</v>
       </c>
       <c r="AA229">
         <v>296</v>
@@ -7335,13 +5865,13 @@
         <v>298</v>
       </c>
       <c r="B230" t="s">
-        <v>264</v>
-      </c>
-      <c r="C230" t="s">
-        <v>736</v>
-      </c>
-      <c r="D230" t="s">
-        <v>737</v>
+        <v>263</v>
+      </c>
+      <c r="C230">
+        <v>2.29639138648092</v>
+      </c>
+      <c r="D230">
+        <v>48.837135052856702</v>
       </c>
       <c r="AA230">
         <v>297</v>
@@ -7355,13 +5885,13 @@
         <v>299</v>
       </c>
       <c r="B231" t="s">
-        <v>265</v>
-      </c>
-      <c r="C231" t="s">
-        <v>738</v>
-      </c>
-      <c r="D231" t="s">
-        <v>739</v>
+        <v>264</v>
+      </c>
+      <c r="C231">
+        <v>2.2877417091423302</v>
+      </c>
+      <c r="D231">
+        <v>48.832519531565197</v>
       </c>
       <c r="AA231">
         <v>298</v>
@@ -7372,13 +5902,13 @@
         <v>300</v>
       </c>
       <c r="B232" t="s">
-        <v>266</v>
-      </c>
-      <c r="C232" t="s">
-        <v>740</v>
-      </c>
-      <c r="D232" t="s">
-        <v>741</v>
+        <v>265</v>
+      </c>
+      <c r="C232">
+        <v>2.30533238665747</v>
+      </c>
+      <c r="D232">
+        <v>48.827613463055897</v>
       </c>
       <c r="AD232">
         <v>301</v>
@@ -7389,13 +5919,13 @@
         <v>301</v>
       </c>
       <c r="B233" t="s">
-        <v>267</v>
-      </c>
-      <c r="C233" t="s">
-        <v>742</v>
-      </c>
-      <c r="D233" t="s">
-        <v>743</v>
+        <v>266</v>
+      </c>
+      <c r="C233">
+        <v>2.31386048934431</v>
+      </c>
+      <c r="D233">
+        <v>48.831750362119102</v>
       </c>
       <c r="AC233">
         <v>300</v>
@@ -7409,13 +5939,13 @@
         <v>302</v>
       </c>
       <c r="B234" t="s">
-        <v>268</v>
-      </c>
-      <c r="C234" t="s">
-        <v>744</v>
-      </c>
-      <c r="D234" t="s">
-        <v>745</v>
+        <v>267</v>
+      </c>
+      <c r="C234">
+        <v>2.3183937066147</v>
+      </c>
+      <c r="D234">
+        <v>48.8340786788266</v>
       </c>
       <c r="AC234">
         <v>301</v>
@@ -7429,13 +5959,13 @@
         <v>303</v>
       </c>
       <c r="B235" t="s">
-        <v>269</v>
-      </c>
-      <c r="C235" t="s">
-        <v>746</v>
-      </c>
-      <c r="D235" t="s">
-        <v>747</v>
+        <v>268</v>
+      </c>
+      <c r="C235">
+        <v>2.3223539967788098</v>
+      </c>
+      <c r="D235">
+        <v>48.838526084074203</v>
       </c>
       <c r="AC235">
         <v>302</v>
@@ -7449,13 +5979,13 @@
         <v>306</v>
       </c>
       <c r="B236" t="s">
-        <v>270</v>
-      </c>
-      <c r="C236" t="s">
-        <v>748</v>
-      </c>
-      <c r="D236" t="s">
-        <v>749</v>
+        <v>269</v>
+      </c>
+      <c r="C236">
+        <v>2.31428594618056</v>
+      </c>
+      <c r="D236">
+        <v>48.8512915499903</v>
       </c>
       <c r="AC236">
         <v>250</v>
@@ -7469,13 +5999,13 @@
         <v>307</v>
       </c>
       <c r="B237" t="s">
-        <v>271</v>
-      </c>
-      <c r="C237" t="s">
-        <v>750</v>
-      </c>
-      <c r="D237" t="s">
-        <v>751</v>
+        <v>270</v>
+      </c>
+      <c r="C237">
+        <v>2.3151139305096602</v>
+      </c>
+      <c r="D237">
+        <v>48.856624981798397</v>
       </c>
       <c r="AC237">
         <v>306</v>
@@ -7489,13 +6019,13 @@
         <v>312</v>
       </c>
       <c r="B238" t="s">
-        <v>272</v>
-      </c>
-      <c r="C238" t="s">
-        <v>752</v>
-      </c>
-      <c r="D238" t="s">
-        <v>753</v>
+        <v>271</v>
+      </c>
+      <c r="C238">
+        <v>2.3268526712397599</v>
+      </c>
+      <c r="D238">
+        <v>48.879534936427703</v>
       </c>
       <c r="AC238">
         <v>51</v>
@@ -7509,13 +6039,13 @@
         <v>314</v>
       </c>
       <c r="B239" t="s">
-        <v>273</v>
-      </c>
-      <c r="C239" t="s">
-        <v>754</v>
-      </c>
-      <c r="D239" t="s">
-        <v>755</v>
+        <v>272</v>
+      </c>
+      <c r="C239">
+        <v>2.3257141171661302</v>
+      </c>
+      <c r="D239">
+        <v>48.887433655789003</v>
       </c>
       <c r="AC239">
         <v>28</v>
@@ -7529,13 +6059,13 @@
         <v>315</v>
       </c>
       <c r="B240" t="s">
-        <v>274</v>
-      </c>
-      <c r="C240" t="s">
-        <v>756</v>
-      </c>
-      <c r="D240" t="s">
-        <v>757</v>
+        <v>273</v>
+      </c>
+      <c r="C240">
+        <v>2.32748325862612</v>
+      </c>
+      <c r="D240">
+        <v>48.893001441013702</v>
       </c>
       <c r="AC240">
         <v>314</v>
@@ -7549,13 +6079,13 @@
         <v>316</v>
       </c>
       <c r="B241" t="s">
-        <v>275</v>
-      </c>
-      <c r="C241" t="s">
-        <v>758</v>
-      </c>
-      <c r="D241" t="s">
-        <v>759</v>
+        <v>274</v>
+      </c>
+      <c r="C241">
+        <v>2.3290483407446501</v>
+      </c>
+      <c r="D241">
+        <v>48.8974978363796</v>
       </c>
       <c r="AC241">
         <v>315</v>
@@ -7569,13 +6099,13 @@
         <v>318</v>
       </c>
       <c r="B242" t="s">
-        <v>276</v>
-      </c>
-      <c r="C242" t="s">
-        <v>760</v>
-      </c>
-      <c r="D242" t="s">
-        <v>761</v>
+        <v>275</v>
+      </c>
+      <c r="C242">
+        <v>2.3199048172093599</v>
+      </c>
+      <c r="D242">
+        <v>48.890651870242102</v>
       </c>
       <c r="AC242">
         <v>314</v>
@@ -7589,13 +6119,13 @@
         <v>319</v>
       </c>
       <c r="B243" t="s">
-        <v>277</v>
-      </c>
-      <c r="C243" t="s">
-        <v>762</v>
-      </c>
-      <c r="D243" t="s">
-        <v>763</v>
+        <v>276</v>
+      </c>
+      <c r="C243">
+        <v>2.3132083507588099</v>
+      </c>
+      <c r="D243">
+        <v>48.894431287069501</v>
       </c>
       <c r="AC243">
         <v>318</v>
@@ -7606,13 +6136,13 @@
         <v>321</v>
       </c>
       <c r="B244" t="s">
-        <v>278</v>
-      </c>
-      <c r="C244" t="s">
-        <v>764</v>
-      </c>
-      <c r="D244" t="s">
-        <v>765</v>
+        <v>277</v>
+      </c>
+      <c r="C244">
+        <v>2.3153681405051501</v>
+      </c>
+      <c r="D244">
+        <v>48.888103402695002</v>
       </c>
       <c r="AE244">
         <v>319</v>
@@ -7626,13 +6156,13 @@
         <v>328</v>
       </c>
       <c r="B245" t="s">
-        <v>279</v>
-      </c>
-      <c r="C245" t="s">
-        <v>766</v>
-      </c>
-      <c r="D245" t="s">
-        <v>767</v>
+        <v>278</v>
+      </c>
+      <c r="C245">
+        <v>2.3866178502140598</v>
+      </c>
+      <c r="D245">
+        <v>48.833319302895099</v>
       </c>
       <c r="AE245">
         <v>136</v>
@@ -7646,13 +6176,13 @@
         <v>329</v>
       </c>
       <c r="B246" t="s">
-        <v>280</v>
-      </c>
-      <c r="C246" t="s">
-        <v>768</v>
-      </c>
-      <c r="D246" t="s">
-        <v>769</v>
+        <v>279</v>
+      </c>
+      <c r="C246">
+        <v>2.3764873711683001</v>
+      </c>
+      <c r="D246">
+        <v>48.829925764980601</v>
       </c>
       <c r="AE246">
         <v>328</v>
@@ -7666,13 +6196,13 @@
         <v>330</v>
       </c>
       <c r="B247" t="s">
-        <v>281</v>
-      </c>
-      <c r="C247" t="s">
-        <v>770</v>
-      </c>
-      <c r="D247" t="s">
-        <v>771</v>
+        <v>280</v>
+      </c>
+      <c r="C247">
+        <v>2.3669231215308102</v>
+      </c>
+      <c r="D247">
+        <v>48.827123440481003</v>
       </c>
       <c r="AE247">
         <v>329</v>

--- a/Metro_Arcs_Par_Station_IDs.xlsx
+++ b/Metro_Arcs_Par_Station_IDs.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noe\Documents\GitHub\ProbSciANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856A0F87-AACA-42A6-990D-666723AB8BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56AF1E2-34D7-4FA3-AB85-373D6980BC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="340">
   <si>
     <t>ID STATION</t>
   </si>
@@ -866,6 +867,180 @@
   </si>
   <si>
     <t>Franklin D, Roosevelt</t>
+  </si>
+  <si>
+    <t>Pointe du Lac</t>
+  </si>
+  <si>
+    <t>Créteil - Préfecture</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Créteil - Université</t>
+  </si>
+  <si>
+    <t>Créteil - L'Échat</t>
+  </si>
+  <si>
+    <t>Maisons-Alfort - Les Juilliottes</t>
+  </si>
+  <si>
+    <t>Maisons-Alfort - Stade</t>
+  </si>
+  <si>
+    <t>École Vétérinaire de Maisons-Alfort</t>
+  </si>
+  <si>
+    <t>Charenton - Écoles</t>
+  </si>
+  <si>
+    <t>Liberté</t>
+  </si>
+  <si>
+    <t>École Militaire</t>
+  </si>
+  <si>
+    <t>Pré Saint-Gervais</t>
+  </si>
+  <si>
+    <t>7bis</t>
+  </si>
+  <si>
+    <t>Mairie d'Ivry</t>
+  </si>
+  <si>
+    <t>Pierre et Marie Curie</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Pont Marie</t>
+  </si>
+  <si>
+    <t>Château-Landon</t>
+  </si>
+  <si>
+    <t>Aubervilliers - Pantin - Quatre Chemins</t>
+  </si>
+  <si>
+    <t>Fort d'Aubervilliers</t>
+  </si>
+  <si>
+    <t>La Courneuve - 8 Mai 1945</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Montparnasse - Bienvenüe</t>
+  </si>
+  <si>
+    <t>Sèvres - Lecourbe</t>
+  </si>
+  <si>
+    <t>Charles de Gaulle - Étoile</t>
+  </si>
+  <si>
+    <t>3bis</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Bréguet - Sabin</t>
+  </si>
+  <si>
+    <t>Hoche</t>
+  </si>
+  <si>
+    <t>Église de Pantin</t>
+  </si>
+  <si>
+    <t>Bobigny - Pantin - Raymond Queneau</t>
+  </si>
+  <si>
+    <t>Bobigny - Pablo Picasso</t>
+  </si>
+  <si>
+    <t>Bagneux - Lucie Aubrac</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Mairie de Montrouge</t>
+  </si>
+  <si>
+    <t>Étienne Marcel</t>
+  </si>
+  <si>
+    <t>Gallieni</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Quatre-Septembre</t>
+  </si>
+  <si>
+    <t>Havre - Caumartin</t>
+  </si>
+  <si>
+    <t>Louise Michel</t>
+  </si>
+  <si>
+    <t>Anatole France</t>
+  </si>
+  <si>
+    <t>Pont de Levallois - Bécon</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Bérault</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Saint-Mandé</t>
+  </si>
+  <si>
+    <t>Saint-Paul</t>
+  </si>
+  <si>
+    <t>Champs-Élysées - Clemenceau</t>
+  </si>
+  <si>
+    <t>Franklin D. Roosevelt</t>
+  </si>
+  <si>
+    <t>Les Sablons</t>
+  </si>
+  <si>
+    <t>Pont de Neuilly</t>
+  </si>
+  <si>
+    <t>Esplanade de la Défense</t>
+  </si>
+  <si>
+    <t>La Défense (Grande Arche)</t>
+  </si>
+  <si>
+    <t>Station 2</t>
+  </si>
+  <si>
+    <t>Station 1</t>
+  </si>
+  <si>
+    <t>Ligne</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -6214,4 +6389,2525 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430684D9-CF04-4D23-AD65-BBFDFFDF8119}">
+  <dimension ref="A1:C228"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>328</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>328</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>328</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>328</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B18" t="s">
+        <v>330</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>328</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>328</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>328</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>328</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>328</v>
+      </c>
+      <c r="B24" t="s">
+        <v>329</v>
+      </c>
+      <c r="C24" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>328</v>
+      </c>
+      <c r="B25" t="s">
+        <v>327</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>326</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>326</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>326</v>
+      </c>
+      <c r="B28" t="s">
+        <v>306</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>326</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>326</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>326</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>326</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>326</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>326</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>326</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>326</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>326</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>326</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>326</v>
+      </c>
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>326</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>326</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>326</v>
+      </c>
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>326</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>326</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>326</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>326</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>326</v>
+      </c>
+      <c r="B47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>326</v>
+      </c>
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>326</v>
+      </c>
+      <c r="B49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>320</v>
+      </c>
+      <c r="B50" t="s">
+        <v>325</v>
+      </c>
+      <c r="C50" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>320</v>
+      </c>
+      <c r="B51" t="s">
+        <v>324</v>
+      </c>
+      <c r="C51" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>320</v>
+      </c>
+      <c r="B52" t="s">
+        <v>323</v>
+      </c>
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>320</v>
+      </c>
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>320</v>
+      </c>
+      <c r="B54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>320</v>
+      </c>
+      <c r="B55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>320</v>
+      </c>
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>320</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>320</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>320</v>
+      </c>
+      <c r="B59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>320</v>
+      </c>
+      <c r="B60" t="s">
+        <v>322</v>
+      </c>
+      <c r="C60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>320</v>
+      </c>
+      <c r="B61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>320</v>
+      </c>
+      <c r="B62" t="s">
+        <v>321</v>
+      </c>
+      <c r="C62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>320</v>
+      </c>
+      <c r="B63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>320</v>
+      </c>
+      <c r="B64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>320</v>
+      </c>
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>320</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>320</v>
+      </c>
+      <c r="B67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>320</v>
+      </c>
+      <c r="B68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>320</v>
+      </c>
+      <c r="B69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>320</v>
+      </c>
+      <c r="B70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>320</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>320</v>
+      </c>
+      <c r="B72" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>320</v>
+      </c>
+      <c r="B73" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>316</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>316</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>316</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>316</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>316</v>
+      </c>
+      <c r="B78" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>316</v>
+      </c>
+      <c r="B79" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>316</v>
+      </c>
+      <c r="B80" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>316</v>
+      </c>
+      <c r="B81" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>316</v>
+      </c>
+      <c r="B82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>316</v>
+      </c>
+      <c r="B83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>316</v>
+      </c>
+      <c r="B84" t="s">
+        <v>318</v>
+      </c>
+      <c r="C84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>316</v>
+      </c>
+      <c r="B85" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>316</v>
+      </c>
+      <c r="B86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>316</v>
+      </c>
+      <c r="B87" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>316</v>
+      </c>
+      <c r="B88" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>316</v>
+      </c>
+      <c r="B89" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>316</v>
+      </c>
+      <c r="B90" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>316</v>
+      </c>
+      <c r="B91" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>316</v>
+      </c>
+      <c r="B92" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>316</v>
+      </c>
+      <c r="B93" t="s">
+        <v>304</v>
+      </c>
+      <c r="C93" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>316</v>
+      </c>
+      <c r="B94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>316</v>
+      </c>
+      <c r="B95" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>316</v>
+      </c>
+      <c r="B96" t="s">
+        <v>118</v>
+      </c>
+      <c r="C96" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>316</v>
+      </c>
+      <c r="B97" t="s">
+        <v>119</v>
+      </c>
+      <c r="C97" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>316</v>
+      </c>
+      <c r="B98" t="s">
+        <v>120</v>
+      </c>
+      <c r="C98" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>316</v>
+      </c>
+      <c r="B99" t="s">
+        <v>121</v>
+      </c>
+      <c r="C99" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>316</v>
+      </c>
+      <c r="B100" t="s">
+        <v>317</v>
+      </c>
+      <c r="C100" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>316</v>
+      </c>
+      <c r="B101" t="s">
+        <v>315</v>
+      </c>
+      <c r="C101" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>308</v>
+      </c>
+      <c r="B102" t="s">
+        <v>313</v>
+      </c>
+      <c r="C102" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>308</v>
+      </c>
+      <c r="B103" t="s">
+        <v>312</v>
+      </c>
+      <c r="C103" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>308</v>
+      </c>
+      <c r="B104" t="s">
+        <v>311</v>
+      </c>
+      <c r="C104" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>308</v>
+      </c>
+      <c r="B105" t="s">
+        <v>310</v>
+      </c>
+      <c r="C105" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>308</v>
+      </c>
+      <c r="B106" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>308</v>
+      </c>
+      <c r="B107" t="s">
+        <v>123</v>
+      </c>
+      <c r="C107" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>308</v>
+      </c>
+      <c r="B108" t="s">
+        <v>124</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>308</v>
+      </c>
+      <c r="B109" t="s">
+        <v>68</v>
+      </c>
+      <c r="C109" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>308</v>
+      </c>
+      <c r="B110" t="s">
+        <v>67</v>
+      </c>
+      <c r="C110" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>308</v>
+      </c>
+      <c r="B111" t="s">
+        <v>103</v>
+      </c>
+      <c r="C111" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>308</v>
+      </c>
+      <c r="B112" t="s">
+        <v>104</v>
+      </c>
+      <c r="C112" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>308</v>
+      </c>
+      <c r="B113" t="s">
+        <v>125</v>
+      </c>
+      <c r="C113" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>308</v>
+      </c>
+      <c r="B114" t="s">
+        <v>91</v>
+      </c>
+      <c r="C114" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>308</v>
+      </c>
+      <c r="B115" t="s">
+        <v>126</v>
+      </c>
+      <c r="C115" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>308</v>
+      </c>
+      <c r="B116" t="s">
+        <v>127</v>
+      </c>
+      <c r="C116" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>308</v>
+      </c>
+      <c r="B117" t="s">
+        <v>309</v>
+      </c>
+      <c r="C117" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>308</v>
+      </c>
+      <c r="B118" t="s">
+        <v>48</v>
+      </c>
+      <c r="C118" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>308</v>
+      </c>
+      <c r="B119" t="s">
+        <v>129</v>
+      </c>
+      <c r="C119" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>308</v>
+      </c>
+      <c r="B120" t="s">
+        <v>130</v>
+      </c>
+      <c r="C120" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>308</v>
+      </c>
+      <c r="B121" t="s">
+        <v>131</v>
+      </c>
+      <c r="C121" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>308</v>
+      </c>
+      <c r="B122" t="s">
+        <v>132</v>
+      </c>
+      <c r="C122" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>307</v>
+      </c>
+      <c r="B123" t="s">
+        <v>94</v>
+      </c>
+      <c r="C123" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>307</v>
+      </c>
+      <c r="B124" t="s">
+        <v>98</v>
+      </c>
+      <c r="C124" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>307</v>
+      </c>
+      <c r="B125" t="s">
+        <v>97</v>
+      </c>
+      <c r="C125" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>303</v>
+      </c>
+      <c r="B126" t="s">
+        <v>306</v>
+      </c>
+      <c r="C126" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>303</v>
+      </c>
+      <c r="B127" t="s">
+        <v>134</v>
+      </c>
+      <c r="C127" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>303</v>
+      </c>
+      <c r="B128" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>303</v>
+      </c>
+      <c r="B129" t="s">
+        <v>136</v>
+      </c>
+      <c r="C129" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>303</v>
+      </c>
+      <c r="B130" t="s">
+        <v>137</v>
+      </c>
+      <c r="C130" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>303</v>
+      </c>
+      <c r="B131" t="s">
+        <v>138</v>
+      </c>
+      <c r="C131" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>303</v>
+      </c>
+      <c r="B132" t="s">
+        <v>139</v>
+      </c>
+      <c r="C132" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>303</v>
+      </c>
+      <c r="B133" t="s">
+        <v>140</v>
+      </c>
+      <c r="C133" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>303</v>
+      </c>
+      <c r="B134" t="s">
+        <v>141</v>
+      </c>
+      <c r="C134" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>303</v>
+      </c>
+      <c r="B135" t="s">
+        <v>305</v>
+      </c>
+      <c r="C135" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>303</v>
+      </c>
+      <c r="B136" t="s">
+        <v>143</v>
+      </c>
+      <c r="C136" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>303</v>
+      </c>
+      <c r="B137" t="s">
+        <v>304</v>
+      </c>
+      <c r="C137" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>303</v>
+      </c>
+      <c r="B138" t="s">
+        <v>144</v>
+      </c>
+      <c r="C138" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>303</v>
+      </c>
+      <c r="B139" t="s">
+        <v>117</v>
+      </c>
+      <c r="C139" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>303</v>
+      </c>
+      <c r="B140" t="s">
+        <v>118</v>
+      </c>
+      <c r="C140" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>303</v>
+      </c>
+      <c r="B141" t="s">
+        <v>145</v>
+      </c>
+      <c r="C141" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>303</v>
+      </c>
+      <c r="B142" t="s">
+        <v>146</v>
+      </c>
+      <c r="C142" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>303</v>
+      </c>
+      <c r="B143" t="s">
+        <v>147</v>
+      </c>
+      <c r="C143" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>303</v>
+      </c>
+      <c r="B144" t="s">
+        <v>133</v>
+      </c>
+      <c r="C144" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>303</v>
+      </c>
+      <c r="B145" t="s">
+        <v>148</v>
+      </c>
+      <c r="C145" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>303</v>
+      </c>
+      <c r="B146" t="s">
+        <v>149</v>
+      </c>
+      <c r="C146" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>303</v>
+      </c>
+      <c r="B147" t="s">
+        <v>150</v>
+      </c>
+      <c r="C147" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>303</v>
+      </c>
+      <c r="B148" t="s">
+        <v>151</v>
+      </c>
+      <c r="C148" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>303</v>
+      </c>
+      <c r="B149" t="s">
+        <v>152</v>
+      </c>
+      <c r="C149" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>303</v>
+      </c>
+      <c r="B150" t="s">
+        <v>153</v>
+      </c>
+      <c r="C150" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>303</v>
+      </c>
+      <c r="B151" t="s">
+        <v>154</v>
+      </c>
+      <c r="C151" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>303</v>
+      </c>
+      <c r="B152" t="s">
+        <v>155</v>
+      </c>
+      <c r="C152" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>297</v>
+      </c>
+      <c r="B153" t="s">
+        <v>302</v>
+      </c>
+      <c r="C153" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>297</v>
+      </c>
+      <c r="B154" t="s">
+        <v>301</v>
+      </c>
+      <c r="C154" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>297</v>
+      </c>
+      <c r="B155" t="s">
+        <v>300</v>
+      </c>
+      <c r="C155" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>297</v>
+      </c>
+      <c r="B156" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>297</v>
+      </c>
+      <c r="B157" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>297</v>
+      </c>
+      <c r="B158" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>297</v>
+      </c>
+      <c r="B159" t="s">
+        <v>159</v>
+      </c>
+      <c r="C159" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>297</v>
+      </c>
+      <c r="B160" t="s">
+        <v>67</v>
+      </c>
+      <c r="C160" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>297</v>
+      </c>
+      <c r="B161" t="s">
+        <v>160</v>
+      </c>
+      <c r="C161" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>297</v>
+      </c>
+      <c r="B162" t="s">
+        <v>299</v>
+      </c>
+      <c r="C162" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>297</v>
+      </c>
+      <c r="B163" t="s">
+        <v>104</v>
+      </c>
+      <c r="C163" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>297</v>
+      </c>
+      <c r="B164" t="s">
+        <v>162</v>
+      </c>
+      <c r="C164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>297</v>
+      </c>
+      <c r="B165" t="s">
+        <v>163</v>
+      </c>
+      <c r="C165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>297</v>
+      </c>
+      <c r="B166" t="s">
+        <v>164</v>
+      </c>
+      <c r="C166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>297</v>
+      </c>
+      <c r="B167" t="s">
+        <v>165</v>
+      </c>
+      <c r="C167" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>297</v>
+      </c>
+      <c r="B168" t="s">
+        <v>84</v>
+      </c>
+      <c r="C168" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>297</v>
+      </c>
+      <c r="B169" t="s">
+        <v>166</v>
+      </c>
+      <c r="C169" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>297</v>
+      </c>
+      <c r="B170" t="s">
+        <v>43</v>
+      </c>
+      <c r="C170" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>297</v>
+      </c>
+      <c r="B171" t="s">
+        <v>167</v>
+      </c>
+      <c r="C171" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>297</v>
+      </c>
+      <c r="B172" t="s">
+        <v>45</v>
+      </c>
+      <c r="C172" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>297</v>
+      </c>
+      <c r="B173" t="s">
+        <v>298</v>
+      </c>
+      <c r="C173" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>297</v>
+      </c>
+      <c r="B174" t="s">
+        <v>169</v>
+      </c>
+      <c r="C174" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>297</v>
+      </c>
+      <c r="B175" t="s">
+        <v>170</v>
+      </c>
+      <c r="C175" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>297</v>
+      </c>
+      <c r="B176" t="s">
+        <v>171</v>
+      </c>
+      <c r="C176" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>297</v>
+      </c>
+      <c r="B177" t="s">
+        <v>172</v>
+      </c>
+      <c r="C177" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>297</v>
+      </c>
+      <c r="B178" t="s">
+        <v>173</v>
+      </c>
+      <c r="C178" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>297</v>
+      </c>
+      <c r="B179" t="s">
+        <v>133</v>
+      </c>
+      <c r="C179" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>297</v>
+      </c>
+      <c r="B180" t="s">
+        <v>174</v>
+      </c>
+      <c r="C180" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>297</v>
+      </c>
+      <c r="B181" t="s">
+        <v>175</v>
+      </c>
+      <c r="C181" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>297</v>
+      </c>
+      <c r="B182" t="s">
+        <v>176</v>
+      </c>
+      <c r="C182" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>297</v>
+      </c>
+      <c r="B183" t="s">
+        <v>177</v>
+      </c>
+      <c r="C183" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>297</v>
+      </c>
+      <c r="B184" t="s">
+        <v>178</v>
+      </c>
+      <c r="C184" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>297</v>
+      </c>
+      <c r="B185" t="s">
+        <v>296</v>
+      </c>
+      <c r="C185" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>294</v>
+      </c>
+      <c r="B186" t="s">
+        <v>160</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>294</v>
+      </c>
+      <c r="B187" t="s">
+        <v>68</v>
+      </c>
+      <c r="C187" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>294</v>
+      </c>
+      <c r="B188" t="s">
+        <v>179</v>
+      </c>
+      <c r="C188" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>294</v>
+      </c>
+      <c r="B189" t="s">
+        <v>180</v>
+      </c>
+      <c r="C189" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>294</v>
+      </c>
+      <c r="B190" t="s">
+        <v>181</v>
+      </c>
+      <c r="C190" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>294</v>
+      </c>
+      <c r="B191" t="s">
+        <v>182</v>
+      </c>
+      <c r="C191" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>284</v>
+      </c>
+      <c r="B192" t="s">
+        <v>185</v>
+      </c>
+      <c r="C192" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>284</v>
+      </c>
+      <c r="B193" t="s">
+        <v>186</v>
+      </c>
+      <c r="C193" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>284</v>
+      </c>
+      <c r="B194" t="s">
+        <v>187</v>
+      </c>
+      <c r="C194" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>284</v>
+      </c>
+      <c r="B195" t="s">
+        <v>188</v>
+      </c>
+      <c r="C195" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>284</v>
+      </c>
+      <c r="B196" t="s">
+        <v>189</v>
+      </c>
+      <c r="C196" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>284</v>
+      </c>
+      <c r="B197" t="s">
+        <v>140</v>
+      </c>
+      <c r="C197" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>284</v>
+      </c>
+      <c r="B198" t="s">
+        <v>292</v>
+      </c>
+      <c r="C198" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>284</v>
+      </c>
+      <c r="B199" t="s">
+        <v>191</v>
+      </c>
+      <c r="C199" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>284</v>
+      </c>
+      <c r="B200" t="s">
+        <v>192</v>
+      </c>
+      <c r="C200" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>284</v>
+      </c>
+      <c r="B201" t="s">
+        <v>41</v>
+      </c>
+      <c r="C201" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>284</v>
+      </c>
+      <c r="B202" t="s">
+        <v>193</v>
+      </c>
+      <c r="C202" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>284</v>
+      </c>
+      <c r="B203" t="s">
+        <v>84</v>
+      </c>
+      <c r="C203" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>284</v>
+      </c>
+      <c r="B204" t="s">
+        <v>194</v>
+      </c>
+      <c r="C204" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>284</v>
+      </c>
+      <c r="B205" t="s">
+        <v>195</v>
+      </c>
+      <c r="C205" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>284</v>
+      </c>
+      <c r="B206" t="s">
+        <v>196</v>
+      </c>
+      <c r="C206" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>284</v>
+      </c>
+      <c r="B207" t="s">
+        <v>106</v>
+      </c>
+      <c r="C207" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>284</v>
+      </c>
+      <c r="B208" t="s">
+        <v>91</v>
+      </c>
+      <c r="C208" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>284</v>
+      </c>
+      <c r="B209" t="s">
+        <v>197</v>
+      </c>
+      <c r="C209" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>284</v>
+      </c>
+      <c r="B210" t="s">
+        <v>198</v>
+      </c>
+      <c r="C210" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>284</v>
+      </c>
+      <c r="B211" t="s">
+        <v>199</v>
+      </c>
+      <c r="C211" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>284</v>
+      </c>
+      <c r="B212" t="s">
+        <v>48</v>
+      </c>
+      <c r="C212" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>284</v>
+      </c>
+      <c r="B213" t="s">
+        <v>200</v>
+      </c>
+      <c r="C213" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>284</v>
+      </c>
+      <c r="B214" t="s">
+        <v>201</v>
+      </c>
+      <c r="C214" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>284</v>
+      </c>
+      <c r="B215" t="s">
+        <v>50</v>
+      </c>
+      <c r="C215" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>284</v>
+      </c>
+      <c r="B216" t="s">
+        <v>202</v>
+      </c>
+      <c r="C216" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>284</v>
+      </c>
+      <c r="B217" t="s">
+        <v>153</v>
+      </c>
+      <c r="C217" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>284</v>
+      </c>
+      <c r="B218" t="s">
+        <v>203</v>
+      </c>
+      <c r="C218" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>284</v>
+      </c>
+      <c r="B219" t="s">
+        <v>204</v>
+      </c>
+      <c r="C219" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>284</v>
+      </c>
+      <c r="B220" t="s">
+        <v>205</v>
+      </c>
+      <c r="C220" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>284</v>
+      </c>
+      <c r="B221" t="s">
+        <v>291</v>
+      </c>
+      <c r="C221" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>284</v>
+      </c>
+      <c r="B222" t="s">
+        <v>290</v>
+      </c>
+      <c r="C222" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>284</v>
+      </c>
+      <c r="B223" t="s">
+        <v>289</v>
+      </c>
+      <c r="C223" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>284</v>
+      </c>
+      <c r="B224" t="s">
+        <v>288</v>
+      </c>
+      <c r="C224" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>284</v>
+      </c>
+      <c r="B225" t="s">
+        <v>287</v>
+      </c>
+      <c r="C225" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>284</v>
+      </c>
+      <c r="B226" t="s">
+        <v>286</v>
+      </c>
+      <c r="C226" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>284</v>
+      </c>
+      <c r="B227" t="s">
+        <v>285</v>
+      </c>
+      <c r="C227" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>284</v>
+      </c>
+      <c r="B228" t="s">
+        <v>283</v>
+      </c>
+      <c r="C228" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Metro_Arcs_Par_Station_IDs.xlsx
+++ b/Metro_Arcs_Par_Station_IDs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aurel\Documents\GitHub\ProbSciANA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://devinci-my.sharepoint.com/personal/noe_guenego_edu_devinci_fr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC488B52-0950-4230-AC03-1EBF9ED719DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{34A345B7-DEEA-4F95-AFFE-2F6F4D82FF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{257856DF-92C7-4C47-A41E-BE63CDB45291}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1390,14 +1390,14 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>48.878162652696503</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>48.875667375651702</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>48.874994575222999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>48.872037763641003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>48.868724887050497</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>48.867656291245702</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>48.866557992001603</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>48.864477838366497</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>48.862222264625998</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>48.860871211759502</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>48.8569534598372</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>48.857352404237702</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>48.8551874206563</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>48.852054292549496</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>48.845683205787601</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>48.847212925749702</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>48.848084289025799</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>48.847007730140398</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>48.844317513365297</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>48.871396794300303</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>48.869926081462602</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>48.8782277299144</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>48.879265253165102</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>48.880568769178801</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>48.881073182127601</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>48.882345817848098</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>48.883669087324698</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>48.883766353529197</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>48.8820209311193</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>48.882868567895898</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>48.883776088608897</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>48.884386409904799</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>48.884320547921902</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>48.883023912481399</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>48.877649807573398</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>48.872286601164802</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>48.869193344184303</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>48.8663901391973</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>48.862449843989303</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>48.858089427187601</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>48.856244677489201</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>48.851648542649002</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>45</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>48.885652392185897</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>46</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>48.884844321791903</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>47</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>48.883846389779201</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>48</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>48.882840021629796</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>50</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>48.878753163096697</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>51</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>48.875381315059897</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>52</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>48.873666750997103</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>53</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>48.871437428049198</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>54</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>48.869659096436202</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>55</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>48.868756796707601</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>56</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>48.867346603345702</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>57</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>48.866381755803502</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>58</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>48.865299611696798</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>59</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>48.8667566284863</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>60</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>48.867512356863102</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>61</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>48.865252394862502</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>62</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>48.864117700014603</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>64</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>48.865032563515904</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>65</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>48.864539371986403</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>66</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>48.876568598079999</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>67</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>48.871843371274899</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>68</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>48.868464886066697</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>70</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>48.897525630330101</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>71</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>48.894124442685502</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>72</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>48.891280438896601</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>73</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>48.887078876519602</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>75</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>48.879591706462101</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>76</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>48.876162993518399</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>77</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>48.872446916647398</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>78</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>48.869623581689503</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>80</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>48.863703011076197</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>81</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>48.862504839391299</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>83</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>48.854933848158502</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>84</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>48.853594076619899</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>85</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>48.8520245535667</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>86</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>48.853574562874201</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>87</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>48.851208626618501</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>88</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>48.847006650641099</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>89</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>48.843823610306202</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>90</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>48.842052322344102</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>91</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>48.839156358577299</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>92</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>48.833948692744002</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>93</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>48.831337584623199</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>94</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>48.828201063270903</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>95</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>48.823416350191799</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>96</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>48.888459210398899</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>97</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>48.886915952247001</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>98</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>48.885133847137801</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>103</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>48.870620925317198</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>105</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>48.864777097573203</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>106</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>48.8598769369206</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>107</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>48.856244053738202</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>109</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>48.846427324531497</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>110</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>48.843405408577198</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>111</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>48.838512445735603</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>112</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>48.835542932800998</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>113</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>48.830965712344302</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>115</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>48.871489411987</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>116</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>48.866848342469197</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>117</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>48.8634876640714</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>118</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>48.857515088672201</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>119</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>48.853925367427799</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>120</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>48.850411624858502</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>121</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>48.849630803484203</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>122</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>48.847543111245301</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>123</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>48.845647681702502</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>124</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>48.842528386594999</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>126</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>48.840903500750002</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>129</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>48.832916005270803</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>130</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>48.831115946668099</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>131</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>48.829860012364001</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>133</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>48.833235278727898</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>134</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>48.8349630811609</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>135</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>48.837074269661301</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>136</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>48.840176027173598</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>137</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>48.8390365273806</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>138</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>48.839434007104899</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>139</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>48.841427331285303</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>140</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>48.845103246553599</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>142</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>48.897802691407797</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>143</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>48.894672659108402</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>144</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>48.890885757980897</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>145</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>48.888157261117797</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>147</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>48.881206210877998</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>148</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>48.878441454784401</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>150</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>48.877164848302201</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>151</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>48.875963284127501</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>152</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>48.874959405092902</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>153</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>48.873134204826599</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>155</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>48.8657555264287</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>157</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>48.858546338320203</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>159</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>48.853459859479599</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>160</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>48.851271407445601</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>161</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>48.846197890688799</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>162</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>48.842666384694603</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>163</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>48.840226247565703</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>164</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>48.835841621396199</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>166</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>48.826136860805299</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>167</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>48.822149505126603</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>168</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>48.8191065956103</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>169</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>48.8200559281997</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>170</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>48.821489034614402</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>174</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>48.880789662027098</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>175</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>48.878499087450599</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>176</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>48.879534990320401</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>177</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>48.876723661025203</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>178</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>48.880159579716299</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>179</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>48.881949213972597</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>181</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>48.836667893882797</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>182</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>48.838660862711599</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>183</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>48.841024160045002</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>184</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>48.842684333848403</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>185</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>48.844611511420197</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>187</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>48.854919659638902</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>188</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>48.857727022586403</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>189</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>48.861092010432998</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>191</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>48.870544675768201</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>193</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>48.872135869369899</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>194</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>48.871504768814702</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>195</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>48.8705712985549</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>198</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>48.8630698825026</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>199</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>48.860968144808197</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>200</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>48.857087366872101</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>202</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>48.851337765850197</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>203</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>48.850110543185501</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>205</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>48.844005074760702</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>207</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>48.837077430087497</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>208</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>48.835017373145597</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>209</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>48.833449221931097</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>210</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>48.837958404671198</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>211</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>48.842580275328302</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>212</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>48.844911226614997</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>213</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>48.847975353228101</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>214</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>48.852433417777398</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>215</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>48.855503557447499</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>216</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>48.8580919659505</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>217</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>48.863951707931797</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>219</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>48.864780021309301</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>220</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>48.864647146957701</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>222</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>48.8721551301294</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>223</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>48.873447914847198</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>224</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>48.874546611986801</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>233</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>48.861416656960998</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>234</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>48.857662433437902</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>235</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>48.854939442500303</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>236</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>48.852214072383703</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>238</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>48.851762438884101</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>239</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>48.852731019531802</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>240</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>48.853482630258299</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>243</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>48.8467000343149</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>244</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>48.850195465121303</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>245</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>48.851026875926301</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>247</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>48.8528437373513</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>248</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>48.851565305443202</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>249</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>48.848894569110698</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>250</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>48.847009892663699</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>251</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>48.8471672690468</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>253</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>48.847038012756897</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>254</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>48.846604531449202</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>255</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>48.846181105275001</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>256</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>48.847143360508902</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>258</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>48.847904122681001</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>260</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>48.8450882982306</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>261</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>48.847077506397802</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>264</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>48.861190156002202</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>267</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>48.870007016890497</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>269</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>48.873818789232502</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>270</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>48.875247347693403</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>271</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>48.876723661025203</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>272</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>48.875510383232701</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>274</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>48.897402421722497</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>275</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>48.890579577619299</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>277</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>48.892492267253999</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>278</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>48.889681809018903</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>279</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>48.884392717043397</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>281</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>48.878416593953702</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>282</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>48.876035030332602</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>283</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>48.876336506359301</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>287</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>48.861071938577901</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>288</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>48.858531948780403</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>289</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>48.855884677537297</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>291</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>48.848332828092403</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>292</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>48.845077744689597</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>294</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>48.844317682586102</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>296</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>48.841411727466699</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>297</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>48.839437917128599</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>298</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>48.837135052856702</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>299</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>48.832519531565197</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>300</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>48.827613463055897</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>301</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>48.831750362119102</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>302</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>48.8340786788266</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>303</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>48.838526084074203</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>306</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>48.8512915499903</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>307</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>48.856624981798397</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>312</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>48.879534936427703</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>314</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>48.887433655789003</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>315</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>48.893001441013702</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>316</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>48.8974978363796</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>318</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>48.890651870242102</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>319</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>48.894431287069501</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>321</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>48.888103402695002</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>328</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>48.833319302895099</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>329</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>48.829925764980601</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>330</v>
       </c>
@@ -4864,16 +4864,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="E342" sqref="E342"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>252</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>252</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>252</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>252</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>252</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>252</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>252</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>252</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>252</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>252</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>252</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>252</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>252</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>252</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>252</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>252</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>252</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>252</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>252</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>253</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>253</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>253</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>253</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>253</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>253</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>253</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>253</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>253</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>253</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>253</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>253</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>253</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>253</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>253</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>253</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>253</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>253</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>253</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>253</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>253</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>253</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>253</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>253</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>254</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>254</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>254</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>254</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>254</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>254</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>254</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>254</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>254</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>254</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>254</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>254</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>254</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>254</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>254</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>254</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>254</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>254</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>254</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>254</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>254</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>254</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>254</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>254</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>255</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>255</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>255</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>255</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>255</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>255</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>255</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>255</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>255</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>255</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>255</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>255</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>255</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>255</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>255</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>255</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>255</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>255</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>255</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>255</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>255</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>255</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>255</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>255</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>255</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>255</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>255</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>255</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>256</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>256</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>256</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>256</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>256</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>256</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>256</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>256</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>256</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>256</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>256</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>256</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>256</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>256</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>256</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>256</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>256</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>256</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>256</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>256</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>256</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>257</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>257</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>257</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>258</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>258</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>258</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>258</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>258</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>258</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>258</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>258</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>258</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>258</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>258</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>258</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>258</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>258</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>258</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>258</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>258</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>258</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>258</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>258</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>258</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>258</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>258</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>258</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>258</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>258</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>258</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>259</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>259</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>259</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>259</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>259</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>259</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>259</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>259</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>259</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>259</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>259</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>259</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>259</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>259</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>259</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>259</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>259</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>259</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>259</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>259</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>259</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>259</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>259</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>259</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>259</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>259</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>259</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>259</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>259</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>259</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>259</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>259</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>259</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>260</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>260</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>260</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>260</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>260</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>260</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>261</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>261</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>261</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>261</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>261</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>261</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>261</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>261</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>261</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>261</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>261</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>261</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>261</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>261</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>261</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>261</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>261</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>261</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>261</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>261</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>261</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>261</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>261</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>261</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>261</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>261</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>261</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>261</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>261</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>261</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>261</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>261</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>261</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>261</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>261</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>261</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>261</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>300</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>300</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>300</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>300</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>300</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>300</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>300</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>300</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>300</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>300</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>300</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>300</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>300</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>300</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>300</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>300</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>300</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>300</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>300</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>300</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>300</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>300</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>300</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>300</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>300</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>300</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>300</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>300</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>300</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>300</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>300</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>300</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>300</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>300</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>300</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>300</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>307</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>307</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>307</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>307</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>307</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>307</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>307</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>307</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>307</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>307</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>307</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>307</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>307</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>307</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>307</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>307</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>307</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>307</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>307</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>307</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>307</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>307</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>312</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>312</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>312</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>312</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>312</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>312</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>312</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>312</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>312</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>312</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>312</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>314</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>314</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>314</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>314</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>314</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>314</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>314</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>314</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>314</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>314</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>314</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>314</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>314</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>314</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>314</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>314</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>314</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>314</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>314</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>314</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>314</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>314</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>314</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>314</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>314</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>314</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>314</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>314</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>314</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>321</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>321</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>321</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>321</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>321</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>321</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>321</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>321</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>321</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>321</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>321</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>321</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>321</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>321</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>321</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>321</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>321</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>321</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>321</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>321</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>321</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>321</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>321</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>321</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>321</v>
       </c>

--- a/Metro_Arcs_Par_Station_IDs.xlsx
+++ b/Metro_Arcs_Par_Station_IDs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://devinci-my.sharepoint.com/personal/noe_guenego_edu_devinci_fr/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aurel\Documents\GitHub\ProbSciANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{34A345B7-DEEA-4F95-AFFE-2F6F4D82FF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{257856DF-92C7-4C47-A41E-BE63CDB45291}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E98F1D-42E3-4A8B-948A-A0746BAFB594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="333">
   <si>
     <t>ID STATION</t>
   </si>
@@ -1017,6 +1017,9 @@
   </si>
   <si>
     <t>Châtillon - Montrouge</t>
+  </si>
+  <si>
+    <t>Station retirée par manque d'info</t>
   </si>
 </sst>
 </file>
@@ -1040,12 +1043,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1075,11 +1084,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1386,18 +1397,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D247"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +1422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1425,7 +1436,7 @@
         <v>48.878162652696503</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1439,7 +1450,7 @@
         <v>48.875667375651702</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1453,7 +1464,7 @@
         <v>48.874994575222999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1467,7 +1478,7 @@
         <v>48.872037763641003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1481,7 +1492,7 @@
         <v>48.868724887050497</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1495,7 +1506,7 @@
         <v>48.867656291245702</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1509,7 +1520,7 @@
         <v>48.866557992001603</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1523,7 +1534,7 @@
         <v>48.864477838366497</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1537,7 +1548,7 @@
         <v>48.862222264625998</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1551,7 +1562,7 @@
         <v>48.860871211759502</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1565,7 +1576,7 @@
         <v>48.8569534598372</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1579,7 +1590,7 @@
         <v>48.857352404237702</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1593,7 +1604,7 @@
         <v>48.8551874206563</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1607,7 +1618,7 @@
         <v>48.852054292549496</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1621,7 +1632,7 @@
         <v>48.845683205787601</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1635,7 +1646,7 @@
         <v>48.847212925749702</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1649,7 +1660,7 @@
         <v>48.848084289025799</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1663,7 +1674,7 @@
         <v>48.847007730140398</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1677,7 +1688,7 @@
         <v>48.844317513365297</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1691,7 +1702,7 @@
         <v>48.871396794300303</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1705,7 +1716,7 @@
         <v>48.869926081462602</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>23</v>
       </c>
@@ -1719,7 +1730,7 @@
         <v>48.8782277299144</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>24</v>
       </c>
@@ -1733,7 +1744,7 @@
         <v>48.879265253165102</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>25</v>
       </c>
@@ -1747,7 +1758,7 @@
         <v>48.880568769178801</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>26</v>
       </c>
@@ -1761,7 +1772,7 @@
         <v>48.881073182127601</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>27</v>
       </c>
@@ -1775,7 +1786,7 @@
         <v>48.882345817848098</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>28</v>
       </c>
@@ -1789,7 +1800,7 @@
         <v>48.883669087324698</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>29</v>
       </c>
@@ -1803,7 +1814,7 @@
         <v>48.883766353529197</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>30</v>
       </c>
@@ -1817,7 +1828,7 @@
         <v>48.8820209311193</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>31</v>
       </c>
@@ -1831,7 +1842,7 @@
         <v>48.882868567895898</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>32</v>
       </c>
@@ -1845,7 +1856,7 @@
         <v>48.883776088608897</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>33</v>
       </c>
@@ -1859,7 +1870,7 @@
         <v>48.884386409904799</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>34</v>
       </c>
@@ -1873,7 +1884,7 @@
         <v>48.884320547921902</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>35</v>
       </c>
@@ -1887,7 +1898,7 @@
         <v>48.883023912481399</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>36</v>
       </c>
@@ -1901,7 +1912,7 @@
         <v>48.877649807573398</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>37</v>
       </c>
@@ -1915,7 +1926,7 @@
         <v>48.872286601164802</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>38</v>
       </c>
@@ -1929,7 +1940,7 @@
         <v>48.869193344184303</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>39</v>
       </c>
@@ -1943,7 +1954,7 @@
         <v>48.8663901391973</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>40</v>
       </c>
@@ -1957,7 +1968,7 @@
         <v>48.862449843989303</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>41</v>
       </c>
@@ -1971,7 +1982,7 @@
         <v>48.858089427187601</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>42</v>
       </c>
@@ -1985,7 +1996,7 @@
         <v>48.856244677489201</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>43</v>
       </c>
@@ -1999,7 +2010,7 @@
         <v>48.851648542649002</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>45</v>
       </c>
@@ -2013,7 +2024,7 @@
         <v>48.885652392185897</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>46</v>
       </c>
@@ -2027,7 +2038,7 @@
         <v>48.884844321791903</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>47</v>
       </c>
@@ -2041,7 +2052,7 @@
         <v>48.883846389779201</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>48</v>
       </c>
@@ -2055,7 +2066,7 @@
         <v>48.882840021629796</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>50</v>
       </c>
@@ -2069,7 +2080,7 @@
         <v>48.878753163096697</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>51</v>
       </c>
@@ -2083,7 +2094,7 @@
         <v>48.875381315059897</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>52</v>
       </c>
@@ -2097,7 +2108,7 @@
         <v>48.873666750997103</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>53</v>
       </c>
@@ -2111,7 +2122,7 @@
         <v>48.871437428049198</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>54</v>
       </c>
@@ -2125,7 +2136,7 @@
         <v>48.869659096436202</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>55</v>
       </c>
@@ -2139,7 +2150,7 @@
         <v>48.868756796707601</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>56</v>
       </c>
@@ -2153,7 +2164,7 @@
         <v>48.867346603345702</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>57</v>
       </c>
@@ -2167,7 +2178,7 @@
         <v>48.866381755803502</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>58</v>
       </c>
@@ -2181,7 +2192,7 @@
         <v>48.865299611696798</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>59</v>
       </c>
@@ -2195,7 +2206,7 @@
         <v>48.8667566284863</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>60</v>
       </c>
@@ -2209,7 +2220,7 @@
         <v>48.867512356863102</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>61</v>
       </c>
@@ -2223,7 +2234,7 @@
         <v>48.865252394862502</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>62</v>
       </c>
@@ -2237,7 +2248,7 @@
         <v>48.864117700014603</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>64</v>
       </c>
@@ -2251,7 +2262,7 @@
         <v>48.865032563515904</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>65</v>
       </c>
@@ -2265,7 +2276,7 @@
         <v>48.864539371986403</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>66</v>
       </c>
@@ -2279,7 +2290,7 @@
         <v>48.876568598079999</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>67</v>
       </c>
@@ -2293,7 +2304,7 @@
         <v>48.871843371274899</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>68</v>
       </c>
@@ -2307,7 +2318,7 @@
         <v>48.868464886066697</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>70</v>
       </c>
@@ -2321,7 +2332,7 @@
         <v>48.897525630330101</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>71</v>
       </c>
@@ -2335,7 +2346,7 @@
         <v>48.894124442685502</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>72</v>
       </c>
@@ -2349,7 +2360,7 @@
         <v>48.891280438896601</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>73</v>
       </c>
@@ -2363,7 +2374,7 @@
         <v>48.887078876519602</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>75</v>
       </c>
@@ -2377,7 +2388,7 @@
         <v>48.879591706462101</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>76</v>
       </c>
@@ -2391,7 +2402,7 @@
         <v>48.876162993518399</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>77</v>
       </c>
@@ -2405,7 +2416,7 @@
         <v>48.872446916647398</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>78</v>
       </c>
@@ -2419,7 +2430,7 @@
         <v>48.869623581689503</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>80</v>
       </c>
@@ -2433,7 +2444,7 @@
         <v>48.863703011076197</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>81</v>
       </c>
@@ -2447,7 +2458,7 @@
         <v>48.862504839391299</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>83</v>
       </c>
@@ -2461,7 +2472,7 @@
         <v>48.854933848158502</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>84</v>
       </c>
@@ -2475,7 +2486,7 @@
         <v>48.853594076619899</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>85</v>
       </c>
@@ -2489,7 +2500,7 @@
         <v>48.8520245535667</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>86</v>
       </c>
@@ -2503,7 +2514,7 @@
         <v>48.853574562874201</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>87</v>
       </c>
@@ -2517,7 +2528,7 @@
         <v>48.851208626618501</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>88</v>
       </c>
@@ -2531,7 +2542,7 @@
         <v>48.847006650641099</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>89</v>
       </c>
@@ -2545,7 +2556,7 @@
         <v>48.843823610306202</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>90</v>
       </c>
@@ -2559,7 +2570,7 @@
         <v>48.842052322344102</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>91</v>
       </c>
@@ -2573,7 +2584,7 @@
         <v>48.839156358577299</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>92</v>
       </c>
@@ -2587,7 +2598,7 @@
         <v>48.833948692744002</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>93</v>
       </c>
@@ -2601,7 +2612,7 @@
         <v>48.831337584623199</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>94</v>
       </c>
@@ -2615,7 +2626,7 @@
         <v>48.828201063270903</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>95</v>
       </c>
@@ -2629,7 +2640,7 @@
         <v>48.823416350191799</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>96</v>
       </c>
@@ -2643,7 +2654,7 @@
         <v>48.888459210398899</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>97</v>
       </c>
@@ -2657,7 +2668,7 @@
         <v>48.886915952247001</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>98</v>
       </c>
@@ -2671,7 +2682,7 @@
         <v>48.885133847137801</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>103</v>
       </c>
@@ -2685,7 +2696,7 @@
         <v>48.870620925317198</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>105</v>
       </c>
@@ -2699,7 +2710,7 @@
         <v>48.864777097573203</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>106</v>
       </c>
@@ -2713,7 +2724,7 @@
         <v>48.8598769369206</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>107</v>
       </c>
@@ -2727,7 +2738,7 @@
         <v>48.856244053738202</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>109</v>
       </c>
@@ -2741,7 +2752,7 @@
         <v>48.846427324531497</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>110</v>
       </c>
@@ -2755,7 +2766,7 @@
         <v>48.843405408577198</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>111</v>
       </c>
@@ -2769,7 +2780,7 @@
         <v>48.838512445735603</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>112</v>
       </c>
@@ -2783,7 +2794,7 @@
         <v>48.835542932800998</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>113</v>
       </c>
@@ -2797,7 +2808,7 @@
         <v>48.830965712344302</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>115</v>
       </c>
@@ -2811,7 +2822,7 @@
         <v>48.871489411987</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>116</v>
       </c>
@@ -2825,7 +2836,7 @@
         <v>48.866848342469197</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>117</v>
       </c>
@@ -2839,7 +2850,7 @@
         <v>48.8634876640714</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>118</v>
       </c>
@@ -2853,7 +2864,7 @@
         <v>48.857515088672201</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>119</v>
       </c>
@@ -2867,7 +2878,7 @@
         <v>48.853925367427799</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>120</v>
       </c>
@@ -2881,7 +2892,7 @@
         <v>48.850411624858502</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>121</v>
       </c>
@@ -2895,7 +2906,7 @@
         <v>48.849630803484203</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>122</v>
       </c>
@@ -2909,7 +2920,7 @@
         <v>48.847543111245301</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>123</v>
       </c>
@@ -2923,7 +2934,7 @@
         <v>48.845647681702502</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>124</v>
       </c>
@@ -2937,7 +2948,7 @@
         <v>48.842528386594999</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>126</v>
       </c>
@@ -2951,7 +2962,7 @@
         <v>48.840903500750002</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>129</v>
       </c>
@@ -2965,7 +2976,7 @@
         <v>48.832916005270803</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>130</v>
       </c>
@@ -2979,7 +2990,7 @@
         <v>48.831115946668099</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>131</v>
       </c>
@@ -2993,7 +3004,7 @@
         <v>48.829860012364001</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>133</v>
       </c>
@@ -3007,7 +3018,7 @@
         <v>48.833235278727898</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>134</v>
       </c>
@@ -3021,7 +3032,7 @@
         <v>48.8349630811609</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>135</v>
       </c>
@@ -3035,7 +3046,7 @@
         <v>48.837074269661301</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>136</v>
       </c>
@@ -3049,7 +3060,7 @@
         <v>48.840176027173598</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>137</v>
       </c>
@@ -3063,7 +3074,7 @@
         <v>48.8390365273806</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>138</v>
       </c>
@@ -3077,7 +3088,7 @@
         <v>48.839434007104899</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>139</v>
       </c>
@@ -3091,7 +3102,7 @@
         <v>48.841427331285303</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>140</v>
       </c>
@@ -3105,7 +3116,7 @@
         <v>48.845103246553599</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>142</v>
       </c>
@@ -3119,7 +3130,7 @@
         <v>48.897802691407797</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>143</v>
       </c>
@@ -3133,7 +3144,7 @@
         <v>48.894672659108402</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>144</v>
       </c>
@@ -3147,7 +3158,7 @@
         <v>48.890885757980897</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>145</v>
       </c>
@@ -3161,7 +3172,7 @@
         <v>48.888157261117797</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>147</v>
       </c>
@@ -3175,7 +3186,7 @@
         <v>48.881206210877998</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>148</v>
       </c>
@@ -3189,7 +3200,7 @@
         <v>48.878441454784401</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>150</v>
       </c>
@@ -3203,7 +3214,7 @@
         <v>48.877164848302201</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>151</v>
       </c>
@@ -3217,7 +3228,7 @@
         <v>48.875963284127501</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>152</v>
       </c>
@@ -3231,7 +3242,7 @@
         <v>48.874959405092902</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>153</v>
       </c>
@@ -3245,7 +3256,7 @@
         <v>48.873134204826599</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>155</v>
       </c>
@@ -3259,7 +3270,7 @@
         <v>48.8657555264287</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>157</v>
       </c>
@@ -3273,7 +3284,7 @@
         <v>48.858546338320203</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>159</v>
       </c>
@@ -3287,7 +3298,7 @@
         <v>48.853459859479599</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>160</v>
       </c>
@@ -3301,7 +3312,7 @@
         <v>48.851271407445601</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>161</v>
       </c>
@@ -3315,7 +3326,7 @@
         <v>48.846197890688799</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>162</v>
       </c>
@@ -3329,7 +3340,7 @@
         <v>48.842666384694603</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>163</v>
       </c>
@@ -3343,7 +3354,7 @@
         <v>48.840226247565703</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>164</v>
       </c>
@@ -3357,7 +3368,7 @@
         <v>48.835841621396199</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>166</v>
       </c>
@@ -3371,7 +3382,7 @@
         <v>48.826136860805299</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>167</v>
       </c>
@@ -3385,7 +3396,7 @@
         <v>48.822149505126603</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>168</v>
       </c>
@@ -3399,7 +3410,7 @@
         <v>48.8191065956103</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>169</v>
       </c>
@@ -3413,7 +3424,7 @@
         <v>48.8200559281997</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>170</v>
       </c>
@@ -3427,7 +3438,7 @@
         <v>48.821489034614402</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>174</v>
       </c>
@@ -3441,7 +3452,7 @@
         <v>48.880789662027098</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>175</v>
       </c>
@@ -3455,7 +3466,7 @@
         <v>48.878499087450599</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>176</v>
       </c>
@@ -3469,7 +3480,7 @@
         <v>48.879534990320401</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>177</v>
       </c>
@@ -3483,7 +3494,7 @@
         <v>48.876723661025203</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>178</v>
       </c>
@@ -3497,7 +3508,7 @@
         <v>48.880159579716299</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>179</v>
       </c>
@@ -3511,7 +3522,7 @@
         <v>48.881949213972597</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>181</v>
       </c>
@@ -3525,7 +3536,7 @@
         <v>48.836667893882797</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>182</v>
       </c>
@@ -3539,7 +3550,7 @@
         <v>48.838660862711599</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>183</v>
       </c>
@@ -3553,7 +3564,7 @@
         <v>48.841024160045002</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>184</v>
       </c>
@@ -3567,7 +3578,7 @@
         <v>48.842684333848403</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>185</v>
       </c>
@@ -3581,7 +3592,7 @@
         <v>48.844611511420197</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>187</v>
       </c>
@@ -3595,7 +3606,7 @@
         <v>48.854919659638902</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>188</v>
       </c>
@@ -3609,7 +3620,7 @@
         <v>48.857727022586403</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>189</v>
       </c>
@@ -3623,7 +3634,7 @@
         <v>48.861092010432998</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>191</v>
       </c>
@@ -3637,7 +3648,7 @@
         <v>48.870544675768201</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>193</v>
       </c>
@@ -3651,7 +3662,7 @@
         <v>48.872135869369899</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>194</v>
       </c>
@@ -3665,7 +3676,7 @@
         <v>48.871504768814702</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>195</v>
       </c>
@@ -3679,7 +3690,7 @@
         <v>48.8705712985549</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>198</v>
       </c>
@@ -3693,7 +3704,7 @@
         <v>48.8630698825026</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>199</v>
       </c>
@@ -3707,7 +3718,7 @@
         <v>48.860968144808197</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>200</v>
       </c>
@@ -3721,7 +3732,7 @@
         <v>48.857087366872101</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>202</v>
       </c>
@@ -3735,7 +3746,7 @@
         <v>48.851337765850197</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>203</v>
       </c>
@@ -3749,7 +3760,7 @@
         <v>48.850110543185501</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>205</v>
       </c>
@@ -3763,7 +3774,7 @@
         <v>48.844005074760702</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>207</v>
       </c>
@@ -3777,7 +3788,7 @@
         <v>48.837077430087497</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>208</v>
       </c>
@@ -3791,7 +3802,7 @@
         <v>48.835017373145597</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>209</v>
       </c>
@@ -3805,7 +3816,7 @@
         <v>48.833449221931097</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>210</v>
       </c>
@@ -3819,7 +3830,7 @@
         <v>48.837958404671198</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>211</v>
       </c>
@@ -3833,7 +3844,7 @@
         <v>48.842580275328302</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>212</v>
       </c>
@@ -3847,7 +3858,7 @@
         <v>48.844911226614997</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>213</v>
       </c>
@@ -3861,7 +3872,7 @@
         <v>48.847975353228101</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>214</v>
       </c>
@@ -3875,7 +3886,7 @@
         <v>48.852433417777398</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>215</v>
       </c>
@@ -3889,7 +3900,7 @@
         <v>48.855503557447499</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>216</v>
       </c>
@@ -3903,7 +3914,7 @@
         <v>48.8580919659505</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>217</v>
       </c>
@@ -3917,7 +3928,7 @@
         <v>48.863951707931797</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>219</v>
       </c>
@@ -3931,7 +3942,7 @@
         <v>48.864780021309301</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>220</v>
       </c>
@@ -3945,7 +3956,7 @@
         <v>48.864647146957701</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>222</v>
       </c>
@@ -3959,7 +3970,7 @@
         <v>48.8721551301294</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>223</v>
       </c>
@@ -3973,7 +3984,7 @@
         <v>48.873447914847198</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>224</v>
       </c>
@@ -3987,7 +3998,7 @@
         <v>48.874546611986801</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>233</v>
       </c>
@@ -4001,7 +4012,7 @@
         <v>48.861416656960998</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>234</v>
       </c>
@@ -4015,7 +4026,7 @@
         <v>48.857662433437902</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>235</v>
       </c>
@@ -4029,7 +4040,7 @@
         <v>48.854939442500303</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>236</v>
       </c>
@@ -4043,7 +4054,7 @@
         <v>48.852214072383703</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>238</v>
       </c>
@@ -4057,7 +4068,7 @@
         <v>48.851762438884101</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>239</v>
       </c>
@@ -4071,7 +4082,7 @@
         <v>48.852731019531802</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>240</v>
       </c>
@@ -4085,7 +4096,7 @@
         <v>48.853482630258299</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>243</v>
       </c>
@@ -4099,7 +4110,7 @@
         <v>48.8467000343149</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>244</v>
       </c>
@@ -4113,7 +4124,7 @@
         <v>48.850195465121303</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>245</v>
       </c>
@@ -4127,7 +4138,7 @@
         <v>48.851026875926301</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>247</v>
       </c>
@@ -4141,7 +4152,7 @@
         <v>48.8528437373513</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>248</v>
       </c>
@@ -4155,7 +4166,7 @@
         <v>48.851565305443202</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>249</v>
       </c>
@@ -4169,7 +4180,7 @@
         <v>48.848894569110698</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>250</v>
       </c>
@@ -4183,7 +4194,7 @@
         <v>48.847009892663699</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>251</v>
       </c>
@@ -4197,7 +4208,7 @@
         <v>48.8471672690468</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>253</v>
       </c>
@@ -4211,7 +4222,7 @@
         <v>48.847038012756897</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>254</v>
       </c>
@@ -4225,7 +4236,7 @@
         <v>48.846604531449202</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>255</v>
       </c>
@@ -4239,7 +4250,7 @@
         <v>48.846181105275001</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>256</v>
       </c>
@@ -4253,7 +4264,7 @@
         <v>48.847143360508902</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>258</v>
       </c>
@@ -4267,7 +4278,7 @@
         <v>48.847904122681001</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>260</v>
       </c>
@@ -4281,7 +4292,7 @@
         <v>48.8450882982306</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>261</v>
       </c>
@@ -4295,7 +4306,7 @@
         <v>48.847077506397802</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>264</v>
       </c>
@@ -4309,7 +4320,7 @@
         <v>48.861190156002202</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>267</v>
       </c>
@@ -4323,7 +4334,7 @@
         <v>48.870007016890497</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>269</v>
       </c>
@@ -4337,7 +4348,7 @@
         <v>48.873818789232502</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>270</v>
       </c>
@@ -4351,7 +4362,7 @@
         <v>48.875247347693403</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>271</v>
       </c>
@@ -4365,7 +4376,7 @@
         <v>48.876723661025203</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>272</v>
       </c>
@@ -4379,7 +4390,7 @@
         <v>48.875510383232701</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>274</v>
       </c>
@@ -4393,7 +4404,7 @@
         <v>48.897402421722497</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>275</v>
       </c>
@@ -4407,7 +4418,7 @@
         <v>48.890579577619299</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>277</v>
       </c>
@@ -4421,7 +4432,7 @@
         <v>48.892492267253999</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>278</v>
       </c>
@@ -4435,7 +4446,7 @@
         <v>48.889681809018903</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>279</v>
       </c>
@@ -4449,7 +4460,7 @@
         <v>48.884392717043397</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>281</v>
       </c>
@@ -4463,7 +4474,7 @@
         <v>48.878416593953702</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>282</v>
       </c>
@@ -4477,7 +4488,7 @@
         <v>48.876035030332602</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>283</v>
       </c>
@@ -4491,7 +4502,7 @@
         <v>48.876336506359301</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>287</v>
       </c>
@@ -4505,7 +4516,7 @@
         <v>48.861071938577901</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>288</v>
       </c>
@@ -4519,7 +4530,7 @@
         <v>48.858531948780403</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>289</v>
       </c>
@@ -4533,7 +4544,7 @@
         <v>48.855884677537297</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>291</v>
       </c>
@@ -4547,7 +4558,7 @@
         <v>48.848332828092403</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>292</v>
       </c>
@@ -4561,7 +4572,7 @@
         <v>48.845077744689597</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>294</v>
       </c>
@@ -4575,7 +4586,7 @@
         <v>48.844317682586102</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>296</v>
       </c>
@@ -4589,7 +4600,7 @@
         <v>48.841411727466699</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>297</v>
       </c>
@@ -4603,7 +4614,7 @@
         <v>48.839437917128599</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>298</v>
       </c>
@@ -4617,7 +4628,7 @@
         <v>48.837135052856702</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>299</v>
       </c>
@@ -4631,7 +4642,7 @@
         <v>48.832519531565197</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>300</v>
       </c>
@@ -4645,7 +4656,7 @@
         <v>48.827613463055897</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>301</v>
       </c>
@@ -4659,7 +4670,7 @@
         <v>48.831750362119102</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>302</v>
       </c>
@@ -4673,7 +4684,7 @@
         <v>48.8340786788266</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>303</v>
       </c>
@@ -4687,7 +4698,7 @@
         <v>48.838526084074203</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>306</v>
       </c>
@@ -4701,7 +4712,7 @@
         <v>48.8512915499903</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>307</v>
       </c>
@@ -4715,7 +4726,7 @@
         <v>48.856624981798397</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>312</v>
       </c>
@@ -4729,7 +4740,7 @@
         <v>48.879534936427703</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>314</v>
       </c>
@@ -4743,7 +4754,7 @@
         <v>48.887433655789003</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>315</v>
       </c>
@@ -4757,7 +4768,7 @@
         <v>48.893001441013702</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>316</v>
       </c>
@@ -4771,7 +4782,7 @@
         <v>48.8974978363796</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>318</v>
       </c>
@@ -4785,7 +4796,7 @@
         <v>48.890651870242102</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>319</v>
       </c>
@@ -4799,7 +4810,7 @@
         <v>48.894431287069501</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>321</v>
       </c>
@@ -4813,7 +4824,7 @@
         <v>48.888103402695002</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>328</v>
       </c>
@@ -4827,7 +4838,7 @@
         <v>48.833319302895099</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>329</v>
       </c>
@@ -4841,7 +4852,7 @@
         <v>48.829925764980601</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>330</v>
       </c>
@@ -4862,18 +4873,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C348"/>
+  <dimension ref="A1:F345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="O34" workbookViewId="0">
+      <selection activeCell="AK34" sqref="AK34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -4884,7 +4896,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>252</v>
       </c>
@@ -4894,8 +4906,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F2" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>252</v>
       </c>
@@ -4906,7 +4921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>252</v>
       </c>
@@ -4917,7 +4932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>252</v>
       </c>
@@ -4928,7 +4943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>252</v>
       </c>
@@ -4939,7 +4954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>252</v>
       </c>
@@ -4950,7 +4965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>252</v>
       </c>
@@ -4961,7 +4976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>252</v>
       </c>
@@ -4972,7 +4987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>252</v>
       </c>
@@ -4983,7 +4998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>252</v>
       </c>
@@ -4994,7 +5009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>252</v>
       </c>
@@ -5005,7 +5020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>252</v>
       </c>
@@ -5016,7 +5031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>252</v>
       </c>
@@ -5027,7 +5042,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>252</v>
       </c>
@@ -5038,7 +5053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>252</v>
       </c>
@@ -5049,7 +5064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>252</v>
       </c>
@@ -5060,7 +5075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>252</v>
       </c>
@@ -5071,7 +5086,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>252</v>
       </c>
@@ -5082,7 +5097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>252</v>
       </c>
@@ -5093,7 +5108,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>253</v>
       </c>
@@ -5104,7 +5119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>253</v>
       </c>
@@ -5115,7 +5130,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>253</v>
       </c>
@@ -5126,7 +5141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>253</v>
       </c>
@@ -5137,7 +5152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>253</v>
       </c>
@@ -5148,7 +5163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>253</v>
       </c>
@@ -5159,7 +5174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>253</v>
       </c>
@@ -5170,7 +5185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>253</v>
       </c>
@@ -5181,7 +5196,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>253</v>
       </c>
@@ -5192,7 +5207,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>253</v>
       </c>
@@ -5203,7 +5218,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>253</v>
       </c>
@@ -5214,7 +5229,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>253</v>
       </c>
@@ -5225,7 +5240,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>253</v>
       </c>
@@ -5236,7 +5251,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>253</v>
       </c>
@@ -5247,7 +5262,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>253</v>
       </c>
@@ -5258,7 +5273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>253</v>
       </c>
@@ -5269,7 +5284,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>253</v>
       </c>
@@ -5280,7 +5295,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>253</v>
       </c>
@@ -5291,7 +5306,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>253</v>
       </c>
@@ -5302,7 +5317,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>253</v>
       </c>
@@ -5313,7 +5328,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>253</v>
       </c>
@@ -5324,7 +5339,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>253</v>
       </c>
@@ -5335,7 +5350,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>253</v>
       </c>
@@ -5346,7 +5361,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>253</v>
       </c>
@@ -5357,7 +5372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>254</v>
       </c>
@@ -5368,7 +5383,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>254</v>
       </c>
@@ -5379,7 +5394,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>254</v>
       </c>
@@ -5390,7 +5405,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>254</v>
       </c>
@@ -5401,7 +5416,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>254</v>
       </c>
@@ -5412,7 +5427,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>254</v>
       </c>
@@ -5423,7 +5438,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>254</v>
       </c>
@@ -5434,7 +5449,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>254</v>
       </c>
@@ -5445,7 +5460,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>254</v>
       </c>
@@ -5456,7 +5471,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>254</v>
       </c>
@@ -5467,7 +5482,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>254</v>
       </c>
@@ -5478,7 +5493,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>254</v>
       </c>
@@ -5489,7 +5504,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>254</v>
       </c>
@@ -5500,7 +5515,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>254</v>
       </c>
@@ -5511,7 +5526,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>254</v>
       </c>
@@ -5522,7 +5537,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>254</v>
       </c>
@@ -5533,7 +5548,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>254</v>
       </c>
@@ -5544,7 +5559,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>254</v>
       </c>
@@ -5555,7 +5570,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>254</v>
       </c>
@@ -5566,7 +5581,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>254</v>
       </c>
@@ -5577,7 +5592,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>254</v>
       </c>
@@ -5588,7 +5603,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>254</v>
       </c>
@@ -5599,7 +5614,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>254</v>
       </c>
@@ -5610,7 +5625,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>254</v>
       </c>
@@ -5621,7 +5636,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>255</v>
       </c>
@@ -5632,7 +5647,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>255</v>
       </c>
@@ -5643,7 +5658,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>255</v>
       </c>
@@ -5654,3050 +5669,3017 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>255</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C72" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C72" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>255</v>
       </c>
-      <c r="B73" t="s">
-        <v>33</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B73" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C73" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>255</v>
       </c>
-      <c r="B74" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B74" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C74" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>255</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C75" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>255</v>
       </c>
-      <c r="B76" t="s">
-        <v>73</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B76" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C76" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>255</v>
       </c>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>270</v>
       </c>
       <c r="C77" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>255</v>
       </c>
-      <c r="B78" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>255</v>
       </c>
       <c r="B79" t="s">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>255</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>255</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>255</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>255</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>255</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>255</v>
       </c>
       <c r="B85" t="s">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="C85" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>255</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>255</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>255</v>
       </c>
       <c r="B88" t="s">
-        <v>271</v>
+        <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>255</v>
       </c>
       <c r="B89" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>255</v>
       </c>
       <c r="B90" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>255</v>
       </c>
       <c r="B91" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>255</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
+        <v>272</v>
       </c>
       <c r="C92" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>255</v>
       </c>
       <c r="B93" t="s">
-        <v>88</v>
+        <v>273</v>
       </c>
       <c r="C93" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
+        <v>274</v>
       </c>
       <c r="C94" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B95" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C95" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B96" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C96" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>256</v>
       </c>
       <c r="B97" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C97" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>256</v>
       </c>
       <c r="B98" t="s">
-        <v>275</v>
+        <v>90</v>
       </c>
       <c r="C98" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>256</v>
       </c>
       <c r="B99" t="s">
-        <v>276</v>
+        <v>91</v>
       </c>
       <c r="C99" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>256</v>
       </c>
       <c r="B100" t="s">
-        <v>277</v>
+        <v>92</v>
       </c>
       <c r="C100" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>256</v>
       </c>
       <c r="B101" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="C101" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>256</v>
       </c>
       <c r="B102" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="C102" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>256</v>
       </c>
       <c r="B103" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C103" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>256</v>
       </c>
       <c r="B104" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C104" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>256</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C105" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>256</v>
       </c>
       <c r="B106" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C106" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>256</v>
       </c>
       <c r="B107" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C107" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>256</v>
       </c>
       <c r="B108" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C108" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>256</v>
       </c>
       <c r="B109" t="s">
-        <v>59</v>
+        <v>278</v>
       </c>
       <c r="C109" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>256</v>
       </c>
       <c r="B110" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>256</v>
       </c>
       <c r="B111" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C111" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>256</v>
       </c>
       <c r="B112" t="s">
-        <v>278</v>
+        <v>98</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>256</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C113" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>256</v>
       </c>
       <c r="B114" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C114" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B115" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="C115" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B116" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C116" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B117" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C117" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B118" t="s">
-        <v>62</v>
+        <v>264</v>
       </c>
       <c r="C118" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B119" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="C119" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B120" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="C120" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>258</v>
       </c>
       <c r="B121" t="s">
-        <v>264</v>
+        <v>104</v>
       </c>
       <c r="C121" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>258</v>
       </c>
       <c r="B122" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C122" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>258</v>
       </c>
       <c r="B123" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C123" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>258</v>
       </c>
       <c r="B124" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C124" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>258</v>
       </c>
       <c r="B125" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C125" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>258</v>
       </c>
       <c r="B126" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C126" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>258</v>
       </c>
       <c r="B127" t="s">
-        <v>107</v>
+        <v>279</v>
       </c>
       <c r="C127" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>258</v>
       </c>
       <c r="B128" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C128" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>258</v>
       </c>
       <c r="B129" t="s">
-        <v>109</v>
+        <v>271</v>
       </c>
       <c r="C129" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>258</v>
       </c>
       <c r="B130" t="s">
-        <v>279</v>
+        <v>112</v>
       </c>
       <c r="C130" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>258</v>
       </c>
       <c r="B131" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C131" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>258</v>
       </c>
       <c r="B132" t="s">
-        <v>271</v>
+        <v>86</v>
       </c>
       <c r="C132" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>258</v>
       </c>
       <c r="B133" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C133" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>258</v>
       </c>
       <c r="B134" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="C134" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>258</v>
       </c>
       <c r="B135" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="C135" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>258</v>
       </c>
       <c r="B136" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C136" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>258</v>
       </c>
       <c r="B137" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C137" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>258</v>
       </c>
       <c r="B138" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C138" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>258</v>
       </c>
       <c r="B139" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C139" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>258</v>
       </c>
       <c r="B140" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C140" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>258</v>
       </c>
       <c r="B141" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C141" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>258</v>
       </c>
       <c r="B142" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C142" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>258</v>
       </c>
       <c r="B143" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C143" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>258</v>
       </c>
       <c r="B144" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C144" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B145" t="s">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="C145" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B146" t="s">
-        <v>122</v>
+        <v>281</v>
       </c>
       <c r="C146" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B147" t="s">
-        <v>123</v>
+        <v>282</v>
       </c>
       <c r="C147" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>259</v>
       </c>
       <c r="B148" t="s">
-        <v>280</v>
+        <v>124</v>
       </c>
       <c r="C148" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>259</v>
       </c>
       <c r="B149" t="s">
-        <v>281</v>
+        <v>125</v>
       </c>
       <c r="C149" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>259</v>
       </c>
       <c r="B150" t="s">
-        <v>282</v>
+        <v>126</v>
       </c>
       <c r="C150" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>259</v>
       </c>
       <c r="B151" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C151" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>259</v>
       </c>
       <c r="B152" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="C152" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>259</v>
       </c>
       <c r="B153" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C153" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>259</v>
       </c>
       <c r="B154" t="s">
-        <v>127</v>
+        <v>283</v>
       </c>
       <c r="C154" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>259</v>
       </c>
       <c r="B155" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C155" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>259</v>
       </c>
       <c r="B156" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C156" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>259</v>
       </c>
       <c r="B157" t="s">
-        <v>283</v>
+        <v>131</v>
       </c>
       <c r="C157" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>259</v>
       </c>
       <c r="B158" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="C158" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>259</v>
       </c>
       <c r="B159" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C159" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>259</v>
       </c>
       <c r="B160" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="C160" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>259</v>
       </c>
       <c r="B161" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C161" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>259</v>
       </c>
       <c r="B162" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="C162" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>259</v>
       </c>
       <c r="B163" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="C163" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>259</v>
       </c>
       <c r="B164" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="C164" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>259</v>
       </c>
       <c r="B165" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="C165" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>259</v>
       </c>
       <c r="B166" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C166" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>259</v>
       </c>
       <c r="B167" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="C167" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>259</v>
       </c>
       <c r="B168" t="s">
-        <v>284</v>
+        <v>139</v>
       </c>
       <c r="C168" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>259</v>
       </c>
       <c r="B169" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C169" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>259</v>
       </c>
       <c r="B170" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C170" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>259</v>
       </c>
       <c r="B171" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="C171" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>259</v>
       </c>
       <c r="B172" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C172" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>259</v>
       </c>
       <c r="B173" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C173" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>259</v>
       </c>
       <c r="B174" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="C174" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>259</v>
       </c>
       <c r="B175" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C175" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>259</v>
       </c>
       <c r="B176" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C176" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>259</v>
       </c>
       <c r="B177" t="s">
-        <v>144</v>
+        <v>285</v>
       </c>
       <c r="C177" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B178" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C178" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B179" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="C179" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B180" t="s">
-        <v>285</v>
+        <v>147</v>
       </c>
       <c r="C180" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>260</v>
       </c>
       <c r="B181" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C181" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>260</v>
       </c>
       <c r="B182" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="C182" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>260</v>
       </c>
       <c r="B183" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C183" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B184" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C184" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B185" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C185" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B186" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C186" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>261</v>
       </c>
       <c r="B187" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C187" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>261</v>
       </c>
       <c r="B188" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C188" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>261</v>
       </c>
       <c r="B189" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="C189" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>261</v>
       </c>
       <c r="B190" t="s">
-        <v>156</v>
+        <v>286</v>
       </c>
       <c r="C190" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>261</v>
       </c>
       <c r="B191" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C191" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>261</v>
       </c>
       <c r="B192" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="C192" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>261</v>
       </c>
       <c r="B193" t="s">
-        <v>286</v>
+        <v>10</v>
       </c>
       <c r="C193" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>261</v>
       </c>
       <c r="B194" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C194" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>261</v>
       </c>
       <c r="B195" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="C195" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>261</v>
       </c>
       <c r="B196" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="C196" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>261</v>
       </c>
       <c r="B197" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C197" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>261</v>
       </c>
       <c r="B198" t="s">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="C198" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>261</v>
       </c>
       <c r="B199" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="C199" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>261</v>
       </c>
       <c r="B200" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="C200" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>261</v>
       </c>
       <c r="B201" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C201" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>261</v>
       </c>
       <c r="B202" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="C202" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>261</v>
       </c>
       <c r="B203" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="C203" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>261</v>
       </c>
       <c r="B204" t="s">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="C204" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>261</v>
       </c>
       <c r="B205" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C205" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>261</v>
       </c>
       <c r="B206" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C206" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>261</v>
       </c>
       <c r="B207" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C207" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>261</v>
       </c>
       <c r="B208" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C208" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>261</v>
       </c>
       <c r="B209" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="C209" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>261</v>
       </c>
       <c r="B210" t="s">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="C210" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>261</v>
       </c>
       <c r="B211" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C211" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>261</v>
       </c>
       <c r="B212" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="C212" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>261</v>
       </c>
       <c r="B213" t="s">
-        <v>171</v>
+        <v>287</v>
       </c>
       <c r="C213" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>261</v>
       </c>
       <c r="B214" t="s">
-        <v>172</v>
+        <v>288</v>
       </c>
       <c r="C214" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>261</v>
       </c>
       <c r="B215" t="s">
-        <v>173</v>
+        <v>289</v>
       </c>
       <c r="C215" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>261</v>
       </c>
       <c r="B216" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C216" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>261</v>
       </c>
       <c r="B217" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C217" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>261</v>
       </c>
       <c r="B218" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C218" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>261</v>
       </c>
       <c r="B219" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C219" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>261</v>
       </c>
       <c r="B220" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C220" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="B221" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C221" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="B222" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C222" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="B223" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C223" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>300</v>
       </c>
       <c r="B224" t="s">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="C224" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>300</v>
       </c>
       <c r="B225" t="s">
-        <v>302</v>
+        <v>175</v>
       </c>
       <c r="C225" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>300</v>
       </c>
       <c r="B226" t="s">
-        <v>303</v>
+        <v>176</v>
       </c>
       <c r="C226" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>300</v>
       </c>
       <c r="B227" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C227" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>300</v>
       </c>
       <c r="B228" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C228" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>300</v>
       </c>
       <c r="B229" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C229" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>300</v>
       </c>
       <c r="B230" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C230" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>300</v>
       </c>
       <c r="B231" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C231" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>300</v>
       </c>
       <c r="B232" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="C232" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>300</v>
       </c>
       <c r="B233" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C233" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>300</v>
       </c>
       <c r="B234" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C234" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>300</v>
       </c>
       <c r="B235" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>300</v>
       </c>
       <c r="B236" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C236" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>300</v>
       </c>
       <c r="B237" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C237" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>300</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="C238" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>300</v>
       </c>
       <c r="B239" t="s">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="C239" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>300</v>
       </c>
       <c r="B240" t="s">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="C240" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>300</v>
       </c>
       <c r="B241" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="C241" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>300</v>
       </c>
       <c r="B242" t="s">
-        <v>268</v>
+        <v>163</v>
       </c>
       <c r="C242" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>300</v>
       </c>
       <c r="B243" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="C243" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>300</v>
       </c>
       <c r="B244" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="C244" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>300</v>
       </c>
       <c r="B245" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="C245" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>300</v>
       </c>
       <c r="B246" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="C246" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>300</v>
       </c>
       <c r="B247" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="C247" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>300</v>
       </c>
       <c r="B248" t="s">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="C248" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>300</v>
       </c>
       <c r="B249" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="C249" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>300</v>
       </c>
       <c r="B250" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C250" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>300</v>
       </c>
       <c r="B251" t="s">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="C251" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>300</v>
       </c>
       <c r="B252" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C252" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>300</v>
       </c>
       <c r="B253" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C253" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>300</v>
       </c>
       <c r="B254" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="C254" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>300</v>
       </c>
       <c r="B255" t="s">
-        <v>191</v>
+        <v>304</v>
       </c>
       <c r="C255" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>300</v>
       </c>
       <c r="B256" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
       <c r="C256" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B257" t="s">
-        <v>193</v>
+        <v>308</v>
       </c>
       <c r="C257" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B258" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C258" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B259" t="s">
-        <v>305</v>
+        <v>176</v>
       </c>
       <c r="C259" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>307</v>
       </c>
       <c r="B260" t="s">
-        <v>308</v>
+        <v>177</v>
       </c>
       <c r="C260" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>307</v>
       </c>
       <c r="B261" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C261" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>307</v>
       </c>
       <c r="B262" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="C262" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>307</v>
       </c>
       <c r="B263" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="C263" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>307</v>
       </c>
       <c r="B264" t="s">
-        <v>310</v>
+        <v>203</v>
       </c>
       <c r="C264" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>307</v>
       </c>
       <c r="B265" t="s">
-        <v>208</v>
+        <v>311</v>
       </c>
       <c r="C265" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>307</v>
       </c>
       <c r="B266" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="C266" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>307</v>
       </c>
       <c r="B267" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C267" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>307</v>
       </c>
       <c r="B268" t="s">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c r="C268" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>307</v>
       </c>
       <c r="B269" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="C269" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>307</v>
       </c>
       <c r="B270" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C270" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>307</v>
       </c>
       <c r="B271" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C271" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>307</v>
       </c>
       <c r="B272" t="s">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="C272" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>307</v>
       </c>
       <c r="B273" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C273" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>307</v>
       </c>
       <c r="B274" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C274" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>307</v>
       </c>
       <c r="B275" t="s">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="C275" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>307</v>
       </c>
       <c r="B276" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="C276" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>307</v>
       </c>
       <c r="B277" t="s">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="C277" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>307</v>
       </c>
       <c r="B278" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="C278" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B279" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="C279" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B280" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="C280" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B281" t="s">
-        <v>118</v>
+        <v>209</v>
       </c>
       <c r="C281" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>312</v>
       </c>
       <c r="B282" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C282" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>312</v>
       </c>
       <c r="B283" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C283" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>312</v>
       </c>
       <c r="B284" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C284" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>312</v>
       </c>
       <c r="B285" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C285" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>312</v>
       </c>
       <c r="B286" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="C286" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>312</v>
       </c>
       <c r="B287" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C287" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>312</v>
       </c>
       <c r="B288" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="C288" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>312</v>
       </c>
       <c r="B289" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C289" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>312</v>
       </c>
       <c r="B290" t="s">
-        <v>212</v>
+        <v>64</v>
       </c>
       <c r="C290" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B291" t="s">
-        <v>150</v>
+        <v>315</v>
       </c>
       <c r="C291" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B292" t="s">
-        <v>214</v>
+        <v>316</v>
       </c>
       <c r="C292" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B293" t="s">
-        <v>64</v>
+        <v>317</v>
       </c>
       <c r="C293" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>314</v>
       </c>
       <c r="B294" t="s">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="C294" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>314</v>
       </c>
       <c r="B295" t="s">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="C295" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>314</v>
       </c>
       <c r="B296" t="s">
-        <v>317</v>
+        <v>69</v>
       </c>
       <c r="C296" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>314</v>
       </c>
       <c r="B297" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C297" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>314</v>
       </c>
       <c r="B298" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C298" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>314</v>
       </c>
       <c r="B299" t="s">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="C299" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>314</v>
       </c>
       <c r="B300" t="s">
-        <v>217</v>
+        <v>31</v>
       </c>
       <c r="C300" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>314</v>
       </c>
       <c r="B301" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C301" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>314</v>
       </c>
       <c r="B302" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C302" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>314</v>
       </c>
       <c r="B303" t="s">
-        <v>31</v>
+        <v>222</v>
       </c>
       <c r="C303" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>314</v>
       </c>
       <c r="B304" t="s">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="C304" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>314</v>
       </c>
       <c r="B305" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="C305" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>314</v>
       </c>
       <c r="B306" t="s">
-        <v>222</v>
+        <v>10</v>
       </c>
       <c r="C306" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>314</v>
       </c>
       <c r="B307" t="s">
-        <v>50</v>
+        <v>223</v>
       </c>
       <c r="C307" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>314</v>
       </c>
       <c r="B308" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="C308" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>314</v>
       </c>
       <c r="B309" t="s">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="C309" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>314</v>
       </c>
       <c r="B310" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C310" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C311" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>314</v>
       </c>
       <c r="B312" t="s">
-        <v>225</v>
+        <v>318</v>
       </c>
       <c r="C312" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>314</v>
       </c>
       <c r="B313" t="s">
-        <v>198</v>
+        <v>271</v>
       </c>
       <c r="C313" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>314</v>
       </c>
       <c r="B314" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C314" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>318</v>
+        <v>111</v>
       </c>
       <c r="C315" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="C316" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>314</v>
       </c>
       <c r="B317" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C317" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>314</v>
       </c>
       <c r="B318" t="s">
-        <v>111</v>
+        <v>231</v>
       </c>
       <c r="C318" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>314</v>
       </c>
       <c r="B319" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C319" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>314</v>
       </c>
       <c r="B320" t="s">
-        <v>230</v>
+        <v>319</v>
       </c>
       <c r="C320" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B321" t="s">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>232</v>
+        <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C323" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>321</v>
       </c>
       <c r="B324" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C324" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>321</v>
       </c>
       <c r="B325" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C325" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>321</v>
       </c>
       <c r="B326" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>321</v>
       </c>
       <c r="B327" t="s">
-        <v>325</v>
+        <v>242</v>
       </c>
       <c r="C327" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>321</v>
       </c>
       <c r="B328" t="s">
-        <v>326</v>
+        <v>241</v>
       </c>
       <c r="C328" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>321</v>
       </c>
       <c r="B329" t="s">
-        <v>327</v>
+        <v>240</v>
       </c>
       <c r="C329" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>321</v>
       </c>
       <c r="B330" t="s">
-        <v>242</v>
+        <v>29</v>
       </c>
       <c r="C330" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>321</v>
       </c>
       <c r="B331" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C331" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>321</v>
       </c>
       <c r="B332" t="s">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="C332" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>321</v>
       </c>
       <c r="B333" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="C333" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>321</v>
       </c>
       <c r="B334" t="s">
-        <v>239</v>
+        <v>328</v>
       </c>
       <c r="C334" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>321</v>
       </c>
       <c r="B335" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="C335" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>321</v>
       </c>
       <c r="B336" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="C336" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>321</v>
       </c>
       <c r="B337" t="s">
-        <v>328</v>
+        <v>237</v>
       </c>
       <c r="C337" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>321</v>
       </c>
       <c r="B338" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C338" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>321</v>
       </c>
       <c r="B339" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C339" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>321</v>
       </c>
       <c r="B340" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C340" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>321</v>
       </c>
       <c r="B341" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="C341" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>321</v>
       </c>
       <c r="B342" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="C342" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>321</v>
       </c>
       <c r="B343" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C343" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>321</v>
       </c>
       <c r="B344" t="s">
-        <v>235</v>
+        <v>329</v>
       </c>
       <c r="C344" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>321</v>
       </c>
       <c r="B345" t="s">
-        <v>234</v>
+        <v>330</v>
       </c>
       <c r="C345" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
-        <v>321</v>
-      </c>
-      <c r="B346" t="s">
-        <v>233</v>
-      </c>
-      <c r="C346" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
-        <v>321</v>
-      </c>
-      <c r="B347" t="s">
-        <v>329</v>
-      </c>
-      <c r="C347" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
-        <v>321</v>
-      </c>
-      <c r="B348" t="s">
-        <v>330</v>
-      </c>
-      <c r="C348" t="s">
         <v>331</v>
       </c>
     </row>

--- a/Metro_Arcs_Par_Station_IDs.xlsx
+++ b/Metro_Arcs_Par_Station_IDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aurel\Documents\GitHub\ProbSciANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E98F1D-42E3-4A8B-948A-A0746BAFB594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42498BCD-27AE-414A-9B71-EB960EA915C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="0" windowWidth="19200" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1084,13 +1084,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4875,7 +4874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O34" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AK34" sqref="AK34"/>
     </sheetView>
   </sheetViews>
@@ -5709,7 +5708,7 @@
       <c r="B75" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" t="s">
         <v>74</v>
       </c>
     </row>

--- a/Metro_Arcs_Par_Station_IDs.xlsx
+++ b/Metro_Arcs_Par_Station_IDs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://devinci-my.sharepoint.com/personal/noe_guenego_edu_devinci_fr/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noe\Documents\GitHub\ProbSciANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{34A345B7-DEEA-4F95-AFFE-2F6F4D82FF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{257856DF-92C7-4C47-A41E-BE63CDB45291}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25780B6-33CA-439A-80FE-C4BB0E476185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,28 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="340">
   <si>
     <t>ID STATION</t>
   </si>
@@ -71,6 +87,9 @@
     <t>Hôtel de Ville</t>
   </si>
   <si>
+    <t>Saint-Paul</t>
+  </si>
+  <si>
     <t>Bastille</t>
   </si>
   <si>
@@ -662,9 +681,6 @@
     <t>Jourdain</t>
   </si>
   <si>
-    <t>Place des FÃªtes</t>
-  </si>
-  <si>
     <t>Télégraphe</t>
   </si>
   <si>
@@ -782,105 +798,108 @@
     <t>1</t>
   </si>
   <si>
+    <t>Les Sablons</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>Charles de Gaulle - Étoile</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>Pont de Levallois - Bécon</t>
+  </si>
+  <si>
+    <t>Anatole France</t>
+  </si>
+  <si>
+    <t>Louise Michel</t>
+  </si>
+  <si>
+    <t>Havre - Caumartin</t>
+  </si>
+  <si>
+    <t>Quatre-Septembre</t>
+  </si>
+  <si>
+    <t>Gallieni</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
+    <t>Étienne Marcel</t>
+  </si>
+  <si>
+    <t>Mairie de Montrouge</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Bagneux - Lucie Aubrac</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
+    <t>Bobigny - Pablo Picasso</t>
+  </si>
+  <si>
+    <t>Bobigny - Pantin - Raymond Queneau</t>
+  </si>
+  <si>
+    <t>Église de Pantin</t>
+  </si>
+  <si>
+    <t>Hoche</t>
+  </si>
+  <si>
+    <t>Bréguet - Sabin</t>
+  </si>
+  <si>
     <t>3bis</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
+    <t>Sèvres - Lecourbe</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
+    <t>La Courneuve - 8 Mai 1945</t>
+  </si>
+  <si>
+    <t>Fort d'Aubervilliers</t>
+  </si>
+  <si>
+    <t>Aubervilliers - Pantin - Quatre Chemins</t>
+  </si>
+  <si>
+    <t>Château-Landon</t>
+  </si>
+  <si>
+    <t>Pont Marie</t>
+  </si>
+  <si>
+    <t>Pierre et Marie Curie</t>
+  </si>
+  <si>
+    <t>Mairie d'Ivry</t>
+  </si>
+  <si>
     <t>7bis</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>Les Sablons</t>
-  </si>
-  <si>
-    <t>Saint-Paul</t>
-  </si>
-  <si>
-    <t>Charles de Gaulle - Étoile</t>
-  </si>
-  <si>
-    <t>Pont de Levallois - Bécon</t>
-  </si>
-  <si>
-    <t>Anatole France</t>
-  </si>
-  <si>
-    <t>Louise Michel</t>
-  </si>
-  <si>
-    <t>Havre - Caumartin</t>
-  </si>
-  <si>
-    <t>Quatre-Septembre</t>
-  </si>
-  <si>
-    <t>Étienne Marcel</t>
-  </si>
-  <si>
-    <t>Montparnasse - Bienvenüe</t>
-  </si>
-  <si>
-    <t>Mairie de Montrouge</t>
-  </si>
-  <si>
-    <t>Barbara</t>
-  </si>
-  <si>
-    <t>Bobigny - Pablo Picasso</t>
-  </si>
-  <si>
-    <t>Bobigny - Pantin - Raymond Queneau</t>
-  </si>
-  <si>
-    <t>Église de Pantin</t>
-  </si>
-  <si>
-    <t>Hoche</t>
-  </si>
-  <si>
-    <t>Bréguet - Sabin</t>
-  </si>
-  <si>
-    <t>Sèvres - Lecourbe</t>
-  </si>
-  <si>
-    <t>La Courneuve - 8 Mai 1945</t>
-  </si>
-  <si>
-    <t>Fort d'Aubervilliers</t>
-  </si>
-  <si>
-    <t>Aubervilliers - Pantin - Quatre Chemins</t>
-  </si>
-  <si>
-    <t>Château-Landon</t>
-  </si>
-  <si>
-    <t>Pont Marie</t>
-  </si>
-  <si>
-    <t>Pierre et Marie Curie</t>
-  </si>
-  <si>
     <t>École Militaire</t>
   </si>
   <si>
@@ -908,18 +927,6 @@
     <t>Créteil - Préfecture</t>
   </si>
   <si>
-    <t>Gallieni</t>
-  </si>
-  <si>
-    <t>Bagneux - Lucie Aubrac</t>
-  </si>
-  <si>
-    <t>Mairie d'Ivry</t>
-  </si>
-  <si>
-    <t>Pré Saint-Gervais</t>
-  </si>
-  <si>
     <t>Pointe du Lac</t>
   </si>
   <si>
@@ -953,9 +960,6 @@
     <t>Boulogne - Jean Jaurès</t>
   </si>
   <si>
-    <t>Église d'Auteuil</t>
-  </si>
-  <si>
     <t>Avenue Émile Zola</t>
   </si>
   <si>
@@ -1017,13 +1021,49 @@
   </si>
   <si>
     <t>Châtillon - Montrouge</t>
+  </si>
+  <si>
+    <t>Notre-Dame-des Champs</t>
+  </si>
+  <si>
+    <t>Saint-Denis Pleyel</t>
+  </si>
+  <si>
+    <t>Saint-Ouen</t>
+  </si>
+  <si>
+    <t>Cour Saint-Émilion</t>
+  </si>
+  <si>
+    <t>Bibliothèque François-Mitterrand</t>
+  </si>
+  <si>
+    <t>Hôpital Bicêtre</t>
+  </si>
+  <si>
+    <t>Villejuif – Gustave Roussy</t>
+  </si>
+  <si>
+    <t>L’Haÿ-les-Roses</t>
+  </si>
+  <si>
+    <t>Chevilly-Larue</t>
+  </si>
+  <si>
+    <t>Thiais – Orly</t>
+  </si>
+  <si>
+    <t>Aéroport d’Orly</t>
+  </si>
+  <si>
+    <t>Montparnasse - Bienvenue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1035,6 +1075,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1386,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D247"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="B235" sqref="B235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1584,7 +1630,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>2.3608852562751901</v>
@@ -1598,7 +1644,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>2.36871896103409</v>
@@ -1612,7 +1658,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>2.3731565937891999</v>
@@ -1626,7 +1672,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>2.38720107040939</v>
@@ -1640,7 +1686,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>2.3958439887237399</v>
@@ -1654,7 +1700,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>2.4108049967015002</v>
@@ -1668,7 +1714,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>2.4405400954061101</v>
@@ -1682,7 +1728,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>2.27763271754527</v>
@@ -1696,7 +1742,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>2.2858287659129801</v>
@@ -1710,7 +1756,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>2.2981132886172402</v>
@@ -1724,7 +1770,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>2.30329436242521</v>
@@ -1738,7 +1784,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>2.3094129673746999</v>
@@ -1752,7 +1798,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>2.3158150926463801</v>
@@ -1766,7 +1812,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>2.32135917382297</v>
@@ -1780,7 +1826,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>2.3279583280102201</v>
@@ -1794,7 +1840,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>2.33248437543436</v>
@@ -1808,7 +1854,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>2.33721116470113</v>
@@ -1822,7 +1868,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31">
         <v>2.3441548403302899</v>
@@ -1836,7 +1882,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>2.3506070793550999</v>
@@ -1850,7 +1896,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>2.3604041692741</v>
@@ -1864,7 +1910,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>2.36577437055817</v>
@@ -1878,7 +1924,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35">
         <v>2.3714389599856101</v>
@@ -1892,7 +1938,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36">
         <v>2.3704675747938602</v>
@@ -1906,7 +1952,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37">
         <v>2.3767355865572899</v>
@@ -1920,7 +1966,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38">
         <v>2.38028898292719</v>
@@ -1934,7 +1980,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39">
         <v>2.3834303882303001</v>
@@ -1948,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40">
         <v>2.3875798912544499</v>
@@ -1962,7 +2008,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41">
         <v>2.3904975967452899</v>
@@ -1976,7 +2022,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42">
         <v>2.3947127337554801</v>
@@ -1990,7 +2036,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43">
         <v>2.3981875566594</v>
@@ -2004,7 +2050,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44">
         <v>2.2921124821588399</v>
@@ -2018,7 +2064,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45">
         <v>2.2976831860125801</v>
@@ -2032,7 +2078,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46">
         <v>2.3046730875844301</v>
@@ -2046,7 +2092,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47">
         <v>2.30948784696001</v>
@@ -2060,7 +2106,7 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48">
         <v>2.3221859195205101</v>
@@ -2074,7 +2120,7 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49">
         <v>2.3254883906726098</v>
@@ -2088,7 +2134,7 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50">
         <v>2.3276511034187801</v>
@@ -2102,7 +2148,7 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51">
         <v>2.33104728671124</v>
@@ -2116,7 +2162,7 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52">
         <v>2.3363187355954902</v>
@@ -2130,7 +2176,7 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53">
         <v>2.3406653707110401</v>
@@ -2144,7 +2190,7 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54">
         <v>2.3475538159377898</v>
@@ -2158,7 +2204,7 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C55">
         <v>2.35205078710284</v>
@@ -2172,7 +2218,7 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56">
         <v>2.35650814364354</v>
@@ -2186,7 +2232,7 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57">
         <v>2.3615612345263601</v>
@@ -2200,7 +2246,7 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58">
         <v>2.3633023407804501</v>
@@ -2214,7 +2260,7 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59">
         <v>2.3747477503599002</v>
@@ -2228,7 +2274,7 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60">
         <v>2.3805077560898602</v>
@@ -2242,7 +2288,7 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61">
         <v>2.3985373057045698</v>
@@ -2256,7 +2302,7 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62">
         <v>2.4087542211895401</v>
@@ -2270,7 +2316,7 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63">
         <v>2.4070619733808001</v>
@@ -2284,7 +2330,7 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64">
         <v>2.4044981831688701</v>
@@ -2298,7 +2344,7 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C65">
         <v>2.40149679228792</v>
@@ -2312,7 +2358,7 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C66">
         <v>2.34462409910279</v>
@@ -2326,7 +2372,7 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C67">
         <v>2.34759605535164</v>
@@ -2340,7 +2386,7 @@
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C68">
         <v>2.3496815417224801</v>
@@ -2354,7 +2400,7 @@
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C69">
         <v>2.3493658080048401</v>
@@ -2368,7 +2414,7 @@
         <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C70">
         <v>2.3568087882054098</v>
@@ -2382,7 +2428,7 @@
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C71">
         <v>2.35806459441865</v>
@@ -2396,7 +2442,7 @@
         <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C72">
         <v>2.35605174140158</v>
@@ -2410,7 +2456,7 @@
         <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C73">
         <v>2.3544916165638301</v>
@@ -2424,7 +2470,7 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C74">
         <v>2.3489761968791099</v>
@@ -2438,7 +2484,7 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C75">
         <v>2.3461273251736801</v>
@@ -2452,7 +2498,7 @@
         <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C76">
         <v>2.3472322349319099</v>
@@ -2466,7 +2512,7 @@
         <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C77">
         <v>2.3439917990332901</v>
@@ -2480,7 +2526,7 @@
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C78">
         <v>2.34069229106652</v>
@@ -2494,7 +2540,7 @@
         <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79">
         <v>2.3339478107981901</v>
@@ -2508,7 +2554,7 @@
         <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C80">
         <v>2.3306119530815401</v>
@@ -2522,7 +2568,7 @@
         <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C81">
         <v>2.32705481506631</v>
@@ -2536,7 +2582,7 @@
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C82">
         <v>2.3239891852049999</v>
@@ -2550,7 +2596,7 @@
         <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C83">
         <v>2.3288628540690999</v>
@@ -2564,7 +2610,7 @@
         <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C84">
         <v>2.3304669937198699</v>
@@ -2578,7 +2624,7 @@
         <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C85">
         <v>2.33201883521639</v>
@@ -2592,7 +2638,7 @@
         <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C86">
         <v>2.3298876404084199</v>
@@ -2606,7 +2652,7 @@
         <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C87">
         <v>2.3270932349484501</v>
@@ -2620,7 +2666,7 @@
         <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C88">
         <v>2.3254932653821001</v>
@@ -2634,7 +2680,7 @@
         <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C89">
         <v>2.3921229723281501</v>
@@ -2648,7 +2694,7 @@
         <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C90">
         <v>2.3866520167598799</v>
@@ -2662,7 +2708,7 @@
         <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C91">
         <v>2.3793909893523901</v>
@@ -2676,7 +2722,7 @@
         <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C92">
         <v>2.3610239020489199</v>
@@ -2690,7 +2736,7 @@
         <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C93">
         <v>2.3681558453945502</v>
@@ -2704,7 +2750,7 @@
         <v>106</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C94">
         <v>2.3718136304769502</v>
@@ -2718,7 +2764,7 @@
         <v>107</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C95">
         <v>2.3701946685897499</v>
@@ -2732,7 +2778,7 @@
         <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C96">
         <v>2.3658846507504001</v>
@@ -2746,7 +2792,7 @@
         <v>110</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C97">
         <v>2.3641773106918298</v>
@@ -2760,7 +2806,7 @@
         <v>111</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C98">
         <v>2.36072185971764</v>
@@ -2774,7 +2820,7 @@
         <v>112</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C99">
         <v>2.3587419566993399</v>
@@ -2788,7 +2834,7 @@
         <v>113</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C100">
         <v>2.3555015914814801</v>
@@ -2802,7 +2848,7 @@
         <v>115</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C101">
         <v>2.2931461372486299</v>
@@ -2816,7 +2862,7 @@
         <v>116</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C102">
         <v>2.2900328376074399</v>
@@ -2830,7 +2876,7 @@
         <v>117</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C103">
         <v>2.2874927969664398</v>
@@ -2844,7 +2890,7 @@
         <v>118</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C104">
         <v>2.2858394188814599</v>
@@ -2858,7 +2904,7 @@
         <v>119</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C105">
         <v>2.2894007376346002</v>
@@ -2872,7 +2918,7 @@
         <v>120</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C106">
         <v>2.2936637267310398</v>
@@ -2886,7 +2932,7 @@
         <v>121</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C107">
         <v>2.2985257262366301</v>
@@ -2900,7 +2946,7 @@
         <v>122</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C108">
         <v>2.3029417283376099</v>
@@ -2914,7 +2960,7 @@
         <v>123</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C109">
         <v>2.3095296104303902</v>
@@ -2928,7 +2974,7 @@
         <v>124</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C110">
         <v>2.31291468047394</v>
@@ -2942,7 +2988,7 @@
         <v>126</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C111">
         <v>2.3252865779433001</v>
@@ -2956,7 +3002,7 @@
         <v>129</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C112">
         <v>2.3371543709250102</v>
@@ -2970,7 +3016,7 @@
         <v>130</v>
       </c>
       <c r="B113" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C113">
         <v>2.3434382366787001</v>
@@ -2984,7 +3030,7 @@
         <v>131</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C114">
         <v>2.35061122592617</v>
@@ -2998,7 +3044,7 @@
         <v>133</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C115">
         <v>2.3628041715935102</v>
@@ -3012,7 +3058,7 @@
         <v>134</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C116">
         <v>2.36808128297274</v>
@@ -3026,7 +3072,7 @@
         <v>135</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C117">
         <v>2.37276624894817</v>
@@ -3040,7 +3086,7 @@
         <v>136</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C118">
         <v>2.3794630701852602</v>
@@ -3054,7 +3100,7 @@
         <v>137</v>
       </c>
       <c r="B119" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C119">
         <v>2.3895997700798102</v>
@@ -3068,7 +3114,7 @@
         <v>138</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C120">
         <v>2.39614862848937</v>
@@ -3082,7 +3128,7 @@
         <v>139</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C121">
         <v>2.4008671319952599</v>
@@ -3096,7 +3142,7 @@
         <v>140</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C122">
         <v>2.4012745388223702</v>
@@ -3110,7 +3156,7 @@
         <v>142</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C123">
         <v>2.3858690331433401</v>
@@ -3124,7 +3170,7 @@
         <v>143</v>
       </c>
       <c r="B124" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C124">
         <v>2.3822915571646299</v>
@@ -3138,7 +3184,7 @@
         <v>144</v>
       </c>
       <c r="B125" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C125">
         <v>2.37693573698238</v>
@@ -3152,7 +3198,7 @@
         <v>145</v>
       </c>
       <c r="B126" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C126">
         <v>2.3736694647432</v>
@@ -3166,7 +3212,7 @@
         <v>147</v>
       </c>
       <c r="B127" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C127">
         <v>2.3644248624936801</v>
@@ -3180,7 +3226,7 @@
         <v>148</v>
       </c>
       <c r="B128" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C128">
         <v>2.3620179355106101</v>
@@ -3194,7 +3240,7 @@
         <v>150</v>
       </c>
       <c r="B129" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C129">
         <v>2.3487397513900699</v>
@@ -3208,7 +3254,7 @@
         <v>151</v>
       </c>
       <c r="B130" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C130">
         <v>2.3444463097022701</v>
@@ -3222,7 +3268,7 @@
         <v>152</v>
       </c>
       <c r="B131" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C131">
         <v>2.3401505597063701</v>
@@ -3236,7 +3282,7 @@
         <v>153</v>
       </c>
       <c r="B132" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C132">
         <v>2.3337385944086999</v>
@@ -3250,7 +3296,7 @@
         <v>155</v>
       </c>
       <c r="B133" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C133">
         <v>2.3346236060049201</v>
@@ -3264,7 +3310,7 @@
         <v>157</v>
       </c>
       <c r="B134" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C134">
         <v>2.3417767491485399</v>
@@ -3278,7 +3324,7 @@
         <v>159</v>
       </c>
       <c r="B135" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C135">
         <v>2.3573766690443998</v>
@@ -3292,7 +3338,7 @@
         <v>160</v>
       </c>
       <c r="B136" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C136">
         <v>2.36185316969725</v>
@@ -3306,7 +3352,7 @@
         <v>161</v>
       </c>
       <c r="B137" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C137">
         <v>2.35493167182323</v>
@@ -3320,7 +3366,7 @@
         <v>162</v>
       </c>
       <c r="B138" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C138">
         <v>2.3521548685787699</v>
@@ -3334,7 +3380,7 @@
         <v>163</v>
       </c>
       <c r="B139" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C139">
         <v>2.3516265726054999</v>
@@ -3348,7 +3394,7 @@
         <v>164</v>
       </c>
       <c r="B140" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C140">
         <v>2.3524168018982698</v>
@@ -3362,7 +3408,7 @@
         <v>166</v>
       </c>
       <c r="B141" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C141">
         <v>2.3573184392131901</v>
@@ -3376,7 +3422,7 @@
         <v>167</v>
       </c>
       <c r="B142" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C142">
         <v>2.3584129461559402</v>
@@ -3390,7 +3436,7 @@
         <v>168</v>
       </c>
       <c r="B143" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C143">
         <v>2.3595297331071698</v>
@@ -3404,7 +3450,7 @@
         <v>169</v>
       </c>
       <c r="B144" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C144">
         <v>2.3646785940494599</v>
@@ -3418,7 +3464,7 @@
         <v>170</v>
       </c>
       <c r="B145" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C145">
         <v>2.3695112543194901</v>
@@ -3432,7 +3478,7 @@
         <v>174</v>
       </c>
       <c r="B146" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C146">
         <v>2.37412487118754</v>
@@ -3446,7 +3492,7 @@
         <v>175</v>
       </c>
       <c r="B147" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C147">
         <v>2.3815698420880098</v>
@@ -3460,7 +3506,7 @@
         <v>176</v>
       </c>
       <c r="B148" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C148">
         <v>2.38890095131574</v>
@@ -3474,7 +3520,7 @@
         <v>177</v>
       </c>
       <c r="B149" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C149">
         <v>2.3931393703605002</v>
@@ -3488,7 +3534,7 @@
         <v>178</v>
       </c>
       <c r="B150" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C150">
         <v>2.3985807706935298</v>
@@ -3502,7 +3548,7 @@
         <v>179</v>
       </c>
       <c r="B151" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C151">
         <v>2.3932284712274901</v>
@@ -3516,7 +3562,7 @@
         <v>181</v>
       </c>
       <c r="B152" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C152">
         <v>2.2783626618091999</v>
@@ -3530,7 +3576,7 @@
         <v>182</v>
       </c>
       <c r="B153" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C153">
         <v>2.2822419598550701</v>
@@ -3544,7 +3590,7 @@
         <v>183</v>
       </c>
       <c r="B154" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C154">
         <v>2.2879184311245599</v>
@@ -3558,7 +3604,7 @@
         <v>184</v>
       </c>
       <c r="B155" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C155">
         <v>2.2918472203679698</v>
@@ -3572,7 +3618,7 @@
         <v>185</v>
       </c>
       <c r="B156" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C156">
         <v>2.2937968421928598</v>
@@ -3586,7 +3632,7 @@
         <v>187</v>
       </c>
       <c r="B157" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C157">
         <v>2.30634568382008</v>
@@ -3600,7 +3646,7 @@
         <v>188</v>
       </c>
       <c r="B158" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C158">
         <v>2.3104735359369801</v>
@@ -3614,7 +3660,7 @@
         <v>189</v>
       </c>
       <c r="B159" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C159">
         <v>2.31463266044452</v>
@@ -3628,7 +3674,7 @@
         <v>191</v>
       </c>
       <c r="B160" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C160">
         <v>2.3258100487932798</v>
@@ -3642,7 +3688,7 @@
         <v>193</v>
       </c>
       <c r="B161" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C161">
         <v>2.33859122153854</v>
@@ -3656,7 +3702,7 @@
         <v>194</v>
       </c>
       <c r="B162" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C162">
         <v>2.34320726640509</v>
@@ -3670,7 +3716,7 @@
         <v>195</v>
       </c>
       <c r="B163" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C163">
         <v>2.3484813657183898</v>
@@ -3684,7 +3730,7 @@
         <v>198</v>
       </c>
       <c r="B164" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C164">
         <v>2.3667452977427001</v>
@@ -3698,7 +3744,7 @@
         <v>199</v>
       </c>
       <c r="B165" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C165">
         <v>2.36726153971727</v>
@@ -3712,7 +3758,7 @@
         <v>200</v>
       </c>
       <c r="B166" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C166">
         <v>2.3680950853859901</v>
@@ -3726,7 +3772,7 @@
         <v>202</v>
       </c>
       <c r="B167" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C167">
         <v>2.3761412233185899</v>
@@ -3740,7 +3786,7 @@
         <v>203</v>
       </c>
       <c r="B168" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C168">
         <v>2.38402856638311</v>
@@ -3754,7 +3800,7 @@
         <v>205</v>
       </c>
       <c r="B169" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C169">
         <v>2.39040001363536</v>
@@ -3768,7 +3814,7 @@
         <v>207</v>
       </c>
       <c r="B170" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C170">
         <v>2.402366739988</v>
@@ -3782,7 +3828,7 @@
         <v>208</v>
       </c>
       <c r="B171" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C171">
         <v>2.4058739129875599</v>
@@ -3796,7 +3842,7 @@
         <v>209</v>
       </c>
       <c r="B172" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C172">
         <v>2.4025118728500701</v>
@@ -3810,7 +3856,7 @@
         <v>210</v>
       </c>
       <c r="B173" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C173">
         <v>2.2570461929221501</v>
@@ -3824,7 +3870,7 @@
         <v>211</v>
       </c>
       <c r="B174" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C174">
         <v>2.2598008451443401</v>
@@ -3838,7 +3884,7 @@
         <v>212</v>
       </c>
       <c r="B175" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C175">
         <v>2.2615119169051998</v>
@@ -3852,7 +3898,7 @@
         <v>213</v>
       </c>
       <c r="B176" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C176">
         <v>2.2639895253333302</v>
@@ -3866,7 +3912,7 @@
         <v>214</v>
       </c>
       <c r="B177" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C177">
         <v>2.2679332916470698</v>
@@ -3880,7 +3926,7 @@
         <v>215</v>
       </c>
       <c r="B178" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C178">
         <v>2.2699481579346301</v>
@@ -3894,7 +3940,7 @@
         <v>216</v>
       </c>
       <c r="B179" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C179">
         <v>2.2740962446697202</v>
@@ -3908,7 +3954,7 @@
         <v>217</v>
       </c>
       <c r="B180" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C180">
         <v>2.2778858979590599</v>
@@ -3922,7 +3968,7 @@
         <v>219</v>
       </c>
       <c r="B181" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C181">
         <v>2.2938642256822699</v>
@@ -3936,7 +3982,7 @@
         <v>220</v>
       </c>
       <c r="B182" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C182">
         <v>2.3011043523926702</v>
@@ -3950,7 +3996,7 @@
         <v>222</v>
       </c>
       <c r="B183" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C183">
         <v>2.3101372056878202</v>
@@ -3964,7 +4010,7 @@
         <v>223</v>
       </c>
       <c r="B184" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C184">
         <v>2.31601069312102</v>
@@ -3978,7 +4024,7 @@
         <v>224</v>
       </c>
       <c r="B185" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C185">
         <v>2.3210135978086002</v>
@@ -3992,7 +4038,7 @@
         <v>233</v>
       </c>
       <c r="B186" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C186">
         <v>2.3738805382115502</v>
@@ -4006,7 +4052,7 @@
         <v>234</v>
       </c>
       <c r="B187" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C187">
         <v>2.3800316941488</v>
@@ -4020,7 +4066,7 @@
         <v>235</v>
       </c>
       <c r="B188" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C188">
         <v>2.3847823964488901</v>
@@ -4034,7 +4080,7 @@
         <v>236</v>
       </c>
       <c r="B189" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C189">
         <v>2.3891047050322398</v>
@@ -4048,7 +4094,7 @@
         <v>238</v>
       </c>
       <c r="B190" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C190">
         <v>2.4011707693684099</v>
@@ -4062,7 +4108,7 @@
         <v>239</v>
       </c>
       <c r="B191" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C191">
         <v>2.4060385447980499</v>
@@ -4076,7 +4122,7 @@
         <v>240</v>
       </c>
       <c r="B192" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C192">
         <v>2.41071815402749</v>
@@ -4090,7 +4136,7 @@
         <v>243</v>
       </c>
       <c r="B193" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C193">
         <v>2.3513280016731799</v>
@@ -4104,7 +4150,7 @@
         <v>244</v>
       </c>
       <c r="B194" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C194">
         <v>2.3482804131694901</v>
@@ -4118,7 +4164,7 @@
         <v>245</v>
       </c>
       <c r="B195" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C195">
         <v>2.34489630121208</v>
@@ -4132,7 +4178,7 @@
         <v>247</v>
       </c>
       <c r="B196" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C196">
         <v>2.3351428193464701</v>
@@ -4146,7 +4192,7 @@
         <v>248</v>
       </c>
       <c r="B197" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C197">
         <v>2.32685966312174</v>
@@ -4160,7 +4206,7 @@
         <v>249</v>
       </c>
       <c r="B198" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C198">
         <v>2.32135124235473</v>
@@ -4174,7 +4220,7 @@
         <v>250</v>
       </c>
       <c r="B199" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C199">
         <v>2.3165212194565199</v>
@@ -4188,7 +4234,7 @@
         <v>251</v>
       </c>
       <c r="B200" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C200">
         <v>2.3071378494033801</v>
@@ -4202,7 +4248,7 @@
         <v>253</v>
       </c>
       <c r="B201" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C201">
         <v>2.2950189971435502</v>
@@ -4216,7 +4262,7 @@
         <v>254</v>
       </c>
       <c r="B202" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C202">
         <v>2.2856210133667201</v>
@@ -4230,7 +4276,7 @@
         <v>255</v>
       </c>
       <c r="B203" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C203">
         <v>2.2780094965273601</v>
@@ -4244,7 +4290,7 @@
         <v>256</v>
       </c>
       <c r="B204" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C204">
         <v>2.2691113890218899</v>
@@ -4258,7 +4304,7 @@
         <v>258</v>
       </c>
       <c r="B205" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C205">
         <v>2.25828074459554</v>
@@ -4272,7 +4318,7 @@
         <v>260</v>
       </c>
       <c r="B206" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C206">
         <v>2.2669054759402898</v>
@@ -4286,7 +4332,7 @@
         <v>261</v>
       </c>
       <c r="B207" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C207">
         <v>2.2730641263728302</v>
@@ -4300,7 +4346,7 @@
         <v>264</v>
       </c>
       <c r="B208" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C208">
         <v>2.35327394859477</v>
@@ -4314,7 +4360,7 @@
         <v>267</v>
       </c>
       <c r="B209" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C209">
         <v>2.3707644347483998</v>
@@ -4328,7 +4374,7 @@
         <v>269</v>
       </c>
       <c r="B210" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C210">
         <v>2.38520291556953</v>
@@ -4342,7 +4388,7 @@
         <v>270</v>
       </c>
       <c r="B211" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C211">
         <v>2.3893253789101001</v>
@@ -4356,7 +4402,7 @@
         <v>271</v>
       </c>
       <c r="B212" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="C212">
         <v>2.3931393703605002</v>
@@ -4862,14 +4908,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C348"/>
+  <dimension ref="A1:C375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="32.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4889,7 +4936,7 @@
         <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -5024,7 +5071,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>263</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -5032,10 +5079,10 @@
         <v>252</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -5043,10 +5090,10 @@
         <v>252</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -5054,10 +5101,10 @@
         <v>252</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -5065,10 +5112,10 @@
         <v>252</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -5076,10 +5123,10 @@
         <v>252</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -5087,667 +5134,667 @@
         <v>252</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B23" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B45" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C45" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B46" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C46" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B55" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B57" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B76" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C78" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B79" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C79" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -5755,923 +5802,923 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B81" t="s">
         <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C82" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C83" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B85" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C87" t="s">
-        <v>271</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B88" t="s">
-        <v>271</v>
+        <v>84</v>
       </c>
       <c r="C88" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B89" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C89" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B90" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C90" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B91" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C91" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C92" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B93" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C93" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C94" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B95" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C95" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B96" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C96" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B97" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C97" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B98" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C98" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B99" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C99" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B100" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C100" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B101" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C101" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B102" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C102" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B103" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C103" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B104" t="s">
+        <v>37</v>
+      </c>
+      <c r="C104" t="s">
         <v>36</v>
-      </c>
-      <c r="C104" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C105" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B106" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C106" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B107" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C107" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B108" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C108" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B109" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C109" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B110" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C110" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B111" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C111" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B112" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C113" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B114" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C114" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B115" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C115" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B116" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C116" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B117" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C117" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="B118" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C118" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="B119" t="s">
+        <v>67</v>
+      </c>
+      <c r="C119" t="s">
         <v>66</v>
-      </c>
-      <c r="C119" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="B120" t="s">
+        <v>66</v>
+      </c>
+      <c r="C120" t="s">
         <v>65</v>
-      </c>
-      <c r="C120" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B121" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C121" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B122" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C122" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B123" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C123" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B124" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C124" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B125" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C125" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B126" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C126" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B127" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C127" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B128" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C128" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B129" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C129" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B130" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C130" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B131" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C131" t="s">
-        <v>271</v>
+        <v>84</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B132" t="s">
-        <v>271</v>
+        <v>84</v>
       </c>
       <c r="C132" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B133" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C133" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B134" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C134" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B135" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C135" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B136" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C136" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B137" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C137" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B138" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C138" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B139" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C139" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B140" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C140" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B141" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C141" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B142" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C142" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B143" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C143" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B144" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C144" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B145" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C145" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B146" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C146" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B147" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C147" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B148" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C148" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B149" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C149" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B150" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C150" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B151" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C151" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B152" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C152" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B153" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C153" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B154" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B155" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C155" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B156" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C156" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B157" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C157" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B158" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C158" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B159" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C159" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B160" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C160" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B161" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C161" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B162" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C162" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B163" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C163" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B164" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C164" t="s">
         <v>12</v>
@@ -6679,21 +6726,21 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B165" t="s">
         <v>12</v>
       </c>
       <c r="C165" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B166" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C166" t="s">
         <v>14</v>
@@ -6701,329 +6748,329 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B167" t="s">
         <v>14</v>
       </c>
       <c r="C167" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B168" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C168" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B169" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C169" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B170" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C170" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B171" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C171" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B172" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C172" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B173" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C173" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B174" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C174" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B175" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C175" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B176" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C176" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B177" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C177" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B178" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C178" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B179" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C179" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B180" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C180" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="B181" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C181" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="B182" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C182" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="B183" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C183" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="B184" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C184" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="B185" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C185" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="B186" t="s">
         <v>150</v>
       </c>
       <c r="C186" t="s">
-        <v>298</v>
+        <v>151</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="B187" t="s">
+        <v>152</v>
+      </c>
+      <c r="C187" t="s">
         <v>153</v>
-      </c>
-      <c r="C187" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="B188" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C188" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B189" t="s">
+        <v>154</v>
+      </c>
+      <c r="C189" t="s">
         <v>155</v>
-      </c>
-      <c r="C189" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B190" t="s">
+        <v>155</v>
+      </c>
+      <c r="C190" t="s">
         <v>156</v>
-      </c>
-      <c r="C190" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B191" t="s">
+        <v>156</v>
+      </c>
+      <c r="C191" t="s">
         <v>157</v>
-      </c>
-      <c r="C191" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B192" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="C192" t="s">
-        <v>286</v>
+        <v>158</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B193" t="s">
-        <v>286</v>
+        <v>158</v>
       </c>
       <c r="C193" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B194" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="C194" t="s">
-        <v>160</v>
+        <v>287</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B195" t="s">
+        <v>287</v>
+      </c>
+      <c r="C195" t="s">
         <v>160</v>
-      </c>
-      <c r="C195" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B196" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="C196" t="s">
         <v>161</v>
@@ -7031,21 +7078,21 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B197" t="s">
         <v>161</v>
       </c>
       <c r="C197" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B198" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C198" t="s">
         <v>162</v>
@@ -7053,98 +7100,98 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B199" t="s">
         <v>162</v>
       </c>
       <c r="C199" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B200" t="s">
+        <v>53</v>
+      </c>
+      <c r="C200" t="s">
         <v>163</v>
-      </c>
-      <c r="C200" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B201" t="s">
+        <v>163</v>
+      </c>
+      <c r="C201" t="s">
         <v>164</v>
-      </c>
-      <c r="C201" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B202" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="C202" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B203" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="C203" t="s">
-        <v>165</v>
+        <v>75</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B204" t="s">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="C204" t="s">
-        <v>166</v>
+        <v>60</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B205" t="s">
+        <v>60</v>
+      </c>
+      <c r="C205" t="s">
         <v>166</v>
-      </c>
-      <c r="C205" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B206" t="s">
+        <v>166</v>
+      </c>
+      <c r="C206" t="s">
         <v>167</v>
-      </c>
-      <c r="C206" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B207" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="C207" t="s">
         <v>168</v>
@@ -7152,32 +7199,32 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B208" t="s">
         <v>168</v>
       </c>
       <c r="C208" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B209" t="s">
+        <v>17</v>
+      </c>
+      <c r="C209" t="s">
         <v>169</v>
-      </c>
-      <c r="C209" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B210" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="C210" t="s">
         <v>170</v>
@@ -7185,21 +7232,21 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B211" t="s">
         <v>170</v>
       </c>
       <c r="C211" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B212" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="C212" t="s">
         <v>171</v>
@@ -7207,252 +7254,252 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B213" t="s">
         <v>171</v>
       </c>
       <c r="C213" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B214" t="s">
+        <v>122</v>
+      </c>
+      <c r="C214" t="s">
         <v>172</v>
-      </c>
-      <c r="C214" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B215" t="s">
+        <v>172</v>
+      </c>
+      <c r="C215" t="s">
         <v>173</v>
-      </c>
-      <c r="C215" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B216" t="s">
-        <v>287</v>
+        <v>173</v>
       </c>
       <c r="C216" t="s">
-        <v>288</v>
+        <v>174</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B217" t="s">
+        <v>174</v>
+      </c>
+      <c r="C217" t="s">
         <v>288</v>
-      </c>
-      <c r="C217" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B218" t="s">
+        <v>288</v>
+      </c>
+      <c r="C218" t="s">
         <v>289</v>
-      </c>
-      <c r="C218" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B219" t="s">
+        <v>289</v>
+      </c>
+      <c r="C219" t="s">
         <v>290</v>
-      </c>
-      <c r="C219" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B220" t="s">
+        <v>290</v>
+      </c>
+      <c r="C220" t="s">
         <v>291</v>
-      </c>
-      <c r="C220" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B221" t="s">
+        <v>291</v>
+      </c>
+      <c r="C221" t="s">
         <v>292</v>
-      </c>
-      <c r="C221" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B222" t="s">
+        <v>292</v>
+      </c>
+      <c r="C222" t="s">
         <v>293</v>
-      </c>
-      <c r="C222" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B223" t="s">
+        <v>293</v>
+      </c>
+      <c r="C223" t="s">
         <v>294</v>
-      </c>
-      <c r="C223" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="B224" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C224" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="B225" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C225" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B226" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C226" t="s">
-        <v>174</v>
+        <v>299</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
+        <v>297</v>
+      </c>
+      <c r="B227" t="s">
+        <v>299</v>
+      </c>
+      <c r="C227" t="s">
         <v>300</v>
-      </c>
-      <c r="B227" t="s">
-        <v>174</v>
-      </c>
-      <c r="C227" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
+        <v>297</v>
+      </c>
+      <c r="B228" t="s">
         <v>300</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C228" t="s">
         <v>175</v>
-      </c>
-      <c r="C228" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B229" t="s">
+        <v>175</v>
+      </c>
+      <c r="C229" t="s">
         <v>176</v>
-      </c>
-      <c r="C229" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B230" t="s">
+        <v>176</v>
+      </c>
+      <c r="C230" t="s">
         <v>177</v>
-      </c>
-      <c r="C230" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B231" t="s">
+        <v>177</v>
+      </c>
+      <c r="C231" t="s">
         <v>178</v>
-      </c>
-      <c r="C231" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B232" t="s">
+        <v>178</v>
+      </c>
+      <c r="C232" t="s">
         <v>179</v>
-      </c>
-      <c r="C232" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B233" t="s">
+        <v>179</v>
+      </c>
+      <c r="C233" t="s">
         <v>180</v>
-      </c>
-      <c r="C233" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B234" t="s">
+        <v>180</v>
+      </c>
+      <c r="C234" t="s">
         <v>181</v>
-      </c>
-      <c r="C234" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B235" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="C235" t="s">
         <v>182</v>
@@ -7460,32 +7507,32 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B236" t="s">
         <v>182</v>
       </c>
       <c r="C236" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B237" t="s">
+        <v>105</v>
+      </c>
+      <c r="C237" t="s">
         <v>183</v>
-      </c>
-      <c r="C237" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
       <c r="C238" t="s">
         <v>184</v>
@@ -7493,175 +7540,175 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B239" t="s">
         <v>184</v>
       </c>
       <c r="C239" t="s">
-        <v>185</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B240" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" t="s">
         <v>185</v>
-      </c>
-      <c r="C240" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B241" t="s">
+        <v>185</v>
+      </c>
+      <c r="C241" t="s">
         <v>186</v>
-      </c>
-      <c r="C241" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B242" t="s">
-        <v>268</v>
+        <v>186</v>
       </c>
       <c r="C242" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B243" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="C243" t="s">
-        <v>162</v>
+        <v>260</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B244" t="s">
-        <v>162</v>
+        <v>260</v>
       </c>
       <c r="C244" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B245" t="s">
+        <v>134</v>
+      </c>
+      <c r="C245" t="s">
         <v>163</v>
-      </c>
-      <c r="C245" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B246" t="s">
+        <v>163</v>
+      </c>
+      <c r="C246" t="s">
         <v>164</v>
-      </c>
-      <c r="C246" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B247" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="C247" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B248" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="C248" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B249" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C249" t="s">
-        <v>187</v>
+        <v>60</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B250" t="s">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="C250" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B251" t="s">
+        <v>95</v>
+      </c>
+      <c r="C251" t="s">
         <v>188</v>
-      </c>
-      <c r="C251" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B252" t="s">
+        <v>188</v>
+      </c>
+      <c r="C252" t="s">
         <v>189</v>
-      </c>
-      <c r="C252" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B253" t="s">
+        <v>189</v>
+      </c>
+      <c r="C253" t="s">
         <v>190</v>
-      </c>
-      <c r="C253" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B254" t="s">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="C254" t="s">
         <v>191</v>
@@ -7669,1039 +7716,1337 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B255" t="s">
         <v>191</v>
       </c>
       <c r="C255" t="s">
-        <v>192</v>
+        <v>20</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B256" t="s">
+        <v>20</v>
+      </c>
+      <c r="C256" t="s">
         <v>192</v>
-      </c>
-      <c r="C256" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B257" t="s">
+        <v>192</v>
+      </c>
+      <c r="C257" t="s">
         <v>193</v>
-      </c>
-      <c r="C257" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B258" t="s">
-        <v>304</v>
+        <v>193</v>
       </c>
       <c r="C258" t="s">
-        <v>305</v>
+        <v>194</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B259" t="s">
-        <v>305</v>
+        <v>194</v>
       </c>
       <c r="C259" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B260" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C260" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B261" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C261" t="s">
-        <v>176</v>
+        <v>303</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B262" t="s">
-        <v>176</v>
+        <v>305</v>
       </c>
       <c r="C262" t="s">
-        <v>177</v>
+        <v>306</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B263" t="s">
+        <v>306</v>
+      </c>
+      <c r="C263" t="s">
         <v>177</v>
-      </c>
-      <c r="C263" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B264" t="s">
-        <v>310</v>
+        <v>207</v>
       </c>
       <c r="C264" t="s">
-        <v>208</v>
+        <v>306</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B265" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="C265" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B266" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="C266" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B267" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C267" t="s">
-        <v>311</v>
+        <v>209</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B268" t="s">
-        <v>311</v>
+        <v>205</v>
       </c>
       <c r="C268" t="s">
-        <v>108</v>
+        <v>206</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B269" t="s">
-        <v>108</v>
+        <v>206</v>
       </c>
       <c r="C269" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B270" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C270" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B271" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C271" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
+        <v>304</v>
+      </c>
+      <c r="B272" t="s">
+        <v>204</v>
+      </c>
+      <c r="C272" t="s">
         <v>307</v>
-      </c>
-      <c r="B272" t="s">
-        <v>199</v>
-      </c>
-      <c r="C272" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
+        <v>304</v>
+      </c>
+      <c r="B273" t="s">
         <v>307</v>
       </c>
-      <c r="B273" t="s">
-        <v>198</v>
-      </c>
       <c r="C273" t="s">
-        <v>197</v>
+        <v>109</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B274" t="s">
-        <v>197</v>
+        <v>109</v>
       </c>
       <c r="C274" t="s">
-        <v>79</v>
+        <v>202</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B275" t="s">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="C275" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B276" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C276" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B277" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C277" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B278" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C278" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B279" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="C279" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B280" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C280" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B281" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="C281" t="s">
-        <v>247</v>
+        <v>196</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B282" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="C282" t="s">
-        <v>15</v>
+        <v>195</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B283" t="s">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="C283" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B284" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="C284" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B285" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C285" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B286" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C286" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B287" t="s">
-        <v>210</v>
+        <v>14</v>
       </c>
       <c r="C287" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B288" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C288" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B289" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C289" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B290" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="C290" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B291" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="C291" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B292" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C292" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B293" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C293" t="s">
-        <v>313</v>
+        <v>212</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B294" t="s">
-        <v>315</v>
+        <v>212</v>
       </c>
       <c r="C294" t="s">
-        <v>316</v>
+        <v>213</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B295" t="s">
-        <v>316</v>
+        <v>213</v>
       </c>
       <c r="C295" t="s">
-        <v>317</v>
+        <v>151</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B296" t="s">
-        <v>317</v>
+        <v>151</v>
       </c>
       <c r="C296" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B297" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C297" t="s">
-        <v>216</v>
+        <v>65</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B298" t="s">
-        <v>216</v>
+        <v>65</v>
       </c>
       <c r="C298" t="s">
-        <v>69</v>
+        <v>309</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B299" t="s">
-        <v>69</v>
+        <v>311</v>
       </c>
       <c r="C299" t="s">
-        <v>217</v>
+        <v>312</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B300" t="s">
-        <v>217</v>
+        <v>312</v>
       </c>
       <c r="C300" t="s">
-        <v>218</v>
+        <v>313</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B301" t="s">
-        <v>218</v>
+        <v>313</v>
       </c>
       <c r="C301" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B302" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C302" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B303" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="C303" t="s">
-        <v>220</v>
+        <v>70</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B304" t="s">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="C304" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B305" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C305" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B306" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C306" t="s">
-        <v>50</v>
+        <v>219</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>50</v>
+        <v>219</v>
       </c>
       <c r="C307" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B308" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="C308" t="s">
-        <v>10</v>
+        <v>220</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B309" t="s">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="C309" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B310" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C310" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C311" t="s">
-        <v>225</v>
+        <v>51</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>225</v>
+        <v>51</v>
       </c>
       <c r="C312" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B313" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="C313" t="s">
-        <v>226</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B314" t="s">
-        <v>226</v>
+        <v>10</v>
       </c>
       <c r="C314" t="s">
-        <v>318</v>
+        <v>223</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B315" t="s">
-        <v>318</v>
+        <v>223</v>
       </c>
       <c r="C315" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B316" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="C316" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B317" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C317" t="s">
-        <v>111</v>
+        <v>199</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B318" t="s">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="C318" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
+        <v>310</v>
+      </c>
+      <c r="B319" t="s">
+        <v>226</v>
+      </c>
+      <c r="C319" t="s">
         <v>314</v>
-      </c>
-      <c r="B319" t="s">
-        <v>229</v>
-      </c>
-      <c r="C319" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B320" t="s">
-        <v>230</v>
+        <v>328</v>
       </c>
       <c r="C320" t="s">
-        <v>231</v>
+        <v>84</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B321" t="s">
-        <v>231</v>
+        <v>84</v>
       </c>
       <c r="C321" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B322" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C322" t="s">
-        <v>319</v>
+        <v>112</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B323" t="s">
-        <v>319</v>
+        <v>112</v>
       </c>
       <c r="C323" t="s">
-        <v>320</v>
+        <v>229</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B324" t="s">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="C324" t="s">
-        <v>323</v>
+        <v>230</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B325" t="s">
-        <v>323</v>
+        <v>230</v>
       </c>
       <c r="C325" t="s">
-        <v>324</v>
+        <v>231</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B326" t="s">
-        <v>324</v>
+        <v>231</v>
       </c>
       <c r="C326" t="s">
-        <v>325</v>
+        <v>232</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B327" t="s">
-        <v>325</v>
+        <v>232</v>
       </c>
       <c r="C327" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B328" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C328" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B329" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C329" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B330" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
       <c r="C330" t="s">
-        <v>241</v>
+        <v>320</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
+        <v>317</v>
+      </c>
+      <c r="B331" t="s">
+        <v>320</v>
+      </c>
+      <c r="C331" t="s">
         <v>321</v>
-      </c>
-      <c r="B331" t="s">
-        <v>241</v>
-      </c>
-      <c r="C331" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
+        <v>317</v>
+      </c>
+      <c r="B332" t="s">
         <v>321</v>
       </c>
-      <c r="B332" t="s">
-        <v>240</v>
-      </c>
       <c r="C332" t="s">
-        <v>29</v>
+        <v>322</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B333" t="s">
-        <v>29</v>
+        <v>322</v>
       </c>
       <c r="C333" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B334" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="C334" t="s">
-        <v>50</v>
+        <v>242</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B335" t="s">
-        <v>50</v>
+        <v>242</v>
       </c>
       <c r="C335" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B336" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="C336" t="s">
-        <v>328</v>
+        <v>240</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B337" t="s">
-        <v>328</v>
+        <v>240</v>
       </c>
       <c r="C337" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B338" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="C338" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B339" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C339" t="s">
-        <v>237</v>
+        <v>51</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B340" t="s">
-        <v>237</v>
+        <v>51</v>
       </c>
       <c r="C340" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B341" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C341" t="s">
-        <v>271</v>
+        <v>324</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B342" t="s">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="C342" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B343" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="C343" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B344" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C344" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B345" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C345" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B346" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="C346" t="s">
-        <v>329</v>
+        <v>84</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B347" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C347" t="s">
-        <v>330</v>
+        <v>236</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B348" t="s">
+        <v>236</v>
+      </c>
+      <c r="C348" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>317</v>
+      </c>
+      <c r="B349" t="s">
+        <v>235</v>
+      </c>
+      <c r="C349" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>317</v>
+      </c>
+      <c r="B350" t="s">
+        <v>234</v>
+      </c>
+      <c r="C350" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>317</v>
+      </c>
+      <c r="B351" t="s">
+        <v>233</v>
+      </c>
+      <c r="C351" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>317</v>
+      </c>
+      <c r="B352" t="s">
+        <v>325</v>
+      </c>
+      <c r="C352" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>317</v>
+      </c>
+      <c r="B353" t="s">
+        <v>326</v>
+      </c>
+      <c r="C353" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>317</v>
+      </c>
+      <c r="B354" t="s">
+        <v>243</v>
+      </c>
+      <c r="C354" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>317</v>
+      </c>
+      <c r="B355" t="s">
+        <v>244</v>
+      </c>
+      <c r="C355" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>14</v>
+      </c>
+      <c r="B356" t="s">
+        <v>329</v>
+      </c>
+      <c r="C356" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>14</v>
+      </c>
+      <c r="B357" t="s">
+        <v>322</v>
+      </c>
+      <c r="C357" t="s">
         <v>330</v>
       </c>
-      <c r="C348" t="s">
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>14</v>
+      </c>
+      <c r="B358" t="s">
+        <v>330</v>
+      </c>
+      <c r="C358" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>14</v>
+      </c>
+      <c r="B359" t="s">
+        <v>244</v>
+      </c>
+      <c r="C359" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>14</v>
+      </c>
+      <c r="B360" t="s">
+        <v>245</v>
+      </c>
+      <c r="C360" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>14</v>
+      </c>
+      <c r="B361" t="s">
+        <v>51</v>
+      </c>
+      <c r="C361" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>14</v>
+      </c>
+      <c r="B362" t="s">
+        <v>162</v>
+      </c>
+      <c r="C362" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>14</v>
+      </c>
+      <c r="B363" t="s">
+        <v>135</v>
+      </c>
+      <c r="C363" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>14</v>
+      </c>
+      <c r="B364" t="s">
+        <v>14</v>
+      </c>
+      <c r="C364" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>14</v>
+      </c>
+      <c r="B365" t="s">
+        <v>18</v>
+      </c>
+      <c r="C365" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>14</v>
+      </c>
+      <c r="B366" t="s">
+        <v>120</v>
+      </c>
+      <c r="C366" t="s">
         <v>331</v>
       </c>
     </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>14</v>
+      </c>
+      <c r="B367" t="s">
+        <v>331</v>
+      </c>
+      <c r="C367" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>14</v>
+      </c>
+      <c r="B368" t="s">
+        <v>332</v>
+      </c>
+      <c r="C368" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>14</v>
+      </c>
+      <c r="B369" t="s">
+        <v>248</v>
+      </c>
+      <c r="C369" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>14</v>
+      </c>
+      <c r="B370" t="s">
+        <v>144</v>
+      </c>
+      <c r="C370" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>14</v>
+      </c>
+      <c r="B371" t="s">
+        <v>333</v>
+      </c>
+      <c r="C371" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>14</v>
+      </c>
+      <c r="B372" t="s">
+        <v>334</v>
+      </c>
+      <c r="C372" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>14</v>
+      </c>
+      <c r="B373" t="s">
+        <v>335</v>
+      </c>
+      <c r="C373" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>14</v>
+      </c>
+      <c r="B374" t="s">
+        <v>336</v>
+      </c>
+      <c r="C374" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>14</v>
+      </c>
+      <c r="B375" t="s">
+        <v>337</v>
+      </c>
+      <c r="C375" t="s">
+        <v>338</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Metro_Arcs_Par_Station_IDs.xlsx
+++ b/Metro_Arcs_Par_Station_IDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noe\Documents\GitHub\ProbSciANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25780B6-33CA-439A-80FE-C4BB0E476185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C481786-6903-4AEC-B4BD-F3569373F769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="339">
   <si>
     <t>ID STATION</t>
   </si>
@@ -865,9 +865,6 @@
   </si>
   <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>Sèvres - Lecourbe</t>
   </si>
   <si>
     <t>7</t>
@@ -1432,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D247"/>
   <sheetViews>
-    <sheetView topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B235" sqref="B235"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4910,8 +4907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6336,7 +6333,7 @@
         <v>110</v>
       </c>
       <c r="C129" t="s">
-        <v>276</v>
+        <v>111</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -6344,7 +6341,7 @@
         <v>275</v>
       </c>
       <c r="B130" t="s">
-        <v>276</v>
+        <v>111</v>
       </c>
       <c r="C130" t="s">
         <v>112</v>
@@ -6539,32 +6536,32 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>276</v>
+      </c>
+      <c r="B148" t="s">
         <v>277</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>278</v>
-      </c>
-      <c r="C148" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B149" t="s">
+        <v>278</v>
+      </c>
+      <c r="C149" t="s">
         <v>279</v>
-      </c>
-      <c r="C149" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B150" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C150" t="s">
         <v>125</v>
@@ -6572,7 +6569,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B151" t="s">
         <v>125</v>
@@ -6583,7 +6580,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B152" t="s">
         <v>126</v>
@@ -6594,7 +6591,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B153" t="s">
         <v>127</v>
@@ -6605,7 +6602,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B154" t="s">
         <v>128</v>
@@ -6616,7 +6613,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B155" t="s">
         <v>36</v>
@@ -6627,21 +6624,21 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B156" t="s">
         <v>129</v>
       </c>
       <c r="C156" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B157" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C157" t="s">
         <v>73</v>
@@ -6649,7 +6646,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B158" t="s">
         <v>73</v>
@@ -6660,7 +6657,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B159" t="s">
         <v>131</v>
@@ -6671,7 +6668,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B160" t="s">
         <v>132</v>
@@ -6682,7 +6679,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B161" t="s">
         <v>133</v>
@@ -6693,7 +6690,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B162" t="s">
         <v>134</v>
@@ -6704,7 +6701,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B163" t="s">
         <v>53</v>
@@ -6715,7 +6712,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B164" t="s">
         <v>135</v>
@@ -6726,7 +6723,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B165" t="s">
         <v>12</v>
@@ -6737,7 +6734,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B166" t="s">
         <v>136</v>
@@ -6748,21 +6745,21 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B167" t="s">
         <v>14</v>
       </c>
       <c r="C167" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B168" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C168" t="s">
         <v>138</v>
@@ -6770,7 +6767,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B169" t="s">
         <v>138</v>
@@ -6781,7 +6778,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B170" t="s">
         <v>139</v>
@@ -6792,7 +6789,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B171" t="s">
         <v>140</v>
@@ -6803,7 +6800,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B172" t="s">
         <v>141</v>
@@ -6814,7 +6811,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B173" t="s">
         <v>142</v>
@@ -6825,7 +6822,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B174" t="s">
         <v>102</v>
@@ -6836,7 +6833,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B175" t="s">
         <v>143</v>
@@ -6847,7 +6844,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B176" t="s">
         <v>144</v>
@@ -6858,7 +6855,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B177" t="s">
         <v>145</v>
@@ -6869,7 +6866,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B178" t="s">
         <v>146</v>
@@ -6880,29 +6877,29 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B179" t="s">
         <v>147</v>
       </c>
       <c r="C179" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B180" t="s">
+        <v>282</v>
+      </c>
+      <c r="C180" t="s">
         <v>283</v>
-      </c>
-      <c r="C180" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B181" t="s">
         <v>129</v>
@@ -6913,7 +6910,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B182" t="s">
         <v>37</v>
@@ -6924,7 +6921,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B183" t="s">
         <v>148</v>
@@ -6935,7 +6932,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B184" t="s">
         <v>149</v>
@@ -6946,7 +6943,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B185" t="s">
         <v>153</v>
@@ -6957,7 +6954,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B186" t="s">
         <v>150</v>
@@ -6968,7 +6965,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B187" t="s">
         <v>152</v>
@@ -6979,7 +6976,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B188" t="s">
         <v>151</v>
@@ -6990,7 +6987,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B189" t="s">
         <v>154</v>
@@ -7001,7 +6998,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B190" t="s">
         <v>155</v>
@@ -7012,7 +7009,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B191" t="s">
         <v>156</v>
@@ -7023,7 +7020,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B192" t="s">
         <v>157</v>
@@ -7034,7 +7031,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B193" t="s">
         <v>158</v>
@@ -7045,21 +7042,21 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B194" t="s">
         <v>109</v>
       </c>
       <c r="C194" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
+        <v>285</v>
+      </c>
+      <c r="B195" t="s">
         <v>286</v>
-      </c>
-      <c r="B195" t="s">
-        <v>287</v>
       </c>
       <c r="C195" t="s">
         <v>160</v>
@@ -7067,7 +7064,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B196" t="s">
         <v>160</v>
@@ -7078,7 +7075,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B197" t="s">
         <v>161</v>
@@ -7089,7 +7086,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B198" t="s">
         <v>10</v>
@@ -7100,7 +7097,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B199" t="s">
         <v>162</v>
@@ -7111,7 +7108,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B200" t="s">
         <v>53</v>
@@ -7122,7 +7119,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B201" t="s">
         <v>163</v>
@@ -7133,7 +7130,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B202" t="s">
         <v>164</v>
@@ -7144,7 +7141,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B203" t="s">
         <v>165</v>
@@ -7155,7 +7152,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B204" t="s">
         <v>75</v>
@@ -7166,7 +7163,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B205" t="s">
         <v>60</v>
@@ -7177,7 +7174,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B206" t="s">
         <v>166</v>
@@ -7188,7 +7185,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B207" t="s">
         <v>167</v>
@@ -7199,7 +7196,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B208" t="s">
         <v>168</v>
@@ -7210,7 +7207,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B209" t="s">
         <v>17</v>
@@ -7221,7 +7218,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B210" t="s">
         <v>169</v>
@@ -7232,7 +7229,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B211" t="s">
         <v>170</v>
@@ -7243,7 +7240,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B212" t="s">
         <v>19</v>
@@ -7254,7 +7251,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B213" t="s">
         <v>171</v>
@@ -7265,7 +7262,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B214" t="s">
         <v>122</v>
@@ -7276,7 +7273,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B215" t="s">
         <v>172</v>
@@ -7287,7 +7284,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B216" t="s">
         <v>173</v>
@@ -7298,131 +7295,131 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B217" t="s">
         <v>174</v>
       </c>
       <c r="C217" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B218" t="s">
+        <v>287</v>
+      </c>
+      <c r="C218" t="s">
         <v>288</v>
-      </c>
-      <c r="C218" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B219" t="s">
+        <v>288</v>
+      </c>
+      <c r="C219" t="s">
         <v>289</v>
-      </c>
-      <c r="C219" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B220" t="s">
+        <v>289</v>
+      </c>
+      <c r="C220" t="s">
         <v>290</v>
-      </c>
-      <c r="C220" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B221" t="s">
+        <v>290</v>
+      </c>
+      <c r="C221" t="s">
         <v>291</v>
-      </c>
-      <c r="C221" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B222" t="s">
+        <v>291</v>
+      </c>
+      <c r="C222" t="s">
         <v>292</v>
-      </c>
-      <c r="C222" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B223" t="s">
+        <v>292</v>
+      </c>
+      <c r="C223" t="s">
         <v>293</v>
-      </c>
-      <c r="C223" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B224" t="s">
+        <v>293</v>
+      </c>
+      <c r="C224" t="s">
         <v>294</v>
-      </c>
-      <c r="C224" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B225" t="s">
+        <v>294</v>
+      </c>
+      <c r="C225" t="s">
         <v>295</v>
-      </c>
-      <c r="C225" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
+        <v>296</v>
+      </c>
+      <c r="B226" t="s">
         <v>297</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C226" t="s">
         <v>298</v>
-      </c>
-      <c r="C226" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B227" t="s">
+        <v>298</v>
+      </c>
+      <c r="C227" t="s">
         <v>299</v>
-      </c>
-      <c r="C227" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B228" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C228" t="s">
         <v>175</v>
@@ -7430,7 +7427,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B229" t="s">
         <v>175</v>
@@ -7441,7 +7438,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B230" t="s">
         <v>176</v>
@@ -7452,7 +7449,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B231" t="s">
         <v>177</v>
@@ -7463,7 +7460,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B232" t="s">
         <v>178</v>
@@ -7474,7 +7471,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B233" t="s">
         <v>179</v>
@@ -7485,7 +7482,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B234" t="s">
         <v>180</v>
@@ -7496,7 +7493,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B235" t="s">
         <v>181</v>
@@ -7507,7 +7504,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B236" t="s">
         <v>182</v>
@@ -7518,7 +7515,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B237" t="s">
         <v>105</v>
@@ -7529,7 +7526,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B238" t="s">
         <v>183</v>
@@ -7540,7 +7537,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B239" t="s">
         <v>184</v>
@@ -7551,7 +7548,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B240" t="s">
         <v>8</v>
@@ -7562,7 +7559,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B241" t="s">
         <v>185</v>
@@ -7573,7 +7570,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B242" t="s">
         <v>186</v>
@@ -7584,7 +7581,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B243" t="s">
         <v>187</v>
@@ -7595,7 +7592,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B244" t="s">
         <v>260</v>
@@ -7606,7 +7603,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B245" t="s">
         <v>134</v>
@@ -7617,7 +7614,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B246" t="s">
         <v>163</v>
@@ -7628,7 +7625,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B247" t="s">
         <v>164</v>
@@ -7639,7 +7636,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B248" t="s">
         <v>165</v>
@@ -7650,7 +7647,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B249" t="s">
         <v>75</v>
@@ -7661,7 +7658,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B250" t="s">
         <v>60</v>
@@ -7672,7 +7669,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B251" t="s">
         <v>95</v>
@@ -7683,7 +7680,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B252" t="s">
         <v>188</v>
@@ -7694,7 +7691,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B253" t="s">
         <v>189</v>
@@ -7705,7 +7702,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B254" t="s">
         <v>190</v>
@@ -7716,7 +7713,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B255" t="s">
         <v>191</v>
@@ -7727,7 +7724,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B256" t="s">
         <v>20</v>
@@ -7738,7 +7735,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B257" t="s">
         <v>192</v>
@@ -7749,7 +7746,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B258" t="s">
         <v>193</v>
@@ -7760,54 +7757,54 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B259" t="s">
         <v>194</v>
       </c>
       <c r="C259" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B260" t="s">
+        <v>300</v>
+      </c>
+      <c r="C260" t="s">
         <v>301</v>
-      </c>
-      <c r="C260" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B261" t="s">
+        <v>301</v>
+      </c>
+      <c r="C261" t="s">
         <v>302</v>
-      </c>
-      <c r="C261" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
+        <v>303</v>
+      </c>
+      <c r="B262" t="s">
         <v>304</v>
       </c>
-      <c r="B262" t="s">
+      <c r="C262" t="s">
         <v>305</v>
-      </c>
-      <c r="C262" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B263" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C263" t="s">
         <v>177</v>
@@ -7815,18 +7812,18 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B264" t="s">
         <v>207</v>
       </c>
       <c r="C264" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B265" t="s">
         <v>178</v>
@@ -7837,7 +7834,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B266" t="s">
         <v>177</v>
@@ -7848,7 +7845,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B267" t="s">
         <v>208</v>
@@ -7859,7 +7856,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B268" t="s">
         <v>205</v>
@@ -7870,7 +7867,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B269" t="s">
         <v>206</v>
@@ -7881,7 +7878,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B270" t="s">
         <v>209</v>
@@ -7892,7 +7889,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B271" t="s">
         <v>205</v>
@@ -7903,21 +7900,21 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B272" t="s">
         <v>204</v>
       </c>
       <c r="C272" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B273" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C273" t="s">
         <v>109</v>
@@ -7925,7 +7922,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B274" t="s">
         <v>109</v>
@@ -7936,7 +7933,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B275" t="s">
         <v>202</v>
@@ -7947,7 +7944,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B276" t="s">
         <v>201</v>
@@ -7958,7 +7955,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B277" t="s">
         <v>200</v>
@@ -7969,7 +7966,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B278" t="s">
         <v>199</v>
@@ -7980,7 +7977,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B279" t="s">
         <v>198</v>
@@ -7991,7 +7988,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B280" t="s">
         <v>80</v>
@@ -8002,7 +7999,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B281" t="s">
         <v>197</v>
@@ -8013,7 +8010,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B282" t="s">
         <v>196</v>
@@ -8024,7 +8021,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B283" t="s">
         <v>195</v>
@@ -8035,7 +8032,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B284" t="s">
         <v>139</v>
@@ -8046,7 +8043,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B285" t="s">
         <v>99</v>
@@ -8057,7 +8054,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B286" t="s">
         <v>119</v>
@@ -8068,7 +8065,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B287" t="s">
         <v>14</v>
@@ -8079,7 +8076,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B288" t="s">
         <v>15</v>
@@ -8090,7 +8087,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B289" t="s">
         <v>210</v>
@@ -8101,7 +8098,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B290" t="s">
         <v>58</v>
@@ -8112,7 +8109,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B291" t="s">
         <v>60</v>
@@ -8123,7 +8120,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B292" t="s">
         <v>211</v>
@@ -8134,7 +8131,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B293" t="s">
         <v>39</v>
@@ -8145,7 +8142,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B294" t="s">
         <v>212</v>
@@ -8156,7 +8153,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B295" t="s">
         <v>213</v>
@@ -8167,7 +8164,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B296" t="s">
         <v>151</v>
@@ -8178,7 +8175,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B297" t="s">
         <v>214</v>
@@ -8189,43 +8186,43 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B298" t="s">
         <v>65</v>
       </c>
       <c r="C298" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
+        <v>309</v>
+      </c>
+      <c r="B299" t="s">
         <v>310</v>
       </c>
-      <c r="B299" t="s">
+      <c r="C299" t="s">
         <v>311</v>
-      </c>
-      <c r="C299" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B300" t="s">
+        <v>311</v>
+      </c>
+      <c r="C300" t="s">
         <v>312</v>
-      </c>
-      <c r="C300" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B301" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C301" t="s">
         <v>215</v>
@@ -8233,7 +8230,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B302" t="s">
         <v>215</v>
@@ -8244,7 +8241,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B303" t="s">
         <v>216</v>
@@ -8255,7 +8252,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B304" t="s">
         <v>70</v>
@@ -8266,7 +8263,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B305" t="s">
         <v>217</v>
@@ -8277,7 +8274,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B306" t="s">
         <v>218</v>
@@ -8288,7 +8285,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B307" t="s">
         <v>219</v>
@@ -8299,7 +8296,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B308" t="s">
         <v>32</v>
@@ -8310,7 +8307,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B309" t="s">
         <v>220</v>
@@ -8321,7 +8318,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B310" t="s">
         <v>221</v>
@@ -8332,7 +8329,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B311" t="s">
         <v>222</v>
@@ -8343,7 +8340,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B312" t="s">
         <v>51</v>
@@ -8354,7 +8351,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B313" t="s">
         <v>162</v>
@@ -8365,7 +8362,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B314" t="s">
         <v>10</v>
@@ -8376,7 +8373,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B315" t="s">
         <v>223</v>
@@ -8387,7 +8384,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B316" t="s">
         <v>224</v>
@@ -8398,7 +8395,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B317" t="s">
         <v>225</v>
@@ -8409,7 +8406,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B318" t="s">
         <v>199</v>
@@ -8420,21 +8417,21 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B319" t="s">
         <v>226</v>
       </c>
       <c r="C319" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B320" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C320" t="s">
         <v>84</v>
@@ -8442,7 +8439,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B321" t="s">
         <v>84</v>
@@ -8453,7 +8450,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B322" t="s">
         <v>228</v>
@@ -8464,7 +8461,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B323" t="s">
         <v>112</v>
@@ -8475,7 +8472,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B324" t="s">
         <v>229</v>
@@ -8486,7 +8483,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B325" t="s">
         <v>230</v>
@@ -8497,7 +8494,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B326" t="s">
         <v>231</v>
@@ -8508,87 +8505,87 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B327" t="s">
         <v>232</v>
       </c>
       <c r="C327" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B328" t="s">
+        <v>314</v>
+      </c>
+      <c r="C328" t="s">
         <v>315</v>
-      </c>
-      <c r="C328" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
+        <v>316</v>
+      </c>
+      <c r="B329" t="s">
         <v>317</v>
       </c>
-      <c r="B329" t="s">
+      <c r="C329" t="s">
         <v>318</v>
-      </c>
-      <c r="C329" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B330" t="s">
+        <v>318</v>
+      </c>
+      <c r="C330" t="s">
         <v>319</v>
-      </c>
-      <c r="C330" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B331" t="s">
+        <v>319</v>
+      </c>
+      <c r="C331" t="s">
         <v>320</v>
-      </c>
-      <c r="C331" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B332" t="s">
+        <v>320</v>
+      </c>
+      <c r="C332" t="s">
         <v>321</v>
-      </c>
-      <c r="C332" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B333" t="s">
+        <v>321</v>
+      </c>
+      <c r="C333" t="s">
         <v>322</v>
-      </c>
-      <c r="C333" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B334" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C334" t="s">
         <v>242</v>
@@ -8596,7 +8593,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B335" t="s">
         <v>242</v>
@@ -8607,7 +8604,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B336" t="s">
         <v>241</v>
@@ -8618,7 +8615,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B337" t="s">
         <v>240</v>
@@ -8629,7 +8626,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B338" t="s">
         <v>30</v>
@@ -8640,7 +8637,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B339" t="s">
         <v>239</v>
@@ -8651,7 +8648,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B340" t="s">
         <v>51</v>
@@ -8662,21 +8659,21 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B341" t="s">
         <v>186</v>
       </c>
       <c r="C341" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B342" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C342" t="s">
         <v>161</v>
@@ -8684,7 +8681,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B343" t="s">
         <v>161</v>
@@ -8695,7 +8692,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B344" t="s">
         <v>238</v>
@@ -8706,7 +8703,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B345" t="s">
         <v>237</v>
@@ -8717,7 +8714,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B346" t="s">
         <v>201</v>
@@ -8728,10 +8725,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B347" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C347" t="s">
         <v>236</v>
@@ -8739,7 +8736,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B348" t="s">
         <v>236</v>
@@ -8750,7 +8747,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B349" t="s">
         <v>235</v>
@@ -8761,7 +8758,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B350" t="s">
         <v>234</v>
@@ -8772,40 +8769,40 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B351" t="s">
         <v>233</v>
       </c>
       <c r="C351" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B352" t="s">
+        <v>324</v>
+      </c>
+      <c r="C352" t="s">
         <v>325</v>
-      </c>
-      <c r="C352" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B353" t="s">
+        <v>325</v>
+      </c>
+      <c r="C353" t="s">
         <v>326</v>
-      </c>
-      <c r="C353" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B354" t="s">
         <v>243</v>
@@ -8816,7 +8813,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B355" t="s">
         <v>244</v>
@@ -8830,10 +8827,10 @@
         <v>14</v>
       </c>
       <c r="B356" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C356" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
@@ -8841,10 +8838,10 @@
         <v>14</v>
       </c>
       <c r="B357" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C357" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
@@ -8852,7 +8849,7 @@
         <v>14</v>
       </c>
       <c r="B358" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C358" t="s">
         <v>244</v>
@@ -8943,7 +8940,7 @@
         <v>120</v>
       </c>
       <c r="C366" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
@@ -8951,10 +8948,10 @@
         <v>14</v>
       </c>
       <c r="B367" t="s">
+        <v>330</v>
+      </c>
+      <c r="C367" t="s">
         <v>331</v>
-      </c>
-      <c r="C367" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
@@ -8962,7 +8959,7 @@
         <v>14</v>
       </c>
       <c r="B368" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C368" t="s">
         <v>248</v>
@@ -8987,7 +8984,7 @@
         <v>144</v>
       </c>
       <c r="C370" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
@@ -8995,10 +8992,10 @@
         <v>14</v>
       </c>
       <c r="B371" t="s">
+        <v>332</v>
+      </c>
+      <c r="C371" t="s">
         <v>333</v>
-      </c>
-      <c r="C371" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
@@ -9006,10 +9003,10 @@
         <v>14</v>
       </c>
       <c r="B372" t="s">
+        <v>333</v>
+      </c>
+      <c r="C372" t="s">
         <v>334</v>
-      </c>
-      <c r="C372" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
@@ -9017,10 +9014,10 @@
         <v>14</v>
       </c>
       <c r="B373" t="s">
+        <v>334</v>
+      </c>
+      <c r="C373" t="s">
         <v>335</v>
-      </c>
-      <c r="C373" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
@@ -9028,10 +9025,10 @@
         <v>14</v>
       </c>
       <c r="B374" t="s">
+        <v>335</v>
+      </c>
+      <c r="C374" t="s">
         <v>336</v>
-      </c>
-      <c r="C374" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
@@ -9039,10 +9036,10 @@
         <v>14</v>
       </c>
       <c r="B375" t="s">
+        <v>336</v>
+      </c>
+      <c r="C375" t="s">
         <v>337</v>
-      </c>
-      <c r="C375" t="s">
-        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/Metro_Arcs_Par_Station_IDs.xlsx
+++ b/Metro_Arcs_Par_Station_IDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noe\Documents\GitHub\ProbSciANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C481786-6903-4AEC-B4BD-F3569373F769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C83BB4D-E8A2-4BE5-ABE9-5D3E26263D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="329">
   <si>
     <t>ID STATION</t>
   </si>
@@ -450,9 +450,6 @@
     <t>Pont Neuf</t>
   </si>
   <si>
-    <t>Pont Marie (Cité des Arts)</t>
-  </si>
-  <si>
     <t>Sully - Morland</t>
   </si>
   <si>
@@ -822,18 +819,12 @@
     <t>Havre - Caumartin</t>
   </si>
   <si>
-    <t>Quatre-Septembre</t>
-  </si>
-  <si>
     <t>Gallieni</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>Étienne Marcel</t>
-  </si>
-  <si>
     <t>Mairie de Montrouge</t>
   </si>
   <si>
@@ -858,9 +849,6 @@
     <t>Hoche</t>
   </si>
   <si>
-    <t>Bréguet - Sabin</t>
-  </si>
-  <si>
     <t>3bis</t>
   </si>
   <si>
@@ -879,9 +867,6 @@
     <t>Aubervilliers - Pantin - Quatre Chemins</t>
   </si>
   <si>
-    <t>Château-Landon</t>
-  </si>
-  <si>
     <t>Pont Marie</t>
   </si>
   <si>
@@ -897,9 +882,6 @@
     <t>8</t>
   </si>
   <si>
-    <t>École Militaire</t>
-  </si>
-  <si>
     <t>Liberté</t>
   </si>
   <si>
@@ -957,9 +939,6 @@
     <t>Boulogne - Jean Jaurès</t>
   </si>
   <si>
-    <t>Avenue Émile Zola</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -978,9 +957,6 @@
     <t>Front Populaire</t>
   </si>
   <si>
-    <t>Notre-Dame-des-Champs</t>
-  </si>
-  <si>
     <t>Corentin Celton</t>
   </si>
   <si>
@@ -1020,16 +996,10 @@
     <t>Châtillon - Montrouge</t>
   </si>
   <si>
-    <t>Notre-Dame-des Champs</t>
-  </si>
-  <si>
     <t>Saint-Denis Pleyel</t>
   </si>
   <si>
     <t>Saint-Ouen</t>
-  </si>
-  <si>
-    <t>Cour Saint-Émilion</t>
   </si>
   <si>
     <t>Bibliothèque François-Mitterrand</t>
@@ -1429,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D247"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3321,7 +3291,7 @@
         <v>159</v>
       </c>
       <c r="B135" t="s">
-        <v>137</v>
+        <v>276</v>
       </c>
       <c r="C135">
         <v>2.3573766690443998</v>
@@ -3335,7 +3305,7 @@
         <v>160</v>
       </c>
       <c r="B136" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C136">
         <v>2.36185316969725</v>
@@ -3349,7 +3319,7 @@
         <v>161</v>
       </c>
       <c r="B137" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C137">
         <v>2.35493167182323</v>
@@ -3363,7 +3333,7 @@
         <v>162</v>
       </c>
       <c r="B138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C138">
         <v>2.3521548685787699</v>
@@ -3377,7 +3347,7 @@
         <v>163</v>
       </c>
       <c r="B139" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C139">
         <v>2.3516265726054999</v>
@@ -3391,7 +3361,7 @@
         <v>164</v>
       </c>
       <c r="B140" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C140">
         <v>2.3524168018982698</v>
@@ -3405,7 +3375,7 @@
         <v>166</v>
       </c>
       <c r="B141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C141">
         <v>2.3573184392131901</v>
@@ -3419,7 +3389,7 @@
         <v>167</v>
       </c>
       <c r="B142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C142">
         <v>2.3584129461559402</v>
@@ -3433,7 +3403,7 @@
         <v>168</v>
       </c>
       <c r="B143" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C143">
         <v>2.3595297331071698</v>
@@ -3447,7 +3417,7 @@
         <v>169</v>
       </c>
       <c r="B144" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C144">
         <v>2.3646785940494599</v>
@@ -3461,7 +3431,7 @@
         <v>170</v>
       </c>
       <c r="B145" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C145">
         <v>2.3695112543194901</v>
@@ -3475,7 +3445,7 @@
         <v>174</v>
       </c>
       <c r="B146" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C146">
         <v>2.37412487118754</v>
@@ -3489,7 +3459,7 @@
         <v>175</v>
       </c>
       <c r="B147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C147">
         <v>2.3815698420880098</v>
@@ -3503,7 +3473,7 @@
         <v>176</v>
       </c>
       <c r="B148" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C148">
         <v>2.38890095131574</v>
@@ -3517,7 +3487,7 @@
         <v>177</v>
       </c>
       <c r="B149" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C149">
         <v>2.3931393703605002</v>
@@ -3531,7 +3501,7 @@
         <v>178</v>
       </c>
       <c r="B150" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C150">
         <v>2.3985807706935298</v>
@@ -3545,7 +3515,7 @@
         <v>179</v>
       </c>
       <c r="B151" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C151">
         <v>2.3932284712274901</v>
@@ -3559,7 +3529,7 @@
         <v>181</v>
       </c>
       <c r="B152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C152">
         <v>2.2783626618091999</v>
@@ -3573,7 +3543,7 @@
         <v>182</v>
       </c>
       <c r="B153" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C153">
         <v>2.2822419598550701</v>
@@ -3587,7 +3557,7 @@
         <v>183</v>
       </c>
       <c r="B154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C154">
         <v>2.2879184311245599</v>
@@ -3601,7 +3571,7 @@
         <v>184</v>
       </c>
       <c r="B155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C155">
         <v>2.2918472203679698</v>
@@ -3615,7 +3585,7 @@
         <v>185</v>
       </c>
       <c r="B156" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C156">
         <v>2.2937968421928598</v>
@@ -3629,7 +3599,7 @@
         <v>187</v>
       </c>
       <c r="B157" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C157">
         <v>2.30634568382008</v>
@@ -3643,7 +3613,7 @@
         <v>188</v>
       </c>
       <c r="B158" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C158">
         <v>2.3104735359369801</v>
@@ -3657,7 +3627,7 @@
         <v>189</v>
       </c>
       <c r="B159" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C159">
         <v>2.31463266044452</v>
@@ -3671,7 +3641,7 @@
         <v>191</v>
       </c>
       <c r="B160" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C160">
         <v>2.3258100487932798</v>
@@ -3685,7 +3655,7 @@
         <v>193</v>
       </c>
       <c r="B161" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C161">
         <v>2.33859122153854</v>
@@ -3699,7 +3669,7 @@
         <v>194</v>
       </c>
       <c r="B162" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C162">
         <v>2.34320726640509</v>
@@ -3713,7 +3683,7 @@
         <v>195</v>
       </c>
       <c r="B163" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C163">
         <v>2.3484813657183898</v>
@@ -3727,7 +3697,7 @@
         <v>198</v>
       </c>
       <c r="B164" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C164">
         <v>2.3667452977427001</v>
@@ -3741,7 +3711,7 @@
         <v>199</v>
       </c>
       <c r="B165" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C165">
         <v>2.36726153971727</v>
@@ -3755,7 +3725,7 @@
         <v>200</v>
       </c>
       <c r="B166" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C166">
         <v>2.3680950853859901</v>
@@ -3769,7 +3739,7 @@
         <v>202</v>
       </c>
       <c r="B167" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C167">
         <v>2.3761412233185899</v>
@@ -3783,7 +3753,7 @@
         <v>203</v>
       </c>
       <c r="B168" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C168">
         <v>2.38402856638311</v>
@@ -3797,7 +3767,7 @@
         <v>205</v>
       </c>
       <c r="B169" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C169">
         <v>2.39040001363536</v>
@@ -3811,7 +3781,7 @@
         <v>207</v>
       </c>
       <c r="B170" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C170">
         <v>2.402366739988</v>
@@ -3825,7 +3795,7 @@
         <v>208</v>
       </c>
       <c r="B171" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C171">
         <v>2.4058739129875599</v>
@@ -3839,7 +3809,7 @@
         <v>209</v>
       </c>
       <c r="B172" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C172">
         <v>2.4025118728500701</v>
@@ -3853,7 +3823,7 @@
         <v>210</v>
       </c>
       <c r="B173" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C173">
         <v>2.2570461929221501</v>
@@ -3867,7 +3837,7 @@
         <v>211</v>
       </c>
       <c r="B174" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C174">
         <v>2.2598008451443401</v>
@@ -3881,7 +3851,7 @@
         <v>212</v>
       </c>
       <c r="B175" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C175">
         <v>2.2615119169051998</v>
@@ -3895,7 +3865,7 @@
         <v>213</v>
       </c>
       <c r="B176" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C176">
         <v>2.2639895253333302</v>
@@ -3909,7 +3879,7 @@
         <v>214</v>
       </c>
       <c r="B177" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C177">
         <v>2.2679332916470698</v>
@@ -3923,7 +3893,7 @@
         <v>215</v>
       </c>
       <c r="B178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C178">
         <v>2.2699481579346301</v>
@@ -3937,7 +3907,7 @@
         <v>216</v>
       </c>
       <c r="B179" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C179">
         <v>2.2740962446697202</v>
@@ -3951,7 +3921,7 @@
         <v>217</v>
       </c>
       <c r="B180" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C180">
         <v>2.2778858979590599</v>
@@ -3965,7 +3935,7 @@
         <v>219</v>
       </c>
       <c r="B181" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C181">
         <v>2.2938642256822699</v>
@@ -3979,7 +3949,7 @@
         <v>220</v>
       </c>
       <c r="B182" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C182">
         <v>2.3011043523926702</v>
@@ -3993,7 +3963,7 @@
         <v>222</v>
       </c>
       <c r="B183" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C183">
         <v>2.3101372056878202</v>
@@ -4007,7 +3977,7 @@
         <v>223</v>
       </c>
       <c r="B184" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C184">
         <v>2.31601069312102</v>
@@ -4021,7 +3991,7 @@
         <v>224</v>
       </c>
       <c r="B185" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C185">
         <v>2.3210135978086002</v>
@@ -4035,7 +4005,7 @@
         <v>233</v>
       </c>
       <c r="B186" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C186">
         <v>2.3738805382115502</v>
@@ -4049,7 +4019,7 @@
         <v>234</v>
       </c>
       <c r="B187" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C187">
         <v>2.3800316941488</v>
@@ -4063,7 +4033,7 @@
         <v>235</v>
       </c>
       <c r="B188" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C188">
         <v>2.3847823964488901</v>
@@ -4077,7 +4047,7 @@
         <v>236</v>
       </c>
       <c r="B189" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C189">
         <v>2.3891047050322398</v>
@@ -4091,7 +4061,7 @@
         <v>238</v>
       </c>
       <c r="B190" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C190">
         <v>2.4011707693684099</v>
@@ -4105,7 +4075,7 @@
         <v>239</v>
       </c>
       <c r="B191" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C191">
         <v>2.4060385447980499</v>
@@ -4119,7 +4089,7 @@
         <v>240</v>
       </c>
       <c r="B192" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C192">
         <v>2.41071815402749</v>
@@ -4133,7 +4103,7 @@
         <v>243</v>
       </c>
       <c r="B193" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C193">
         <v>2.3513280016731799</v>
@@ -4147,7 +4117,7 @@
         <v>244</v>
       </c>
       <c r="B194" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C194">
         <v>2.3482804131694901</v>
@@ -4161,7 +4131,7 @@
         <v>245</v>
       </c>
       <c r="B195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C195">
         <v>2.34489630121208</v>
@@ -4175,7 +4145,7 @@
         <v>247</v>
       </c>
       <c r="B196" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C196">
         <v>2.3351428193464701</v>
@@ -4189,7 +4159,7 @@
         <v>248</v>
       </c>
       <c r="B197" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C197">
         <v>2.32685966312174</v>
@@ -4203,7 +4173,7 @@
         <v>249</v>
       </c>
       <c r="B198" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C198">
         <v>2.32135124235473</v>
@@ -4217,7 +4187,7 @@
         <v>250</v>
       </c>
       <c r="B199" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C199">
         <v>2.3165212194565199</v>
@@ -4231,7 +4201,7 @@
         <v>251</v>
       </c>
       <c r="B200" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C200">
         <v>2.3071378494033801</v>
@@ -4245,7 +4215,7 @@
         <v>253</v>
       </c>
       <c r="B201" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C201">
         <v>2.2950189971435502</v>
@@ -4259,7 +4229,7 @@
         <v>254</v>
       </c>
       <c r="B202" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C202">
         <v>2.2856210133667201</v>
@@ -4273,7 +4243,7 @@
         <v>255</v>
       </c>
       <c r="B203" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C203">
         <v>2.2780094965273601</v>
@@ -4287,7 +4257,7 @@
         <v>256</v>
       </c>
       <c r="B204" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C204">
         <v>2.2691113890218899</v>
@@ -4301,7 +4271,7 @@
         <v>258</v>
       </c>
       <c r="B205" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C205">
         <v>2.25828074459554</v>
@@ -4315,7 +4285,7 @@
         <v>260</v>
       </c>
       <c r="B206" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C206">
         <v>2.2669054759402898</v>
@@ -4329,7 +4299,7 @@
         <v>261</v>
       </c>
       <c r="B207" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C207">
         <v>2.2730641263728302</v>
@@ -4343,7 +4313,7 @@
         <v>264</v>
       </c>
       <c r="B208" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C208">
         <v>2.35327394859477</v>
@@ -4357,7 +4327,7 @@
         <v>267</v>
       </c>
       <c r="B209" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C209">
         <v>2.3707644347483998</v>
@@ -4371,7 +4341,7 @@
         <v>269</v>
       </c>
       <c r="B210" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C210">
         <v>2.38520291556953</v>
@@ -4385,7 +4355,7 @@
         <v>270</v>
       </c>
       <c r="B211" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C211">
         <v>2.3893253789101001</v>
@@ -4399,7 +4369,7 @@
         <v>271</v>
       </c>
       <c r="B212" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C212">
         <v>2.3931393703605002</v>
@@ -4413,7 +4383,7 @@
         <v>272</v>
       </c>
       <c r="B213" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C213">
         <v>2.3986480899605902</v>
@@ -4427,7 +4397,7 @@
         <v>274</v>
       </c>
       <c r="B214" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C214">
         <v>2.3592485423103602</v>
@@ -4441,7 +4411,7 @@
         <v>275</v>
       </c>
       <c r="B215" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C215">
         <v>2.3598084780840201</v>
@@ -4455,7 +4425,7 @@
         <v>277</v>
       </c>
       <c r="B216" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C216">
         <v>2.34432002938048</v>
@@ -4469,7 +4439,7 @@
         <v>278</v>
       </c>
       <c r="B217" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C217">
         <v>2.33858382438319</v>
@@ -4483,7 +4453,7 @@
         <v>279</v>
       </c>
       <c r="B218" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C218">
         <v>2.3383946352209102</v>
@@ -4497,7 +4467,7 @@
         <v>281</v>
       </c>
       <c r="B219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C219">
         <v>2.3375706403796701</v>
@@ -4511,7 +4481,7 @@
         <v>282</v>
       </c>
       <c r="B220" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C220">
         <v>2.3378736192226399</v>
@@ -4525,7 +4495,7 @@
         <v>283</v>
       </c>
       <c r="B221" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C221">
         <v>2.3330491724182401</v>
@@ -4539,7 +4509,7 @@
         <v>287</v>
       </c>
       <c r="B222" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C222">
         <v>2.3205758366475502</v>
@@ -4553,7 +4523,7 @@
         <v>288</v>
       </c>
       <c r="B223" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C223">
         <v>2.3230759642515402</v>
@@ -4567,7 +4537,7 @@
         <v>289</v>
       </c>
       <c r="B224" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C224">
         <v>2.32569989845241</v>
@@ -4581,7 +4551,7 @@
         <v>291</v>
       </c>
       <c r="B225" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C225">
         <v>2.3277871847873901</v>
@@ -4595,7 +4565,7 @@
         <v>292</v>
       </c>
       <c r="B226" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C226">
         <v>2.3286958054987101</v>
@@ -4609,7 +4579,7 @@
         <v>294</v>
       </c>
       <c r="B227" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C227">
         <v>2.3175512356170298</v>
@@ -4623,7 +4593,7 @@
         <v>296</v>
       </c>
       <c r="B228" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C228">
         <v>2.3079833805768502</v>
@@ -4637,7 +4607,7 @@
         <v>297</v>
       </c>
       <c r="B229" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C229">
         <v>2.30107451565455</v>
@@ -4651,7 +4621,7 @@
         <v>298</v>
       </c>
       <c r="B230" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C230">
         <v>2.29639138648092</v>
@@ -4665,7 +4635,7 @@
         <v>299</v>
       </c>
       <c r="B231" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C231">
         <v>2.2877417091423302</v>
@@ -4679,7 +4649,7 @@
         <v>300</v>
       </c>
       <c r="B232" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C232">
         <v>2.30533238665747</v>
@@ -4693,7 +4663,7 @@
         <v>301</v>
       </c>
       <c r="B233" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C233">
         <v>2.31386048934431</v>
@@ -4707,7 +4677,7 @@
         <v>302</v>
       </c>
       <c r="B234" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C234">
         <v>2.3183937066147</v>
@@ -4721,7 +4691,7 @@
         <v>303</v>
       </c>
       <c r="B235" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C235">
         <v>2.3223539967788098</v>
@@ -4735,7 +4705,7 @@
         <v>306</v>
       </c>
       <c r="B236" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C236">
         <v>2.31428594618056</v>
@@ -4749,7 +4719,7 @@
         <v>307</v>
       </c>
       <c r="B237" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C237">
         <v>2.3151139305096602</v>
@@ -4763,7 +4733,7 @@
         <v>312</v>
       </c>
       <c r="B238" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C238">
         <v>2.3268526712397599</v>
@@ -4777,7 +4747,7 @@
         <v>314</v>
       </c>
       <c r="B239" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C239">
         <v>2.3257141171661302</v>
@@ -4791,7 +4761,7 @@
         <v>315</v>
       </c>
       <c r="B240" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C240">
         <v>2.32748325862612</v>
@@ -4805,7 +4775,7 @@
         <v>316</v>
       </c>
       <c r="B241" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C241">
         <v>2.3290483407446501</v>
@@ -4819,7 +4789,7 @@
         <v>318</v>
       </c>
       <c r="B242" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C242">
         <v>2.3199048172093599</v>
@@ -4833,7 +4803,7 @@
         <v>319</v>
       </c>
       <c r="B243" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C243">
         <v>2.3132083507588099</v>
@@ -4847,7 +4817,7 @@
         <v>321</v>
       </c>
       <c r="B244" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C244">
         <v>2.3153681405051501</v>
@@ -4861,7 +4831,7 @@
         <v>328</v>
       </c>
       <c r="B245" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C245">
         <v>2.3866178502140598</v>
@@ -4875,7 +4845,7 @@
         <v>329</v>
       </c>
       <c r="B246" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C246">
         <v>2.3764873711683001</v>
@@ -4889,7 +4859,7 @@
         <v>330</v>
       </c>
       <c r="B247" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C247">
         <v>2.3669231215308102</v>
@@ -4907,8 +4877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4919,21 +4889,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" t="s">
         <v>252</v>
-      </c>
-      <c r="B2" t="s">
-        <v>253</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -4941,7 +4911,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -4952,7 +4922,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -4963,7 +4933,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -4974,7 +4944,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -4985,7 +4955,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -4996,7 +4966,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -5007,7 +4977,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -5018,7 +4988,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -5029,7 +4999,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -5040,7 +5010,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -5051,7 +5021,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -5062,7 +5032,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -5073,7 +5043,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -5084,7 +5054,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -5095,7 +5065,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -5106,7 +5076,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -5117,7 +5087,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -5128,7 +5098,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -5139,7 +5109,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
@@ -5150,21 +5120,21 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s">
-        <v>255</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -5172,7 +5142,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -5183,7 +5153,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -5194,7 +5164,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -5205,7 +5175,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -5216,7 +5186,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -5227,7 +5197,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -5238,7 +5208,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -5249,7 +5219,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -5260,7 +5230,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -5271,7 +5241,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -5282,7 +5252,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -5293,7 +5263,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -5304,7 +5274,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -5315,7 +5285,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -5326,7 +5296,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -5337,7 +5307,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -5348,7 +5318,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -5359,7 +5329,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -5370,7 +5340,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -5381,7 +5351,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -5392,7 +5362,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
@@ -5403,32 +5373,32 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>255</v>
+      </c>
+      <c r="B45" t="s">
         <v>256</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>257</v>
-      </c>
-      <c r="C45" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B46" t="s">
+        <v>257</v>
+      </c>
+      <c r="C46" t="s">
         <v>258</v>
-      </c>
-      <c r="C46" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C47" t="s">
         <v>46</v>
@@ -5436,7 +5406,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
@@ -5447,7 +5417,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B49" t="s">
         <v>47</v>
@@ -5458,7 +5428,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
@@ -5469,7 +5439,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B51" t="s">
         <v>49</v>
@@ -5480,7 +5450,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B52" t="s">
         <v>28</v>
@@ -5491,7 +5461,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B53" t="s">
         <v>50</v>
@@ -5502,21 +5472,21 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B54" t="s">
         <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B55" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C55" t="s">
         <v>53</v>
@@ -5524,21 +5494,21 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B56" t="s">
         <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>261</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B57" t="s">
-        <v>261</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
         <v>55</v>
@@ -5546,7 +5516,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B58" t="s">
         <v>55</v>
@@ -5557,7 +5527,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B59" t="s">
         <v>56</v>
@@ -5568,7 +5538,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B60" t="s">
         <v>57</v>
@@ -5579,7 +5549,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B61" t="s">
         <v>58</v>
@@ -5590,7 +5560,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B62" t="s">
         <v>59</v>
@@ -5601,7 +5571,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B63" t="s">
         <v>60</v>
@@ -5612,7 +5582,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B64" t="s">
         <v>61</v>
@@ -5623,7 +5593,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B65" t="s">
         <v>62</v>
@@ -5634,7 +5604,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B66" t="s">
         <v>42</v>
@@ -5645,7 +5615,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B67" t="s">
         <v>63</v>
@@ -5656,18 +5626,18 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B68" t="s">
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B69" t="s">
         <v>68</v>
@@ -5678,7 +5648,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B70" t="s">
         <v>69</v>
@@ -5689,7 +5659,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B71" t="s">
         <v>70</v>
@@ -5700,7 +5670,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B72" t="s">
         <v>71</v>
@@ -5711,7 +5681,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B73" t="s">
         <v>34</v>
@@ -5722,7 +5692,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B74" t="s">
         <v>72</v>
@@ -5733,7 +5703,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B75" t="s">
         <v>73</v>
@@ -5744,7 +5714,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B76" t="s">
         <v>74</v>
@@ -5755,7 +5725,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B77" t="s">
         <v>75</v>
@@ -5766,21 +5736,21 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B78" t="s">
         <v>57</v>
       </c>
       <c r="C78" t="s">
-        <v>264</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B79" t="s">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="C79" t="s">
         <v>77</v>
@@ -5788,7 +5758,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B80" t="s">
         <v>77</v>
@@ -5799,7 +5769,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B81" t="s">
         <v>14</v>
@@ -5810,7 +5780,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B82" t="s">
         <v>78</v>
@@ -5821,7 +5791,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B83" t="s">
         <v>79</v>
@@ -5832,7 +5802,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B84" t="s">
         <v>80</v>
@@ -5843,7 +5813,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B85" t="s">
         <v>81</v>
@@ -5854,7 +5824,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B86" t="s">
         <v>82</v>
@@ -5865,7 +5835,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B87" t="s">
         <v>83</v>
@@ -5876,7 +5846,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B88" t="s">
         <v>84</v>
@@ -5887,7 +5857,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B89" t="s">
         <v>85</v>
@@ -5898,7 +5868,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B90" t="s">
         <v>86</v>
@@ -5909,7 +5879,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B91" t="s">
         <v>87</v>
@@ -5920,7 +5890,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B92" t="s">
         <v>88</v>
@@ -5931,7 +5901,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B93" t="s">
         <v>89</v>
@@ -5942,76 +5912,76 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B94" t="s">
         <v>90</v>
       </c>
       <c r="C94" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>261</v>
+      </c>
+      <c r="B95" t="s">
+        <v>262</v>
+      </c>
+      <c r="C95" t="s">
         <v>263</v>
-      </c>
-      <c r="B95" t="s">
-        <v>265</v>
-      </c>
-      <c r="C95" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>261</v>
+      </c>
+      <c r="B96" t="s">
         <v>263</v>
       </c>
-      <c r="B96" t="s">
-        <v>266</v>
-      </c>
       <c r="C96" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B97" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C97" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>265</v>
+      </c>
+      <c r="B98" t="s">
+        <v>267</v>
+      </c>
+      <c r="C98" t="s">
         <v>268</v>
-      </c>
-      <c r="B98" t="s">
-        <v>270</v>
-      </c>
-      <c r="C98" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>265</v>
+      </c>
+      <c r="B99" t="s">
         <v>268</v>
       </c>
-      <c r="B99" t="s">
-        <v>271</v>
-      </c>
       <c r="C99" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B100" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C100" t="s">
         <v>91</v>
@@ -6019,7 +5989,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B101" t="s">
         <v>91</v>
@@ -6030,7 +6000,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B102" t="s">
         <v>92</v>
@@ -6041,7 +6011,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B103" t="s">
         <v>93</v>
@@ -6052,7 +6022,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B104" t="s">
         <v>37</v>
@@ -6063,7 +6033,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B105" t="s">
         <v>36</v>
@@ -6074,7 +6044,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B106" t="s">
         <v>72</v>
@@ -6085,7 +6055,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B107" t="s">
         <v>73</v>
@@ -6096,7 +6066,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B108" t="s">
         <v>94</v>
@@ -6107,7 +6077,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B109" t="s">
         <v>60</v>
@@ -6118,7 +6088,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B110" t="s">
         <v>95</v>
@@ -6129,21 +6099,21 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B111" t="s">
         <v>96</v>
       </c>
       <c r="C111" t="s">
-        <v>273</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B112" t="s">
-        <v>273</v>
+        <v>97</v>
       </c>
       <c r="C112" t="s">
         <v>17</v>
@@ -6151,7 +6121,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B113" t="s">
         <v>17</v>
@@ -6162,7 +6132,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B114" t="s">
         <v>98</v>
@@ -6173,7 +6143,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B115" t="s">
         <v>99</v>
@@ -6184,7 +6154,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B116" t="s">
         <v>100</v>
@@ -6195,7 +6165,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B117" t="s">
         <v>101</v>
@@ -6206,7 +6176,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B118" t="s">
         <v>63</v>
@@ -6217,7 +6187,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B119" t="s">
         <v>67</v>
@@ -6228,7 +6198,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B120" t="s">
         <v>66</v>
@@ -6239,10 +6209,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B121" t="s">
-        <v>255</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>103</v>
@@ -6250,7 +6220,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B122" t="s">
         <v>103</v>
@@ -6261,7 +6231,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B123" t="s">
         <v>104</v>
@@ -6272,7 +6242,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B124" t="s">
         <v>105</v>
@@ -6283,7 +6253,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B125" t="s">
         <v>106</v>
@@ -6294,7 +6264,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B126" t="s">
         <v>107</v>
@@ -6305,7 +6275,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B127" t="s">
         <v>108</v>
@@ -6316,7 +6286,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B128" t="s">
         <v>109</v>
@@ -6327,7 +6297,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B129" t="s">
         <v>110</v>
@@ -6338,7 +6308,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B130" t="s">
         <v>111</v>
@@ -6349,7 +6319,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B131" t="s">
         <v>112</v>
@@ -6360,7 +6330,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B132" t="s">
         <v>84</v>
@@ -6371,7 +6341,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B133" t="s">
         <v>113</v>
@@ -6382,7 +6352,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B134" t="s">
         <v>86</v>
@@ -6393,7 +6363,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B135" t="s">
         <v>87</v>
@@ -6404,7 +6374,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B136" t="s">
         <v>114</v>
@@ -6415,7 +6385,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B137" t="s">
         <v>115</v>
@@ -6426,7 +6396,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B138" t="s">
         <v>116</v>
@@ -6437,7 +6407,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B139" t="s">
         <v>102</v>
@@ -6448,7 +6418,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B140" t="s">
         <v>117</v>
@@ -6459,7 +6429,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B141" t="s">
         <v>118</v>
@@ -6470,7 +6440,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B142" t="s">
         <v>119</v>
@@ -6481,7 +6451,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B143" t="s">
         <v>120</v>
@@ -6492,7 +6462,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B144" t="s">
         <v>121</v>
@@ -6503,7 +6473,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B145" t="s">
         <v>122</v>
@@ -6514,7 +6484,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B146" t="s">
         <v>123</v>
@@ -6525,7 +6495,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B147" t="s">
         <v>124</v>
@@ -6536,32 +6506,32 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B148" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C148" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B149" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C149" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B150" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C150" t="s">
         <v>125</v>
@@ -6569,7 +6539,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B151" t="s">
         <v>125</v>
@@ -6580,7 +6550,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B152" t="s">
         <v>126</v>
@@ -6591,7 +6561,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B153" t="s">
         <v>127</v>
@@ -6602,7 +6572,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B154" t="s">
         <v>128</v>
@@ -6613,7 +6583,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B155" t="s">
         <v>36</v>
@@ -6624,21 +6594,21 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B156" t="s">
         <v>129</v>
       </c>
       <c r="C156" t="s">
-        <v>280</v>
+        <v>130</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B157" t="s">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="C157" t="s">
         <v>73</v>
@@ -6646,7 +6616,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B158" t="s">
         <v>73</v>
@@ -6657,7 +6627,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B159" t="s">
         <v>131</v>
@@ -6668,7 +6638,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B160" t="s">
         <v>132</v>
@@ -6679,7 +6649,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B161" t="s">
         <v>133</v>
@@ -6690,7 +6660,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B162" t="s">
         <v>134</v>
@@ -6701,7 +6671,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B163" t="s">
         <v>53</v>
@@ -6712,7 +6682,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B164" t="s">
         <v>135</v>
@@ -6723,7 +6693,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B165" t="s">
         <v>12</v>
@@ -6734,7 +6704,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B166" t="s">
         <v>136</v>
@@ -6745,76 +6715,76 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B167" t="s">
         <v>14</v>
       </c>
       <c r="C167" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
+        <v>272</v>
+      </c>
+      <c r="B168" t="s">
         <v>276</v>
       </c>
-      <c r="B168" t="s">
-        <v>281</v>
-      </c>
       <c r="C168" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B169" t="s">
+        <v>137</v>
+      </c>
+      <c r="C169" t="s">
         <v>138</v>
-      </c>
-      <c r="C169" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B170" t="s">
+        <v>138</v>
+      </c>
+      <c r="C170" t="s">
         <v>139</v>
-      </c>
-      <c r="C170" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B171" t="s">
+        <v>139</v>
+      </c>
+      <c r="C171" t="s">
         <v>140</v>
-      </c>
-      <c r="C171" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B172" t="s">
+        <v>140</v>
+      </c>
+      <c r="C172" t="s">
         <v>141</v>
-      </c>
-      <c r="C172" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B173" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C173" t="s">
         <v>102</v>
@@ -6822,84 +6792,84 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B174" t="s">
         <v>102</v>
       </c>
       <c r="C174" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B175" t="s">
+        <v>142</v>
+      </c>
+      <c r="C175" t="s">
         <v>143</v>
-      </c>
-      <c r="C175" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B176" t="s">
+        <v>143</v>
+      </c>
+      <c r="C176" t="s">
         <v>144</v>
-      </c>
-      <c r="C176" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B177" t="s">
+        <v>144</v>
+      </c>
+      <c r="C177" t="s">
         <v>145</v>
-      </c>
-      <c r="C177" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B178" t="s">
+        <v>145</v>
+      </c>
+      <c r="C178" t="s">
         <v>146</v>
-      </c>
-      <c r="C178" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B179" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C179" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B180" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C180" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B181" t="s">
         <v>129</v>
@@ -6910,131 +6880,131 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B182" t="s">
         <v>37</v>
       </c>
       <c r="C182" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B183" t="s">
+        <v>147</v>
+      </c>
+      <c r="C183" t="s">
         <v>148</v>
-      </c>
-      <c r="C183" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B184" t="s">
+        <v>148</v>
+      </c>
+      <c r="C184" t="s">
         <v>149</v>
-      </c>
-      <c r="C184" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B185" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C185" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B186" t="s">
+        <v>149</v>
+      </c>
+      <c r="C186" t="s">
         <v>150</v>
-      </c>
-      <c r="C186" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B187" t="s">
+        <v>151</v>
+      </c>
+      <c r="C187" t="s">
         <v>152</v>
-      </c>
-      <c r="C187" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B188" t="s">
+        <v>150</v>
+      </c>
+      <c r="C188" t="s">
         <v>151</v>
-      </c>
-      <c r="C188" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B189" t="s">
+        <v>153</v>
+      </c>
+      <c r="C189" t="s">
         <v>154</v>
-      </c>
-      <c r="C189" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B190" t="s">
+        <v>154</v>
+      </c>
+      <c r="C190" t="s">
         <v>155</v>
-      </c>
-      <c r="C190" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B191" t="s">
+        <v>155</v>
+      </c>
+      <c r="C191" t="s">
         <v>156</v>
-      </c>
-      <c r="C191" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B192" t="s">
+        <v>156</v>
+      </c>
+      <c r="C192" t="s">
         <v>157</v>
-      </c>
-      <c r="C192" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B193" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C193" t="s">
         <v>109</v>
@@ -7042,43 +7012,43 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B194" t="s">
         <v>109</v>
       </c>
       <c r="C194" t="s">
-        <v>286</v>
+        <v>158</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B195" t="s">
-        <v>286</v>
+        <v>158</v>
       </c>
       <c r="C195" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B196" t="s">
+        <v>159</v>
+      </c>
+      <c r="C196" t="s">
         <v>160</v>
-      </c>
-      <c r="C196" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B197" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C197" t="s">
         <v>10</v>
@@ -7086,21 +7056,21 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B198" t="s">
         <v>10</v>
       </c>
       <c r="C198" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B199" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C199" t="s">
         <v>53</v>
@@ -7108,43 +7078,43 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B200" t="s">
         <v>53</v>
       </c>
       <c r="C200" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B201" t="s">
+        <v>162</v>
+      </c>
+      <c r="C201" t="s">
         <v>163</v>
-      </c>
-      <c r="C201" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B202" t="s">
+        <v>163</v>
+      </c>
+      <c r="C202" t="s">
         <v>164</v>
-      </c>
-      <c r="C202" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B203" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C203" t="s">
         <v>75</v>
@@ -7152,7 +7122,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B204" t="s">
         <v>75</v>
@@ -7163,43 +7133,43 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B205" t="s">
         <v>60</v>
       </c>
       <c r="C205" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B206" t="s">
+        <v>165</v>
+      </c>
+      <c r="C206" t="s">
         <v>166</v>
-      </c>
-      <c r="C206" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B207" t="s">
+        <v>166</v>
+      </c>
+      <c r="C207" t="s">
         <v>167</v>
-      </c>
-      <c r="C207" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B208" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C208" t="s">
         <v>17</v>
@@ -7207,32 +7177,32 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B209" t="s">
         <v>17</v>
       </c>
       <c r="C209" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B210" t="s">
+        <v>168</v>
+      </c>
+      <c r="C210" t="s">
         <v>169</v>
-      </c>
-      <c r="C210" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B211" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C211" t="s">
         <v>19</v>
@@ -7240,21 +7210,21 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B212" t="s">
         <v>19</v>
       </c>
       <c r="C212" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B213" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C213" t="s">
         <v>122</v>
@@ -7262,252 +7232,252 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B214" t="s">
         <v>122</v>
       </c>
       <c r="C214" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B215" t="s">
+        <v>171</v>
+      </c>
+      <c r="C215" t="s">
         <v>172</v>
-      </c>
-      <c r="C215" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B216" t="s">
+        <v>172</v>
+      </c>
+      <c r="C216" t="s">
         <v>173</v>
-      </c>
-      <c r="C216" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B217" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C217" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B218" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C218" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B219" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C219" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B220" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C220" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
+        <v>280</v>
+      </c>
+      <c r="B221" t="s">
+        <v>284</v>
+      </c>
+      <c r="C221" t="s">
         <v>285</v>
-      </c>
-      <c r="B221" t="s">
-        <v>290</v>
-      </c>
-      <c r="C221" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
+        <v>280</v>
+      </c>
+      <c r="B222" t="s">
         <v>285</v>
       </c>
-      <c r="B222" t="s">
-        <v>291</v>
-      </c>
       <c r="C222" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B223" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C223" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B224" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C224" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B225" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C225" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B226" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C226" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B227" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C227" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B228" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C228" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B229" t="s">
+        <v>174</v>
+      </c>
+      <c r="C229" t="s">
         <v>175</v>
-      </c>
-      <c r="C229" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B230" t="s">
+        <v>175</v>
+      </c>
+      <c r="C230" t="s">
         <v>176</v>
-      </c>
-      <c r="C230" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B231" t="s">
+        <v>176</v>
+      </c>
+      <c r="C231" t="s">
         <v>177</v>
-      </c>
-      <c r="C231" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B232" t="s">
+        <v>177</v>
+      </c>
+      <c r="C232" t="s">
         <v>178</v>
-      </c>
-      <c r="C232" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B233" t="s">
+        <v>178</v>
+      </c>
+      <c r="C233" t="s">
         <v>179</v>
-      </c>
-      <c r="C233" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B234" t="s">
+        <v>179</v>
+      </c>
+      <c r="C234" t="s">
         <v>180</v>
-      </c>
-      <c r="C234" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B235" t="s">
+        <v>180</v>
+      </c>
+      <c r="C235" t="s">
         <v>181</v>
-      </c>
-      <c r="C235" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B236" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C236" t="s">
         <v>105</v>
@@ -7515,32 +7485,32 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B237" t="s">
         <v>105</v>
       </c>
       <c r="C237" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B238" t="s">
+        <v>182</v>
+      </c>
+      <c r="C238" t="s">
         <v>183</v>
-      </c>
-      <c r="C238" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B239" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C239" t="s">
         <v>8</v>
@@ -7548,54 +7518,54 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B240" t="s">
         <v>8</v>
       </c>
       <c r="C240" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B241" t="s">
+        <v>184</v>
+      </c>
+      <c r="C241" t="s">
         <v>185</v>
-      </c>
-      <c r="C241" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B242" t="s">
+        <v>185</v>
+      </c>
+      <c r="C242" t="s">
         <v>186</v>
-      </c>
-      <c r="C242" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B243" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C243" t="s">
-        <v>260</v>
+        <v>52</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B244" t="s">
-        <v>260</v>
+        <v>52</v>
       </c>
       <c r="C244" t="s">
         <v>134</v>
@@ -7603,43 +7573,43 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B245" t="s">
         <v>134</v>
       </c>
       <c r="C245" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B246" t="s">
+        <v>162</v>
+      </c>
+      <c r="C246" t="s">
         <v>163</v>
-      </c>
-      <c r="C246" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B247" t="s">
+        <v>163</v>
+      </c>
+      <c r="C247" t="s">
         <v>164</v>
-      </c>
-      <c r="C247" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B248" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C248" t="s">
         <v>75</v>
@@ -7647,7 +7617,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B249" t="s">
         <v>75</v>
@@ -7658,7 +7628,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B250" t="s">
         <v>60</v>
@@ -7669,54 +7639,54 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B251" t="s">
         <v>95</v>
       </c>
       <c r="C251" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B252" t="s">
+        <v>187</v>
+      </c>
+      <c r="C252" t="s">
         <v>188</v>
-      </c>
-      <c r="C252" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B253" t="s">
+        <v>188</v>
+      </c>
+      <c r="C253" t="s">
         <v>189</v>
-      </c>
-      <c r="C253" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B254" t="s">
+        <v>189</v>
+      </c>
+      <c r="C254" t="s">
         <v>190</v>
-      </c>
-      <c r="C254" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B255" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C255" t="s">
         <v>20</v>
@@ -7724,197 +7694,197 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B256" t="s">
         <v>20</v>
       </c>
       <c r="C256" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B257" t="s">
+        <v>191</v>
+      </c>
+      <c r="C257" t="s">
         <v>192</v>
-      </c>
-      <c r="C257" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B258" t="s">
+        <v>192</v>
+      </c>
+      <c r="C258" t="s">
         <v>193</v>
-      </c>
-      <c r="C258" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B259" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C259" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B260" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C260" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
+        <v>290</v>
+      </c>
+      <c r="B261" t="s">
+        <v>295</v>
+      </c>
+      <c r="C261" t="s">
         <v>296</v>
-      </c>
-      <c r="B261" t="s">
-        <v>301</v>
-      </c>
-      <c r="C261" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B262" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C262" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B263" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C263" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B264" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C264" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B265" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C265" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B266" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C266" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B267" t="s">
+        <v>207</v>
+      </c>
+      <c r="C267" t="s">
         <v>208</v>
-      </c>
-      <c r="C267" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B268" t="s">
+        <v>204</v>
+      </c>
+      <c r="C268" t="s">
         <v>205</v>
-      </c>
-      <c r="C268" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B269" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C269" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B270" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C270" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B271" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C271" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B272" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C272" t="s">
-        <v>306</v>
+        <v>202</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B273" t="s">
-        <v>306</v>
+        <v>202</v>
       </c>
       <c r="C273" t="s">
         <v>109</v>
@@ -7922,65 +7892,65 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B274" t="s">
         <v>109</v>
       </c>
       <c r="C274" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B275" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C275" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B276" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C276" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B277" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C277" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B278" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C278" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B279" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C279" t="s">
         <v>80</v>
@@ -7988,54 +7958,54 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B280" t="s">
         <v>80</v>
       </c>
       <c r="C280" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B281" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C281" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B282" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C282" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B283" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C283" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B284" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C284" t="s">
         <v>99</v>
@@ -8043,7 +8013,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B285" t="s">
         <v>99</v>
@@ -8054,18 +8024,18 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B286" t="s">
         <v>119</v>
       </c>
       <c r="C286" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B287" t="s">
         <v>14</v>
@@ -8076,21 +8046,21 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B288" t="s">
         <v>15</v>
       </c>
       <c r="C288" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B289" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C289" t="s">
         <v>58</v>
@@ -8098,7 +8068,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B290" t="s">
         <v>58</v>
@@ -8109,21 +8079,21 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B291" t="s">
         <v>60</v>
       </c>
       <c r="C291" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B292" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C292" t="s">
         <v>39</v>
@@ -8131,54 +8101,54 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B293" t="s">
         <v>39</v>
       </c>
       <c r="C293" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B294" t="s">
+        <v>211</v>
+      </c>
+      <c r="C294" t="s">
         <v>212</v>
-      </c>
-      <c r="C294" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B295" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C295" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B296" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C296" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C297" t="s">
         <v>65</v>
@@ -8186,65 +8156,65 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B298" t="s">
         <v>65</v>
       </c>
       <c r="C298" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C299" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B300" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C300" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B301" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C301" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B302" t="s">
+        <v>214</v>
+      </c>
+      <c r="C302" t="s">
         <v>215</v>
-      </c>
-      <c r="C302" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C303" t="s">
         <v>70</v>
@@ -8252,43 +8222,43 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B304" t="s">
         <v>70</v>
       </c>
       <c r="C304" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B305" t="s">
+        <v>216</v>
+      </c>
+      <c r="C305" t="s">
         <v>217</v>
-      </c>
-      <c r="C305" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B306" t="s">
+        <v>217</v>
+      </c>
+      <c r="C306" t="s">
         <v>218</v>
-      </c>
-      <c r="C306" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B307" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C307" t="s">
         <v>32</v>
@@ -8296,43 +8266,43 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B308" t="s">
         <v>32</v>
       </c>
       <c r="C308" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B309" t="s">
+        <v>219</v>
+      </c>
+      <c r="C309" t="s">
         <v>220</v>
-      </c>
-      <c r="C309" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B310" t="s">
+        <v>220</v>
+      </c>
+      <c r="C310" t="s">
         <v>221</v>
-      </c>
-      <c r="C310" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B311" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C311" t="s">
         <v>51</v>
@@ -8340,21 +8310,21 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B312" t="s">
         <v>51</v>
       </c>
       <c r="C312" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B313" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C313" t="s">
         <v>10</v>
@@ -8362,76 +8332,76 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B314" t="s">
         <v>10</v>
       </c>
       <c r="C314" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B315" t="s">
+        <v>222</v>
+      </c>
+      <c r="C315" t="s">
         <v>223</v>
-      </c>
-      <c r="C315" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B316" t="s">
+        <v>223</v>
+      </c>
+      <c r="C316" t="s">
         <v>224</v>
-      </c>
-      <c r="C316" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B317" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C317" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B318" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C318" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B319" t="s">
+        <v>225</v>
+      </c>
+      <c r="C319" t="s">
         <v>226</v>
-      </c>
-      <c r="C319" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B320" t="s">
-        <v>327</v>
+        <v>226</v>
       </c>
       <c r="C320" t="s">
         <v>84</v>
@@ -8439,21 +8409,21 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B321" t="s">
         <v>84</v>
       </c>
       <c r="C321" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B322" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C322" t="s">
         <v>112</v>
@@ -8461,164 +8431,164 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B323" t="s">
         <v>112</v>
       </c>
       <c r="C323" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B324" t="s">
+        <v>228</v>
+      </c>
+      <c r="C324" t="s">
         <v>229</v>
-      </c>
-      <c r="C324" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B325" t="s">
+        <v>229</v>
+      </c>
+      <c r="C325" t="s">
         <v>230</v>
-      </c>
-      <c r="C325" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B326" t="s">
+        <v>230</v>
+      </c>
+      <c r="C326" t="s">
         <v>231</v>
-      </c>
-      <c r="C326" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B327" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C327" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B328" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C328" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B329" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C329" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B330" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C330" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B331" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C331" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B332" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C332" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B333" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C333" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B334" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C334" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B335" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C335" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B336" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C336" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B337" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C337" t="s">
         <v>30</v>
@@ -8626,21 +8596,21 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B338" t="s">
         <v>30</v>
       </c>
       <c r="C338" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B339" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C339" t="s">
         <v>51</v>
@@ -8648,76 +8618,76 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B340" t="s">
         <v>51</v>
       </c>
       <c r="C340" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B341" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C341" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B342" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C342" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B343" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C343" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B344" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C344" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B345" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C345" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B346" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C346" t="s">
         <v>84</v>
@@ -8725,101 +8695,101 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B347" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C347" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B348" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C348" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B349" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C349" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B350" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C350" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
+        <v>308</v>
+      </c>
+      <c r="B351" t="s">
+        <v>232</v>
+      </c>
+      <c r="C351" t="s">
         <v>316</v>
-      </c>
-      <c r="B351" t="s">
-        <v>233</v>
-      </c>
-      <c r="C351" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
+        <v>308</v>
+      </c>
+      <c r="B352" t="s">
         <v>316</v>
       </c>
-      <c r="B352" t="s">
-        <v>324</v>
-      </c>
       <c r="C352" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B353" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C353" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B354" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C354" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B355" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C355" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
@@ -8827,10 +8797,10 @@
         <v>14</v>
       </c>
       <c r="B356" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C356" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
@@ -8838,10 +8808,10 @@
         <v>14</v>
       </c>
       <c r="B357" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C357" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
@@ -8849,10 +8819,10 @@
         <v>14</v>
       </c>
       <c r="B358" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C358" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
@@ -8860,10 +8830,10 @@
         <v>14</v>
       </c>
       <c r="B359" t="s">
+        <v>243</v>
+      </c>
+      <c r="C359" t="s">
         <v>244</v>
-      </c>
-      <c r="C359" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
@@ -8871,7 +8841,7 @@
         <v>14</v>
       </c>
       <c r="B360" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C360" t="s">
         <v>51</v>
@@ -8885,7 +8855,7 @@
         <v>51</v>
       </c>
       <c r="C361" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
@@ -8893,7 +8863,7 @@
         <v>14</v>
       </c>
       <c r="B362" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C362" t="s">
         <v>135</v>
@@ -8940,7 +8910,7 @@
         <v>120</v>
       </c>
       <c r="C366" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
@@ -8948,10 +8918,10 @@
         <v>14</v>
       </c>
       <c r="B367" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="C367" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
@@ -8959,10 +8929,10 @@
         <v>14</v>
       </c>
       <c r="B368" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C368" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
@@ -8970,10 +8940,10 @@
         <v>14</v>
       </c>
       <c r="B369" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C369" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
@@ -8981,10 +8951,10 @@
         <v>14</v>
       </c>
       <c r="B370" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C370" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
@@ -8992,10 +8962,10 @@
         <v>14</v>
       </c>
       <c r="B371" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C371" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
@@ -9003,10 +8973,10 @@
         <v>14</v>
       </c>
       <c r="B372" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C372" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
@@ -9014,10 +8984,10 @@
         <v>14</v>
       </c>
       <c r="B373" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C373" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
@@ -9025,10 +8995,10 @@
         <v>14</v>
       </c>
       <c r="B374" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C374" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
@@ -9036,10 +9006,10 @@
         <v>14</v>
       </c>
       <c r="B375" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C375" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/Metro_Arcs_Par_Station_IDs.xlsx
+++ b/Metro_Arcs_Par_Station_IDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noe\Documents\GitHub\ProbSciANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C83BB4D-E8A2-4BE5-ABE9-5D3E26263D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F5991B-8CF3-4314-8C68-D1B874C95CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="327">
   <si>
     <t>ID STATION</t>
   </si>
@@ -801,9 +801,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>Charles de Gaulle - Étoile</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -1000,9 +997,6 @@
   </si>
   <si>
     <t>Saint-Ouen</t>
-  </si>
-  <si>
-    <t>Bibliothèque François-Mitterrand</t>
   </si>
   <si>
     <t>Hôpital Bicêtre</t>
@@ -1399,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D247"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="B246" sqref="B246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3291,7 +3285,7 @@
         <v>159</v>
       </c>
       <c r="B135" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C135">
         <v>2.3573766690443998</v>
@@ -4875,10 +4869,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C375"/>
+  <dimension ref="A1:C373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="C283" sqref="C283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5126,7 +5120,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>254</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -5373,32 +5367,32 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>254</v>
+      </c>
+      <c r="B45" t="s">
         <v>255</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>256</v>
-      </c>
-      <c r="C45" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s">
+        <v>256</v>
+      </c>
+      <c r="C46" t="s">
         <v>257</v>
-      </c>
-      <c r="C46" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C47" t="s">
         <v>46</v>
@@ -5406,7 +5400,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
@@ -5417,7 +5411,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B49" t="s">
         <v>47</v>
@@ -5428,7 +5422,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
@@ -5439,7 +5433,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B51" t="s">
         <v>49</v>
@@ -5450,7 +5444,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B52" t="s">
         <v>28</v>
@@ -5461,7 +5455,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B53" t="s">
         <v>50</v>
@@ -5472,21 +5466,21 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B54" t="s">
         <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C55" t="s">
         <v>53</v>
@@ -5494,7 +5488,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B56" t="s">
         <v>53</v>
@@ -5505,7 +5499,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B57" t="s">
         <v>54</v>
@@ -5516,7 +5510,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B58" t="s">
         <v>55</v>
@@ -5527,7 +5521,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B59" t="s">
         <v>56</v>
@@ -5538,7 +5532,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B60" t="s">
         <v>57</v>
@@ -5549,7 +5543,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B61" t="s">
         <v>58</v>
@@ -5560,7 +5554,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B62" t="s">
         <v>59</v>
@@ -5571,7 +5565,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B63" t="s">
         <v>60</v>
@@ -5582,7 +5576,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B64" t="s">
         <v>61</v>
@@ -5593,7 +5587,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B65" t="s">
         <v>62</v>
@@ -5604,7 +5598,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B66" t="s">
         <v>42</v>
@@ -5615,7 +5609,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B67" t="s">
         <v>63</v>
@@ -5626,18 +5620,18 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B68" t="s">
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B69" t="s">
         <v>68</v>
@@ -5648,7 +5642,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B70" t="s">
         <v>69</v>
@@ -5659,7 +5653,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B71" t="s">
         <v>70</v>
@@ -5670,7 +5664,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B72" t="s">
         <v>71</v>
@@ -5681,7 +5675,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B73" t="s">
         <v>34</v>
@@ -5692,7 +5686,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B74" t="s">
         <v>72</v>
@@ -5703,7 +5697,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B75" t="s">
         <v>73</v>
@@ -5714,7 +5708,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B76" t="s">
         <v>74</v>
@@ -5725,7 +5719,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B77" t="s">
         <v>75</v>
@@ -5736,7 +5730,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B78" t="s">
         <v>57</v>
@@ -5747,7 +5741,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B79" t="s">
         <v>76</v>
@@ -5758,7 +5752,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B80" t="s">
         <v>77</v>
@@ -5769,7 +5763,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B81" t="s">
         <v>14</v>
@@ -5780,7 +5774,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B82" t="s">
         <v>78</v>
@@ -5791,7 +5785,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B83" t="s">
         <v>79</v>
@@ -5802,7 +5796,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B84" t="s">
         <v>80</v>
@@ -5813,7 +5807,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B85" t="s">
         <v>81</v>
@@ -5824,7 +5818,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B86" t="s">
         <v>82</v>
@@ -5835,7 +5829,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B87" t="s">
         <v>83</v>
@@ -5846,7 +5840,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B88" t="s">
         <v>84</v>
@@ -5857,7 +5851,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B89" t="s">
         <v>85</v>
@@ -5868,7 +5862,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B90" t="s">
         <v>86</v>
@@ -5879,7 +5873,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B91" t="s">
         <v>87</v>
@@ -5890,7 +5884,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B92" t="s">
         <v>88</v>
@@ -5901,7 +5895,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B93" t="s">
         <v>89</v>
@@ -5912,76 +5906,76 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B94" t="s">
         <v>90</v>
       </c>
       <c r="C94" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>260</v>
+      </c>
+      <c r="B95" t="s">
         <v>261</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>262</v>
-      </c>
-      <c r="C95" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B96" t="s">
+        <v>262</v>
+      </c>
+      <c r="C96" t="s">
         <v>263</v>
-      </c>
-      <c r="C96" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>264</v>
+      </c>
+      <c r="B97" t="s">
         <v>265</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>266</v>
-      </c>
-      <c r="C97" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B98" t="s">
+        <v>266</v>
+      </c>
+      <c r="C98" t="s">
         <v>267</v>
-      </c>
-      <c r="C98" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B99" t="s">
+        <v>267</v>
+      </c>
+      <c r="C99" t="s">
         <v>268</v>
-      </c>
-      <c r="C99" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B100" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C100" t="s">
         <v>91</v>
@@ -5989,7 +5983,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B101" t="s">
         <v>91</v>
@@ -6000,7 +5994,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B102" t="s">
         <v>92</v>
@@ -6011,7 +6005,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B103" t="s">
         <v>93</v>
@@ -6022,7 +6016,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B104" t="s">
         <v>37</v>
@@ -6033,7 +6027,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B105" t="s">
         <v>36</v>
@@ -6044,7 +6038,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B106" t="s">
         <v>72</v>
@@ -6055,7 +6049,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B107" t="s">
         <v>73</v>
@@ -6066,7 +6060,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B108" t="s">
         <v>94</v>
@@ -6077,7 +6071,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B109" t="s">
         <v>60</v>
@@ -6088,7 +6082,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B110" t="s">
         <v>95</v>
@@ -6099,7 +6093,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B111" t="s">
         <v>96</v>
@@ -6110,7 +6104,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B112" t="s">
         <v>97</v>
@@ -6121,7 +6115,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B113" t="s">
         <v>17</v>
@@ -6132,7 +6126,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B114" t="s">
         <v>98</v>
@@ -6143,7 +6137,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B115" t="s">
         <v>99</v>
@@ -6154,7 +6148,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B116" t="s">
         <v>100</v>
@@ -6165,7 +6159,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B117" t="s">
         <v>101</v>
@@ -6176,7 +6170,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B118" t="s">
         <v>63</v>
@@ -6187,7 +6181,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B119" t="s">
         <v>67</v>
@@ -6198,7 +6192,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B120" t="s">
         <v>66</v>
@@ -6209,7 +6203,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
@@ -6220,7 +6214,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B122" t="s">
         <v>103</v>
@@ -6231,7 +6225,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B123" t="s">
         <v>104</v>
@@ -6242,7 +6236,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B124" t="s">
         <v>105</v>
@@ -6253,7 +6247,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B125" t="s">
         <v>106</v>
@@ -6264,7 +6258,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B126" t="s">
         <v>107</v>
@@ -6275,7 +6269,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B127" t="s">
         <v>108</v>
@@ -6286,7 +6280,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B128" t="s">
         <v>109</v>
@@ -6297,7 +6291,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B129" t="s">
         <v>110</v>
@@ -6308,7 +6302,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B130" t="s">
         <v>111</v>
@@ -6319,7 +6313,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B131" t="s">
         <v>112</v>
@@ -6330,7 +6324,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B132" t="s">
         <v>84</v>
@@ -6341,7 +6335,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B133" t="s">
         <v>113</v>
@@ -6352,7 +6346,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B134" t="s">
         <v>86</v>
@@ -6363,7 +6357,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B135" t="s">
         <v>87</v>
@@ -6374,7 +6368,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B136" t="s">
         <v>114</v>
@@ -6385,7 +6379,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B137" t="s">
         <v>115</v>
@@ -6396,7 +6390,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B138" t="s">
         <v>116</v>
@@ -6407,7 +6401,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B139" t="s">
         <v>102</v>
@@ -6418,7 +6412,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B140" t="s">
         <v>117</v>
@@ -6429,7 +6423,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B141" t="s">
         <v>118</v>
@@ -6440,7 +6434,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B142" t="s">
         <v>119</v>
@@ -6451,7 +6445,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B143" t="s">
         <v>120</v>
@@ -6462,7 +6456,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B144" t="s">
         <v>121</v>
@@ -6473,7 +6467,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B145" t="s">
         <v>122</v>
@@ -6484,7 +6478,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B146" t="s">
         <v>123</v>
@@ -6495,7 +6489,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B147" t="s">
         <v>124</v>
@@ -6506,32 +6500,32 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>271</v>
+      </c>
+      <c r="B148" t="s">
         <v>272</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>273</v>
-      </c>
-      <c r="C148" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B149" t="s">
+        <v>273</v>
+      </c>
+      <c r="C149" t="s">
         <v>274</v>
-      </c>
-      <c r="C149" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B150" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C150" t="s">
         <v>125</v>
@@ -6539,7 +6533,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B151" t="s">
         <v>125</v>
@@ -6550,7 +6544,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B152" t="s">
         <v>126</v>
@@ -6561,7 +6555,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B153" t="s">
         <v>127</v>
@@ -6572,7 +6566,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B154" t="s">
         <v>128</v>
@@ -6583,7 +6577,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B155" t="s">
         <v>36</v>
@@ -6594,7 +6588,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B156" t="s">
         <v>129</v>
@@ -6605,7 +6599,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B157" t="s">
         <v>130</v>
@@ -6616,7 +6610,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B158" t="s">
         <v>73</v>
@@ -6627,7 +6621,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B159" t="s">
         <v>131</v>
@@ -6638,7 +6632,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B160" t="s">
         <v>132</v>
@@ -6649,7 +6643,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B161" t="s">
         <v>133</v>
@@ -6660,7 +6654,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B162" t="s">
         <v>134</v>
@@ -6671,7 +6665,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B163" t="s">
         <v>53</v>
@@ -6682,7 +6676,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B164" t="s">
         <v>135</v>
@@ -6693,7 +6687,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B165" t="s">
         <v>12</v>
@@ -6704,7 +6698,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B166" t="s">
         <v>136</v>
@@ -6715,21 +6709,21 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B167" t="s">
         <v>14</v>
       </c>
       <c r="C167" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B168" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C168" t="s">
         <v>137</v>
@@ -6737,7 +6731,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B169" t="s">
         <v>137</v>
@@ -6748,7 +6742,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B170" t="s">
         <v>138</v>
@@ -6759,7 +6753,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B171" t="s">
         <v>139</v>
@@ -6770,7 +6764,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B172" t="s">
         <v>140</v>
@@ -6781,7 +6775,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B173" t="s">
         <v>141</v>
@@ -6792,7 +6786,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B174" t="s">
         <v>102</v>
@@ -6803,7 +6797,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B175" t="s">
         <v>142</v>
@@ -6814,7 +6808,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B176" t="s">
         <v>143</v>
@@ -6825,7 +6819,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B177" t="s">
         <v>144</v>
@@ -6836,7 +6830,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B178" t="s">
         <v>145</v>
@@ -6847,29 +6841,29 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B179" t="s">
         <v>146</v>
       </c>
       <c r="C179" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B180" t="s">
+        <v>276</v>
+      </c>
+      <c r="C180" t="s">
         <v>277</v>
-      </c>
-      <c r="C180" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B181" t="s">
         <v>129</v>
@@ -6880,7 +6874,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B182" t="s">
         <v>37</v>
@@ -6891,7 +6885,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B183" t="s">
         <v>147</v>
@@ -6902,7 +6896,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B184" t="s">
         <v>148</v>
@@ -6913,7 +6907,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B185" t="s">
         <v>152</v>
@@ -6924,7 +6918,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B186" t="s">
         <v>149</v>
@@ -6935,7 +6929,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B187" t="s">
         <v>151</v>
@@ -6946,7 +6940,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B188" t="s">
         <v>150</v>
@@ -6957,7 +6951,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B189" t="s">
         <v>153</v>
@@ -6968,7 +6962,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B190" t="s">
         <v>154</v>
@@ -6979,7 +6973,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B191" t="s">
         <v>155</v>
@@ -6990,7 +6984,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B192" t="s">
         <v>156</v>
@@ -7001,7 +6995,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B193" t="s">
         <v>157</v>
@@ -7012,7 +7006,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B194" t="s">
         <v>109</v>
@@ -7023,7 +7017,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B195" t="s">
         <v>158</v>
@@ -7034,7 +7028,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B196" t="s">
         <v>159</v>
@@ -7045,7 +7039,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B197" t="s">
         <v>160</v>
@@ -7056,7 +7050,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B198" t="s">
         <v>10</v>
@@ -7067,7 +7061,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B199" t="s">
         <v>161</v>
@@ -7078,7 +7072,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B200" t="s">
         <v>53</v>
@@ -7089,7 +7083,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B201" t="s">
         <v>162</v>
@@ -7100,7 +7094,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B202" t="s">
         <v>163</v>
@@ -7111,7 +7105,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B203" t="s">
         <v>164</v>
@@ -7122,7 +7116,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B204" t="s">
         <v>75</v>
@@ -7133,7 +7127,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B205" t="s">
         <v>60</v>
@@ -7144,7 +7138,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B206" t="s">
         <v>165</v>
@@ -7155,7 +7149,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B207" t="s">
         <v>166</v>
@@ -7166,7 +7160,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B208" t="s">
         <v>167</v>
@@ -7177,7 +7171,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B209" t="s">
         <v>17</v>
@@ -7188,7 +7182,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B210" t="s">
         <v>168</v>
@@ -7199,7 +7193,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B211" t="s">
         <v>169</v>
@@ -7210,7 +7204,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B212" t="s">
         <v>19</v>
@@ -7221,7 +7215,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B213" t="s">
         <v>170</v>
@@ -7232,7 +7226,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B214" t="s">
         <v>122</v>
@@ -7243,7 +7237,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B215" t="s">
         <v>171</v>
@@ -7254,7 +7248,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B216" t="s">
         <v>172</v>
@@ -7265,131 +7259,131 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B217" t="s">
         <v>173</v>
       </c>
       <c r="C217" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
+        <v>279</v>
+      </c>
+      <c r="B218" t="s">
         <v>280</v>
       </c>
-      <c r="B218" t="s">
+      <c r="C218" t="s">
         <v>281</v>
-      </c>
-      <c r="C218" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B219" t="s">
+        <v>281</v>
+      </c>
+      <c r="C219" t="s">
         <v>282</v>
-      </c>
-      <c r="C219" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B220" t="s">
+        <v>282</v>
+      </c>
+      <c r="C220" t="s">
         <v>283</v>
-      </c>
-      <c r="C220" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B221" t="s">
+        <v>283</v>
+      </c>
+      <c r="C221" t="s">
         <v>284</v>
-      </c>
-      <c r="C221" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B222" t="s">
+        <v>284</v>
+      </c>
+      <c r="C222" t="s">
         <v>285</v>
-      </c>
-      <c r="C222" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B223" t="s">
+        <v>285</v>
+      </c>
+      <c r="C223" t="s">
         <v>286</v>
-      </c>
-      <c r="C223" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B224" t="s">
+        <v>286</v>
+      </c>
+      <c r="C224" t="s">
         <v>287</v>
-      </c>
-      <c r="C224" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B225" t="s">
+        <v>287</v>
+      </c>
+      <c r="C225" t="s">
         <v>288</v>
-      </c>
-      <c r="C225" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
+        <v>289</v>
+      </c>
+      <c r="B226" t="s">
         <v>290</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C226" t="s">
         <v>291</v>
-      </c>
-      <c r="C226" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B227" t="s">
+        <v>291</v>
+      </c>
+      <c r="C227" t="s">
         <v>292</v>
-      </c>
-      <c r="C227" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B228" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C228" t="s">
         <v>174</v>
@@ -7397,7 +7391,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B229" t="s">
         <v>174</v>
@@ -7408,7 +7402,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B230" t="s">
         <v>175</v>
@@ -7419,7 +7413,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B231" t="s">
         <v>176</v>
@@ -7430,7 +7424,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B232" t="s">
         <v>177</v>
@@ -7441,7 +7435,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B233" t="s">
         <v>178</v>
@@ -7452,7 +7446,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B234" t="s">
         <v>179</v>
@@ -7463,7 +7457,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B235" t="s">
         <v>180</v>
@@ -7474,7 +7468,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B236" t="s">
         <v>181</v>
@@ -7485,7 +7479,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B237" t="s">
         <v>105</v>
@@ -7496,7 +7490,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B238" t="s">
         <v>182</v>
@@ -7507,7 +7501,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B239" t="s">
         <v>183</v>
@@ -7518,7 +7512,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B240" t="s">
         <v>8</v>
@@ -7529,7 +7523,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B241" t="s">
         <v>184</v>
@@ -7540,7 +7534,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B242" t="s">
         <v>185</v>
@@ -7551,7 +7545,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B243" t="s">
         <v>186</v>
@@ -7562,7 +7556,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B244" t="s">
         <v>52</v>
@@ -7573,7 +7567,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B245" t="s">
         <v>134</v>
@@ -7584,7 +7578,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B246" t="s">
         <v>162</v>
@@ -7595,7 +7589,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B247" t="s">
         <v>163</v>
@@ -7606,7 +7600,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B248" t="s">
         <v>164</v>
@@ -7617,7 +7611,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B249" t="s">
         <v>75</v>
@@ -7628,7 +7622,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B250" t="s">
         <v>60</v>
@@ -7639,7 +7633,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B251" t="s">
         <v>95</v>
@@ -7650,7 +7644,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B252" t="s">
         <v>187</v>
@@ -7661,7 +7655,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B253" t="s">
         <v>188</v>
@@ -7672,7 +7666,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B254" t="s">
         <v>189</v>
@@ -7683,7 +7677,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B255" t="s">
         <v>190</v>
@@ -7694,7 +7688,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B256" t="s">
         <v>20</v>
@@ -7705,7 +7699,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B257" t="s">
         <v>191</v>
@@ -7716,7 +7710,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B258" t="s">
         <v>192</v>
@@ -7727,54 +7721,54 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B259" t="s">
         <v>193</v>
       </c>
       <c r="C259" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B260" t="s">
+        <v>293</v>
+      </c>
+      <c r="C260" t="s">
         <v>294</v>
-      </c>
-      <c r="C260" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B261" t="s">
+        <v>294</v>
+      </c>
+      <c r="C261" t="s">
         <v>295</v>
-      </c>
-      <c r="C261" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
+        <v>296</v>
+      </c>
+      <c r="B262" t="s">
         <v>297</v>
       </c>
-      <c r="B262" t="s">
+      <c r="C262" t="s">
         <v>298</v>
-      </c>
-      <c r="C262" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B263" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C263" t="s">
         <v>176</v>
@@ -7782,18 +7776,18 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B264" t="s">
         <v>206</v>
       </c>
       <c r="C264" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B265" t="s">
         <v>177</v>
@@ -7804,7 +7798,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B266" t="s">
         <v>176</v>
@@ -7815,7 +7809,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B267" t="s">
         <v>207</v>
@@ -7826,7 +7820,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B268" t="s">
         <v>204</v>
@@ -7837,7 +7831,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B269" t="s">
         <v>205</v>
@@ -7848,7 +7842,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B270" t="s">
         <v>208</v>
@@ -7859,7 +7853,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B271" t="s">
         <v>204</v>
@@ -7870,7 +7864,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B272" t="s">
         <v>203</v>
@@ -7881,7 +7875,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B273" t="s">
         <v>202</v>
@@ -7892,7 +7886,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B274" t="s">
         <v>109</v>
@@ -7903,7 +7897,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B275" t="s">
         <v>201</v>
@@ -7914,7 +7908,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B276" t="s">
         <v>200</v>
@@ -7925,7 +7919,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B277" t="s">
         <v>199</v>
@@ -7936,7 +7930,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B278" t="s">
         <v>198</v>
@@ -7947,7 +7941,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B279" t="s">
         <v>197</v>
@@ -7958,7 +7952,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B280" t="s">
         <v>80</v>
@@ -7969,7 +7963,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B281" t="s">
         <v>196</v>
@@ -7980,7 +7974,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B282" t="s">
         <v>195</v>
@@ -7991,7 +7985,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B283" t="s">
         <v>194</v>
@@ -8002,7 +7996,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B284" t="s">
         <v>138</v>
@@ -8013,783 +8007,783 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B285" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="C285" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B286" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="C286" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B287" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="C287" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B288" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="C288" t="s">
-        <v>209</v>
+        <v>60</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B289" t="s">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="C289" t="s">
-        <v>58</v>
+        <v>210</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B290" t="s">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c r="C290" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B291" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C291" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B292" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C292" t="s">
-        <v>39</v>
+        <v>212</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B293" t="s">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="C293" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B294" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="C294" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B295" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C295" t="s">
-        <v>150</v>
+        <v>65</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
+        <v>299</v>
+      </c>
+      <c r="B296" t="s">
+        <v>65</v>
+      </c>
+      <c r="C296" t="s">
         <v>300</v>
-      </c>
-      <c r="B296" t="s">
-        <v>150</v>
-      </c>
-      <c r="C296" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B297" t="s">
-        <v>213</v>
+        <v>302</v>
       </c>
       <c r="C297" t="s">
-        <v>65</v>
+        <v>303</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>65</v>
+        <v>303</v>
       </c>
       <c r="C298" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B299" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C299" t="s">
-        <v>304</v>
+        <v>214</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B300" t="s">
-        <v>304</v>
+        <v>214</v>
       </c>
       <c r="C300" t="s">
-        <v>305</v>
+        <v>215</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B301" t="s">
-        <v>305</v>
+        <v>215</v>
       </c>
       <c r="C301" t="s">
-        <v>214</v>
+        <v>70</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>214</v>
+        <v>70</v>
       </c>
       <c r="C302" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C303" t="s">
-        <v>70</v>
+        <v>217</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B304" t="s">
-        <v>70</v>
+        <v>217</v>
       </c>
       <c r="C304" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B305" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C305" t="s">
-        <v>217</v>
+        <v>32</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B306" t="s">
-        <v>217</v>
+        <v>32</v>
       </c>
       <c r="C306" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B307" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C307" t="s">
-        <v>32</v>
+        <v>220</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B308" t="s">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="C308" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B309" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C309" t="s">
-        <v>220</v>
+        <v>51</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B310" t="s">
-        <v>220</v>
+        <v>51</v>
       </c>
       <c r="C310" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B311" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="C311" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B312" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C312" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B313" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="C313" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B314" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="C314" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B315" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C315" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B316" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C316" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B317" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C317" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B318" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="C318" t="s">
-        <v>225</v>
+        <v>84</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B319" t="s">
-        <v>225</v>
+        <v>84</v>
       </c>
       <c r="C319" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B320" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C320" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B321" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C321" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B322" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C322" t="s">
-        <v>112</v>
+        <v>229</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B323" t="s">
-        <v>112</v>
+        <v>229</v>
       </c>
       <c r="C323" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B324" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C324" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B325" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C325" t="s">
-        <v>230</v>
+        <v>305</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B326" t="s">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="C326" t="s">
-        <v>231</v>
+        <v>306</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B327" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
       <c r="C327" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B328" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C328" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B329" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C329" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B330" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C330" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B331" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C331" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B332" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C332" t="s">
-        <v>313</v>
+        <v>241</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B333" t="s">
-        <v>313</v>
+        <v>241</v>
       </c>
       <c r="C333" t="s">
-        <v>314</v>
+        <v>240</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B334" t="s">
-        <v>314</v>
+        <v>240</v>
       </c>
       <c r="C334" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B335" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C335" t="s">
-        <v>240</v>
+        <v>30</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B336" t="s">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="C336" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B337" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C337" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B338" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C338" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B339" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="C339" t="s">
-        <v>51</v>
+        <v>314</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B340" t="s">
-        <v>51</v>
+        <v>314</v>
       </c>
       <c r="C340" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B341" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="C341" t="s">
-        <v>315</v>
+        <v>237</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B342" t="s">
-        <v>315</v>
+        <v>237</v>
       </c>
       <c r="C342" t="s">
-        <v>160</v>
+        <v>236</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B343" t="s">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="C343" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B344" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="C344" t="s">
-        <v>236</v>
+        <v>84</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B345" t="s">
-        <v>236</v>
+        <v>326</v>
       </c>
       <c r="C345" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B346" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="C346" t="s">
-        <v>84</v>
+        <v>234</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B347" t="s">
-        <v>328</v>
+        <v>234</v>
       </c>
       <c r="C347" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B348" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C348" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B349" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C349" t="s">
-        <v>233</v>
+        <v>315</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B350" t="s">
-        <v>233</v>
+        <v>315</v>
       </c>
       <c r="C350" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B351" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="C351" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B352" t="s">
-        <v>316</v>
+        <v>242</v>
       </c>
       <c r="C352" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B353" t="s">
-        <v>317</v>
+        <v>243</v>
       </c>
       <c r="C353" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>14</v>
+      </c>
+      <c r="B354" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
-        <v>308</v>
-      </c>
-      <c r="B354" t="s">
-        <v>242</v>
-      </c>
       <c r="C354" t="s">
-        <v>239</v>
+        <v>312</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
-        <v>308</v>
+      <c r="A355">
+        <v>14</v>
       </c>
       <c r="B355" t="s">
-        <v>243</v>
+        <v>312</v>
       </c>
       <c r="C355" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
@@ -8800,7 +8794,7 @@
         <v>319</v>
       </c>
       <c r="C356" t="s">
-        <v>313</v>
+        <v>243</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
@@ -8808,10 +8802,10 @@
         <v>14</v>
       </c>
       <c r="B357" t="s">
-        <v>313</v>
+        <v>243</v>
       </c>
       <c r="C357" t="s">
-        <v>320</v>
+        <v>244</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
@@ -8819,10 +8813,10 @@
         <v>14</v>
       </c>
       <c r="B358" t="s">
-        <v>320</v>
+        <v>244</v>
       </c>
       <c r="C358" t="s">
-        <v>243</v>
+        <v>51</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
@@ -8830,10 +8824,10 @@
         <v>14</v>
       </c>
       <c r="B359" t="s">
-        <v>243</v>
+        <v>51</v>
       </c>
       <c r="C359" t="s">
-        <v>244</v>
+        <v>161</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
@@ -8841,10 +8835,10 @@
         <v>14</v>
       </c>
       <c r="B360" t="s">
-        <v>244</v>
+        <v>161</v>
       </c>
       <c r="C360" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
@@ -8852,10 +8846,10 @@
         <v>14</v>
       </c>
       <c r="B361" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="C361" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
@@ -8863,10 +8857,10 @@
         <v>14</v>
       </c>
       <c r="B362" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="C362" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
@@ -8874,10 +8868,10 @@
         <v>14</v>
       </c>
       <c r="B363" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="C363" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
@@ -8885,10 +8879,10 @@
         <v>14</v>
       </c>
       <c r="B364" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="C364" t="s">
-        <v>18</v>
+        <v>245</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
@@ -8896,10 +8890,10 @@
         <v>14</v>
       </c>
       <c r="B365" t="s">
-        <v>18</v>
+        <v>245</v>
       </c>
       <c r="C365" t="s">
-        <v>120</v>
+        <v>246</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
@@ -8907,10 +8901,10 @@
         <v>14</v>
       </c>
       <c r="B366" t="s">
-        <v>120</v>
+        <v>246</v>
       </c>
       <c r="C366" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
@@ -8918,10 +8912,10 @@
         <v>14</v>
       </c>
       <c r="B367" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C367" t="s">
-        <v>321</v>
+        <v>143</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
@@ -8929,10 +8923,10 @@
         <v>14</v>
       </c>
       <c r="B368" t="s">
-        <v>321</v>
+        <v>143</v>
       </c>
       <c r="C368" t="s">
-        <v>247</v>
+        <v>320</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
@@ -8940,10 +8934,10 @@
         <v>14</v>
       </c>
       <c r="B369" t="s">
-        <v>247</v>
+        <v>320</v>
       </c>
       <c r="C369" t="s">
-        <v>143</v>
+        <v>321</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
@@ -8951,7 +8945,7 @@
         <v>14</v>
       </c>
       <c r="B370" t="s">
-        <v>143</v>
+        <v>321</v>
       </c>
       <c r="C370" t="s">
         <v>322</v>
@@ -8988,28 +8982,6 @@
       </c>
       <c r="C373" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A374">
-        <v>14</v>
-      </c>
-      <c r="B374" t="s">
-        <v>325</v>
-      </c>
-      <c r="C374" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375">
-        <v>14</v>
-      </c>
-      <c r="B375" t="s">
-        <v>326</v>
-      </c>
-      <c r="C375" t="s">
-        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/Metro_Arcs_Par_Station_IDs.xlsx
+++ b/Metro_Arcs_Par_Station_IDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noe\Documents\GitHub\ProbSciANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F5991B-8CF3-4314-8C68-D1B874C95CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84752A0E-CD93-4665-B1E8-788A9C954D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="330">
   <si>
     <t>ID STATION</t>
   </si>
@@ -1018,6 +1018,15 @@
   </si>
   <si>
     <t>Montparnasse - Bienvenue</t>
+  </si>
+  <si>
+    <t>Noms des lignes</t>
+  </si>
+  <si>
+    <t>Vitesse Moyenne train</t>
+  </si>
+  <si>
+    <t>Temps changement</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1064,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1078,13 +1087,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1391,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D247"/>
+  <dimension ref="A1:E247"/>
   <sheetViews>
-    <sheetView topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="B246" sqref="B246"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1404,7 +1442,7 @@
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1417,8 +1455,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1431,8 +1472,11 @@
       <c r="D2">
         <v>48.878162652696503</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1445,8 +1489,11 @@
       <c r="D3">
         <v>48.875667375651702</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1459,8 +1506,11 @@
       <c r="D4">
         <v>48.874994575222999</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1473,8 +1523,11 @@
       <c r="D5">
         <v>48.872037763641003</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1488,7 +1541,7 @@
         <v>48.868724887050497</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1501,8 +1554,11 @@
       <c r="D7">
         <v>48.867656291245702</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1516,7 +1572,7 @@
         <v>48.866557992001603</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1529,8 +1585,11 @@
       <c r="D9">
         <v>48.864477838366497</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1543,8 +1602,11 @@
       <c r="D10">
         <v>48.862222264625998</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1557,8 +1619,11 @@
       <c r="D11">
         <v>48.860871211759502</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1571,8 +1636,11 @@
       <c r="D12">
         <v>48.8569534598372</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1586,7 +1654,7 @@
         <v>48.857352404237702</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1600,7 +1668,7 @@
         <v>48.8551874206563</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1614,7 +1682,7 @@
         <v>48.852054292549496</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4869,19 +4937,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C373"/>
+  <dimension ref="A1:G373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="C283" sqref="C283"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>248</v>
       </c>
@@ -4891,8 +4962,15 @@
       <c r="C1" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>251</v>
       </c>
@@ -4902,8 +4980,14 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>251</v>
       </c>
@@ -4913,8 +4997,14 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>251</v>
       </c>
@@ -4924,8 +5014,14 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>251</v>
       </c>
@@ -4935,8 +5031,14 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>251</v>
       </c>
@@ -4946,8 +5048,14 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>251</v>
       </c>
@@ -4957,8 +5065,14 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>251</v>
       </c>
@@ -4968,8 +5082,14 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>251</v>
       </c>
@@ -4979,8 +5099,14 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>251</v>
       </c>
@@ -4990,8 +5116,14 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>251</v>
       </c>
@@ -5001,8 +5133,14 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>251</v>
       </c>
@@ -5012,8 +5150,14 @@
       <c r="C12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -5023,8 +5167,14 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>251</v>
       </c>
@@ -5034,8 +5184,14 @@
       <c r="C14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>251</v>
       </c>
@@ -5045,8 +5201,14 @@
       <c r="C15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>251</v>
       </c>
@@ -5056,8 +5218,14 @@
       <c r="C16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>251</v>
       </c>
@@ -5067,8 +5235,14 @@
       <c r="C17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>251</v>
       </c>
@@ -5079,7 +5253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>251</v>
       </c>
@@ -5090,7 +5264,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>251</v>
       </c>
@@ -5101,7 +5275,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>253</v>
       </c>
@@ -5112,7 +5286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>253</v>
       </c>
@@ -5123,7 +5297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>253</v>
       </c>
@@ -5134,7 +5308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>253</v>
       </c>
@@ -5145,7 +5319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>253</v>
       </c>
@@ -5156,7 +5330,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>253</v>
       </c>
@@ -5167,7 +5341,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>253</v>
       </c>
@@ -5178,7 +5352,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>253</v>
       </c>
@@ -5189,7 +5363,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>253</v>
       </c>
@@ -5200,7 +5374,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>253</v>
       </c>
@@ -5211,7 +5385,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>253</v>
       </c>
@@ -5222,7 +5396,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>253</v>
       </c>
@@ -8987,5 +9161,8 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2 A6" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Metro_Arcs_Par_Station_IDs.xlsx
+++ b/Metro_Arcs_Par_Station_IDs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noe\Documents\GitHub\ProbSciANA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aurel\Documents\GitHub\ProbSciANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84752A0E-CD93-4665-B1E8-788A9C954D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC39851-1962-44D0-B575-051B5AE6AFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="0" windowWidth="19200" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="332">
   <si>
     <t>ID STATION</t>
   </si>
@@ -1023,10 +1023,16 @@
     <t>Noms des lignes</t>
   </si>
   <si>
-    <t>Vitesse Moyenne train</t>
-  </si>
-  <si>
     <t>Temps changement</t>
+  </si>
+  <si>
+    <t>Longueur de la ligne (km)</t>
+  </si>
+  <si>
+    <t>Temps de trajet (min)</t>
+  </si>
+  <si>
+    <t>Vitesse moyenne (km/min)</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1119,11 +1125,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1431,18 +1440,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1455,11 +1465,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1476,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1493,7 +1503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1510,7 +1520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1527,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1541,7 +1551,7 @@
         <v>48.868724887050497</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1558,7 +1568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1572,7 +1582,7 @@
         <v>48.866557992001603</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1589,7 +1599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1606,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1623,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1640,7 +1650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1654,7 +1664,7 @@
         <v>48.857352404237702</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1668,7 +1678,7 @@
         <v>48.8551874206563</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1682,7 +1692,7 @@
         <v>48.852054292549496</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1696,7 +1706,7 @@
         <v>48.845683205787601</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1710,7 +1720,7 @@
         <v>48.847212925749702</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1724,7 +1734,7 @@
         <v>48.848084289025799</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1738,7 +1748,7 @@
         <v>48.847007730140398</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1752,7 +1762,7 @@
         <v>48.844317513365297</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1766,7 +1776,7 @@
         <v>48.871396794300303</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1780,7 +1790,7 @@
         <v>48.869926081462602</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>23</v>
       </c>
@@ -1794,7 +1804,7 @@
         <v>48.8782277299144</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>24</v>
       </c>
@@ -1808,7 +1818,7 @@
         <v>48.879265253165102</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>25</v>
       </c>
@@ -1822,7 +1832,7 @@
         <v>48.880568769178801</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>26</v>
       </c>
@@ -1836,7 +1846,7 @@
         <v>48.881073182127601</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>27</v>
       </c>
@@ -1850,7 +1860,7 @@
         <v>48.882345817848098</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>28</v>
       </c>
@@ -1864,7 +1874,7 @@
         <v>48.883669087324698</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>29</v>
       </c>
@@ -1878,7 +1888,7 @@
         <v>48.883766353529197</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>30</v>
       </c>
@@ -1892,7 +1902,7 @@
         <v>48.8820209311193</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>31</v>
       </c>
@@ -1906,7 +1916,7 @@
         <v>48.882868567895898</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>32</v>
       </c>
@@ -1920,7 +1930,7 @@
         <v>48.883776088608897</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>33</v>
       </c>
@@ -1934,7 +1944,7 @@
         <v>48.884386409904799</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>34</v>
       </c>
@@ -1948,7 +1958,7 @@
         <v>48.884320547921902</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>35</v>
       </c>
@@ -1962,7 +1972,7 @@
         <v>48.883023912481399</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>36</v>
       </c>
@@ -1976,7 +1986,7 @@
         <v>48.877649807573398</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>37</v>
       </c>
@@ -1990,7 +2000,7 @@
         <v>48.872286601164802</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>38</v>
       </c>
@@ -2004,7 +2014,7 @@
         <v>48.869193344184303</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>39</v>
       </c>
@@ -2018,7 +2028,7 @@
         <v>48.8663901391973</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>40</v>
       </c>
@@ -2032,7 +2042,7 @@
         <v>48.862449843989303</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>41</v>
       </c>
@@ -2046,7 +2056,7 @@
         <v>48.858089427187601</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>42</v>
       </c>
@@ -2060,7 +2070,7 @@
         <v>48.856244677489201</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>43</v>
       </c>
@@ -2074,7 +2084,7 @@
         <v>48.851648542649002</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>45</v>
       </c>
@@ -2088,7 +2098,7 @@
         <v>48.885652392185897</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>46</v>
       </c>
@@ -2102,7 +2112,7 @@
         <v>48.884844321791903</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>47</v>
       </c>
@@ -2116,7 +2126,7 @@
         <v>48.883846389779201</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>48</v>
       </c>
@@ -2130,7 +2140,7 @@
         <v>48.882840021629796</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>50</v>
       </c>
@@ -2144,7 +2154,7 @@
         <v>48.878753163096697</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>51</v>
       </c>
@@ -2158,7 +2168,7 @@
         <v>48.875381315059897</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>52</v>
       </c>
@@ -2172,7 +2182,7 @@
         <v>48.873666750997103</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>53</v>
       </c>
@@ -2186,7 +2196,7 @@
         <v>48.871437428049198</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>54</v>
       </c>
@@ -2200,7 +2210,7 @@
         <v>48.869659096436202</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>55</v>
       </c>
@@ -2214,7 +2224,7 @@
         <v>48.868756796707601</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>56</v>
       </c>
@@ -2228,7 +2238,7 @@
         <v>48.867346603345702</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>57</v>
       </c>
@@ -2242,7 +2252,7 @@
         <v>48.866381755803502</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>58</v>
       </c>
@@ -2256,7 +2266,7 @@
         <v>48.865299611696798</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>59</v>
       </c>
@@ -2270,7 +2280,7 @@
         <v>48.8667566284863</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>60</v>
       </c>
@@ -2284,7 +2294,7 @@
         <v>48.867512356863102</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>61</v>
       </c>
@@ -2298,7 +2308,7 @@
         <v>48.865252394862502</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>62</v>
       </c>
@@ -2312,7 +2322,7 @@
         <v>48.864117700014603</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>64</v>
       </c>
@@ -2326,7 +2336,7 @@
         <v>48.865032563515904</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>65</v>
       </c>
@@ -2340,7 +2350,7 @@
         <v>48.864539371986403</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>66</v>
       </c>
@@ -2354,7 +2364,7 @@
         <v>48.876568598079999</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>67</v>
       </c>
@@ -2368,7 +2378,7 @@
         <v>48.871843371274899</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>68</v>
       </c>
@@ -2382,7 +2392,7 @@
         <v>48.868464886066697</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>70</v>
       </c>
@@ -2396,7 +2406,7 @@
         <v>48.897525630330101</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>71</v>
       </c>
@@ -2410,7 +2420,7 @@
         <v>48.894124442685502</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>72</v>
       </c>
@@ -2424,7 +2434,7 @@
         <v>48.891280438896601</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>73</v>
       </c>
@@ -2438,7 +2448,7 @@
         <v>48.887078876519602</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>75</v>
       </c>
@@ -2452,7 +2462,7 @@
         <v>48.879591706462101</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>76</v>
       </c>
@@ -2466,7 +2476,7 @@
         <v>48.876162993518399</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>77</v>
       </c>
@@ -2480,7 +2490,7 @@
         <v>48.872446916647398</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>78</v>
       </c>
@@ -2494,7 +2504,7 @@
         <v>48.869623581689503</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>80</v>
       </c>
@@ -2508,7 +2518,7 @@
         <v>48.863703011076197</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>81</v>
       </c>
@@ -2522,7 +2532,7 @@
         <v>48.862504839391299</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>83</v>
       </c>
@@ -2536,7 +2546,7 @@
         <v>48.854933848158502</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>84</v>
       </c>
@@ -2550,7 +2560,7 @@
         <v>48.853594076619899</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>85</v>
       </c>
@@ -2564,7 +2574,7 @@
         <v>48.8520245535667</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>86</v>
       </c>
@@ -2578,7 +2588,7 @@
         <v>48.853574562874201</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>87</v>
       </c>
@@ -2592,7 +2602,7 @@
         <v>48.851208626618501</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>88</v>
       </c>
@@ -2606,7 +2616,7 @@
         <v>48.847006650641099</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>89</v>
       </c>
@@ -2620,7 +2630,7 @@
         <v>48.843823610306202</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>90</v>
       </c>
@@ -2634,7 +2644,7 @@
         <v>48.842052322344102</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>91</v>
       </c>
@@ -2648,7 +2658,7 @@
         <v>48.839156358577299</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>92</v>
       </c>
@@ -2662,7 +2672,7 @@
         <v>48.833948692744002</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>93</v>
       </c>
@@ -2676,7 +2686,7 @@
         <v>48.831337584623199</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>94</v>
       </c>
@@ -2690,7 +2700,7 @@
         <v>48.828201063270903</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>95</v>
       </c>
@@ -2704,7 +2714,7 @@
         <v>48.823416350191799</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>96</v>
       </c>
@@ -2718,7 +2728,7 @@
         <v>48.888459210398899</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>97</v>
       </c>
@@ -2732,7 +2742,7 @@
         <v>48.886915952247001</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>98</v>
       </c>
@@ -2746,7 +2756,7 @@
         <v>48.885133847137801</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>103</v>
       </c>
@@ -2760,7 +2770,7 @@
         <v>48.870620925317198</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>105</v>
       </c>
@@ -2774,7 +2784,7 @@
         <v>48.864777097573203</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>106</v>
       </c>
@@ -2788,7 +2798,7 @@
         <v>48.8598769369206</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>107</v>
       </c>
@@ -2802,7 +2812,7 @@
         <v>48.856244053738202</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>109</v>
       </c>
@@ -2816,7 +2826,7 @@
         <v>48.846427324531497</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>110</v>
       </c>
@@ -2830,7 +2840,7 @@
         <v>48.843405408577198</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>111</v>
       </c>
@@ -2844,7 +2854,7 @@
         <v>48.838512445735603</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>112</v>
       </c>
@@ -2858,7 +2868,7 @@
         <v>48.835542932800998</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>113</v>
       </c>
@@ -2872,7 +2882,7 @@
         <v>48.830965712344302</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>115</v>
       </c>
@@ -2886,7 +2896,7 @@
         <v>48.871489411987</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>116</v>
       </c>
@@ -2900,7 +2910,7 @@
         <v>48.866848342469197</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>117</v>
       </c>
@@ -2914,7 +2924,7 @@
         <v>48.8634876640714</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>118</v>
       </c>
@@ -2928,7 +2938,7 @@
         <v>48.857515088672201</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>119</v>
       </c>
@@ -2942,7 +2952,7 @@
         <v>48.853925367427799</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>120</v>
       </c>
@@ -2956,7 +2966,7 @@
         <v>48.850411624858502</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>121</v>
       </c>
@@ -2970,7 +2980,7 @@
         <v>48.849630803484203</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>122</v>
       </c>
@@ -2984,7 +2994,7 @@
         <v>48.847543111245301</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>123</v>
       </c>
@@ -2998,7 +3008,7 @@
         <v>48.845647681702502</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>124</v>
       </c>
@@ -3012,7 +3022,7 @@
         <v>48.842528386594999</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>126</v>
       </c>
@@ -3026,7 +3036,7 @@
         <v>48.840903500750002</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>129</v>
       </c>
@@ -3040,7 +3050,7 @@
         <v>48.832916005270803</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>130</v>
       </c>
@@ -3054,7 +3064,7 @@
         <v>48.831115946668099</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>131</v>
       </c>
@@ -3068,7 +3078,7 @@
         <v>48.829860012364001</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>133</v>
       </c>
@@ -3082,7 +3092,7 @@
         <v>48.833235278727898</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>134</v>
       </c>
@@ -3096,7 +3106,7 @@
         <v>48.8349630811609</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>135</v>
       </c>
@@ -3110,7 +3120,7 @@
         <v>48.837074269661301</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>136</v>
       </c>
@@ -3124,7 +3134,7 @@
         <v>48.840176027173598</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>137</v>
       </c>
@@ -3138,7 +3148,7 @@
         <v>48.8390365273806</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>138</v>
       </c>
@@ -3152,7 +3162,7 @@
         <v>48.839434007104899</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>139</v>
       </c>
@@ -3166,7 +3176,7 @@
         <v>48.841427331285303</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>140</v>
       </c>
@@ -3180,7 +3190,7 @@
         <v>48.845103246553599</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>142</v>
       </c>
@@ -3194,7 +3204,7 @@
         <v>48.897802691407797</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>143</v>
       </c>
@@ -3208,7 +3218,7 @@
         <v>48.894672659108402</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>144</v>
       </c>
@@ -3222,7 +3232,7 @@
         <v>48.890885757980897</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>145</v>
       </c>
@@ -3236,7 +3246,7 @@
         <v>48.888157261117797</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>147</v>
       </c>
@@ -3250,7 +3260,7 @@
         <v>48.881206210877998</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>148</v>
       </c>
@@ -3264,7 +3274,7 @@
         <v>48.878441454784401</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>150</v>
       </c>
@@ -3278,7 +3288,7 @@
         <v>48.877164848302201</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>151</v>
       </c>
@@ -3292,7 +3302,7 @@
         <v>48.875963284127501</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>152</v>
       </c>
@@ -3306,7 +3316,7 @@
         <v>48.874959405092902</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>153</v>
       </c>
@@ -3320,7 +3330,7 @@
         <v>48.873134204826599</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>155</v>
       </c>
@@ -3334,7 +3344,7 @@
         <v>48.8657555264287</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>157</v>
       </c>
@@ -3348,7 +3358,7 @@
         <v>48.858546338320203</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>159</v>
       </c>
@@ -3362,7 +3372,7 @@
         <v>48.853459859479599</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>160</v>
       </c>
@@ -3376,7 +3386,7 @@
         <v>48.851271407445601</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>161</v>
       </c>
@@ -3390,7 +3400,7 @@
         <v>48.846197890688799</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>162</v>
       </c>
@@ -3404,7 +3414,7 @@
         <v>48.842666384694603</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>163</v>
       </c>
@@ -3418,7 +3428,7 @@
         <v>48.840226247565703</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>164</v>
       </c>
@@ -3432,7 +3442,7 @@
         <v>48.835841621396199</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>166</v>
       </c>
@@ -3446,7 +3456,7 @@
         <v>48.826136860805299</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>167</v>
       </c>
@@ -3460,7 +3470,7 @@
         <v>48.822149505126603</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>168</v>
       </c>
@@ -3474,7 +3484,7 @@
         <v>48.8191065956103</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>169</v>
       </c>
@@ -3488,7 +3498,7 @@
         <v>48.8200559281997</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>170</v>
       </c>
@@ -3502,7 +3512,7 @@
         <v>48.821489034614402</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>174</v>
       </c>
@@ -3516,7 +3526,7 @@
         <v>48.880789662027098</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>175</v>
       </c>
@@ -3530,7 +3540,7 @@
         <v>48.878499087450599</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>176</v>
       </c>
@@ -3544,7 +3554,7 @@
         <v>48.879534990320401</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>177</v>
       </c>
@@ -3558,7 +3568,7 @@
         <v>48.876723661025203</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>178</v>
       </c>
@@ -3572,7 +3582,7 @@
         <v>48.880159579716299</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>179</v>
       </c>
@@ -3586,7 +3596,7 @@
         <v>48.881949213972597</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>181</v>
       </c>
@@ -3600,7 +3610,7 @@
         <v>48.836667893882797</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>182</v>
       </c>
@@ -3614,7 +3624,7 @@
         <v>48.838660862711599</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>183</v>
       </c>
@@ -3628,7 +3638,7 @@
         <v>48.841024160045002</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>184</v>
       </c>
@@ -3642,7 +3652,7 @@
         <v>48.842684333848403</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>185</v>
       </c>
@@ -3656,7 +3666,7 @@
         <v>48.844611511420197</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>187</v>
       </c>
@@ -3670,7 +3680,7 @@
         <v>48.854919659638902</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>188</v>
       </c>
@@ -3684,7 +3694,7 @@
         <v>48.857727022586403</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>189</v>
       </c>
@@ -3698,7 +3708,7 @@
         <v>48.861092010432998</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>191</v>
       </c>
@@ -3712,7 +3722,7 @@
         <v>48.870544675768201</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>193</v>
       </c>
@@ -3726,7 +3736,7 @@
         <v>48.872135869369899</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>194</v>
       </c>
@@ -3740,7 +3750,7 @@
         <v>48.871504768814702</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>195</v>
       </c>
@@ -3754,7 +3764,7 @@
         <v>48.8705712985549</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>198</v>
       </c>
@@ -3768,7 +3778,7 @@
         <v>48.8630698825026</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>199</v>
       </c>
@@ -3782,7 +3792,7 @@
         <v>48.860968144808197</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>200</v>
       </c>
@@ -3796,7 +3806,7 @@
         <v>48.857087366872101</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>202</v>
       </c>
@@ -3810,7 +3820,7 @@
         <v>48.851337765850197</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>203</v>
       </c>
@@ -3824,7 +3834,7 @@
         <v>48.850110543185501</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>205</v>
       </c>
@@ -3838,7 +3848,7 @@
         <v>48.844005074760702</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>207</v>
       </c>
@@ -3852,7 +3862,7 @@
         <v>48.837077430087497</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>208</v>
       </c>
@@ -3866,7 +3876,7 @@
         <v>48.835017373145597</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>209</v>
       </c>
@@ -3880,7 +3890,7 @@
         <v>48.833449221931097</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>210</v>
       </c>
@@ -3894,7 +3904,7 @@
         <v>48.837958404671198</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>211</v>
       </c>
@@ -3908,7 +3918,7 @@
         <v>48.842580275328302</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>212</v>
       </c>
@@ -3922,7 +3932,7 @@
         <v>48.844911226614997</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>213</v>
       </c>
@@ -3936,7 +3946,7 @@
         <v>48.847975353228101</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>214</v>
       </c>
@@ -3950,7 +3960,7 @@
         <v>48.852433417777398</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>215</v>
       </c>
@@ -3964,7 +3974,7 @@
         <v>48.855503557447499</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>216</v>
       </c>
@@ -3978,7 +3988,7 @@
         <v>48.8580919659505</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>217</v>
       </c>
@@ -3992,7 +4002,7 @@
         <v>48.863951707931797</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>219</v>
       </c>
@@ -4006,7 +4016,7 @@
         <v>48.864780021309301</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>220</v>
       </c>
@@ -4020,7 +4030,7 @@
         <v>48.864647146957701</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>222</v>
       </c>
@@ -4034,7 +4044,7 @@
         <v>48.8721551301294</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>223</v>
       </c>
@@ -4048,7 +4058,7 @@
         <v>48.873447914847198</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>224</v>
       </c>
@@ -4062,7 +4072,7 @@
         <v>48.874546611986801</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>233</v>
       </c>
@@ -4076,7 +4086,7 @@
         <v>48.861416656960998</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>234</v>
       </c>
@@ -4090,7 +4100,7 @@
         <v>48.857662433437902</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>235</v>
       </c>
@@ -4104,7 +4114,7 @@
         <v>48.854939442500303</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>236</v>
       </c>
@@ -4118,7 +4128,7 @@
         <v>48.852214072383703</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>238</v>
       </c>
@@ -4132,7 +4142,7 @@
         <v>48.851762438884101</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>239</v>
       </c>
@@ -4146,7 +4156,7 @@
         <v>48.852731019531802</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>240</v>
       </c>
@@ -4160,7 +4170,7 @@
         <v>48.853482630258299</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>243</v>
       </c>
@@ -4174,7 +4184,7 @@
         <v>48.8467000343149</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>244</v>
       </c>
@@ -4188,7 +4198,7 @@
         <v>48.850195465121303</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>245</v>
       </c>
@@ -4202,7 +4212,7 @@
         <v>48.851026875926301</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>247</v>
       </c>
@@ -4216,7 +4226,7 @@
         <v>48.8528437373513</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>248</v>
       </c>
@@ -4230,7 +4240,7 @@
         <v>48.851565305443202</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>249</v>
       </c>
@@ -4244,7 +4254,7 @@
         <v>48.848894569110698</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>250</v>
       </c>
@@ -4258,7 +4268,7 @@
         <v>48.847009892663699</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>251</v>
       </c>
@@ -4272,7 +4282,7 @@
         <v>48.8471672690468</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>253</v>
       </c>
@@ -4286,7 +4296,7 @@
         <v>48.847038012756897</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>254</v>
       </c>
@@ -4300,7 +4310,7 @@
         <v>48.846604531449202</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>255</v>
       </c>
@@ -4314,7 +4324,7 @@
         <v>48.846181105275001</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>256</v>
       </c>
@@ -4328,7 +4338,7 @@
         <v>48.847143360508902</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>258</v>
       </c>
@@ -4342,7 +4352,7 @@
         <v>48.847904122681001</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>260</v>
       </c>
@@ -4356,7 +4366,7 @@
         <v>48.8450882982306</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>261</v>
       </c>
@@ -4370,7 +4380,7 @@
         <v>48.847077506397802</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>264</v>
       </c>
@@ -4384,7 +4394,7 @@
         <v>48.861190156002202</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>267</v>
       </c>
@@ -4398,7 +4408,7 @@
         <v>48.870007016890497</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>269</v>
       </c>
@@ -4412,7 +4422,7 @@
         <v>48.873818789232502</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>270</v>
       </c>
@@ -4426,7 +4436,7 @@
         <v>48.875247347693403</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>271</v>
       </c>
@@ -4440,7 +4450,7 @@
         <v>48.876723661025203</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>272</v>
       </c>
@@ -4454,7 +4464,7 @@
         <v>48.875510383232701</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>274</v>
       </c>
@@ -4468,7 +4478,7 @@
         <v>48.897402421722497</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>275</v>
       </c>
@@ -4482,7 +4492,7 @@
         <v>48.890579577619299</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>277</v>
       </c>
@@ -4496,7 +4506,7 @@
         <v>48.892492267253999</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>278</v>
       </c>
@@ -4510,7 +4520,7 @@
         <v>48.889681809018903</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>279</v>
       </c>
@@ -4524,7 +4534,7 @@
         <v>48.884392717043397</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>281</v>
       </c>
@@ -4538,7 +4548,7 @@
         <v>48.878416593953702</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>282</v>
       </c>
@@ -4552,7 +4562,7 @@
         <v>48.876035030332602</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>283</v>
       </c>
@@ -4566,7 +4576,7 @@
         <v>48.876336506359301</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>287</v>
       </c>
@@ -4580,7 +4590,7 @@
         <v>48.861071938577901</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>288</v>
       </c>
@@ -4594,7 +4604,7 @@
         <v>48.858531948780403</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>289</v>
       </c>
@@ -4608,7 +4618,7 @@
         <v>48.855884677537297</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>291</v>
       </c>
@@ -4622,7 +4632,7 @@
         <v>48.848332828092403</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>292</v>
       </c>
@@ -4636,7 +4646,7 @@
         <v>48.845077744689597</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>294</v>
       </c>
@@ -4650,7 +4660,7 @@
         <v>48.844317682586102</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>296</v>
       </c>
@@ -4664,7 +4674,7 @@
         <v>48.841411727466699</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>297</v>
       </c>
@@ -4678,7 +4688,7 @@
         <v>48.839437917128599</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>298</v>
       </c>
@@ -4692,7 +4702,7 @@
         <v>48.837135052856702</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>299</v>
       </c>
@@ -4706,7 +4716,7 @@
         <v>48.832519531565197</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>300</v>
       </c>
@@ -4720,7 +4730,7 @@
         <v>48.827613463055897</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>301</v>
       </c>
@@ -4734,7 +4744,7 @@
         <v>48.831750362119102</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>302</v>
       </c>
@@ -4748,7 +4758,7 @@
         <v>48.8340786788266</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>303</v>
       </c>
@@ -4762,7 +4772,7 @@
         <v>48.838526084074203</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>306</v>
       </c>
@@ -4776,7 +4786,7 @@
         <v>48.8512915499903</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>307</v>
       </c>
@@ -4790,7 +4800,7 @@
         <v>48.856624981798397</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>312</v>
       </c>
@@ -4804,7 +4814,7 @@
         <v>48.879534936427703</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>314</v>
       </c>
@@ -4818,7 +4828,7 @@
         <v>48.887433655789003</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>315</v>
       </c>
@@ -4832,7 +4842,7 @@
         <v>48.893001441013702</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>316</v>
       </c>
@@ -4846,7 +4856,7 @@
         <v>48.8974978363796</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>318</v>
       </c>
@@ -4860,7 +4870,7 @@
         <v>48.890651870242102</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>319</v>
       </c>
@@ -4874,7 +4884,7 @@
         <v>48.894431287069501</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>321</v>
       </c>
@@ -4888,7 +4898,7 @@
         <v>48.888103402695002</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>328</v>
       </c>
@@ -4902,7 +4912,7 @@
         <v>48.833319302895099</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>329</v>
       </c>
@@ -4916,7 +4926,7 @@
         <v>48.829925764980601</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>330</v>
       </c>
@@ -4937,22 +4947,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G373"/>
+  <dimension ref="A1:H373"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7265625" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>248</v>
       </c>
@@ -4965,12 +4977,17 @@
       <c r="E1" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F1" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>251</v>
       </c>
@@ -4984,10 +5001,17 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <f>H2/G2</f>
+        <v>0.55333333333333334</v>
+      </c>
+      <c r="G2" s="5">
+        <v>30</v>
+      </c>
+      <c r="H2" s="5">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>251</v>
       </c>
@@ -5001,10 +5025,17 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <f>H3/G3</f>
+        <v>0.496</v>
+      </c>
+      <c r="G3" s="5">
+        <v>25</v>
+      </c>
+      <c r="H3" s="5">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>251</v>
       </c>
@@ -5018,10 +5049,17 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <f>H4/G4</f>
+        <v>0.43333333333333329</v>
+      </c>
+      <c r="G4" s="5">
+        <v>27</v>
+      </c>
+      <c r="H4" s="5">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>251</v>
       </c>
@@ -5035,10 +5073,17 @@
         <v>269</v>
       </c>
       <c r="F5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <f>H5/G5</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>251</v>
       </c>
@@ -5052,10 +5097,17 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <f>H6/G6</f>
+        <v>0.40333333333333332</v>
+      </c>
+      <c r="G6" s="5">
+        <v>30</v>
+      </c>
+      <c r="H6" s="5">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>251</v>
       </c>
@@ -5069,10 +5121,17 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <f>H7/G7</f>
+        <v>0.54074074074074074</v>
+      </c>
+      <c r="G7" s="5">
+        <v>27</v>
+      </c>
+      <c r="H7" s="5">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>251</v>
       </c>
@@ -5086,10 +5145,17 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <f>H8/G8</f>
+        <v>0.48571428571428571</v>
+      </c>
+      <c r="G8" s="5">
+        <v>28</v>
+      </c>
+      <c r="H8" s="5">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>251</v>
       </c>
@@ -5103,10 +5169,17 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <f>H9/G9</f>
+        <v>0.59210526315789469</v>
+      </c>
+      <c r="G9" s="5">
+        <v>38</v>
+      </c>
+      <c r="H9" s="5">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>251</v>
       </c>
@@ -5120,10 +5193,17 @@
         <v>278</v>
       </c>
       <c r="F10">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <f>H10/G10</f>
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="G10" s="5">
+        <v>8</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>251</v>
       </c>
@@ -5137,10 +5217,17 @@
         <v>8</v>
       </c>
       <c r="F11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <f>H11/G11</f>
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="5">
+        <v>39</v>
+      </c>
+      <c r="H11" s="5">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>251</v>
       </c>
@@ -5154,10 +5241,17 @@
         <v>9</v>
       </c>
       <c r="F12">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <f>H12/G12</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G12" s="5">
+        <v>35</v>
+      </c>
+      <c r="H12" s="5">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -5171,10 +5265,17 @@
         <v>10</v>
       </c>
       <c r="F13">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <f>H13/G13</f>
+        <v>0.46799999999999997</v>
+      </c>
+      <c r="G13" s="5">
+        <v>25</v>
+      </c>
+      <c r="H13" s="5">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>251</v>
       </c>
@@ -5188,10 +5289,17 @@
         <v>11</v>
       </c>
       <c r="F14">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <f>H14/G14</f>
+        <v>0.48461538461538461</v>
+      </c>
+      <c r="G14" s="5">
+        <v>13</v>
+      </c>
+      <c r="H14" s="5">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>251</v>
       </c>
@@ -5205,10 +5313,17 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <f>H15/G15</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="G15" s="5">
+        <v>29</v>
+      </c>
+      <c r="H15" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>251</v>
       </c>
@@ -5222,10 +5337,17 @@
         <v>13</v>
       </c>
       <c r="F16">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <f>H16/G16</f>
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="G16" s="5">
+        <v>40</v>
+      </c>
+      <c r="H16" s="5">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>251</v>
       </c>
@@ -5239,10 +5361,17 @@
         <v>14</v>
       </c>
       <c r="F17">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <f>H17/G17</f>
+        <v>0.79428571428571426</v>
+      </c>
+      <c r="G17" s="5">
+        <v>35</v>
+      </c>
+      <c r="H17" s="5">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>251</v>
       </c>
@@ -5253,7 +5382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>251</v>
       </c>
@@ -5264,7 +5393,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>251</v>
       </c>
@@ -5275,7 +5404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>253</v>
       </c>
@@ -5286,7 +5415,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>253</v>
       </c>
@@ -5297,7 +5426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>253</v>
       </c>
@@ -5307,8 +5436,9 @@
       <c r="C23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>253</v>
       </c>
@@ -5318,8 +5448,9 @@
       <c r="C24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>253</v>
       </c>
@@ -5329,8 +5460,9 @@
       <c r="C25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>253</v>
       </c>
@@ -5340,8 +5472,9 @@
       <c r="C26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>253</v>
       </c>
@@ -5351,8 +5484,9 @@
       <c r="C27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>253</v>
       </c>
@@ -5362,8 +5496,9 @@
       <c r="C28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>253</v>
       </c>
@@ -5373,8 +5508,9 @@
       <c r="C29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>253</v>
       </c>
@@ -5384,8 +5520,9 @@
       <c r="C30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>253</v>
       </c>
@@ -5395,8 +5532,9 @@
       <c r="C31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>253</v>
       </c>
@@ -5406,8 +5544,9 @@
       <c r="C32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>253</v>
       </c>
@@ -5417,8 +5556,9 @@
       <c r="C33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>253</v>
       </c>
@@ -5428,8 +5568,9 @@
       <c r="C34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>253</v>
       </c>
@@ -5439,8 +5580,9 @@
       <c r="C35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>253</v>
       </c>
@@ -5450,8 +5592,9 @@
       <c r="C36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>253</v>
       </c>
@@ -5461,8 +5604,9 @@
       <c r="C37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>253</v>
       </c>
@@ -5472,8 +5616,9 @@
       <c r="C38" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>253</v>
       </c>
@@ -5483,8 +5628,9 @@
       <c r="C39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>253</v>
       </c>
@@ -5495,7 +5641,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>253</v>
       </c>
@@ -5506,7 +5652,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>253</v>
       </c>
@@ -5517,7 +5663,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>253</v>
       </c>
@@ -5528,7 +5674,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>253</v>
       </c>
@@ -5539,7 +5685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>254</v>
       </c>
@@ -5550,7 +5696,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>254</v>
       </c>
@@ -5561,7 +5707,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>254</v>
       </c>
@@ -5572,7 +5718,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>254</v>
       </c>
@@ -5583,7 +5729,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>254</v>
       </c>
@@ -5594,7 +5740,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>254</v>
       </c>
@@ -5605,7 +5751,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>254</v>
       </c>
@@ -5616,7 +5762,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>254</v>
       </c>
@@ -5627,7 +5773,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>254</v>
       </c>
@@ -5638,7 +5784,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>254</v>
       </c>
@@ -5649,7 +5795,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>254</v>
       </c>
@@ -5660,7 +5806,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>254</v>
       </c>
@@ -5671,7 +5817,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>254</v>
       </c>
@@ -5682,7 +5828,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>254</v>
       </c>
@@ -5693,7 +5839,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>254</v>
       </c>
@@ -5704,7 +5850,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>254</v>
       </c>
@@ -5715,7 +5861,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>254</v>
       </c>
@@ -5726,7 +5872,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>254</v>
       </c>
@@ -5737,7 +5883,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>254</v>
       </c>
@@ -5748,7 +5894,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>254</v>
       </c>
@@ -5759,7 +5905,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>254</v>
       </c>
@@ -5770,7 +5916,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>254</v>
       </c>
@@ -5781,7 +5927,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>254</v>
       </c>
@@ -5792,7 +5938,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>254</v>
       </c>
@@ -5803,7 +5949,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>260</v>
       </c>
@@ -5814,7 +5960,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>260</v>
       </c>
@@ -5825,7 +5971,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>260</v>
       </c>
@@ -5836,7 +5982,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>260</v>
       </c>
@@ -5847,7 +5993,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>260</v>
       </c>
@@ -5858,7 +6004,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>260</v>
       </c>
@@ -5869,7 +6015,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>260</v>
       </c>
@@ -5880,7 +6026,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>260</v>
       </c>
@@ -5891,7 +6037,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>260</v>
       </c>
@@ -5902,7 +6048,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>260</v>
       </c>
@@ -5913,7 +6059,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>260</v>
       </c>
@@ -5924,7 +6070,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>260</v>
       </c>
@@ -5935,7 +6081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>260</v>
       </c>
@@ -5946,7 +6092,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>260</v>
       </c>
@@ -5957,7 +6103,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>260</v>
       </c>
@@ -5968,7 +6114,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>260</v>
       </c>
@@ -5979,7 +6125,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>260</v>
       </c>
@@ -5990,7 +6136,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>260</v>
       </c>
@@ -6001,7 +6147,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>260</v>
       </c>
@@ -6012,7 +6158,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>260</v>
       </c>
@@ -6023,7 +6169,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>260</v>
       </c>
@@ -6034,7 +6180,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>260</v>
       </c>
@@ -6045,7 +6191,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>260</v>
       </c>
@@ -6056,7 +6202,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>260</v>
       </c>
@@ -6067,7 +6213,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>260</v>
       </c>
@@ -6078,7 +6224,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>260</v>
       </c>
@@ -6089,7 +6235,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>260</v>
       </c>
@@ -6100,7 +6246,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>260</v>
       </c>
@@ -6111,7 +6257,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>264</v>
       </c>
@@ -6122,7 +6268,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>264</v>
       </c>
@@ -6133,7 +6279,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>264</v>
       </c>
@@ -6144,7 +6290,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>264</v>
       </c>
@@ -6155,7 +6301,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>264</v>
       </c>
@@ -6166,7 +6312,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>264</v>
       </c>
@@ -6177,7 +6323,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>264</v>
       </c>
@@ -6188,7 +6334,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>264</v>
       </c>
@@ -6199,7 +6345,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>264</v>
       </c>
@@ -6210,7 +6356,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>264</v>
       </c>
@@ -6221,7 +6367,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>264</v>
       </c>
@@ -6232,7 +6378,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>264</v>
       </c>
@@ -6243,7 +6389,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>264</v>
       </c>
@@ -6254,7 +6400,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>264</v>
       </c>
@@ -6265,7 +6411,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>264</v>
       </c>
@@ -6276,7 +6422,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>264</v>
       </c>
@@ -6287,7 +6433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>264</v>
       </c>
@@ -6298,7 +6444,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>264</v>
       </c>
@@ -6309,7 +6455,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>264</v>
       </c>
@@ -6320,7 +6466,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>264</v>
       </c>
@@ -6331,7 +6477,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>264</v>
       </c>
@@ -6342,7 +6488,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>269</v>
       </c>
@@ -6353,7 +6499,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>269</v>
       </c>
@@ -6364,7 +6510,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>269</v>
       </c>
@@ -6375,7 +6521,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>270</v>
       </c>
@@ -6386,7 +6532,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>270</v>
       </c>
@@ -6397,7 +6543,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>270</v>
       </c>
@@ -6408,7 +6554,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>270</v>
       </c>
@@ -6419,7 +6565,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>270</v>
       </c>
@@ -6430,7 +6576,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>270</v>
       </c>
@@ -6441,7 +6587,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>270</v>
       </c>
@@ -6452,7 +6598,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>270</v>
       </c>
@@ -6463,7 +6609,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>270</v>
       </c>
@@ -6474,7 +6620,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>270</v>
       </c>
@@ -6485,7 +6631,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>270</v>
       </c>
@@ -6496,7 +6642,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>270</v>
       </c>
@@ -6507,7 +6653,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>270</v>
       </c>
@@ -6518,7 +6664,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>270</v>
       </c>
@@ -6529,7 +6675,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>270</v>
       </c>
@@ -6540,7 +6686,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>270</v>
       </c>
@@ -6551,7 +6697,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>270</v>
       </c>
@@ -6562,7 +6708,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>270</v>
       </c>
@@ -6573,7 +6719,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>270</v>
       </c>
@@ -6584,7 +6730,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>270</v>
       </c>
@@ -6595,7 +6741,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>270</v>
       </c>
@@ -6606,7 +6752,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>270</v>
       </c>
@@ -6617,7 +6763,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>270</v>
       </c>
@@ -6628,7 +6774,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>270</v>
       </c>
@@ -6639,7 +6785,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>270</v>
       </c>
@@ -6650,7 +6796,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>270</v>
       </c>
@@ -6661,7 +6807,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>270</v>
       </c>
@@ -6672,7 +6818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>271</v>
       </c>
@@ -6683,7 +6829,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>271</v>
       </c>
@@ -6694,7 +6840,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>271</v>
       </c>
@@ -6705,7 +6851,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>271</v>
       </c>
@@ -6716,7 +6862,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>271</v>
       </c>
@@ -6727,7 +6873,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>271</v>
       </c>
@@ -6738,7 +6884,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>271</v>
       </c>
@@ -6749,7 +6895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>271</v>
       </c>
@@ -6760,7 +6906,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>271</v>
       </c>
@@ -6771,7 +6917,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>271</v>
       </c>
@@ -6782,7 +6928,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>271</v>
       </c>
@@ -6793,7 +6939,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>271</v>
       </c>
@@ -6804,7 +6950,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>271</v>
       </c>
@@ -6815,7 +6961,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>271</v>
       </c>
@@ -6826,7 +6972,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>271</v>
       </c>
@@ -6837,7 +6983,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>271</v>
       </c>
@@ -6848,7 +6994,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>271</v>
       </c>
@@ -6859,7 +7005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>271</v>
       </c>
@@ -6870,7 +7016,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>271</v>
       </c>
@@ -6881,7 +7027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>271</v>
       </c>
@@ -6892,7 +7038,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>271</v>
       </c>
@@ -6903,7 +7049,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>271</v>
       </c>
@@ -6914,7 +7060,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>271</v>
       </c>
@@ -6925,7 +7071,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>271</v>
       </c>
@@ -6936,7 +7082,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>271</v>
       </c>
@@ -6947,7 +7093,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>271</v>
       </c>
@@ -6958,7 +7104,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>271</v>
       </c>
@@ -6969,7 +7115,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>271</v>
       </c>
@@ -6980,7 +7126,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>271</v>
       </c>
@@ -6991,7 +7137,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>271</v>
       </c>
@@ -7002,7 +7148,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>271</v>
       </c>
@@ -7013,7 +7159,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>271</v>
       </c>
@@ -7024,7 +7170,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>271</v>
       </c>
@@ -7035,7 +7181,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>278</v>
       </c>
@@ -7046,7 +7192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>278</v>
       </c>
@@ -7057,7 +7203,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>278</v>
       </c>
@@ -7068,7 +7214,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>278</v>
       </c>
@@ -7079,7 +7225,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>278</v>
       </c>
@@ -7090,7 +7236,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>278</v>
       </c>
@@ -7101,7 +7247,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>278</v>
       </c>
@@ -7112,7 +7258,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>278</v>
       </c>
@@ -7123,7 +7269,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>279</v>
       </c>
@@ -7134,7 +7280,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>279</v>
       </c>
@@ -7145,7 +7291,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>279</v>
       </c>
@@ -7156,7 +7302,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>279</v>
       </c>
@@ -7167,7 +7313,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>279</v>
       </c>
@@ -7178,7 +7324,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>279</v>
       </c>
@@ -7189,7 +7335,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>279</v>
       </c>
@@ -7200,7 +7346,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>279</v>
       </c>
@@ -7211,7 +7357,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>279</v>
       </c>
@@ -7222,7 +7368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>279</v>
       </c>
@@ -7233,7 +7379,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>279</v>
       </c>
@@ -7244,7 +7390,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>279</v>
       </c>
@@ -7255,7 +7401,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>279</v>
       </c>
@@ -7266,7 +7412,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>279</v>
       </c>
@@ -7277,7 +7423,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>279</v>
       </c>
@@ -7288,7 +7434,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>279</v>
       </c>
@@ -7299,7 +7445,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>279</v>
       </c>
@@ -7310,7 +7456,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>279</v>
       </c>
@@ -7321,7 +7467,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>279</v>
       </c>
@@ -7332,7 +7478,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>279</v>
       </c>
@@ -7343,7 +7489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>279</v>
       </c>
@@ -7354,7 +7500,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>279</v>
       </c>
@@ -7365,7 +7511,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>279</v>
       </c>
@@ -7376,7 +7522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>279</v>
       </c>
@@ -7387,7 +7533,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>279</v>
       </c>
@@ -7398,7 +7544,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>279</v>
       </c>
@@ -7409,7 +7555,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>279</v>
       </c>
@@ -7420,7 +7566,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>279</v>
       </c>
@@ -7431,7 +7577,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>279</v>
       </c>
@@ -7442,7 +7588,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>279</v>
       </c>
@@ -7453,7 +7599,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>279</v>
       </c>
@@ -7464,7 +7610,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>279</v>
       </c>
@@ -7475,7 +7621,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>279</v>
       </c>
@@ -7486,7 +7632,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>279</v>
       </c>
@@ -7497,7 +7643,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>279</v>
       </c>
@@ -7508,7 +7654,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>279</v>
       </c>
@@ -7519,7 +7665,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>279</v>
       </c>
@@ -7530,7 +7676,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>289</v>
       </c>
@@ -7541,7 +7687,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>289</v>
       </c>
@@ -7552,7 +7698,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>289</v>
       </c>
@@ -7563,7 +7709,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>289</v>
       </c>
@@ -7574,7 +7720,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>289</v>
       </c>
@@ -7585,7 +7731,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>289</v>
       </c>
@@ -7596,7 +7742,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>289</v>
       </c>
@@ -7607,7 +7753,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>289</v>
       </c>
@@ -7618,7 +7764,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>289</v>
       </c>
@@ -7629,7 +7775,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>289</v>
       </c>
@@ -7640,7 +7786,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>289</v>
       </c>
@@ -7651,7 +7797,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>289</v>
       </c>
@@ -7662,7 +7808,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>289</v>
       </c>
@@ -7673,7 +7819,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>289</v>
       </c>
@@ -7684,7 +7830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>289</v>
       </c>
@@ -7695,7 +7841,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>289</v>
       </c>
@@ -7706,7 +7852,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>289</v>
       </c>
@@ -7717,7 +7863,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>289</v>
       </c>
@@ -7728,7 +7874,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>289</v>
       </c>
@@ -7739,7 +7885,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>289</v>
       </c>
@@ -7750,7 +7896,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>289</v>
       </c>
@@ -7761,7 +7907,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>289</v>
       </c>
@@ -7772,7 +7918,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>289</v>
       </c>
@@ -7783,7 +7929,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>289</v>
       </c>
@@ -7794,7 +7940,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>289</v>
       </c>
@@ -7805,7 +7951,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>289</v>
       </c>
@@ -7816,7 +7962,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>289</v>
       </c>
@@ -7827,7 +7973,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>289</v>
       </c>
@@ -7838,7 +7984,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>289</v>
       </c>
@@ -7849,7 +7995,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>289</v>
       </c>
@@ -7860,7 +8006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>289</v>
       </c>
@@ -7871,7 +8017,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>289</v>
       </c>
@@ -7882,7 +8028,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>289</v>
       </c>
@@ -7893,7 +8039,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>289</v>
       </c>
@@ -7904,7 +8050,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>289</v>
       </c>
@@ -7915,7 +8061,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>289</v>
       </c>
@@ -7926,7 +8072,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>296</v>
       </c>
@@ -7937,7 +8083,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>296</v>
       </c>
@@ -7948,7 +8094,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>296</v>
       </c>
@@ -7959,7 +8105,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>296</v>
       </c>
@@ -7970,7 +8116,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>296</v>
       </c>
@@ -7981,7 +8127,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>296</v>
       </c>
@@ -7992,7 +8138,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>296</v>
       </c>
@@ -8003,7 +8149,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>296</v>
       </c>
@@ -8014,7 +8160,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>296</v>
       </c>
@@ -8025,7 +8171,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>296</v>
       </c>
@@ -8036,7 +8182,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>296</v>
       </c>
@@ -8047,7 +8193,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>296</v>
       </c>
@@ -8058,7 +8204,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>296</v>
       </c>
@@ -8069,7 +8215,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>296</v>
       </c>
@@ -8080,7 +8226,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>296</v>
       </c>
@@ -8091,7 +8237,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>296</v>
       </c>
@@ -8102,7 +8248,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>296</v>
       </c>
@@ -8113,7 +8259,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>296</v>
       </c>
@@ -8124,7 +8270,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>296</v>
       </c>
@@ -8135,7 +8281,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>296</v>
       </c>
@@ -8146,7 +8292,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>296</v>
       </c>
@@ -8157,7 +8303,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>296</v>
       </c>
@@ -8168,7 +8314,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>296</v>
       </c>
@@ -8179,7 +8325,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>299</v>
       </c>
@@ -8190,7 +8336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>299</v>
       </c>
@@ -8201,7 +8347,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>299</v>
       </c>
@@ -8212,7 +8358,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>299</v>
       </c>
@@ -8223,7 +8369,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>299</v>
       </c>
@@ -8234,7 +8380,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>299</v>
       </c>
@@ -8245,7 +8391,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>299</v>
       </c>
@@ -8256,7 +8402,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>299</v>
       </c>
@@ -8267,7 +8413,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>299</v>
       </c>
@@ -8278,7 +8424,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>299</v>
       </c>
@@ -8289,7 +8435,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>299</v>
       </c>
@@ -8300,7 +8446,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>299</v>
       </c>
@@ -8311,7 +8457,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>301</v>
       </c>
@@ -8322,7 +8468,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>301</v>
       </c>
@@ -8333,7 +8479,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>301</v>
       </c>
@@ -8344,7 +8490,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>301</v>
       </c>
@@ -8355,7 +8501,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>301</v>
       </c>
@@ -8366,7 +8512,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -8377,7 +8523,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>301</v>
       </c>
@@ -8388,7 +8534,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>301</v>
       </c>
@@ -8399,7 +8545,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>301</v>
       </c>
@@ -8410,7 +8556,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>301</v>
       </c>
@@ -8421,7 +8567,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>301</v>
       </c>
@@ -8432,7 +8578,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>301</v>
       </c>
@@ -8443,7 +8589,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>301</v>
       </c>
@@ -8454,7 +8600,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>301</v>
       </c>
@@ -8465,7 +8611,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>301</v>
       </c>
@@ -8476,7 +8622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>301</v>
       </c>
@@ -8487,7 +8633,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>301</v>
       </c>
@@ -8498,7 +8644,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>301</v>
       </c>
@@ -8509,7 +8655,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>301</v>
       </c>
@@ -8520,7 +8666,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>301</v>
       </c>
@@ -8531,7 +8677,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>301</v>
       </c>
@@ -8542,7 +8688,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>301</v>
       </c>
@@ -8553,7 +8699,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>301</v>
       </c>
@@ -8564,7 +8710,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>301</v>
       </c>
@@ -8575,7 +8721,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>301</v>
       </c>
@@ -8586,7 +8732,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>301</v>
       </c>
@@ -8597,7 +8743,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>301</v>
       </c>
@@ -8608,7 +8754,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>301</v>
       </c>
@@ -8619,7 +8765,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>301</v>
       </c>
@@ -8630,7 +8776,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>301</v>
       </c>
@@ -8641,7 +8787,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>307</v>
       </c>
@@ -8652,7 +8798,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>307</v>
       </c>
@@ -8663,7 +8809,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>307</v>
       </c>
@@ -8674,7 +8820,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>307</v>
       </c>
@@ -8685,7 +8831,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>307</v>
       </c>
@@ -8696,7 +8842,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>307</v>
       </c>
@@ -8707,7 +8853,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>307</v>
       </c>
@@ -8718,7 +8864,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>307</v>
       </c>
@@ -8729,7 +8875,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>307</v>
       </c>
@@ -8740,7 +8886,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>307</v>
       </c>
@@ -8751,7 +8897,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>307</v>
       </c>
@@ -8762,7 +8908,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>307</v>
       </c>
@@ -8773,7 +8919,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>307</v>
       </c>
@@ -8784,7 +8930,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>307</v>
       </c>
@@ -8795,7 +8941,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>307</v>
       </c>
@@ -8806,7 +8952,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>307</v>
       </c>
@@ -8817,7 +8963,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>307</v>
       </c>
@@ -8828,7 +8974,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>307</v>
       </c>
@@ -8839,7 +8985,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>307</v>
       </c>
@@ -8850,7 +8996,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>307</v>
       </c>
@@ -8861,7 +9007,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>307</v>
       </c>
@@ -8872,7 +9018,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>307</v>
       </c>
@@ -8883,7 +9029,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>307</v>
       </c>
@@ -8894,7 +9040,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>307</v>
       </c>
@@ -8905,7 +9051,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>307</v>
       </c>
@@ -8916,7 +9062,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>307</v>
       </c>
@@ -8927,7 +9073,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>307</v>
       </c>
@@ -8938,7 +9084,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>14</v>
       </c>
@@ -8949,7 +9095,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>14</v>
       </c>
@@ -8960,7 +9106,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>14</v>
       </c>
@@ -8971,7 +9117,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>14</v>
       </c>
@@ -8982,7 +9128,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>14</v>
       </c>
@@ -8993,7 +9139,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>14</v>
       </c>
@@ -9004,7 +9150,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>14</v>
       </c>
@@ -9015,7 +9161,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>14</v>
       </c>
@@ -9026,7 +9172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>14</v>
       </c>
@@ -9037,7 +9183,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>14</v>
       </c>
@@ -9048,7 +9194,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>14</v>
       </c>
@@ -9059,7 +9205,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>14</v>
       </c>
@@ -9070,7 +9216,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>14</v>
       </c>
@@ -9081,7 +9227,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>14</v>
       </c>
@@ -9092,7 +9238,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>14</v>
       </c>
@@ -9103,7 +9249,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>14</v>
       </c>
@@ -9114,7 +9260,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>14</v>
       </c>
@@ -9125,7 +9271,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>14</v>
       </c>
@@ -9136,7 +9282,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>14</v>
       </c>
@@ -9147,7 +9293,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>14</v>
       </c>
@@ -9161,6 +9307,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A2 A6" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/Metro_Arcs_Par_Station_IDs.xlsx
+++ b/Metro_Arcs_Par_Station_IDs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aurel\Documents\GitHub\ProbSciANA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noe\Documents\GitHub\ProbSciANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC39851-1962-44D0-B575-051B5AE6AFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AE0A2D-900E-4447-A90C-E72826B77D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="0" windowWidth="19200" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="331">
   <si>
     <t>ID STATION</t>
   </si>
@@ -1015,9 +1015,6 @@
   </si>
   <si>
     <t>Aéroport d’Orly</t>
-  </si>
-  <si>
-    <t>Montparnasse - Bienvenue</t>
   </si>
   <si>
     <t>Noms des lignes</t>
@@ -1440,19 +1437,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E247"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1466,10 +1463,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1486,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1503,7 +1500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1520,7 +1517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1537,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1551,7 +1548,7 @@
         <v>48.868724887050497</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1568,7 +1565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1582,7 +1579,7 @@
         <v>48.866557992001603</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1599,7 +1596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1616,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1633,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1650,7 +1647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1664,7 +1661,7 @@
         <v>48.857352404237702</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1678,7 +1675,7 @@
         <v>48.8551874206563</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1692,7 +1689,7 @@
         <v>48.852054292549496</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1706,7 +1703,7 @@
         <v>48.845683205787601</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1720,7 +1717,7 @@
         <v>48.847212925749702</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1734,7 +1731,7 @@
         <v>48.848084289025799</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1748,7 +1745,7 @@
         <v>48.847007730140398</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1762,7 +1759,7 @@
         <v>48.844317513365297</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1776,7 +1773,7 @@
         <v>48.871396794300303</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1790,7 +1787,7 @@
         <v>48.869926081462602</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -1804,7 +1801,7 @@
         <v>48.8782277299144</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -1818,7 +1815,7 @@
         <v>48.879265253165102</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -1832,7 +1829,7 @@
         <v>48.880568769178801</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -1846,7 +1843,7 @@
         <v>48.881073182127601</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -1860,7 +1857,7 @@
         <v>48.882345817848098</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -1874,7 +1871,7 @@
         <v>48.883669087324698</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -1888,7 +1885,7 @@
         <v>48.883766353529197</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -1902,7 +1899,7 @@
         <v>48.8820209311193</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -1916,7 +1913,7 @@
         <v>48.882868567895898</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -1930,7 +1927,7 @@
         <v>48.883776088608897</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -1944,7 +1941,7 @@
         <v>48.884386409904799</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -1958,7 +1955,7 @@
         <v>48.884320547921902</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -1972,7 +1969,7 @@
         <v>48.883023912481399</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -1986,7 +1983,7 @@
         <v>48.877649807573398</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -2000,7 +1997,7 @@
         <v>48.872286601164802</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -2014,7 +2011,7 @@
         <v>48.869193344184303</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -2028,7 +2025,7 @@
         <v>48.8663901391973</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -2042,7 +2039,7 @@
         <v>48.862449843989303</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
@@ -2056,7 +2053,7 @@
         <v>48.858089427187601</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -2070,7 +2067,7 @@
         <v>48.856244677489201</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -2084,7 +2081,7 @@
         <v>48.851648542649002</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>45</v>
       </c>
@@ -2098,7 +2095,7 @@
         <v>48.885652392185897</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>46</v>
       </c>
@@ -2112,7 +2109,7 @@
         <v>48.884844321791903</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>47</v>
       </c>
@@ -2126,7 +2123,7 @@
         <v>48.883846389779201</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>48</v>
       </c>
@@ -2140,7 +2137,7 @@
         <v>48.882840021629796</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>50</v>
       </c>
@@ -2154,7 +2151,7 @@
         <v>48.878753163096697</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>51</v>
       </c>
@@ -2168,7 +2165,7 @@
         <v>48.875381315059897</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>52</v>
       </c>
@@ -2182,7 +2179,7 @@
         <v>48.873666750997103</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>53</v>
       </c>
@@ -2196,7 +2193,7 @@
         <v>48.871437428049198</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>54</v>
       </c>
@@ -2210,7 +2207,7 @@
         <v>48.869659096436202</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>55</v>
       </c>
@@ -2224,7 +2221,7 @@
         <v>48.868756796707601</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>56</v>
       </c>
@@ -2238,7 +2235,7 @@
         <v>48.867346603345702</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>57</v>
       </c>
@@ -2252,7 +2249,7 @@
         <v>48.866381755803502</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>58</v>
       </c>
@@ -2266,7 +2263,7 @@
         <v>48.865299611696798</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>59</v>
       </c>
@@ -2280,7 +2277,7 @@
         <v>48.8667566284863</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>60</v>
       </c>
@@ -2294,7 +2291,7 @@
         <v>48.867512356863102</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>61</v>
       </c>
@@ -2308,7 +2305,7 @@
         <v>48.865252394862502</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>62</v>
       </c>
@@ -2322,7 +2319,7 @@
         <v>48.864117700014603</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>64</v>
       </c>
@@ -2336,7 +2333,7 @@
         <v>48.865032563515904</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>65</v>
       </c>
@@ -2350,7 +2347,7 @@
         <v>48.864539371986403</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>66</v>
       </c>
@@ -2364,7 +2361,7 @@
         <v>48.876568598079999</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>67</v>
       </c>
@@ -2378,7 +2375,7 @@
         <v>48.871843371274899</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>68</v>
       </c>
@@ -2392,7 +2389,7 @@
         <v>48.868464886066697</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>70</v>
       </c>
@@ -2406,7 +2403,7 @@
         <v>48.897525630330101</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>71</v>
       </c>
@@ -2420,7 +2417,7 @@
         <v>48.894124442685502</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>72</v>
       </c>
@@ -2434,7 +2431,7 @@
         <v>48.891280438896601</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>73</v>
       </c>
@@ -2448,7 +2445,7 @@
         <v>48.887078876519602</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>75</v>
       </c>
@@ -2462,7 +2459,7 @@
         <v>48.879591706462101</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>76</v>
       </c>
@@ -2476,7 +2473,7 @@
         <v>48.876162993518399</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>77</v>
       </c>
@@ -2490,7 +2487,7 @@
         <v>48.872446916647398</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>78</v>
       </c>
@@ -2504,7 +2501,7 @@
         <v>48.869623581689503</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>80</v>
       </c>
@@ -2518,7 +2515,7 @@
         <v>48.863703011076197</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>81</v>
       </c>
@@ -2532,7 +2529,7 @@
         <v>48.862504839391299</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>83</v>
       </c>
@@ -2546,7 +2543,7 @@
         <v>48.854933848158502</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>84</v>
       </c>
@@ -2560,7 +2557,7 @@
         <v>48.853594076619899</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>85</v>
       </c>
@@ -2574,7 +2571,7 @@
         <v>48.8520245535667</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>86</v>
       </c>
@@ -2588,7 +2585,7 @@
         <v>48.853574562874201</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>87</v>
       </c>
@@ -2602,7 +2599,7 @@
         <v>48.851208626618501</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>88</v>
       </c>
@@ -2616,7 +2613,7 @@
         <v>48.847006650641099</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>89</v>
       </c>
@@ -2630,7 +2627,7 @@
         <v>48.843823610306202</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>90</v>
       </c>
@@ -2644,7 +2641,7 @@
         <v>48.842052322344102</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>91</v>
       </c>
@@ -2658,7 +2655,7 @@
         <v>48.839156358577299</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>92</v>
       </c>
@@ -2672,7 +2669,7 @@
         <v>48.833948692744002</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>93</v>
       </c>
@@ -2686,7 +2683,7 @@
         <v>48.831337584623199</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>94</v>
       </c>
@@ -2700,7 +2697,7 @@
         <v>48.828201063270903</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>95</v>
       </c>
@@ -2714,7 +2711,7 @@
         <v>48.823416350191799</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>96</v>
       </c>
@@ -2728,7 +2725,7 @@
         <v>48.888459210398899</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>97</v>
       </c>
@@ -2742,7 +2739,7 @@
         <v>48.886915952247001</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>98</v>
       </c>
@@ -2756,7 +2753,7 @@
         <v>48.885133847137801</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>103</v>
       </c>
@@ -2770,7 +2767,7 @@
         <v>48.870620925317198</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>105</v>
       </c>
@@ -2784,7 +2781,7 @@
         <v>48.864777097573203</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>106</v>
       </c>
@@ -2798,7 +2795,7 @@
         <v>48.8598769369206</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>107</v>
       </c>
@@ -2812,7 +2809,7 @@
         <v>48.856244053738202</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>109</v>
       </c>
@@ -2826,7 +2823,7 @@
         <v>48.846427324531497</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>110</v>
       </c>
@@ -2840,7 +2837,7 @@
         <v>48.843405408577198</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>111</v>
       </c>
@@ -2854,7 +2851,7 @@
         <v>48.838512445735603</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>112</v>
       </c>
@@ -2868,7 +2865,7 @@
         <v>48.835542932800998</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>113</v>
       </c>
@@ -2882,7 +2879,7 @@
         <v>48.830965712344302</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>115</v>
       </c>
@@ -2896,7 +2893,7 @@
         <v>48.871489411987</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>116</v>
       </c>
@@ -2910,7 +2907,7 @@
         <v>48.866848342469197</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>117</v>
       </c>
@@ -2924,7 +2921,7 @@
         <v>48.8634876640714</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>118</v>
       </c>
@@ -2938,7 +2935,7 @@
         <v>48.857515088672201</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>119</v>
       </c>
@@ -2952,7 +2949,7 @@
         <v>48.853925367427799</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>120</v>
       </c>
@@ -2966,7 +2963,7 @@
         <v>48.850411624858502</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>121</v>
       </c>
@@ -2980,7 +2977,7 @@
         <v>48.849630803484203</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>122</v>
       </c>
@@ -2994,7 +2991,7 @@
         <v>48.847543111245301</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>123</v>
       </c>
@@ -3008,7 +3005,7 @@
         <v>48.845647681702502</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>124</v>
       </c>
@@ -3022,7 +3019,7 @@
         <v>48.842528386594999</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>126</v>
       </c>
@@ -3036,7 +3033,7 @@
         <v>48.840903500750002</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>129</v>
       </c>
@@ -3050,7 +3047,7 @@
         <v>48.832916005270803</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>130</v>
       </c>
@@ -3064,7 +3061,7 @@
         <v>48.831115946668099</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>131</v>
       </c>
@@ -3078,7 +3075,7 @@
         <v>48.829860012364001</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>133</v>
       </c>
@@ -3092,7 +3089,7 @@
         <v>48.833235278727898</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>134</v>
       </c>
@@ -3106,7 +3103,7 @@
         <v>48.8349630811609</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>135</v>
       </c>
@@ -3120,7 +3117,7 @@
         <v>48.837074269661301</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>136</v>
       </c>
@@ -3134,7 +3131,7 @@
         <v>48.840176027173598</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>137</v>
       </c>
@@ -3148,7 +3145,7 @@
         <v>48.8390365273806</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>138</v>
       </c>
@@ -3162,7 +3159,7 @@
         <v>48.839434007104899</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>139</v>
       </c>
@@ -3176,7 +3173,7 @@
         <v>48.841427331285303</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>140</v>
       </c>
@@ -3190,7 +3187,7 @@
         <v>48.845103246553599</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>142</v>
       </c>
@@ -3204,7 +3201,7 @@
         <v>48.897802691407797</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>143</v>
       </c>
@@ -3218,7 +3215,7 @@
         <v>48.894672659108402</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>144</v>
       </c>
@@ -3232,7 +3229,7 @@
         <v>48.890885757980897</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>145</v>
       </c>
@@ -3246,7 +3243,7 @@
         <v>48.888157261117797</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>147</v>
       </c>
@@ -3260,7 +3257,7 @@
         <v>48.881206210877998</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>148</v>
       </c>
@@ -3274,7 +3271,7 @@
         <v>48.878441454784401</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>150</v>
       </c>
@@ -3288,7 +3285,7 @@
         <v>48.877164848302201</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>151</v>
       </c>
@@ -3302,7 +3299,7 @@
         <v>48.875963284127501</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>152</v>
       </c>
@@ -3316,7 +3313,7 @@
         <v>48.874959405092902</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>153</v>
       </c>
@@ -3330,7 +3327,7 @@
         <v>48.873134204826599</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>155</v>
       </c>
@@ -3344,7 +3341,7 @@
         <v>48.8657555264287</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>157</v>
       </c>
@@ -3358,7 +3355,7 @@
         <v>48.858546338320203</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>159</v>
       </c>
@@ -3372,7 +3369,7 @@
         <v>48.853459859479599</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>160</v>
       </c>
@@ -3386,7 +3383,7 @@
         <v>48.851271407445601</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>161</v>
       </c>
@@ -3400,7 +3397,7 @@
         <v>48.846197890688799</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>162</v>
       </c>
@@ -3414,7 +3411,7 @@
         <v>48.842666384694603</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>163</v>
       </c>
@@ -3428,7 +3425,7 @@
         <v>48.840226247565703</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>164</v>
       </c>
@@ -3442,7 +3439,7 @@
         <v>48.835841621396199</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>166</v>
       </c>
@@ -3456,7 +3453,7 @@
         <v>48.826136860805299</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>167</v>
       </c>
@@ -3470,7 +3467,7 @@
         <v>48.822149505126603</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>168</v>
       </c>
@@ -3484,7 +3481,7 @@
         <v>48.8191065956103</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>169</v>
       </c>
@@ -3498,7 +3495,7 @@
         <v>48.8200559281997</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>170</v>
       </c>
@@ -3512,7 +3509,7 @@
         <v>48.821489034614402</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>174</v>
       </c>
@@ -3526,7 +3523,7 @@
         <v>48.880789662027098</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>175</v>
       </c>
@@ -3540,7 +3537,7 @@
         <v>48.878499087450599</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>176</v>
       </c>
@@ -3554,7 +3551,7 @@
         <v>48.879534990320401</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>177</v>
       </c>
@@ -3568,7 +3565,7 @@
         <v>48.876723661025203</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>178</v>
       </c>
@@ -3582,7 +3579,7 @@
         <v>48.880159579716299</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>179</v>
       </c>
@@ -3596,7 +3593,7 @@
         <v>48.881949213972597</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>181</v>
       </c>
@@ -3610,7 +3607,7 @@
         <v>48.836667893882797</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>182</v>
       </c>
@@ -3624,7 +3621,7 @@
         <v>48.838660862711599</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>183</v>
       </c>
@@ -3638,7 +3635,7 @@
         <v>48.841024160045002</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>184</v>
       </c>
@@ -3652,7 +3649,7 @@
         <v>48.842684333848403</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>185</v>
       </c>
@@ -3666,7 +3663,7 @@
         <v>48.844611511420197</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>187</v>
       </c>
@@ -3680,7 +3677,7 @@
         <v>48.854919659638902</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>188</v>
       </c>
@@ -3694,7 +3691,7 @@
         <v>48.857727022586403</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>189</v>
       </c>
@@ -3708,7 +3705,7 @@
         <v>48.861092010432998</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>191</v>
       </c>
@@ -3722,7 +3719,7 @@
         <v>48.870544675768201</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>193</v>
       </c>
@@ -3736,7 +3733,7 @@
         <v>48.872135869369899</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>194</v>
       </c>
@@ -3750,7 +3747,7 @@
         <v>48.871504768814702</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>195</v>
       </c>
@@ -3764,7 +3761,7 @@
         <v>48.8705712985549</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>198</v>
       </c>
@@ -3778,7 +3775,7 @@
         <v>48.8630698825026</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>199</v>
       </c>
@@ -3792,7 +3789,7 @@
         <v>48.860968144808197</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>200</v>
       </c>
@@ -3806,7 +3803,7 @@
         <v>48.857087366872101</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>202</v>
       </c>
@@ -3820,7 +3817,7 @@
         <v>48.851337765850197</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>203</v>
       </c>
@@ -3834,7 +3831,7 @@
         <v>48.850110543185501</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>205</v>
       </c>
@@ -3848,7 +3845,7 @@
         <v>48.844005074760702</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>207</v>
       </c>
@@ -3862,7 +3859,7 @@
         <v>48.837077430087497</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>208</v>
       </c>
@@ -3876,7 +3873,7 @@
         <v>48.835017373145597</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>209</v>
       </c>
@@ -3890,7 +3887,7 @@
         <v>48.833449221931097</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>210</v>
       </c>
@@ -3904,7 +3901,7 @@
         <v>48.837958404671198</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>211</v>
       </c>
@@ -3918,7 +3915,7 @@
         <v>48.842580275328302</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>212</v>
       </c>
@@ -3932,7 +3929,7 @@
         <v>48.844911226614997</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>213</v>
       </c>
@@ -3946,7 +3943,7 @@
         <v>48.847975353228101</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>214</v>
       </c>
@@ -3960,7 +3957,7 @@
         <v>48.852433417777398</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>215</v>
       </c>
@@ -3974,7 +3971,7 @@
         <v>48.855503557447499</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>216</v>
       </c>
@@ -3988,7 +3985,7 @@
         <v>48.8580919659505</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>217</v>
       </c>
@@ -4002,7 +3999,7 @@
         <v>48.863951707931797</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>219</v>
       </c>
@@ -4016,7 +4013,7 @@
         <v>48.864780021309301</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>220</v>
       </c>
@@ -4030,7 +4027,7 @@
         <v>48.864647146957701</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>222</v>
       </c>
@@ -4044,7 +4041,7 @@
         <v>48.8721551301294</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>223</v>
       </c>
@@ -4058,7 +4055,7 @@
         <v>48.873447914847198</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>224</v>
       </c>
@@ -4072,7 +4069,7 @@
         <v>48.874546611986801</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>233</v>
       </c>
@@ -4086,7 +4083,7 @@
         <v>48.861416656960998</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>234</v>
       </c>
@@ -4100,7 +4097,7 @@
         <v>48.857662433437902</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>235</v>
       </c>
@@ -4114,7 +4111,7 @@
         <v>48.854939442500303</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>236</v>
       </c>
@@ -4128,7 +4125,7 @@
         <v>48.852214072383703</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>238</v>
       </c>
@@ -4142,7 +4139,7 @@
         <v>48.851762438884101</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>239</v>
       </c>
@@ -4156,7 +4153,7 @@
         <v>48.852731019531802</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>240</v>
       </c>
@@ -4170,7 +4167,7 @@
         <v>48.853482630258299</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>243</v>
       </c>
@@ -4184,7 +4181,7 @@
         <v>48.8467000343149</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>244</v>
       </c>
@@ -4198,7 +4195,7 @@
         <v>48.850195465121303</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>245</v>
       </c>
@@ -4212,7 +4209,7 @@
         <v>48.851026875926301</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>247</v>
       </c>
@@ -4226,7 +4223,7 @@
         <v>48.8528437373513</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>248</v>
       </c>
@@ -4240,7 +4237,7 @@
         <v>48.851565305443202</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>249</v>
       </c>
@@ -4254,7 +4251,7 @@
         <v>48.848894569110698</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>250</v>
       </c>
@@ -4268,7 +4265,7 @@
         <v>48.847009892663699</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>251</v>
       </c>
@@ -4282,7 +4279,7 @@
         <v>48.8471672690468</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>253</v>
       </c>
@@ -4296,7 +4293,7 @@
         <v>48.847038012756897</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>254</v>
       </c>
@@ -4310,7 +4307,7 @@
         <v>48.846604531449202</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>255</v>
       </c>
@@ -4324,7 +4321,7 @@
         <v>48.846181105275001</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>256</v>
       </c>
@@ -4338,7 +4335,7 @@
         <v>48.847143360508902</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>258</v>
       </c>
@@ -4352,7 +4349,7 @@
         <v>48.847904122681001</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>260</v>
       </c>
@@ -4366,7 +4363,7 @@
         <v>48.8450882982306</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>261</v>
       </c>
@@ -4380,7 +4377,7 @@
         <v>48.847077506397802</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>264</v>
       </c>
@@ -4394,7 +4391,7 @@
         <v>48.861190156002202</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>267</v>
       </c>
@@ -4408,7 +4405,7 @@
         <v>48.870007016890497</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>269</v>
       </c>
@@ -4422,7 +4419,7 @@
         <v>48.873818789232502</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>270</v>
       </c>
@@ -4436,7 +4433,7 @@
         <v>48.875247347693403</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>271</v>
       </c>
@@ -4450,7 +4447,7 @@
         <v>48.876723661025203</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>272</v>
       </c>
@@ -4464,7 +4461,7 @@
         <v>48.875510383232701</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>274</v>
       </c>
@@ -4478,7 +4475,7 @@
         <v>48.897402421722497</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>275</v>
       </c>
@@ -4492,7 +4489,7 @@
         <v>48.890579577619299</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>277</v>
       </c>
@@ -4506,7 +4503,7 @@
         <v>48.892492267253999</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>278</v>
       </c>
@@ -4520,7 +4517,7 @@
         <v>48.889681809018903</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>279</v>
       </c>
@@ -4534,7 +4531,7 @@
         <v>48.884392717043397</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>281</v>
       </c>
@@ -4548,7 +4545,7 @@
         <v>48.878416593953702</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>282</v>
       </c>
@@ -4562,7 +4559,7 @@
         <v>48.876035030332602</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>283</v>
       </c>
@@ -4576,7 +4573,7 @@
         <v>48.876336506359301</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>287</v>
       </c>
@@ -4590,7 +4587,7 @@
         <v>48.861071938577901</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>288</v>
       </c>
@@ -4604,7 +4601,7 @@
         <v>48.858531948780403</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>289</v>
       </c>
@@ -4618,7 +4615,7 @@
         <v>48.855884677537297</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>291</v>
       </c>
@@ -4632,7 +4629,7 @@
         <v>48.848332828092403</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>292</v>
       </c>
@@ -4646,7 +4643,7 @@
         <v>48.845077744689597</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>294</v>
       </c>
@@ -4660,7 +4657,7 @@
         <v>48.844317682586102</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>296</v>
       </c>
@@ -4674,7 +4671,7 @@
         <v>48.841411727466699</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>297</v>
       </c>
@@ -4688,7 +4685,7 @@
         <v>48.839437917128599</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>298</v>
       </c>
@@ -4702,7 +4699,7 @@
         <v>48.837135052856702</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>299</v>
       </c>
@@ -4716,7 +4713,7 @@
         <v>48.832519531565197</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>300</v>
       </c>
@@ -4730,7 +4727,7 @@
         <v>48.827613463055897</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>301</v>
       </c>
@@ -4744,7 +4741,7 @@
         <v>48.831750362119102</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>302</v>
       </c>
@@ -4758,7 +4755,7 @@
         <v>48.8340786788266</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>303</v>
       </c>
@@ -4772,7 +4769,7 @@
         <v>48.838526084074203</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>306</v>
       </c>
@@ -4786,7 +4783,7 @@
         <v>48.8512915499903</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>307</v>
       </c>
@@ -4800,7 +4797,7 @@
         <v>48.856624981798397</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>312</v>
       </c>
@@ -4814,7 +4811,7 @@
         <v>48.879534936427703</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>314</v>
       </c>
@@ -4828,7 +4825,7 @@
         <v>48.887433655789003</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>315</v>
       </c>
@@ -4842,7 +4839,7 @@
         <v>48.893001441013702</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>316</v>
       </c>
@@ -4856,7 +4853,7 @@
         <v>48.8974978363796</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>318</v>
       </c>
@@ -4870,7 +4867,7 @@
         <v>48.890651870242102</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>319</v>
       </c>
@@ -4884,7 +4881,7 @@
         <v>48.894431287069501</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>321</v>
       </c>
@@ -4898,7 +4895,7 @@
         <v>48.888103402695002</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>328</v>
       </c>
@@ -4912,7 +4909,7 @@
         <v>48.833319302895099</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>329</v>
       </c>
@@ -4926,7 +4923,7 @@
         <v>48.829925764980601</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>330</v>
       </c>
@@ -4949,22 +4946,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
+      <selection activeCell="B333" sqref="B333"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7265625" customWidth="1"/>
-    <col min="9" max="9" width="26.453125" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.77734375" customWidth="1"/>
+    <col min="9" max="9" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>248</v>
       </c>
@@ -4975,19 +4972,19 @@
         <v>250</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>251</v>
       </c>
@@ -5001,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f>H2/G2</f>
+        <f t="shared" ref="F2:F17" si="0">H2/G2</f>
         <v>0.55333333333333334</v>
       </c>
       <c r="G2" s="5">
@@ -5011,7 +5008,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>251</v>
       </c>
@@ -5025,7 +5022,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <f>H3/G3</f>
+        <f t="shared" si="0"/>
         <v>0.496</v>
       </c>
       <c r="G3" s="5">
@@ -5035,7 +5032,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>251</v>
       </c>
@@ -5049,7 +5046,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <f>H4/G4</f>
+        <f t="shared" si="0"/>
         <v>0.43333333333333329</v>
       </c>
       <c r="G4" s="5">
@@ -5059,7 +5056,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>251</v>
       </c>
@@ -5073,7 +5070,7 @@
         <v>269</v>
       </c>
       <c r="F5">
-        <f>H5/G5</f>
+        <f t="shared" si="0"/>
         <v>0.32500000000000001</v>
       </c>
       <c r="G5" s="5">
@@ -5083,7 +5080,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>251</v>
       </c>
@@ -5097,7 +5094,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <f>H6/G6</f>
+        <f t="shared" si="0"/>
         <v>0.40333333333333332</v>
       </c>
       <c r="G6" s="5">
@@ -5107,7 +5104,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>251</v>
       </c>
@@ -5121,7 +5118,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <f>H7/G7</f>
+        <f t="shared" si="0"/>
         <v>0.54074074074074074</v>
       </c>
       <c r="G7" s="5">
@@ -5131,7 +5128,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>251</v>
       </c>
@@ -5145,7 +5142,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <f>H8/G8</f>
+        <f t="shared" si="0"/>
         <v>0.48571428571428571</v>
       </c>
       <c r="G8" s="5">
@@ -5155,7 +5152,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>251</v>
       </c>
@@ -5169,7 +5166,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <f>H9/G9</f>
+        <f t="shared" si="0"/>
         <v>0.59210526315789469</v>
       </c>
       <c r="G9" s="5">
@@ -5179,7 +5176,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>251</v>
       </c>
@@ -5193,7 +5190,7 @@
         <v>278</v>
       </c>
       <c r="F10">
-        <f>H10/G10</f>
+        <f t="shared" si="0"/>
         <v>0.38750000000000001</v>
       </c>
       <c r="G10" s="5">
@@ -5203,7 +5200,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>251</v>
       </c>
@@ -5217,7 +5214,7 @@
         <v>8</v>
       </c>
       <c r="F11">
-        <f>H11/G11</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="G11" s="5">
@@ -5227,7 +5224,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>251</v>
       </c>
@@ -5241,7 +5238,7 @@
         <v>9</v>
       </c>
       <c r="F12">
-        <f>H12/G12</f>
+        <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="G12" s="5">
@@ -5251,7 +5248,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -5265,7 +5262,7 @@
         <v>10</v>
       </c>
       <c r="F13">
-        <f>H13/G13</f>
+        <f t="shared" si="0"/>
         <v>0.46799999999999997</v>
       </c>
       <c r="G13" s="5">
@@ -5275,7 +5272,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>251</v>
       </c>
@@ -5289,7 +5286,7 @@
         <v>11</v>
       </c>
       <c r="F14">
-        <f>H14/G14</f>
+        <f t="shared" si="0"/>
         <v>0.48461538461538461</v>
       </c>
       <c r="G14" s="5">
@@ -5299,7 +5296,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>251</v>
       </c>
@@ -5313,7 +5310,7 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <f>H15/G15</f>
+        <f t="shared" si="0"/>
         <v>0.51724137931034486</v>
       </c>
       <c r="G15" s="5">
@@ -5323,7 +5320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>251</v>
       </c>
@@ -5337,7 +5334,7 @@
         <v>13</v>
       </c>
       <c r="F16">
-        <f>H16/G16</f>
+        <f t="shared" si="0"/>
         <v>0.60750000000000004</v>
       </c>
       <c r="G16" s="5">
@@ -5347,7 +5344,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>251</v>
       </c>
@@ -5361,7 +5358,7 @@
         <v>14</v>
       </c>
       <c r="F17">
-        <f>H17/G17</f>
+        <f t="shared" si="0"/>
         <v>0.79428571428571426</v>
       </c>
       <c r="G17" s="5">
@@ -5371,7 +5368,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>251</v>
       </c>
@@ -5382,7 +5379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>251</v>
       </c>
@@ -5393,7 +5390,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>251</v>
       </c>
@@ -5404,7 +5401,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>253</v>
       </c>
@@ -5415,7 +5412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>253</v>
       </c>
@@ -5426,7 +5423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>253</v>
       </c>
@@ -5438,7 +5435,7 @@
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>253</v>
       </c>
@@ -5450,7 +5447,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>253</v>
       </c>
@@ -5462,7 +5459,7 @@
       </c>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>253</v>
       </c>
@@ -5474,7 +5471,7 @@
       </c>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>253</v>
       </c>
@@ -5486,7 +5483,7 @@
       </c>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>253</v>
       </c>
@@ -5498,7 +5495,7 @@
       </c>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>253</v>
       </c>
@@ -5510,7 +5507,7 @@
       </c>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>253</v>
       </c>
@@ -5522,7 +5519,7 @@
       </c>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>253</v>
       </c>
@@ -5534,7 +5531,7 @@
       </c>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>253</v>
       </c>
@@ -5546,7 +5543,7 @@
       </c>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>253</v>
       </c>
@@ -5558,7 +5555,7 @@
       </c>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>253</v>
       </c>
@@ -5570,7 +5567,7 @@
       </c>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>253</v>
       </c>
@@ -5582,7 +5579,7 @@
       </c>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>253</v>
       </c>
@@ -5594,7 +5591,7 @@
       </c>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>253</v>
       </c>
@@ -5606,7 +5603,7 @@
       </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>253</v>
       </c>
@@ -5618,7 +5615,7 @@
       </c>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>253</v>
       </c>
@@ -5630,7 +5627,7 @@
       </c>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>253</v>
       </c>
@@ -5641,7 +5638,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>253</v>
       </c>
@@ -5652,7 +5649,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>253</v>
       </c>
@@ -5663,7 +5660,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>253</v>
       </c>
@@ -5674,7 +5671,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>253</v>
       </c>
@@ -5685,7 +5682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>254</v>
       </c>
@@ -5696,7 +5693,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>254</v>
       </c>
@@ -5707,7 +5704,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>254</v>
       </c>
@@ -5718,7 +5715,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>254</v>
       </c>
@@ -5729,7 +5726,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>254</v>
       </c>
@@ -5740,7 +5737,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>254</v>
       </c>
@@ -5751,7 +5748,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>254</v>
       </c>
@@ -5762,7 +5759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>254</v>
       </c>
@@ -5773,7 +5770,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>254</v>
       </c>
@@ -5784,7 +5781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>254</v>
       </c>
@@ -5795,7 +5792,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>254</v>
       </c>
@@ -5806,7 +5803,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>254</v>
       </c>
@@ -5817,7 +5814,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>254</v>
       </c>
@@ -5828,7 +5825,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>254</v>
       </c>
@@ -5839,7 +5836,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>254</v>
       </c>
@@ -5850,7 +5847,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>254</v>
       </c>
@@ -5861,7 +5858,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>254</v>
       </c>
@@ -5872,7 +5869,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>254</v>
       </c>
@@ -5883,7 +5880,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>254</v>
       </c>
@@ -5894,7 +5891,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>254</v>
       </c>
@@ -5905,7 +5902,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>254</v>
       </c>
@@ -5916,7 +5913,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>254</v>
       </c>
@@ -5927,7 +5924,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>254</v>
       </c>
@@ -5938,7 +5935,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>254</v>
       </c>
@@ -5949,7 +5946,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>260</v>
       </c>
@@ -5960,7 +5957,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>260</v>
       </c>
@@ -5971,7 +5968,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>260</v>
       </c>
@@ -5982,7 +5979,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>260</v>
       </c>
@@ -5993,7 +5990,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>260</v>
       </c>
@@ -6004,7 +6001,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>260</v>
       </c>
@@ -6015,7 +6012,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>260</v>
       </c>
@@ -6026,7 +6023,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>260</v>
       </c>
@@ -6037,7 +6034,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>260</v>
       </c>
@@ -6048,7 +6045,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>260</v>
       </c>
@@ -6059,7 +6056,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>260</v>
       </c>
@@ -6070,7 +6067,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>260</v>
       </c>
@@ -6081,7 +6078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>260</v>
       </c>
@@ -6092,7 +6089,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>260</v>
       </c>
@@ -6103,7 +6100,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>260</v>
       </c>
@@ -6114,7 +6111,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>260</v>
       </c>
@@ -6125,7 +6122,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>260</v>
       </c>
@@ -6136,7 +6133,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>260</v>
       </c>
@@ -6147,7 +6144,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>260</v>
       </c>
@@ -6158,7 +6155,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>260</v>
       </c>
@@ -6169,7 +6166,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>260</v>
       </c>
@@ -6180,7 +6177,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>260</v>
       </c>
@@ -6191,7 +6188,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>260</v>
       </c>
@@ -6202,7 +6199,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>260</v>
       </c>
@@ -6213,7 +6210,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>260</v>
       </c>
@@ -6224,7 +6221,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>260</v>
       </c>
@@ -6235,7 +6232,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>260</v>
       </c>
@@ -6246,7 +6243,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>260</v>
       </c>
@@ -6257,7 +6254,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>264</v>
       </c>
@@ -6268,7 +6265,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>264</v>
       </c>
@@ -6279,7 +6276,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>264</v>
       </c>
@@ -6290,7 +6287,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>264</v>
       </c>
@@ -6301,7 +6298,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>264</v>
       </c>
@@ -6312,7 +6309,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>264</v>
       </c>
@@ -6323,7 +6320,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>264</v>
       </c>
@@ -6334,7 +6331,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>264</v>
       </c>
@@ -6345,7 +6342,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>264</v>
       </c>
@@ -6356,7 +6353,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>264</v>
       </c>
@@ -6367,7 +6364,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>264</v>
       </c>
@@ -6378,7 +6375,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>264</v>
       </c>
@@ -6389,7 +6386,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>264</v>
       </c>
@@ -6400,7 +6397,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>264</v>
       </c>
@@ -6411,7 +6408,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>264</v>
       </c>
@@ -6422,7 +6419,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>264</v>
       </c>
@@ -6433,7 +6430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>264</v>
       </c>
@@ -6444,7 +6441,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>264</v>
       </c>
@@ -6455,7 +6452,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>264</v>
       </c>
@@ -6466,7 +6463,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>264</v>
       </c>
@@ -6477,7 +6474,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>264</v>
       </c>
@@ -6488,7 +6485,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>269</v>
       </c>
@@ -6499,7 +6496,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>269</v>
       </c>
@@ -6510,7 +6507,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>269</v>
       </c>
@@ -6521,7 +6518,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>270</v>
       </c>
@@ -6532,7 +6529,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>270</v>
       </c>
@@ -6543,7 +6540,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>270</v>
       </c>
@@ -6554,7 +6551,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>270</v>
       </c>
@@ -6565,7 +6562,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>270</v>
       </c>
@@ -6576,7 +6573,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>270</v>
       </c>
@@ -6587,7 +6584,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>270</v>
       </c>
@@ -6598,7 +6595,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>270</v>
       </c>
@@ -6609,7 +6606,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>270</v>
       </c>
@@ -6620,7 +6617,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>270</v>
       </c>
@@ -6631,7 +6628,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>270</v>
       </c>
@@ -6642,7 +6639,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>270</v>
       </c>
@@ -6653,7 +6650,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>270</v>
       </c>
@@ -6664,7 +6661,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>270</v>
       </c>
@@ -6675,7 +6672,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>270</v>
       </c>
@@ -6686,7 +6683,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>270</v>
       </c>
@@ -6697,7 +6694,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>270</v>
       </c>
@@ -6708,7 +6705,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>270</v>
       </c>
@@ -6719,7 +6716,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>270</v>
       </c>
@@ -6730,7 +6727,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>270</v>
       </c>
@@ -6741,7 +6738,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>270</v>
       </c>
@@ -6752,7 +6749,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>270</v>
       </c>
@@ -6763,7 +6760,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>270</v>
       </c>
@@ -6774,7 +6771,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>270</v>
       </c>
@@ -6785,7 +6782,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>270</v>
       </c>
@@ -6796,7 +6793,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>270</v>
       </c>
@@ -6807,7 +6804,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>270</v>
       </c>
@@ -6818,7 +6815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>271</v>
       </c>
@@ -6829,7 +6826,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>271</v>
       </c>
@@ -6840,7 +6837,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>271</v>
       </c>
@@ -6851,7 +6848,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>271</v>
       </c>
@@ -6862,7 +6859,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>271</v>
       </c>
@@ -6873,7 +6870,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>271</v>
       </c>
@@ -6884,7 +6881,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>271</v>
       </c>
@@ -6895,7 +6892,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>271</v>
       </c>
@@ -6906,7 +6903,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>271</v>
       </c>
@@ -6917,7 +6914,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>271</v>
       </c>
@@ -6928,7 +6925,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>271</v>
       </c>
@@ -6939,7 +6936,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>271</v>
       </c>
@@ -6950,7 +6947,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>271</v>
       </c>
@@ -6961,7 +6958,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>271</v>
       </c>
@@ -6972,7 +6969,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>271</v>
       </c>
@@ -6983,7 +6980,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>271</v>
       </c>
@@ -6994,7 +6991,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>271</v>
       </c>
@@ -7005,7 +7002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>271</v>
       </c>
@@ -7016,7 +7013,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>271</v>
       </c>
@@ -7027,7 +7024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>271</v>
       </c>
@@ -7038,7 +7035,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>271</v>
       </c>
@@ -7049,7 +7046,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>271</v>
       </c>
@@ -7060,7 +7057,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>271</v>
       </c>
@@ -7071,7 +7068,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>271</v>
       </c>
@@ -7082,7 +7079,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>271</v>
       </c>
@@ -7093,7 +7090,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>271</v>
       </c>
@@ -7104,7 +7101,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>271</v>
       </c>
@@ -7115,7 +7112,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>271</v>
       </c>
@@ -7126,7 +7123,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>271</v>
       </c>
@@ -7137,7 +7134,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>271</v>
       </c>
@@ -7148,7 +7145,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>271</v>
       </c>
@@ -7159,7 +7156,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>271</v>
       </c>
@@ -7170,7 +7167,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>271</v>
       </c>
@@ -7181,7 +7178,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>278</v>
       </c>
@@ -7192,7 +7189,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>278</v>
       </c>
@@ -7203,7 +7200,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>278</v>
       </c>
@@ -7214,7 +7211,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>278</v>
       </c>
@@ -7225,7 +7222,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>278</v>
       </c>
@@ -7236,7 +7233,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>278</v>
       </c>
@@ -7247,7 +7244,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>278</v>
       </c>
@@ -7258,7 +7255,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>278</v>
       </c>
@@ -7269,7 +7266,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>279</v>
       </c>
@@ -7280,7 +7277,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>279</v>
       </c>
@@ -7291,7 +7288,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>279</v>
       </c>
@@ -7302,7 +7299,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>279</v>
       </c>
@@ -7313,7 +7310,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>279</v>
       </c>
@@ -7324,7 +7321,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>279</v>
       </c>
@@ -7335,7 +7332,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>279</v>
       </c>
@@ -7346,7 +7343,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>279</v>
       </c>
@@ -7357,7 +7354,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>279</v>
       </c>
@@ -7368,7 +7365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>279</v>
       </c>
@@ -7379,7 +7376,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>279</v>
       </c>
@@ -7390,7 +7387,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>279</v>
       </c>
@@ -7401,7 +7398,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>279</v>
       </c>
@@ -7412,7 +7409,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>279</v>
       </c>
@@ -7423,7 +7420,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>279</v>
       </c>
@@ -7434,7 +7431,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>279</v>
       </c>
@@ -7445,7 +7442,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>279</v>
       </c>
@@ -7456,7 +7453,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>279</v>
       </c>
@@ -7467,7 +7464,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>279</v>
       </c>
@@ -7478,7 +7475,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>279</v>
       </c>
@@ -7489,7 +7486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>279</v>
       </c>
@@ -7500,7 +7497,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>279</v>
       </c>
@@ -7511,7 +7508,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>279</v>
       </c>
@@ -7522,7 +7519,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>279</v>
       </c>
@@ -7533,7 +7530,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>279</v>
       </c>
@@ -7544,7 +7541,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>279</v>
       </c>
@@ -7555,7 +7552,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>279</v>
       </c>
@@ -7566,7 +7563,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>279</v>
       </c>
@@ -7577,7 +7574,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>279</v>
       </c>
@@ -7588,7 +7585,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>279</v>
       </c>
@@ -7599,7 +7596,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>279</v>
       </c>
@@ -7610,7 +7607,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>279</v>
       </c>
@@ -7621,7 +7618,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>279</v>
       </c>
@@ -7632,7 +7629,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>279</v>
       </c>
@@ -7643,7 +7640,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>279</v>
       </c>
@@ -7654,7 +7651,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>279</v>
       </c>
@@ -7665,7 +7662,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>279</v>
       </c>
@@ -7676,7 +7673,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>289</v>
       </c>
@@ -7687,7 +7684,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>289</v>
       </c>
@@ -7698,7 +7695,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>289</v>
       </c>
@@ -7709,7 +7706,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>289</v>
       </c>
@@ -7720,7 +7717,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>289</v>
       </c>
@@ -7731,7 +7728,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>289</v>
       </c>
@@ -7742,7 +7739,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>289</v>
       </c>
@@ -7753,7 +7750,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>289</v>
       </c>
@@ -7764,7 +7761,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>289</v>
       </c>
@@ -7775,7 +7772,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>289</v>
       </c>
@@ -7786,7 +7783,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>289</v>
       </c>
@@ -7797,7 +7794,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>289</v>
       </c>
@@ -7808,7 +7805,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>289</v>
       </c>
@@ -7819,7 +7816,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>289</v>
       </c>
@@ -7830,7 +7827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>289</v>
       </c>
@@ -7841,7 +7838,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>289</v>
       </c>
@@ -7852,7 +7849,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>289</v>
       </c>
@@ -7863,7 +7860,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>289</v>
       </c>
@@ -7874,7 +7871,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>289</v>
       </c>
@@ -7885,7 +7882,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>289</v>
       </c>
@@ -7896,7 +7893,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>289</v>
       </c>
@@ -7907,7 +7904,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>289</v>
       </c>
@@ -7918,7 +7915,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>289</v>
       </c>
@@ -7929,7 +7926,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>289</v>
       </c>
@@ -7940,7 +7937,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>289</v>
       </c>
@@ -7951,7 +7948,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>289</v>
       </c>
@@ -7962,7 +7959,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>289</v>
       </c>
@@ -7973,7 +7970,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>289</v>
       </c>
@@ -7984,7 +7981,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>289</v>
       </c>
@@ -7995,7 +7992,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>289</v>
       </c>
@@ -8006,7 +8003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>289</v>
       </c>
@@ -8017,7 +8014,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>289</v>
       </c>
@@ -8028,7 +8025,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>289</v>
       </c>
@@ -8039,7 +8036,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>289</v>
       </c>
@@ -8050,7 +8047,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>289</v>
       </c>
@@ -8061,7 +8058,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>289</v>
       </c>
@@ -8072,7 +8069,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>296</v>
       </c>
@@ -8083,7 +8080,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>296</v>
       </c>
@@ -8094,7 +8091,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>296</v>
       </c>
@@ -8105,7 +8102,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>296</v>
       </c>
@@ -8116,7 +8113,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>296</v>
       </c>
@@ -8127,7 +8124,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>296</v>
       </c>
@@ -8138,7 +8135,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>296</v>
       </c>
@@ -8149,7 +8146,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>296</v>
       </c>
@@ -8160,7 +8157,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>296</v>
       </c>
@@ -8171,7 +8168,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>296</v>
       </c>
@@ -8182,7 +8179,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>296</v>
       </c>
@@ -8193,7 +8190,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>296</v>
       </c>
@@ -8204,7 +8201,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>296</v>
       </c>
@@ -8215,7 +8212,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>296</v>
       </c>
@@ -8226,7 +8223,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>296</v>
       </c>
@@ -8237,7 +8234,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>296</v>
       </c>
@@ -8248,7 +8245,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>296</v>
       </c>
@@ -8259,7 +8256,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>296</v>
       </c>
@@ -8270,7 +8267,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>296</v>
       </c>
@@ -8281,7 +8278,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>296</v>
       </c>
@@ -8292,7 +8289,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>296</v>
       </c>
@@ -8303,7 +8300,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>296</v>
       </c>
@@ -8314,7 +8311,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>296</v>
       </c>
@@ -8325,7 +8322,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>299</v>
       </c>
@@ -8336,7 +8333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>299</v>
       </c>
@@ -8347,7 +8344,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>299</v>
       </c>
@@ -8358,7 +8355,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>299</v>
       </c>
@@ -8369,7 +8366,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>299</v>
       </c>
@@ -8380,7 +8377,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>299</v>
       </c>
@@ -8391,7 +8388,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>299</v>
       </c>
@@ -8402,7 +8399,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>299</v>
       </c>
@@ -8413,7 +8410,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>299</v>
       </c>
@@ -8424,7 +8421,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>299</v>
       </c>
@@ -8435,7 +8432,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>299</v>
       </c>
@@ -8446,7 +8443,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>299</v>
       </c>
@@ -8457,7 +8454,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>301</v>
       </c>
@@ -8468,7 +8465,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>301</v>
       </c>
@@ -8479,7 +8476,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>301</v>
       </c>
@@ -8490,7 +8487,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>301</v>
       </c>
@@ -8501,7 +8498,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>301</v>
       </c>
@@ -8512,7 +8509,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -8523,7 +8520,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>301</v>
       </c>
@@ -8534,7 +8531,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>301</v>
       </c>
@@ -8545,7 +8542,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>301</v>
       </c>
@@ -8556,7 +8553,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>301</v>
       </c>
@@ -8567,7 +8564,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>301</v>
       </c>
@@ -8578,7 +8575,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>301</v>
       </c>
@@ -8589,7 +8586,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>301</v>
       </c>
@@ -8600,7 +8597,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>301</v>
       </c>
@@ -8611,7 +8608,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>301</v>
       </c>
@@ -8622,7 +8619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>301</v>
       </c>
@@ -8633,7 +8630,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>301</v>
       </c>
@@ -8644,7 +8641,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>301</v>
       </c>
@@ -8655,7 +8652,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>301</v>
       </c>
@@ -8666,7 +8663,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>301</v>
       </c>
@@ -8677,7 +8674,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>301</v>
       </c>
@@ -8688,7 +8685,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>301</v>
       </c>
@@ -8699,7 +8696,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>301</v>
       </c>
@@ -8710,7 +8707,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>301</v>
       </c>
@@ -8721,7 +8718,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>301</v>
       </c>
@@ -8732,7 +8729,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>301</v>
       </c>
@@ -8743,7 +8740,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>301</v>
       </c>
@@ -8754,7 +8751,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>301</v>
       </c>
@@ -8765,7 +8762,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>301</v>
       </c>
@@ -8776,7 +8773,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>301</v>
       </c>
@@ -8787,7 +8784,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>307</v>
       </c>
@@ -8798,7 +8795,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>307</v>
       </c>
@@ -8809,7 +8806,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>307</v>
       </c>
@@ -8820,7 +8817,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>307</v>
       </c>
@@ -8831,7 +8828,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>307</v>
       </c>
@@ -8842,7 +8839,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>307</v>
       </c>
@@ -8853,7 +8850,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>307</v>
       </c>
@@ -8864,7 +8861,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>307</v>
       </c>
@@ -8875,7 +8872,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>307</v>
       </c>
@@ -8886,7 +8883,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>307</v>
       </c>
@@ -8897,7 +8894,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>307</v>
       </c>
@@ -8908,7 +8905,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>307</v>
       </c>
@@ -8919,7 +8916,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>307</v>
       </c>
@@ -8927,10 +8924,10 @@
         <v>185</v>
       </c>
       <c r="C339" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>307</v>
       </c>
@@ -8941,7 +8938,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>307</v>
       </c>
@@ -8952,7 +8949,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>307</v>
       </c>
@@ -8963,7 +8960,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>307</v>
       </c>
@@ -8974,7 +8971,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>307</v>
       </c>
@@ -8985,18 +8982,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>307</v>
       </c>
       <c r="B345" t="s">
-        <v>326</v>
+        <v>84</v>
       </c>
       <c r="C345" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>307</v>
       </c>
@@ -9007,7 +9004,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>307</v>
       </c>
@@ -9018,7 +9015,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>307</v>
       </c>
@@ -9029,7 +9026,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>307</v>
       </c>
@@ -9040,7 +9037,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>307</v>
       </c>
@@ -9051,7 +9048,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>307</v>
       </c>
@@ -9062,7 +9059,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>307</v>
       </c>
@@ -9073,7 +9070,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>307</v>
       </c>
@@ -9084,7 +9081,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>14</v>
       </c>
@@ -9095,7 +9092,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>14</v>
       </c>
@@ -9106,7 +9103,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>14</v>
       </c>
@@ -9117,7 +9114,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>14</v>
       </c>
@@ -9128,7 +9125,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>14</v>
       </c>
@@ -9139,7 +9136,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>14</v>
       </c>
@@ -9150,7 +9147,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>14</v>
       </c>
@@ -9161,7 +9158,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>14</v>
       </c>
@@ -9172,7 +9169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>14</v>
       </c>
@@ -9183,7 +9180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>14</v>
       </c>
@@ -9194,7 +9191,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>14</v>
       </c>
@@ -9205,7 +9202,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>14</v>
       </c>
@@ -9216,7 +9213,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>14</v>
       </c>
@@ -9227,7 +9224,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>14</v>
       </c>
@@ -9238,7 +9235,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>14</v>
       </c>
@@ -9249,7 +9246,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>14</v>
       </c>
@@ -9260,7 +9257,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>14</v>
       </c>
@@ -9271,7 +9268,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>14</v>
       </c>
@@ -9282,7 +9279,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>14</v>
       </c>
@@ -9293,7 +9290,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>14</v>
       </c>

--- a/Metro_Arcs_Par_Station_IDs.xlsx
+++ b/Metro_Arcs_Par_Station_IDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noe\Documents\GitHub\ProbSciANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AE0A2D-900E-4447-A90C-E72826B77D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4395DEC4-4F69-4733-8876-CFE12EAB41A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1437,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E247"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="B244" sqref="B244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>36</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>40</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>41</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>42</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>44</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>45</v>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>47</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>48</v>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>49</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>50</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>51</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>52</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>53</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>54</v>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>55</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>56</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>57</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>58</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>59</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>60</v>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>61</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>62</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>63</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>64</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>65</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>66</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>67</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>68</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>69</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>70</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>71</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>72</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>73</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>74</v>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>75</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>76</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>77</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>78</v>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>79</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>80</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>81</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>82</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>83</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>84</v>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>85</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>86</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>87</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>88</v>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>89</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>90</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>91</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>92</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>93</v>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>94</v>
@@ -2769,7 +2769,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>95</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>96</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>97</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>98</v>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>99</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>100</v>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>101</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>102</v>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>103</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>104</v>
@@ -2909,7 +2909,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>105</v>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>106</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>107</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>108</v>
@@ -2965,7 +2965,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>109</v>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>110</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>111</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>112</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>113</v>
@@ -3035,7 +3035,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>114</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>115</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>116</v>
@@ -3077,7 +3077,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>117</v>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>118</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>119</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>120</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>121</v>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>122</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>123</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>124</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>125</v>
@@ -3203,7 +3203,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>126</v>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>127</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>128</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>129</v>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>130</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>131</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>132</v>
@@ -3301,7 +3301,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>133</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>134</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>135</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>136</v>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>275</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>137</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>138</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>139</v>
@@ -3413,7 +3413,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>140</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>141</v>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>142</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>143</v>
@@ -3469,7 +3469,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
@@ -3539,7 +3539,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -3749,7 +3749,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -3763,7 +3763,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -3805,7 +3805,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -3819,7 +3819,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -3861,7 +3861,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -3931,7 +3931,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -3987,7 +3987,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4001,7 +4001,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4029,7 +4029,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4043,7 +4043,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4113,7 +4113,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4155,7 +4155,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4267,7 +4267,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4281,7 +4281,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4365,7 +4365,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>267</v>
+        <v>208</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4435,7 +4435,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="B212" t="s">
         <v>150</v>
@@ -4449,7 +4449,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="B213" t="s">
         <v>213</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>274</v>
+        <v>213</v>
       </c>
       <c r="B214" t="s">
         <v>214</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c r="B215" t="s">
         <v>215</v>
@@ -4491,7 +4491,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="B216" t="s">
         <v>216</v>
@@ -4505,7 +4505,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>278</v>
+        <v>216</v>
       </c>
       <c r="B217" t="s">
         <v>217</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>279</v>
+        <v>217</v>
       </c>
       <c r="B218" t="s">
         <v>218</v>
@@ -4533,7 +4533,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>281</v>
+        <v>218</v>
       </c>
       <c r="B219" t="s">
         <v>219</v>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>282</v>
+        <v>219</v>
       </c>
       <c r="B220" t="s">
         <v>220</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>283</v>
+        <v>220</v>
       </c>
       <c r="B221" t="s">
         <v>221</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>287</v>
+        <v>221</v>
       </c>
       <c r="B222" t="s">
         <v>222</v>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>288</v>
+        <v>222</v>
       </c>
       <c r="B223" t="s">
         <v>223</v>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="B224" t="s">
         <v>224</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>291</v>
+        <v>224</v>
       </c>
       <c r="B225" t="s">
         <v>225</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>292</v>
+        <v>225</v>
       </c>
       <c r="B226" t="s">
         <v>226</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>294</v>
+        <v>226</v>
       </c>
       <c r="B227" t="s">
         <v>227</v>
@@ -4659,7 +4659,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>296</v>
+        <v>227</v>
       </c>
       <c r="B228" t="s">
         <v>228</v>
@@ -4673,7 +4673,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>297</v>
+        <v>228</v>
       </c>
       <c r="B229" t="s">
         <v>229</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>298</v>
+        <v>229</v>
       </c>
       <c r="B230" t="s">
         <v>230</v>
@@ -4701,7 +4701,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>299</v>
+        <v>230</v>
       </c>
       <c r="B231" t="s">
         <v>231</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>300</v>
+        <v>231</v>
       </c>
       <c r="B232" t="s">
         <v>232</v>
@@ -4729,7 +4729,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>301</v>
+        <v>232</v>
       </c>
       <c r="B233" t="s">
         <v>233</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>302</v>
+        <v>233</v>
       </c>
       <c r="B234" t="s">
         <v>234</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>303</v>
+        <v>234</v>
       </c>
       <c r="B235" t="s">
         <v>235</v>
@@ -4771,7 +4771,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>306</v>
+        <v>235</v>
       </c>
       <c r="B236" t="s">
         <v>236</v>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>307</v>
+        <v>236</v>
       </c>
       <c r="B237" t="s">
         <v>237</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>312</v>
+        <v>237</v>
       </c>
       <c r="B238" t="s">
         <v>238</v>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="B239" t="s">
         <v>239</v>
@@ -4827,7 +4827,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>315</v>
+        <v>239</v>
       </c>
       <c r="B240" t="s">
         <v>240</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>316</v>
+        <v>240</v>
       </c>
       <c r="B241" t="s">
         <v>241</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>318</v>
+        <v>241</v>
       </c>
       <c r="B242" t="s">
         <v>242</v>
@@ -4869,7 +4869,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>319</v>
+        <v>242</v>
       </c>
       <c r="B243" t="s">
         <v>243</v>
@@ -4883,7 +4883,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>321</v>
+        <v>243</v>
       </c>
       <c r="B244" t="s">
         <v>244</v>
@@ -4897,7 +4897,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>328</v>
+        <v>244</v>
       </c>
       <c r="B245" t="s">
         <v>245</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>329</v>
+        <v>245</v>
       </c>
       <c r="B246" t="s">
         <v>246</v>
@@ -4925,7 +4925,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>330</v>
+        <v>246</v>
       </c>
       <c r="B247" t="s">
         <v>247</v>
@@ -4946,8 +4946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="B333" sqref="B333"/>
+    <sheetView topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="B373" sqref="B373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Metro_Arcs_Par_Station_IDs.xlsx
+++ b/Metro_Arcs_Par_Station_IDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aurel\Documents\GitHub\ProbSciANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC39851-1962-44D0-B575-051B5AE6AFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DB6EA9-42B2-48BD-9423-0734C6B94C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="0" windowWidth="19200" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1440,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E247"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="F247" sqref="F247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>36</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>40</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>41</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>42</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>44</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>45</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>47</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>48</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>49</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>50</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>51</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>52</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>53</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>54</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>55</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>56</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>57</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>58</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>59</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>60</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>61</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>62</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>63</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>64</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>65</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>66</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>67</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>68</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>69</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>70</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>71</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>72</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>73</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>74</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>75</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>76</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>77</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>78</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>79</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>80</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>81</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>82</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>83</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>84</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>85</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>86</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>87</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>88</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>89</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>90</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>91</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>92</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>93</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>94</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>95</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>96</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>97</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>98</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>99</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>100</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>101</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>102</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>103</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>104</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>105</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>106</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>107</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>108</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>109</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>110</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>111</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>112</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>113</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>114</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>115</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>116</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>117</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>118</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>119</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>120</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>121</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>122</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>123</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>124</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>125</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>126</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>127</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>128</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>129</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>130</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>131</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>132</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>133</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>134</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>135</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>136</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>275</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>137</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>138</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>139</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>140</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>141</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>142</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>143</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209">
-        <v>267</v>
+        <v>208</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="B212" t="s">
         <v>150</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="B213" t="s">
         <v>213</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214">
-        <v>274</v>
+        <v>213</v>
       </c>
       <c r="B214" t="s">
         <v>214</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c r="B215" t="s">
         <v>215</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="B216" t="s">
         <v>216</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217">
-        <v>278</v>
+        <v>216</v>
       </c>
       <c r="B217" t="s">
         <v>217</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218">
-        <v>279</v>
+        <v>217</v>
       </c>
       <c r="B218" t="s">
         <v>218</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219">
-        <v>281</v>
+        <v>218</v>
       </c>
       <c r="B219" t="s">
         <v>219</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220">
-        <v>282</v>
+        <v>219</v>
       </c>
       <c r="B220" t="s">
         <v>220</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221">
-        <v>283</v>
+        <v>220</v>
       </c>
       <c r="B221" t="s">
         <v>221</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222">
-        <v>287</v>
+        <v>221</v>
       </c>
       <c r="B222" t="s">
         <v>222</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223">
-        <v>288</v>
+        <v>222</v>
       </c>
       <c r="B223" t="s">
         <v>223</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="B224" t="s">
         <v>224</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225">
-        <v>291</v>
+        <v>224</v>
       </c>
       <c r="B225" t="s">
         <v>225</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226">
-        <v>292</v>
+        <v>225</v>
       </c>
       <c r="B226" t="s">
         <v>226</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227">
-        <v>294</v>
+        <v>226</v>
       </c>
       <c r="B227" t="s">
         <v>227</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228">
-        <v>296</v>
+        <v>227</v>
       </c>
       <c r="B228" t="s">
         <v>228</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229">
-        <v>297</v>
+        <v>228</v>
       </c>
       <c r="B229" t="s">
         <v>229</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230">
-        <v>298</v>
+        <v>229</v>
       </c>
       <c r="B230" t="s">
         <v>230</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231">
-        <v>299</v>
+        <v>230</v>
       </c>
       <c r="B231" t="s">
         <v>231</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232">
-        <v>300</v>
+        <v>231</v>
       </c>
       <c r="B232" t="s">
         <v>232</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233">
-        <v>301</v>
+        <v>232</v>
       </c>
       <c r="B233" t="s">
         <v>233</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234">
-        <v>302</v>
+        <v>233</v>
       </c>
       <c r="B234" t="s">
         <v>234</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235">
-        <v>303</v>
+        <v>234</v>
       </c>
       <c r="B235" t="s">
         <v>235</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236">
-        <v>306</v>
+        <v>235</v>
       </c>
       <c r="B236" t="s">
         <v>236</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237">
-        <v>307</v>
+        <v>236</v>
       </c>
       <c r="B237" t="s">
         <v>237</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238">
-        <v>312</v>
+        <v>237</v>
       </c>
       <c r="B238" t="s">
         <v>238</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="B239" t="s">
         <v>239</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240">
-        <v>315</v>
+        <v>239</v>
       </c>
       <c r="B240" t="s">
         <v>240</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241">
-        <v>316</v>
+        <v>240</v>
       </c>
       <c r="B241" t="s">
         <v>241</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242">
-        <v>318</v>
+        <v>241</v>
       </c>
       <c r="B242" t="s">
         <v>242</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243">
-        <v>319</v>
+        <v>242</v>
       </c>
       <c r="B243" t="s">
         <v>243</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244">
-        <v>321</v>
+        <v>243</v>
       </c>
       <c r="B244" t="s">
         <v>244</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245">
-        <v>328</v>
+        <v>244</v>
       </c>
       <c r="B245" t="s">
         <v>245</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246">
-        <v>329</v>
+        <v>245</v>
       </c>
       <c r="B246" t="s">
         <v>246</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247">
-        <v>330</v>
+        <v>246</v>
       </c>
       <c r="B247" t="s">
         <v>247</v>
@@ -4949,8 +4949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="F181" sqref="F181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5001,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f>H2/G2</f>
+        <f t="shared" ref="F2:F17" si="0">H2/G2</f>
         <v>0.55333333333333334</v>
       </c>
       <c r="G2" s="5">
@@ -5025,7 +5025,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <f>H3/G3</f>
+        <f t="shared" si="0"/>
         <v>0.496</v>
       </c>
       <c r="G3" s="5">
@@ -5049,7 +5049,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <f>H4/G4</f>
+        <f t="shared" si="0"/>
         <v>0.43333333333333329</v>
       </c>
       <c r="G4" s="5">
@@ -5073,7 +5073,7 @@
         <v>269</v>
       </c>
       <c r="F5">
-        <f>H5/G5</f>
+        <f t="shared" si="0"/>
         <v>0.32500000000000001</v>
       </c>
       <c r="G5" s="5">
@@ -5097,7 +5097,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <f>H6/G6</f>
+        <f t="shared" si="0"/>
         <v>0.40333333333333332</v>
       </c>
       <c r="G6" s="5">
@@ -5121,7 +5121,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <f>H7/G7</f>
+        <f t="shared" si="0"/>
         <v>0.54074074074074074</v>
       </c>
       <c r="G7" s="5">
@@ -5145,7 +5145,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <f>H8/G8</f>
+        <f t="shared" si="0"/>
         <v>0.48571428571428571</v>
       </c>
       <c r="G8" s="5">
@@ -5169,7 +5169,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <f>H9/G9</f>
+        <f t="shared" si="0"/>
         <v>0.59210526315789469</v>
       </c>
       <c r="G9" s="5">
@@ -5193,7 +5193,7 @@
         <v>278</v>
       </c>
       <c r="F10">
-        <f>H10/G10</f>
+        <f t="shared" si="0"/>
         <v>0.38750000000000001</v>
       </c>
       <c r="G10" s="5">
@@ -5217,7 +5217,7 @@
         <v>8</v>
       </c>
       <c r="F11">
-        <f>H11/G11</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="G11" s="5">
@@ -5241,7 +5241,7 @@
         <v>9</v>
       </c>
       <c r="F12">
-        <f>H12/G12</f>
+        <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="G12" s="5">
@@ -5265,7 +5265,7 @@
         <v>10</v>
       </c>
       <c r="F13">
-        <f>H13/G13</f>
+        <f t="shared" si="0"/>
         <v>0.46799999999999997</v>
       </c>
       <c r="G13" s="5">
@@ -5289,7 +5289,7 @@
         <v>11</v>
       </c>
       <c r="F14">
-        <f>H14/G14</f>
+        <f t="shared" si="0"/>
         <v>0.48461538461538461</v>
       </c>
       <c r="G14" s="5">
@@ -5313,7 +5313,7 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <f>H15/G15</f>
+        <f t="shared" si="0"/>
         <v>0.51724137931034486</v>
       </c>
       <c r="G15" s="5">
@@ -5337,7 +5337,7 @@
         <v>13</v>
       </c>
       <c r="F16">
-        <f>H16/G16</f>
+        <f t="shared" si="0"/>
         <v>0.60750000000000004</v>
       </c>
       <c r="G16" s="5">
@@ -5361,7 +5361,7 @@
         <v>14</v>
       </c>
       <c r="F17">
-        <f>H17/G17</f>
+        <f t="shared" si="0"/>
         <v>0.79428571428571426</v>
       </c>
       <c r="G17" s="5">
@@ -7230,7 +7230,7 @@
         <v>278</v>
       </c>
       <c r="B185" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C185" t="s">
         <v>150</v>
@@ -7241,10 +7241,10 @@
         <v>278</v>
       </c>
       <c r="B186" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C186" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
@@ -7263,10 +7263,10 @@
         <v>278</v>
       </c>
       <c r="B188" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C188" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">

--- a/Metro_Arcs_Par_Station_IDs.xlsx
+++ b/Metro_Arcs_Par_Station_IDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aurel\Documents\GitHub\ProbSciANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DB6EA9-42B2-48BD-9423-0734C6B94C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD408D8A-3EC1-4F4E-92F7-D7FBD1281545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="16090" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="333">
   <si>
     <t>ID STATION</t>
   </si>
@@ -1033,6 +1033,9 @@
   </si>
   <si>
     <t>Vitesse moyenne (km/min)</t>
+  </si>
+  <si>
+    <t>Sens unique</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1133,6 +1136,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1440,7 +1446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+    <sheetView topLeftCell="A72" workbookViewId="0">
       <selection activeCell="F247" sqref="F247"/>
     </sheetView>
   </sheetViews>
@@ -4949,14 +4955,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H373"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="F181" sqref="F181"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D271" sqref="D271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.08984375" bestFit="1" customWidth="1"/>
@@ -4974,6 +4981,9 @@
       <c r="C1" s="1" t="s">
         <v>250</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>332</v>
+      </c>
       <c r="E1" s="2" t="s">
         <v>327</v>
       </c>
@@ -7137,7 +7147,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>271</v>
       </c>
@@ -7148,7 +7158,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>271</v>
       </c>
@@ -7159,7 +7169,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>271</v>
       </c>
@@ -7170,7 +7180,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>271</v>
       </c>
@@ -7181,7 +7191,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>278</v>
       </c>
@@ -7192,7 +7202,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>278</v>
       </c>
@@ -7203,7 +7213,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>278</v>
       </c>
@@ -7214,7 +7224,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>278</v>
       </c>
@@ -7225,7 +7235,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>278</v>
       </c>
@@ -7235,8 +7245,11 @@
       <c r="C185" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>278</v>
       </c>
@@ -7246,8 +7259,11 @@
       <c r="C186" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>278</v>
       </c>
@@ -7257,8 +7273,11 @@
       <c r="C187" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>278</v>
       </c>
@@ -7268,8 +7287,11 @@
       <c r="C188" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>279</v>
       </c>
@@ -7280,7 +7302,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>279</v>
       </c>
@@ -7291,7 +7313,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>279</v>
       </c>
@@ -7302,7 +7324,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>279</v>
       </c>
@@ -8017,7 +8039,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>289</v>
       </c>
@@ -8028,7 +8050,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>289</v>
       </c>
@@ -8039,7 +8061,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>289</v>
       </c>
@@ -8050,7 +8072,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>289</v>
       </c>
@@ -8061,7 +8083,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>289</v>
       </c>
@@ -8072,7 +8094,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>296</v>
       </c>
@@ -8083,7 +8105,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>296</v>
       </c>
@@ -8093,8 +8115,11 @@
       <c r="C263" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>296</v>
       </c>
@@ -8104,8 +8129,11 @@
       <c r="C264" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>296</v>
       </c>
@@ -8115,8 +8143,11 @@
       <c r="C265" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>296</v>
       </c>
@@ -8126,8 +8157,11 @@
       <c r="C266" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>296</v>
       </c>
@@ -8137,8 +8171,11 @@
       <c r="C267" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>296</v>
       </c>
@@ -8148,8 +8185,11 @@
       <c r="C268" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>296</v>
       </c>
@@ -8159,8 +8199,11 @@
       <c r="C269" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>296</v>
       </c>
@@ -8170,8 +8213,11 @@
       <c r="C270" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>296</v>
       </c>
@@ -8182,7 +8228,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>296</v>
       </c>

--- a/Metro_Arcs_Par_Station_IDs.xlsx
+++ b/Metro_Arcs_Par_Station_IDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aurel\Documents\GitHub\ProbSciANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD408D8A-3EC1-4F4E-92F7-D7FBD1281545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A268D07D-2E58-4199-A41C-F5EE9DA253C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="16090" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="332">
   <si>
     <t>ID STATION</t>
   </si>
@@ -1015,9 +1015,6 @@
   </si>
   <si>
     <t>Aéroport d’Orly</t>
-  </si>
-  <si>
-    <t>Montparnasse - Bienvenue</t>
   </si>
   <si>
     <t>Noms des lignes</t>
@@ -1120,7 +1117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1136,9 +1133,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1447,7 +1441,7 @@
   <dimension ref="A1:E247"/>
   <sheetViews>
     <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="F247" sqref="F247"/>
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1472,7 +1466,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -4955,8 +4949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H373"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D271" sqref="D271"/>
+    <sheetView tabSelected="1" topLeftCell="A245" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D263" sqref="D263:D270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4981,20 +4975,20 @@
       <c r="C1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>332</v>
+      <c r="D1" s="3" t="s">
+        <v>331</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -9036,7 +9030,7 @@
         <v>307</v>
       </c>
       <c r="B345" t="s">
-        <v>326</v>
+        <v>84</v>
       </c>
       <c r="C345" t="s">
         <v>235</v>

--- a/Metro_Arcs_Par_Station_IDs.xlsx
+++ b/Metro_Arcs_Par_Station_IDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aurel\Documents\GitHub\ProbSciANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A268D07D-2E58-4199-A41C-F5EE9DA253C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF9CE50-3FBC-4FC1-B3CE-775BD4416D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="334">
   <si>
     <t>ID STATION</t>
   </si>
@@ -1033,6 +1033,12 @@
   </si>
   <si>
     <t>Sens unique</t>
+  </si>
+  <si>
+    <t>Boulogne – Pont de Saint-Cloud</t>
+  </si>
+  <si>
+    <t>Boulogne – Jean Jaurès</t>
   </si>
 </sst>
 </file>
@@ -1438,10 +1444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E247"/>
+  <dimension ref="A1:E249"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="I212" sqref="I212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4370,28 +4376,28 @@
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" t="s">
-        <v>208</v>
-      </c>
-      <c r="C207">
-        <v>2.2730641263728302</v>
-      </c>
-      <c r="D207">
-        <v>48.847077506397802</v>
+      <c r="B207" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C207" s="5">
+        <v>2.2283309999999998</v>
+      </c>
+      <c r="D207" s="5">
+        <v>48.840684000000003</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208" t="s">
-        <v>209</v>
-      </c>
-      <c r="C208">
-        <v>2.35327394859477</v>
-      </c>
-      <c r="D208">
-        <v>48.861190156002202</v>
+      <c r="B208" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C208" s="5">
+        <v>2.2388774200000001</v>
+      </c>
+      <c r="D208" s="5">
+        <v>48.840684009999997</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
@@ -4399,13 +4405,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C209">
-        <v>2.3707644347483998</v>
+        <v>2.2730641263728302</v>
       </c>
       <c r="D209">
-        <v>48.870007016890497</v>
+        <v>48.847077506397802</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
@@ -4413,13 +4419,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C210">
-        <v>2.38520291556953</v>
+        <v>2.35327394859477</v>
       </c>
       <c r="D210">
-        <v>48.873818789232502</v>
+        <v>48.861190156002202</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
@@ -4427,13 +4433,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C211">
-        <v>2.3893253789101001</v>
+        <v>2.3707644347483998</v>
       </c>
       <c r="D211">
-        <v>48.875247347693403</v>
+        <v>48.870007016890497</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
@@ -4441,13 +4447,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="C212">
-        <v>2.3931393703605002</v>
+        <v>2.38520291556953</v>
       </c>
       <c r="D212">
-        <v>48.876723661025203</v>
+        <v>48.873818789232502</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
@@ -4455,13 +4461,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C213">
-        <v>2.3986480899605902</v>
+        <v>2.3893253789101001</v>
       </c>
       <c r="D213">
-        <v>48.875510383232701</v>
+        <v>48.875247347693403</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
@@ -4469,13 +4475,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="C214">
-        <v>2.3592485423103602</v>
+        <v>2.3931393703605002</v>
       </c>
       <c r="D214">
-        <v>48.897402421722497</v>
+        <v>48.876723661025203</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
@@ -4483,13 +4489,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C215">
-        <v>2.3598084780840201</v>
+        <v>2.3986480899605902</v>
       </c>
       <c r="D215">
-        <v>48.890579577619299</v>
+        <v>48.875510383232701</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
@@ -4497,13 +4503,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C216">
-        <v>2.34432002938048</v>
+        <v>2.3592485423103602</v>
       </c>
       <c r="D216">
-        <v>48.892492267253999</v>
+        <v>48.897402421722497</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
@@ -4511,13 +4517,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C217">
-        <v>2.33858382438319</v>
+        <v>2.3598084780840201</v>
       </c>
       <c r="D217">
-        <v>48.889681809018903</v>
+        <v>48.890579577619299</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
@@ -4525,13 +4531,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C218">
-        <v>2.3383946352209102</v>
+        <v>2.34432002938048</v>
       </c>
       <c r="D218">
-        <v>48.884392717043397</v>
+        <v>48.892492267253999</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
@@ -4539,13 +4545,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C219">
-        <v>2.3375706403796701</v>
+        <v>2.33858382438319</v>
       </c>
       <c r="D219">
-        <v>48.878416593953702</v>
+        <v>48.889681809018903</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
@@ -4553,13 +4559,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C220">
-        <v>2.3378736192226399</v>
+        <v>2.3383946352209102</v>
       </c>
       <c r="D220">
-        <v>48.876035030332602</v>
+        <v>48.884392717043397</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
@@ -4567,13 +4573,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C221">
-        <v>2.3330491724182401</v>
+        <v>2.3375706403796701</v>
       </c>
       <c r="D221">
-        <v>48.876336506359301</v>
+        <v>48.878416593953702</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
@@ -4581,13 +4587,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C222">
-        <v>2.3205758366475502</v>
+        <v>2.3378736192226399</v>
       </c>
       <c r="D222">
-        <v>48.861071938577901</v>
+        <v>48.876035030332602</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
@@ -4595,13 +4601,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C223">
-        <v>2.3230759642515402</v>
+        <v>2.3330491724182401</v>
       </c>
       <c r="D223">
-        <v>48.858531948780403</v>
+        <v>48.876336506359301</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
@@ -4609,13 +4615,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C224">
-        <v>2.32569989845241</v>
+        <v>2.3205758366475502</v>
       </c>
       <c r="D224">
-        <v>48.855884677537297</v>
+        <v>48.861071938577901</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
@@ -4623,13 +4629,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C225">
-        <v>2.3277871847873901</v>
+        <v>2.3230759642515402</v>
       </c>
       <c r="D225">
-        <v>48.848332828092403</v>
+        <v>48.858531948780403</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
@@ -4637,13 +4643,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C226">
-        <v>2.3286958054987101</v>
+        <v>2.32569989845241</v>
       </c>
       <c r="D226">
-        <v>48.845077744689597</v>
+        <v>48.855884677537297</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
@@ -4651,13 +4657,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C227">
-        <v>2.3175512356170298</v>
+        <v>2.3277871847873901</v>
       </c>
       <c r="D227">
-        <v>48.844317682586102</v>
+        <v>48.848332828092403</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
@@ -4665,13 +4671,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C228">
-        <v>2.3079833805768502</v>
+        <v>2.3286958054987101</v>
       </c>
       <c r="D228">
-        <v>48.841411727466699</v>
+        <v>48.845077744689597</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
@@ -4679,13 +4685,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C229">
-        <v>2.30107451565455</v>
+        <v>2.3175512356170298</v>
       </c>
       <c r="D229">
-        <v>48.839437917128599</v>
+        <v>48.844317682586102</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
@@ -4693,13 +4699,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C230">
-        <v>2.29639138648092</v>
+        <v>2.3079833805768502</v>
       </c>
       <c r="D230">
-        <v>48.837135052856702</v>
+        <v>48.841411727466699</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
@@ -4707,13 +4713,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C231">
-        <v>2.2877417091423302</v>
+        <v>2.30107451565455</v>
       </c>
       <c r="D231">
-        <v>48.832519531565197</v>
+        <v>48.839437917128599</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
@@ -4721,13 +4727,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C232">
-        <v>2.30533238665747</v>
+        <v>2.29639138648092</v>
       </c>
       <c r="D232">
-        <v>48.827613463055897</v>
+        <v>48.837135052856702</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
@@ -4735,13 +4741,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C233">
-        <v>2.31386048934431</v>
+        <v>2.2877417091423302</v>
       </c>
       <c r="D233">
-        <v>48.831750362119102</v>
+        <v>48.832519531565197</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
@@ -4749,13 +4755,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C234">
-        <v>2.3183937066147</v>
+        <v>2.30533238665747</v>
       </c>
       <c r="D234">
-        <v>48.8340786788266</v>
+        <v>48.827613463055897</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
@@ -4763,13 +4769,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C235">
-        <v>2.3223539967788098</v>
+        <v>2.31386048934431</v>
       </c>
       <c r="D235">
-        <v>48.838526084074203</v>
+        <v>48.831750362119102</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
@@ -4777,13 +4783,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C236">
-        <v>2.31428594618056</v>
+        <v>2.3183937066147</v>
       </c>
       <c r="D236">
-        <v>48.8512915499903</v>
+        <v>48.8340786788266</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
@@ -4791,13 +4797,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C237">
-        <v>2.3151139305096602</v>
+        <v>2.3223539967788098</v>
       </c>
       <c r="D237">
-        <v>48.856624981798397</v>
+        <v>48.838526084074203</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
@@ -4805,13 +4811,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C238">
-        <v>2.3268526712397599</v>
+        <v>2.31428594618056</v>
       </c>
       <c r="D238">
-        <v>48.879534936427703</v>
+        <v>48.8512915499903</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
@@ -4819,13 +4825,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C239">
-        <v>2.3257141171661302</v>
+        <v>2.3151139305096602</v>
       </c>
       <c r="D239">
-        <v>48.887433655789003</v>
+        <v>48.856624981798397</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
@@ -4833,13 +4839,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C240">
-        <v>2.32748325862612</v>
+        <v>2.3268526712397599</v>
       </c>
       <c r="D240">
-        <v>48.893001441013702</v>
+        <v>48.879534936427703</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
@@ -4847,13 +4853,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C241">
-        <v>2.3290483407446501</v>
+        <v>2.3257141171661302</v>
       </c>
       <c r="D241">
-        <v>48.8974978363796</v>
+        <v>48.887433655789003</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
@@ -4861,13 +4867,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C242">
-        <v>2.3199048172093599</v>
+        <v>2.32748325862612</v>
       </c>
       <c r="D242">
-        <v>48.890651870242102</v>
+        <v>48.893001441013702</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
@@ -4875,13 +4881,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C243">
-        <v>2.3132083507588099</v>
+        <v>2.3290483407446501</v>
       </c>
       <c r="D243">
-        <v>48.894431287069501</v>
+        <v>48.8974978363796</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
@@ -4889,13 +4895,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C244">
-        <v>2.3153681405051501</v>
+        <v>2.3199048172093599</v>
       </c>
       <c r="D244">
-        <v>48.888103402695002</v>
+        <v>48.890651870242102</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
@@ -4903,13 +4909,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C245">
-        <v>2.3866178502140598</v>
+        <v>2.3132083507588099</v>
       </c>
       <c r="D245">
-        <v>48.833319302895099</v>
+        <v>48.894431287069501</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
@@ -4917,13 +4923,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C246">
-        <v>2.3764873711683001</v>
+        <v>2.3153681405051501</v>
       </c>
       <c r="D246">
-        <v>48.829925764980601</v>
+        <v>48.888103402695002</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
@@ -4931,16 +4937,45 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
+        <v>245</v>
+      </c>
+      <c r="C247">
+        <v>2.3866178502140598</v>
+      </c>
+      <c r="D247">
+        <v>48.833319302895099</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A248">
         <v>247</v>
       </c>
-      <c r="C247">
+      <c r="B248" t="s">
+        <v>246</v>
+      </c>
+      <c r="C248">
+        <v>2.3764873711683001</v>
+      </c>
+      <c r="D248">
+        <v>48.829925764980601</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>247</v>
+      </c>
+      <c r="C249">
         <v>2.3669231215308102</v>
       </c>
-      <c r="D247">
+      <c r="D249">
         <v>48.827123440481003</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4949,8 +4984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D263" sqref="D263:D270"/>
+    <sheetView topLeftCell="A255" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B263" sqref="B263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Metro_Arcs_Par_Station_IDs.xlsx
+++ b/Metro_Arcs_Par_Station_IDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aurel\Documents\GitHub\ProbSciANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2BCCEB-DCA9-4F1D-B8F8-C25A7FDAE2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F9D41B-AEF1-46EB-9557-34555AFACD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="337">
   <si>
     <t>ID STATION</t>
   </si>
@@ -1047,6 +1047,12 @@
   </si>
   <si>
     <t>Alésiaaaa</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>(obligatoire pour que Château de Vincennes soit comptabilisée) Arête non créer car protégé par la Fonction LectureFichier</t>
   </si>
 </sst>
 </file>
@@ -1457,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G249"/>
+  <dimension ref="A1:G248"/>
   <sheetViews>
-    <sheetView topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="J207" sqref="J207"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="B250" sqref="B250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1469,6 +1475,7 @@
     <col min="2" max="2" width="28.6328125" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -1505,8 +1512,8 @@
         <v>1</v>
       </c>
       <c r="F2" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B2,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B2,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G2" t="str">
         <f>IF(ISERROR(VLOOKUP(B2,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -1530,8 +1537,8 @@
         <v>2</v>
       </c>
       <c r="F3" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B3,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B3,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G3" t="str">
         <f>IF(ISERROR(VLOOKUP(B3,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -1555,8 +1562,8 @@
         <v>3</v>
       </c>
       <c r="F4" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B4,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B4,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G4" t="str">
         <f>IF(ISERROR(VLOOKUP(B4,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -1580,8 +1587,8 @@
         <v>0</v>
       </c>
       <c r="F5" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B5,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B5,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G5" t="str">
         <f>IF(ISERROR(VLOOKUP(B5,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -1602,8 +1609,8 @@
         <v>48.868724887050497</v>
       </c>
       <c r="F6" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B6,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B6,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G6" t="str">
         <f>IF(ISERROR(VLOOKUP(B6,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -1627,8 +1634,8 @@
         <v>2</v>
       </c>
       <c r="F7" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B7,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B7,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G7" t="str">
         <f>IF(ISERROR(VLOOKUP(B7,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -1649,8 +1656,8 @@
         <v>48.866557992001603</v>
       </c>
       <c r="F8" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B8,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B8,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G8" t="str">
         <f>IF(ISERROR(VLOOKUP(B8,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -1674,8 +1681,8 @@
         <v>3</v>
       </c>
       <c r="F9" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B9,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B9,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G9" t="str">
         <f>IF(ISERROR(VLOOKUP(B9,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -1699,8 +1706,8 @@
         <v>1</v>
       </c>
       <c r="F10" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B10,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B10,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G10" t="str">
         <f>IF(ISERROR(VLOOKUP(B10,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -1724,8 +1731,8 @@
         <v>1</v>
       </c>
       <c r="F11" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B11,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B11,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G11" t="str">
         <f>IF(ISERROR(VLOOKUP(B11,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -1749,8 +1756,8 @@
         <v>6</v>
       </c>
       <c r="F12" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B12,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B12,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G12" t="str">
         <f>IF(ISERROR(VLOOKUP(B12,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -1771,8 +1778,8 @@
         <v>48.857352404237702</v>
       </c>
       <c r="F13" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B13,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B13,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G13" t="str">
         <f>IF(ISERROR(VLOOKUP(B13,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -1793,8 +1800,8 @@
         <v>48.8551874206563</v>
       </c>
       <c r="F14" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B14,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B14,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G14" t="str">
         <f>IF(ISERROR(VLOOKUP(B14,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -1815,8 +1822,8 @@
         <v>48.852054292549496</v>
       </c>
       <c r="F15" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B15,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B15,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G15" t="str">
         <f>IF(ISERROR(VLOOKUP(B15,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -1837,8 +1844,8 @@
         <v>48.845683205787601</v>
       </c>
       <c r="F16" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B16,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B16,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G16" t="str">
         <f>IF(ISERROR(VLOOKUP(B16,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -1859,8 +1866,8 @@
         <v>48.847212925749702</v>
       </c>
       <c r="F17" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B17,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B17,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G17" t="str">
         <f>IF(ISERROR(VLOOKUP(B17,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -1881,8 +1888,8 @@
         <v>48.848084289025799</v>
       </c>
       <c r="F18" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B18,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B18,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G18" t="str">
         <f>IF(ISERROR(VLOOKUP(B18,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -1903,8 +1910,8 @@
         <v>48.847007730140398</v>
       </c>
       <c r="F19" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B19,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B19,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G19" t="str">
         <f>IF(ISERROR(VLOOKUP(B19,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -1925,8 +1932,8 @@
         <v>48.844317513365297</v>
       </c>
       <c r="F20" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B20,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B20,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G20" t="str">
         <f>IF(ISERROR(VLOOKUP(B20,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -1947,8 +1954,8 @@
         <v>48.871396794300303</v>
       </c>
       <c r="F21" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B21,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B21,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G21" t="str">
         <f>IF(ISERROR(VLOOKUP(B21,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -1969,8 +1976,8 @@
         <v>48.869926081462602</v>
       </c>
       <c r="F22" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B22,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B22,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G22" t="str">
         <f>IF(ISERROR(VLOOKUP(B22,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -1991,8 +1998,8 @@
         <v>48.8782277299144</v>
       </c>
       <c r="F23" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B23,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B23,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G23" t="str">
         <f>IF(ISERROR(VLOOKUP(B23,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2013,8 +2020,8 @@
         <v>48.879265253165102</v>
       </c>
       <c r="F24" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B24,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B24,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G24" t="str">
         <f>IF(ISERROR(VLOOKUP(B24,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2035,8 +2042,8 @@
         <v>48.880568769178801</v>
       </c>
       <c r="F25" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B25,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B25,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G25" t="str">
         <f>IF(ISERROR(VLOOKUP(B25,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2057,8 +2064,8 @@
         <v>48.881073182127601</v>
       </c>
       <c r="F26" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B26,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B26,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G26" t="str">
         <f>IF(ISERROR(VLOOKUP(B26,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2079,8 +2086,8 @@
         <v>48.882345817848098</v>
       </c>
       <c r="F27" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B27,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B27,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G27" t="str">
         <f>IF(ISERROR(VLOOKUP(B27,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2101,8 +2108,8 @@
         <v>48.883669087324698</v>
       </c>
       <c r="F28" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B28,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B28,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G28" t="str">
         <f>IF(ISERROR(VLOOKUP(B28,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2123,8 +2130,8 @@
         <v>48.883766353529197</v>
       </c>
       <c r="F29" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B29,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B29,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G29" t="str">
         <f>IF(ISERROR(VLOOKUP(B29,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2145,8 +2152,8 @@
         <v>48.8820209311193</v>
       </c>
       <c r="F30" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B30,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B30,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G30" t="str">
         <f>IF(ISERROR(VLOOKUP(B30,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2167,8 +2174,8 @@
         <v>48.882868567895898</v>
       </c>
       <c r="F31" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B31,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B31,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G31" t="str">
         <f>IF(ISERROR(VLOOKUP(B31,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2189,8 +2196,8 @@
         <v>48.883776088608897</v>
       </c>
       <c r="F32" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B32,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B32,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G32" t="str">
         <f>IF(ISERROR(VLOOKUP(B32,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2211,8 +2218,8 @@
         <v>48.884386409904799</v>
       </c>
       <c r="F33" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B33,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B33,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G33" t="str">
         <f>IF(ISERROR(VLOOKUP(B33,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2233,8 +2240,8 @@
         <v>48.884320547921902</v>
       </c>
       <c r="F34" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B34,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B34,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G34" t="str">
         <f>IF(ISERROR(VLOOKUP(B34,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2255,8 +2262,8 @@
         <v>48.883023912481399</v>
       </c>
       <c r="F35" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B35,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B35,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G35" t="str">
         <f>IF(ISERROR(VLOOKUP(B35,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2277,8 +2284,8 @@
         <v>48.877649807573398</v>
       </c>
       <c r="F36" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B36,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B36,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G36" t="str">
         <f>IF(ISERROR(VLOOKUP(B36,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2299,8 +2306,8 @@
         <v>48.872286601164802</v>
       </c>
       <c r="F37" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B37,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B37,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G37" t="str">
         <f>IF(ISERROR(VLOOKUP(B37,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2321,8 +2328,8 @@
         <v>48.869193344184303</v>
       </c>
       <c r="F38" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B38,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B38,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G38" t="str">
         <f>IF(ISERROR(VLOOKUP(B38,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2343,8 +2350,8 @@
         <v>48.8663901391973</v>
       </c>
       <c r="F39" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B39,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B39,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G39" t="str">
         <f>IF(ISERROR(VLOOKUP(B39,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2365,8 +2372,8 @@
         <v>48.862449843989303</v>
       </c>
       <c r="F40" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B40,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B40,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G40" t="str">
         <f>IF(ISERROR(VLOOKUP(B40,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2387,8 +2394,8 @@
         <v>48.858089427187601</v>
       </c>
       <c r="F41" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B41,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B41,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G41" t="str">
         <f>IF(ISERROR(VLOOKUP(B41,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2409,8 +2416,8 @@
         <v>48.856244677489201</v>
       </c>
       <c r="F42" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B42,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B42,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G42" t="str">
         <f>IF(ISERROR(VLOOKUP(B42,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2431,8 +2438,8 @@
         <v>48.851648542649002</v>
       </c>
       <c r="F43" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B43,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B43,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G43" t="str">
         <f>IF(ISERROR(VLOOKUP(B43,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2453,8 +2460,8 @@
         <v>48.885652392185897</v>
       </c>
       <c r="F44" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B44,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B44,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G44" t="str">
         <f>IF(ISERROR(VLOOKUP(B44,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2475,8 +2482,8 @@
         <v>48.884844321791903</v>
       </c>
       <c r="F45" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B45,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B45,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G45" t="str">
         <f>IF(ISERROR(VLOOKUP(B45,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2497,8 +2504,8 @@
         <v>48.883846389779201</v>
       </c>
       <c r="F46" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B46,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B46,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G46" t="str">
         <f>IF(ISERROR(VLOOKUP(B46,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2519,8 +2526,8 @@
         <v>48.882840021629796</v>
       </c>
       <c r="F47" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B47,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B47,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G47" t="str">
         <f>IF(ISERROR(VLOOKUP(B47,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2541,8 +2548,8 @@
         <v>48.878753163096697</v>
       </c>
       <c r="F48" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B48,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B48,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G48" t="str">
         <f>IF(ISERROR(VLOOKUP(B48,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2563,8 +2570,8 @@
         <v>48.875381315059897</v>
       </c>
       <c r="F49" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B49,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B49,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G49" t="str">
         <f>IF(ISERROR(VLOOKUP(B49,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2585,8 +2592,8 @@
         <v>48.873666750997103</v>
       </c>
       <c r="F50" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B50,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B50,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G50" t="str">
         <f>IF(ISERROR(VLOOKUP(B50,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2607,8 +2614,8 @@
         <v>48.871437428049198</v>
       </c>
       <c r="F51" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B51,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B51,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G51" t="str">
         <f>IF(ISERROR(VLOOKUP(B51,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2629,8 +2636,8 @@
         <v>48.869659096436202</v>
       </c>
       <c r="F52" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B52,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B52,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G52" t="str">
         <f>IF(ISERROR(VLOOKUP(B52,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2651,8 +2658,8 @@
         <v>48.868756796707601</v>
       </c>
       <c r="F53" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B53,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B53,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G53" t="str">
         <f>IF(ISERROR(VLOOKUP(B53,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2673,8 +2680,8 @@
         <v>48.867346603345702</v>
       </c>
       <c r="F54" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B54,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B54,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G54" t="str">
         <f>IF(ISERROR(VLOOKUP(B54,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2695,8 +2702,8 @@
         <v>48.866381755803502</v>
       </c>
       <c r="F55" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B55,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B55,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G55" t="str">
         <f>IF(ISERROR(VLOOKUP(B55,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2717,8 +2724,8 @@
         <v>48.865299611696798</v>
       </c>
       <c r="F56" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B56,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B56,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G56" t="str">
         <f>IF(ISERROR(VLOOKUP(B56,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2739,8 +2746,8 @@
         <v>48.8667566284863</v>
       </c>
       <c r="F57" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B57,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B57,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G57" t="str">
         <f>IF(ISERROR(VLOOKUP(B57,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2761,8 +2768,8 @@
         <v>48.867512356863102</v>
       </c>
       <c r="F58" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B58,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B58,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G58" t="str">
         <f>IF(ISERROR(VLOOKUP(B58,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2783,8 +2790,8 @@
         <v>48.865252394862502</v>
       </c>
       <c r="F59" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B59,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B59,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G59" t="str">
         <f>IF(ISERROR(VLOOKUP(B59,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2805,8 +2812,8 @@
         <v>48.864117700014603</v>
       </c>
       <c r="F60" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B60,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B60,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G60" t="str">
         <f>IF(ISERROR(VLOOKUP(B60,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2827,8 +2834,8 @@
         <v>48.865032563515904</v>
       </c>
       <c r="F61" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B61,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B61,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G61" t="str">
         <f>IF(ISERROR(VLOOKUP(B61,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2849,8 +2856,8 @@
         <v>48.864539371986403</v>
       </c>
       <c r="F62" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B62,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B62,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G62" t="str">
         <f>IF(ISERROR(VLOOKUP(B62,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2871,8 +2878,8 @@
         <v>48.876568598079999</v>
       </c>
       <c r="F63" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B63,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B63,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G63" t="str">
         <f>IF(ISERROR(VLOOKUP(B63,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2893,8 +2900,8 @@
         <v>48.871843371274899</v>
       </c>
       <c r="F64" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B64,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B64,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G64" t="str">
         <f>IF(ISERROR(VLOOKUP(B64,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2915,8 +2922,8 @@
         <v>48.868464886066697</v>
       </c>
       <c r="F65" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B65,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B65,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G65" t="str">
         <f>IF(ISERROR(VLOOKUP(B65,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2937,8 +2944,8 @@
         <v>48.897525630330101</v>
       </c>
       <c r="F66" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B66,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B66,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G66" t="str">
         <f>IF(ISERROR(VLOOKUP(B66,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2959,8 +2966,8 @@
         <v>48.894124442685502</v>
       </c>
       <c r="F67" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B67,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B67,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G67" t="str">
         <f>IF(ISERROR(VLOOKUP(B67,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -2981,8 +2988,8 @@
         <v>48.891280438896601</v>
       </c>
       <c r="F68" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B68,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B68,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G68" t="str">
         <f>IF(ISERROR(VLOOKUP(B68,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3003,8 +3010,8 @@
         <v>48.887078876519602</v>
       </c>
       <c r="F69" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B69,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B69,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G69" t="str">
         <f>IF(ISERROR(VLOOKUP(B69,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3025,8 +3032,8 @@
         <v>48.879591706462101</v>
       </c>
       <c r="F70" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B70,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B70,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G70" t="str">
         <f>IF(ISERROR(VLOOKUP(B70,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3047,8 +3054,8 @@
         <v>48.876162993518399</v>
       </c>
       <c r="F71" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B71,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B71,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G71" t="str">
         <f>IF(ISERROR(VLOOKUP(B71,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3069,8 +3076,8 @@
         <v>48.872446916647398</v>
       </c>
       <c r="F72" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B72,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B72,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G72" t="str">
         <f>IF(ISERROR(VLOOKUP(B72,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3091,8 +3098,8 @@
         <v>48.869623581689503</v>
       </c>
       <c r="F73" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B73,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B73,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G73" t="str">
         <f>IF(ISERROR(VLOOKUP(B73,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3113,8 +3120,8 @@
         <v>48.863703011076197</v>
       </c>
       <c r="F74" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B74,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B74,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G74" t="str">
         <f>IF(ISERROR(VLOOKUP(B74,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3135,8 +3142,8 @@
         <v>48.862504839391299</v>
       </c>
       <c r="F75" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B75,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B75,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G75" t="str">
         <f>IF(ISERROR(VLOOKUP(B75,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3157,8 +3164,8 @@
         <v>48.854933848158502</v>
       </c>
       <c r="F76" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B76,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B76,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G76" t="str">
         <f>IF(ISERROR(VLOOKUP(B76,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3179,8 +3186,8 @@
         <v>48.853594076619899</v>
       </c>
       <c r="F77" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B77,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B77,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G77" t="str">
         <f>IF(ISERROR(VLOOKUP(B77,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3201,8 +3208,8 @@
         <v>48.8520245535667</v>
       </c>
       <c r="F78" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B78,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B78,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G78" t="str">
         <f>IF(ISERROR(VLOOKUP(B78,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3223,8 +3230,8 @@
         <v>48.853574562874201</v>
       </c>
       <c r="F79" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B79,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B79,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G79" t="str">
         <f>IF(ISERROR(VLOOKUP(B79,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3245,8 +3252,8 @@
         <v>48.851208626618501</v>
       </c>
       <c r="F80" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B80,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B80,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G80" t="str">
         <f>IF(ISERROR(VLOOKUP(B80,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3267,8 +3274,8 @@
         <v>48.847006650641099</v>
       </c>
       <c r="F81" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B81,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B81,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G81" t="str">
         <f>IF(ISERROR(VLOOKUP(B81,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3289,8 +3296,8 @@
         <v>48.843823610306202</v>
       </c>
       <c r="F82" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B82,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B82,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G82" t="str">
         <f>IF(ISERROR(VLOOKUP(B82,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3311,8 +3318,8 @@
         <v>48.842052322344102</v>
       </c>
       <c r="F83" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B83,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B83,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G83" t="str">
         <f>IF(ISERROR(VLOOKUP(B83,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3333,8 +3340,8 @@
         <v>48.839156358577299</v>
       </c>
       <c r="F84" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B84,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B84,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G84" t="str">
         <f>IF(ISERROR(VLOOKUP(B84,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3355,8 +3362,8 @@
         <v>48.833948692744002</v>
       </c>
       <c r="F85" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B85,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B85,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G85" t="str">
         <f>IF(ISERROR(VLOOKUP(B85,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3377,8 +3384,8 @@
         <v>48.831337584623199</v>
       </c>
       <c r="F86" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B86,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B86,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G86" t="str">
         <f>IF(ISERROR(VLOOKUP(B86,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3399,8 +3406,8 @@
         <v>48.828201063270903</v>
       </c>
       <c r="F87" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B87,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B87,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G87" t="str">
         <f>IF(ISERROR(VLOOKUP(B87,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3421,8 +3428,8 @@
         <v>48.823416350191799</v>
       </c>
       <c r="F88" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B88,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B88,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G88" t="str">
         <f>IF(ISERROR(VLOOKUP(B88,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3443,8 +3450,8 @@
         <v>48.888459210398899</v>
       </c>
       <c r="F89" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B89,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B89,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G89" t="str">
         <f>IF(ISERROR(VLOOKUP(B89,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3465,8 +3472,8 @@
         <v>48.886915952247001</v>
       </c>
       <c r="F90" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B90,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B90,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G90" t="str">
         <f>IF(ISERROR(VLOOKUP(B90,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3487,8 +3494,8 @@
         <v>48.885133847137801</v>
       </c>
       <c r="F91" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B91,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B91,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G91" t="str">
         <f>IF(ISERROR(VLOOKUP(B91,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3509,8 +3516,8 @@
         <v>48.870620925317198</v>
       </c>
       <c r="F92" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B92,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B92,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G92" t="str">
         <f>IF(ISERROR(VLOOKUP(B92,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3531,8 +3538,8 @@
         <v>48.864777097573203</v>
       </c>
       <c r="F93" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B93,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B93,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G93" t="str">
         <f>IF(ISERROR(VLOOKUP(B93,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3553,8 +3560,8 @@
         <v>48.8598769369206</v>
       </c>
       <c r="F94" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B94,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B94,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G94" t="str">
         <f>IF(ISERROR(VLOOKUP(B94,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3575,8 +3582,8 @@
         <v>48.856244053738202</v>
       </c>
       <c r="F95" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B95,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B95,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G95" t="str">
         <f>IF(ISERROR(VLOOKUP(B95,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3597,8 +3604,8 @@
         <v>48.846427324531497</v>
       </c>
       <c r="F96" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B96,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B96,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G96" t="str">
         <f>IF(ISERROR(VLOOKUP(B96,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3619,8 +3626,8 @@
         <v>48.843405408577198</v>
       </c>
       <c r="F97" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B97,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B97,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G97" t="str">
         <f>IF(ISERROR(VLOOKUP(B97,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3641,8 +3648,8 @@
         <v>48.838512445735603</v>
       </c>
       <c r="F98" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B98,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B98,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G98" t="str">
         <f>IF(ISERROR(VLOOKUP(B98,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3663,8 +3670,8 @@
         <v>48.835542932800998</v>
       </c>
       <c r="F99" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B99,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B99,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G99" t="str">
         <f>IF(ISERROR(VLOOKUP(B99,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3685,8 +3692,8 @@
         <v>48.830965712344302</v>
       </c>
       <c r="F100" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B100,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B100,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G100" t="str">
         <f>IF(ISERROR(VLOOKUP(B100,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3707,8 +3714,8 @@
         <v>48.871489411987</v>
       </c>
       <c r="F101" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B101,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B101,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G101" t="str">
         <f>IF(ISERROR(VLOOKUP(B101,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3729,8 +3736,8 @@
         <v>48.866848342469197</v>
       </c>
       <c r="F102" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B102,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B102,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G102" t="str">
         <f>IF(ISERROR(VLOOKUP(B102,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3751,8 +3758,8 @@
         <v>48.8634876640714</v>
       </c>
       <c r="F103" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B103,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B103,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G103" t="str">
         <f>IF(ISERROR(VLOOKUP(B103,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3773,8 +3780,8 @@
         <v>48.857515088672201</v>
       </c>
       <c r="F104" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B104,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B104,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G104" t="str">
         <f>IF(ISERROR(VLOOKUP(B104,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3795,8 +3802,8 @@
         <v>48.853925367427799</v>
       </c>
       <c r="F105" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B105,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B105,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G105" t="str">
         <f>IF(ISERROR(VLOOKUP(B105,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3817,8 +3824,8 @@
         <v>48.850411624858502</v>
       </c>
       <c r="F106" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B106,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B106,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G106" t="str">
         <f>IF(ISERROR(VLOOKUP(B106,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3839,8 +3846,8 @@
         <v>48.849630803484203</v>
       </c>
       <c r="F107" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B107,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B107,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G107" t="str">
         <f>IF(ISERROR(VLOOKUP(B107,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3861,8 +3868,8 @@
         <v>48.847543111245301</v>
       </c>
       <c r="F108" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B108,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B108,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G108" t="str">
         <f>IF(ISERROR(VLOOKUP(B108,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3883,8 +3890,8 @@
         <v>48.845647681702502</v>
       </c>
       <c r="F109" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B109,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B109,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G109" t="str">
         <f>IF(ISERROR(VLOOKUP(B109,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3905,8 +3912,8 @@
         <v>48.842528386594999</v>
       </c>
       <c r="F110" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B110,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B110,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G110" t="str">
         <f>IF(ISERROR(VLOOKUP(B110,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3927,8 +3934,8 @@
         <v>48.840903500750002</v>
       </c>
       <c r="F111" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B111,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B111,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G111" t="str">
         <f>IF(ISERROR(VLOOKUP(B111,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3949,8 +3956,8 @@
         <v>48.832916005270803</v>
       </c>
       <c r="F112" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B112,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B112,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G112" t="str">
         <f>IF(ISERROR(VLOOKUP(B112,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3971,8 +3978,8 @@
         <v>48.831115946668099</v>
       </c>
       <c r="F113" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B113,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B113,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G113" t="str">
         <f>IF(ISERROR(VLOOKUP(B113,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -3993,8 +4000,8 @@
         <v>48.829860012364001</v>
       </c>
       <c r="F114" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B114,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B114,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G114" t="str">
         <f>IF(ISERROR(VLOOKUP(B114,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4015,8 +4022,8 @@
         <v>48.833235278727898</v>
       </c>
       <c r="F115" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B115,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B115,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G115" t="str">
         <f>IF(ISERROR(VLOOKUP(B115,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4037,8 +4044,8 @@
         <v>48.8349630811609</v>
       </c>
       <c r="F116" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B116,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B116,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G116" t="str">
         <f>IF(ISERROR(VLOOKUP(B116,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4059,8 +4066,8 @@
         <v>48.837074269661301</v>
       </c>
       <c r="F117" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B117,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B117,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G117" t="str">
         <f>IF(ISERROR(VLOOKUP(B117,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4081,8 +4088,8 @@
         <v>48.840176027173598</v>
       </c>
       <c r="F118" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B118,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B118,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G118" t="str">
         <f>IF(ISERROR(VLOOKUP(B118,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4103,8 +4110,8 @@
         <v>48.8390365273806</v>
       </c>
       <c r="F119" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B119,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B119,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G119" t="str">
         <f>IF(ISERROR(VLOOKUP(B119,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4125,8 +4132,8 @@
         <v>48.839434007104899</v>
       </c>
       <c r="F120" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B120,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B120,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G120" t="str">
         <f>IF(ISERROR(VLOOKUP(B120,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4147,8 +4154,8 @@
         <v>48.841427331285303</v>
       </c>
       <c r="F121" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B121,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B121,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G121" t="str">
         <f>IF(ISERROR(VLOOKUP(B121,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4169,8 +4176,8 @@
         <v>48.845103246553599</v>
       </c>
       <c r="F122" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B122,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B122,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G122" t="str">
         <f>IF(ISERROR(VLOOKUP(B122,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4191,8 +4198,8 @@
         <v>48.897802691407797</v>
       </c>
       <c r="F123" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B123,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B123,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G123" t="str">
         <f>IF(ISERROR(VLOOKUP(B123,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4213,8 +4220,8 @@
         <v>48.894672659108402</v>
       </c>
       <c r="F124" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B124,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B124,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G124" t="str">
         <f>IF(ISERROR(VLOOKUP(B124,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4235,8 +4242,8 @@
         <v>48.890885757980897</v>
       </c>
       <c r="F125" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B125,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B125,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G125" t="str">
         <f>IF(ISERROR(VLOOKUP(B125,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4257,8 +4264,8 @@
         <v>48.888157261117797</v>
       </c>
       <c r="F126" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B126,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B126,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G126" t="str">
         <f>IF(ISERROR(VLOOKUP(B126,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4279,8 +4286,8 @@
         <v>48.881206210877998</v>
       </c>
       <c r="F127" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B127,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B127,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G127" t="str">
         <f>IF(ISERROR(VLOOKUP(B127,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4301,8 +4308,8 @@
         <v>48.878441454784401</v>
       </c>
       <c r="F128" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B128,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B128,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G128" t="str">
         <f>IF(ISERROR(VLOOKUP(B128,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4323,8 +4330,8 @@
         <v>48.877164848302201</v>
       </c>
       <c r="F129" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B129,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B129,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G129" t="str">
         <f>IF(ISERROR(VLOOKUP(B129,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4345,8 +4352,8 @@
         <v>48.875963284127501</v>
       </c>
       <c r="F130" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B130,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B130,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G130" t="str">
         <f>IF(ISERROR(VLOOKUP(B130,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4367,8 +4374,8 @@
         <v>48.874959405092902</v>
       </c>
       <c r="F131" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B131,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B131,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G131" t="str">
         <f>IF(ISERROR(VLOOKUP(B131,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4389,8 +4396,8 @@
         <v>48.873134204826599</v>
       </c>
       <c r="F132" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B132,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B132,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G132" t="str">
         <f>IF(ISERROR(VLOOKUP(B132,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4411,8 +4418,8 @@
         <v>48.8657555264287</v>
       </c>
       <c r="F133" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B133,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B133,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G133" t="str">
         <f>IF(ISERROR(VLOOKUP(B133,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4433,8 +4440,8 @@
         <v>48.858546338320203</v>
       </c>
       <c r="F134" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B134,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B134,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G134" t="str">
         <f>IF(ISERROR(VLOOKUP(B134,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4455,8 +4462,8 @@
         <v>48.853459859479599</v>
       </c>
       <c r="F135" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B135,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B135,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G135" t="str">
         <f>IF(ISERROR(VLOOKUP(B135,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4477,8 +4484,8 @@
         <v>48.851271407445601</v>
       </c>
       <c r="F136" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B136,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B136,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G136" t="str">
         <f>IF(ISERROR(VLOOKUP(B136,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4499,8 +4506,8 @@
         <v>48.846197890688799</v>
       </c>
       <c r="F137" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B137,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B137,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G137" t="str">
         <f>IF(ISERROR(VLOOKUP(B137,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4521,8 +4528,8 @@
         <v>48.842666384694603</v>
       </c>
       <c r="F138" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B138,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B138,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G138" t="str">
         <f>IF(ISERROR(VLOOKUP(B138,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4543,8 +4550,8 @@
         <v>48.840226247565703</v>
       </c>
       <c r="F139" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B139,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B139,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G139" t="str">
         <f>IF(ISERROR(VLOOKUP(B139,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4565,8 +4572,8 @@
         <v>48.835841621396199</v>
       </c>
       <c r="F140" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B140,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B140,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G140" t="str">
         <f>IF(ISERROR(VLOOKUP(B140,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4587,8 +4594,8 @@
         <v>48.826136860805299</v>
       </c>
       <c r="F141" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B141,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B141,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G141" t="str">
         <f>IF(ISERROR(VLOOKUP(B141,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4609,8 +4616,8 @@
         <v>48.822149505126603</v>
       </c>
       <c r="F142" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B142,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B142,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G142" t="str">
         <f>IF(ISERROR(VLOOKUP(B142,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4631,8 +4638,8 @@
         <v>48.8191065956103</v>
       </c>
       <c r="F143" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B143,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B143,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G143" t="str">
         <f>IF(ISERROR(VLOOKUP(B143,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4653,8 +4660,8 @@
         <v>48.8200559281997</v>
       </c>
       <c r="F144" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B144,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B144,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G144" t="str">
         <f>IF(ISERROR(VLOOKUP(B144,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4675,8 +4682,8 @@
         <v>48.821489034614402</v>
       </c>
       <c r="F145" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B145,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B145,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G145" t="str">
         <f>IF(ISERROR(VLOOKUP(B145,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4697,8 +4704,8 @@
         <v>48.880789662027098</v>
       </c>
       <c r="F146" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B146,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B146,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G146" t="str">
         <f>IF(ISERROR(VLOOKUP(B146,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4719,8 +4726,8 @@
         <v>48.878499087450599</v>
       </c>
       <c r="F147" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B147,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B147,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G147" t="str">
         <f>IF(ISERROR(VLOOKUP(B147,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4741,8 +4748,8 @@
         <v>48.879534990320401</v>
       </c>
       <c r="F148" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B148,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B148,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G148" t="str">
         <f>IF(ISERROR(VLOOKUP(B148,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4763,8 +4770,8 @@
         <v>48.876723661025203</v>
       </c>
       <c r="F149" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B149,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B149,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G149" t="str">
         <f>IF(ISERROR(VLOOKUP(B149,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4785,8 +4792,8 @@
         <v>48.880159579716299</v>
       </c>
       <c r="F150" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B150,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B150,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G150" t="str">
         <f>IF(ISERROR(VLOOKUP(B150,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4807,8 +4814,8 @@
         <v>48.881949213972597</v>
       </c>
       <c r="F151" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B151,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B151,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G151" t="str">
         <f>IF(ISERROR(VLOOKUP(B151,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4829,8 +4836,8 @@
         <v>48.836667893882797</v>
       </c>
       <c r="F152" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B152,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B152,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G152" t="str">
         <f>IF(ISERROR(VLOOKUP(B152,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4851,8 +4858,8 @@
         <v>48.838660862711599</v>
       </c>
       <c r="F153" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B153,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B153,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G153" t="str">
         <f>IF(ISERROR(VLOOKUP(B153,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4873,8 +4880,8 @@
         <v>48.841024160045002</v>
       </c>
       <c r="F154" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B154,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B154,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G154" t="str">
         <f>IF(ISERROR(VLOOKUP(B154,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4895,8 +4902,8 @@
         <v>48.842684333848403</v>
       </c>
       <c r="F155" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B155,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B155,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G155" t="str">
         <f>IF(ISERROR(VLOOKUP(B155,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4917,8 +4924,8 @@
         <v>48.844611511420197</v>
       </c>
       <c r="F156" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B156,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B156,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G156" t="str">
         <f>IF(ISERROR(VLOOKUP(B156,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4939,8 +4946,8 @@
         <v>48.854919659638902</v>
       </c>
       <c r="F157" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B157,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B157,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G157" t="str">
         <f>IF(ISERROR(VLOOKUP(B157,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4961,8 +4968,8 @@
         <v>48.857727022586403</v>
       </c>
       <c r="F158" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B158,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B158,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G158" t="str">
         <f>IF(ISERROR(VLOOKUP(B158,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -4983,8 +4990,8 @@
         <v>48.861092010432998</v>
       </c>
       <c r="F159" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B159,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B159,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G159" t="str">
         <f>IF(ISERROR(VLOOKUP(B159,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5005,8 +5012,8 @@
         <v>48.870544675768201</v>
       </c>
       <c r="F160" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B160,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B160,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G160" t="str">
         <f>IF(ISERROR(VLOOKUP(B160,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5027,8 +5034,8 @@
         <v>48.872135869369899</v>
       </c>
       <c r="F161" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B161,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B161,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G161" t="str">
         <f>IF(ISERROR(VLOOKUP(B161,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5049,8 +5056,8 @@
         <v>48.871504768814702</v>
       </c>
       <c r="F162" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B162,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B162,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G162" t="str">
         <f>IF(ISERROR(VLOOKUP(B162,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5071,8 +5078,8 @@
         <v>48.8705712985549</v>
       </c>
       <c r="F163" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B163,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B163,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G163" t="str">
         <f>IF(ISERROR(VLOOKUP(B163,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5093,8 +5100,8 @@
         <v>48.8630698825026</v>
       </c>
       <c r="F164" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B164,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B164,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G164" t="str">
         <f>IF(ISERROR(VLOOKUP(B164,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5115,8 +5122,8 @@
         <v>48.860968144808197</v>
       </c>
       <c r="F165" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B165,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B165,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G165" t="str">
         <f>IF(ISERROR(VLOOKUP(B165,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5137,8 +5144,8 @@
         <v>48.857087366872101</v>
       </c>
       <c r="F166" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B166,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B166,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G166" t="str">
         <f>IF(ISERROR(VLOOKUP(B166,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5159,8 +5166,8 @@
         <v>48.851337765850197</v>
       </c>
       <c r="F167" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B167,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B167,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G167" t="str">
         <f>IF(ISERROR(VLOOKUP(B167,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5181,8 +5188,8 @@
         <v>48.850110543185501</v>
       </c>
       <c r="F168" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B168,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B168,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G168" t="str">
         <f>IF(ISERROR(VLOOKUP(B168,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5203,8 +5210,8 @@
         <v>48.844005074760702</v>
       </c>
       <c r="F169" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B169,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B169,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G169" t="str">
         <f>IF(ISERROR(VLOOKUP(B169,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5225,8 +5232,8 @@
         <v>48.837077430087497</v>
       </c>
       <c r="F170" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B170,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B170,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G170" t="str">
         <f>IF(ISERROR(VLOOKUP(B170,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5247,8 +5254,8 @@
         <v>48.835017373145597</v>
       </c>
       <c r="F171" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B171,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B171,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G171" t="str">
         <f>IF(ISERROR(VLOOKUP(B171,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5269,8 +5276,8 @@
         <v>48.833449221931097</v>
       </c>
       <c r="F172" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B172,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B172,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G172" t="str">
         <f>IF(ISERROR(VLOOKUP(B172,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5291,8 +5298,8 @@
         <v>48.837958404671198</v>
       </c>
       <c r="F173" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B173,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B173,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G173" t="str">
         <f>IF(ISERROR(VLOOKUP(B173,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5313,8 +5320,8 @@
         <v>48.842580275328302</v>
       </c>
       <c r="F174" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B174,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B174,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G174" t="str">
         <f>IF(ISERROR(VLOOKUP(B174,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5335,8 +5342,8 @@
         <v>48.844911226614997</v>
       </c>
       <c r="F175" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B175,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B175,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G175" t="str">
         <f>IF(ISERROR(VLOOKUP(B175,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5357,8 +5364,8 @@
         <v>48.847975353228101</v>
       </c>
       <c r="F176" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B176,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B176,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G176" t="str">
         <f>IF(ISERROR(VLOOKUP(B176,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5379,8 +5386,8 @@
         <v>48.852433417777398</v>
       </c>
       <c r="F177" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B177,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B177,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G177" t="str">
         <f>IF(ISERROR(VLOOKUP(B177,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5401,8 +5408,8 @@
         <v>48.855503557447499</v>
       </c>
       <c r="F178" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B178,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B178,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G178" t="str">
         <f>IF(ISERROR(VLOOKUP(B178,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5423,8 +5430,8 @@
         <v>48.8580919659505</v>
       </c>
       <c r="F179" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B179,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B179,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G179" t="str">
         <f>IF(ISERROR(VLOOKUP(B179,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5445,8 +5452,8 @@
         <v>48.863951707931797</v>
       </c>
       <c r="F180" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B180,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B180,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G180" t="str">
         <f>IF(ISERROR(VLOOKUP(B180,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5467,8 +5474,8 @@
         <v>48.864780021309301</v>
       </c>
       <c r="F181" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B181,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B181,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G181" t="str">
         <f>IF(ISERROR(VLOOKUP(B181,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5489,8 +5496,8 @@
         <v>48.864647146957701</v>
       </c>
       <c r="F182" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B182,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B182,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G182" t="str">
         <f>IF(ISERROR(VLOOKUP(B182,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5511,8 +5518,8 @@
         <v>48.8721551301294</v>
       </c>
       <c r="F183" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B183,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B183,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G183" t="str">
         <f>IF(ISERROR(VLOOKUP(B183,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5533,8 +5540,8 @@
         <v>48.873447914847198</v>
       </c>
       <c r="F184" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B184,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B184,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G184" t="str">
         <f>IF(ISERROR(VLOOKUP(B184,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5555,8 +5562,8 @@
         <v>48.874546611986801</v>
       </c>
       <c r="F185" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B185,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B185,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G185" t="str">
         <f>IF(ISERROR(VLOOKUP(B185,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5577,8 +5584,8 @@
         <v>48.861416656960998</v>
       </c>
       <c r="F186" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B186,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B186,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G186" t="str">
         <f>IF(ISERROR(VLOOKUP(B186,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5599,8 +5606,8 @@
         <v>48.857662433437902</v>
       </c>
       <c r="F187" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B187,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B187,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G187" t="str">
         <f>IF(ISERROR(VLOOKUP(B187,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5621,8 +5628,8 @@
         <v>48.854939442500303</v>
       </c>
       <c r="F188" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B188,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B188,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G188" t="str">
         <f>IF(ISERROR(VLOOKUP(B188,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5643,8 +5650,8 @@
         <v>48.852214072383703</v>
       </c>
       <c r="F189" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B189,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B189,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G189" t="str">
         <f>IF(ISERROR(VLOOKUP(B189,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5665,8 +5672,8 @@
         <v>48.851762438884101</v>
       </c>
       <c r="F190" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B190,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B190,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G190" t="str">
         <f>IF(ISERROR(VLOOKUP(B190,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5687,8 +5694,8 @@
         <v>48.852731019531802</v>
       </c>
       <c r="F191" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B191,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B191,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G191" t="str">
         <f>IF(ISERROR(VLOOKUP(B191,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5709,8 +5716,8 @@
         <v>48.853482630258299</v>
       </c>
       <c r="F192" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B192,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B192,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G192" t="str">
         <f>IF(ISERROR(VLOOKUP(B192,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5731,8 +5738,8 @@
         <v>48.8467000343149</v>
       </c>
       <c r="F193" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B193,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B193,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G193" t="str">
         <f>IF(ISERROR(VLOOKUP(B193,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5753,8 +5760,8 @@
         <v>48.850195465121303</v>
       </c>
       <c r="F194" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B194,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B194,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G194" t="str">
         <f>IF(ISERROR(VLOOKUP(B194,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5775,8 +5782,8 @@
         <v>48.851026875926301</v>
       </c>
       <c r="F195" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B195,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B195,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G195" t="str">
         <f>IF(ISERROR(VLOOKUP(B195,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5797,8 +5804,8 @@
         <v>48.8528437373513</v>
       </c>
       <c r="F196" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B196,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B196,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G196" t="str">
         <f>IF(ISERROR(VLOOKUP(B196,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5819,8 +5826,8 @@
         <v>48.851565305443202</v>
       </c>
       <c r="F197" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B197,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B197,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G197" t="str">
         <f>IF(ISERROR(VLOOKUP(B197,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5841,8 +5848,8 @@
         <v>48.848894569110698</v>
       </c>
       <c r="F198" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B198,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B198,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G198" t="str">
         <f>IF(ISERROR(VLOOKUP(B198,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5863,8 +5870,8 @@
         <v>48.847009892663699</v>
       </c>
       <c r="F199" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B199,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B199,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G199" t="str">
         <f>IF(ISERROR(VLOOKUP(B199,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5885,8 +5892,8 @@
         <v>48.8471672690468</v>
       </c>
       <c r="F200" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B200,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B200,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G200" t="str">
         <f>IF(ISERROR(VLOOKUP(B200,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5907,8 +5914,8 @@
         <v>48.847038012756897</v>
       </c>
       <c r="F201" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B201,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B201,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G201" t="str">
         <f>IF(ISERROR(VLOOKUP(B201,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5929,8 +5936,8 @@
         <v>48.846604531449202</v>
       </c>
       <c r="F202" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B202,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B202,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G202" t="str">
         <f>IF(ISERROR(VLOOKUP(B202,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5951,8 +5958,8 @@
         <v>48.846181105275001</v>
       </c>
       <c r="F203" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B203,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B203,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G203" t="str">
         <f>IF(ISERROR(VLOOKUP(B203,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5973,8 +5980,8 @@
         <v>48.847143360508902</v>
       </c>
       <c r="F204" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B204,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B204,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G204" t="str">
         <f>IF(ISERROR(VLOOKUP(B204,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -5995,8 +6002,8 @@
         <v>48.847904122681001</v>
       </c>
       <c r="F205" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B205,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B205,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G205" t="str">
         <f>IF(ISERROR(VLOOKUP(B205,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6017,8 +6024,8 @@
         <v>48.8450882982306</v>
       </c>
       <c r="F206" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B206,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B206,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G206" t="str">
         <f>IF(ISERROR(VLOOKUP(B206,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6039,8 +6046,8 @@
         <v>48.840684000000003</v>
       </c>
       <c r="F207" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B207,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B207,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G207" t="str">
         <f>IF(ISERROR(VLOOKUP(B207,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6061,8 +6068,8 @@
         <v>48.840684009999997</v>
       </c>
       <c r="F208" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B208,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B208,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G208" t="str">
         <f>IF(ISERROR(VLOOKUP(B208,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6083,8 +6090,8 @@
         <v>48.847077506397802</v>
       </c>
       <c r="F209" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B209,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B209,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G209" t="str">
         <f>IF(ISERROR(VLOOKUP(B209,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6105,8 +6112,8 @@
         <v>48.861190156002202</v>
       </c>
       <c r="F210" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B210,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B210,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G210" t="str">
         <f>IF(ISERROR(VLOOKUP(B210,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6127,8 +6134,8 @@
         <v>48.870007016890497</v>
       </c>
       <c r="F211" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B211,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B211,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G211" t="str">
         <f>IF(ISERROR(VLOOKUP(B211,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6149,8 +6156,8 @@
         <v>48.873818789232502</v>
       </c>
       <c r="F212" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B212,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B212,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G212" t="str">
         <f>IF(ISERROR(VLOOKUP(B212,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6171,8 +6178,8 @@
         <v>48.875247347693403</v>
       </c>
       <c r="F213" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B213,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B213,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G213" t="str">
         <f>IF(ISERROR(VLOOKUP(B213,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6184,17 +6191,17 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>150</v>
+        <v>213</v>
       </c>
       <c r="C214">
-        <v>2.3931393703605002</v>
+        <v>2.3986480899605902</v>
       </c>
       <c r="D214">
-        <v>48.876723661025203</v>
+        <v>48.875510383232701</v>
       </c>
       <c r="F214" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B214,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B214,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G214" t="str">
         <f>IF(ISERROR(VLOOKUP(B214,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6206,17 +6213,17 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C215">
-        <v>2.3986480899605902</v>
+        <v>2.3592485423103602</v>
       </c>
       <c r="D215">
-        <v>48.875510383232701</v>
+        <v>48.897402421722497</v>
       </c>
       <c r="F215" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B215,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B215,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G215" t="str">
         <f>IF(ISERROR(VLOOKUP(B215,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6228,17 +6235,17 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C216">
-        <v>2.3592485423103602</v>
+        <v>2.3598084780840201</v>
       </c>
       <c r="D216">
-        <v>48.897402421722497</v>
+        <v>48.890579577619299</v>
       </c>
       <c r="F216" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B216,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B216,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G216" t="str">
         <f>IF(ISERROR(VLOOKUP(B216,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6250,17 +6257,17 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C217">
-        <v>2.3598084780840201</v>
+        <v>2.34432002938048</v>
       </c>
       <c r="D217">
-        <v>48.890579577619299</v>
+        <v>48.892492267253999</v>
       </c>
       <c r="F217" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B217,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B217,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G217" t="str">
         <f>IF(ISERROR(VLOOKUP(B217,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6272,17 +6279,17 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C218">
-        <v>2.34432002938048</v>
+        <v>2.33858382438319</v>
       </c>
       <c r="D218">
-        <v>48.892492267253999</v>
+        <v>48.889681809018903</v>
       </c>
       <c r="F218" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B218,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B218,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G218" t="str">
         <f>IF(ISERROR(VLOOKUP(B218,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6294,17 +6301,17 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C219">
-        <v>2.33858382438319</v>
+        <v>2.3383946352209102</v>
       </c>
       <c r="D219">
-        <v>48.889681809018903</v>
+        <v>48.884392717043397</v>
       </c>
       <c r="F219" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B219,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B219,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G219" t="str">
         <f>IF(ISERROR(VLOOKUP(B219,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6316,17 +6323,17 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C220">
-        <v>2.3383946352209102</v>
+        <v>2.3375706403796701</v>
       </c>
       <c r="D220">
-        <v>48.884392717043397</v>
+        <v>48.878416593953702</v>
       </c>
       <c r="F220" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B220,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B220,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G220" t="str">
         <f>IF(ISERROR(VLOOKUP(B220,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6338,17 +6345,17 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C221">
-        <v>2.3375706403796701</v>
+        <v>2.3378736192226399</v>
       </c>
       <c r="D221">
-        <v>48.878416593953702</v>
+        <v>48.876035030332602</v>
       </c>
       <c r="F221" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B221,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B221,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G221" t="str">
         <f>IF(ISERROR(VLOOKUP(B221,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6360,17 +6367,17 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C222">
-        <v>2.3378736192226399</v>
+        <v>2.3330491724182401</v>
       </c>
       <c r="D222">
-        <v>48.876035030332602</v>
+        <v>48.876336506359301</v>
       </c>
       <c r="F222" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B222,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B222,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G222" t="str">
         <f>IF(ISERROR(VLOOKUP(B222,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6382,17 +6389,17 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C223">
-        <v>2.3330491724182401</v>
+        <v>2.3205758366475502</v>
       </c>
       <c r="D223">
-        <v>48.876336506359301</v>
+        <v>48.861071938577901</v>
       </c>
       <c r="F223" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B223,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B223,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G223" t="str">
         <f>IF(ISERROR(VLOOKUP(B223,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6404,17 +6411,17 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C224">
-        <v>2.3205758366475502</v>
+        <v>2.3230759642515402</v>
       </c>
       <c r="D224">
-        <v>48.861071938577901</v>
+        <v>48.858531948780403</v>
       </c>
       <c r="F224" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B224,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B224,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G224" t="str">
         <f>IF(ISERROR(VLOOKUP(B224,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6426,17 +6433,17 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C225">
-        <v>2.3230759642515402</v>
+        <v>2.32569989845241</v>
       </c>
       <c r="D225">
-        <v>48.858531948780403</v>
+        <v>48.855884677537297</v>
       </c>
       <c r="F225" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B225,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B225,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G225" t="str">
         <f>IF(ISERROR(VLOOKUP(B225,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6448,17 +6455,17 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C226">
-        <v>2.32569989845241</v>
+        <v>2.3277871847873901</v>
       </c>
       <c r="D226">
-        <v>48.855884677537297</v>
+        <v>48.848332828092403</v>
       </c>
       <c r="F226" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B226,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B226,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G226" t="str">
         <f>IF(ISERROR(VLOOKUP(B226,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6470,17 +6477,17 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C227">
-        <v>2.3277871847873901</v>
+        <v>2.3286958054987101</v>
       </c>
       <c r="D227">
-        <v>48.848332828092403</v>
+        <v>48.845077744689597</v>
       </c>
       <c r="F227" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B227,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B227,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G227" t="str">
         <f>IF(ISERROR(VLOOKUP(B227,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6492,17 +6499,17 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C228">
-        <v>2.3286958054987101</v>
+        <v>2.3175512356170298</v>
       </c>
       <c r="D228">
-        <v>48.845077744689597</v>
+        <v>48.844317682586102</v>
       </c>
       <c r="F228" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B228,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B228,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G228" t="str">
         <f>IF(ISERROR(VLOOKUP(B228,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6514,17 +6521,17 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C229">
-        <v>2.3175512356170298</v>
+        <v>2.3079833805768502</v>
       </c>
       <c r="D229">
-        <v>48.844317682586102</v>
+        <v>48.841411727466699</v>
       </c>
       <c r="F229" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B229,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B229,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G229" t="str">
         <f>IF(ISERROR(VLOOKUP(B229,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6536,17 +6543,17 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C230">
-        <v>2.3079833805768502</v>
+        <v>2.30107451565455</v>
       </c>
       <c r="D230">
-        <v>48.841411727466699</v>
+        <v>48.839437917128599</v>
       </c>
       <c r="F230" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B230,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B230,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G230" t="str">
         <f>IF(ISERROR(VLOOKUP(B230,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6558,17 +6565,17 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C231">
-        <v>2.30107451565455</v>
+        <v>2.29639138648092</v>
       </c>
       <c r="D231">
-        <v>48.839437917128599</v>
+        <v>48.837135052856702</v>
       </c>
       <c r="F231" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B231,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B231,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G231" t="str">
         <f>IF(ISERROR(VLOOKUP(B231,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6580,17 +6587,17 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C232">
-        <v>2.29639138648092</v>
+        <v>2.2877417091423302</v>
       </c>
       <c r="D232">
-        <v>48.837135052856702</v>
+        <v>48.832519531565197</v>
       </c>
       <c r="F232" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B232,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B232,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G232" t="str">
         <f>IF(ISERROR(VLOOKUP(B232,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6602,17 +6609,17 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C233">
-        <v>2.2877417091423302</v>
+        <v>2.30533238665747</v>
       </c>
       <c r="D233">
-        <v>48.832519531565197</v>
+        <v>48.827613463055897</v>
       </c>
       <c r="F233" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B233,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B233,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G233" t="str">
         <f>IF(ISERROR(VLOOKUP(B233,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6624,17 +6631,17 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C234">
-        <v>2.30533238665747</v>
+        <v>2.31386048934431</v>
       </c>
       <c r="D234">
-        <v>48.827613463055897</v>
+        <v>48.831750362119102</v>
       </c>
       <c r="F234" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B234,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B234,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G234" t="str">
         <f>IF(ISERROR(VLOOKUP(B234,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6646,17 +6653,17 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C235">
-        <v>2.31386048934431</v>
+        <v>2.3183937066147</v>
       </c>
       <c r="D235">
-        <v>48.831750362119102</v>
+        <v>48.8340786788266</v>
       </c>
       <c r="F235" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B235,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B235,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G235" t="str">
         <f>IF(ISERROR(VLOOKUP(B235,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6668,17 +6675,17 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C236">
-        <v>2.3183937066147</v>
+        <v>2.3223539967788098</v>
       </c>
       <c r="D236">
-        <v>48.8340786788266</v>
+        <v>48.838526084074203</v>
       </c>
       <c r="F236" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B236,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B236,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G236" t="str">
         <f>IF(ISERROR(VLOOKUP(B236,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6690,17 +6697,17 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C237">
-        <v>2.3223539967788098</v>
+        <v>2.31428594618056</v>
       </c>
       <c r="D237">
-        <v>48.838526084074203</v>
+        <v>48.8512915499903</v>
       </c>
       <c r="F237" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B237,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B237,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G237" t="str">
         <f>IF(ISERROR(VLOOKUP(B237,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6712,17 +6719,17 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C238">
-        <v>2.31428594618056</v>
+        <v>2.3151139305096602</v>
       </c>
       <c r="D238">
-        <v>48.8512915499903</v>
+        <v>48.856624981798397</v>
       </c>
       <c r="F238" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B238,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B238,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G238" t="str">
         <f>IF(ISERROR(VLOOKUP(B238,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6734,17 +6741,17 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C239">
-        <v>2.3151139305096602</v>
+        <v>2.3268526712397599</v>
       </c>
       <c r="D239">
-        <v>48.856624981798397</v>
+        <v>48.879534936427703</v>
       </c>
       <c r="F239" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B239,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B239,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G239" t="str">
         <f>IF(ISERROR(VLOOKUP(B239,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6756,17 +6763,17 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C240">
-        <v>2.3268526712397599</v>
+        <v>2.3257141171661302</v>
       </c>
       <c r="D240">
-        <v>48.879534936427703</v>
+        <v>48.887433655789003</v>
       </c>
       <c r="F240" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B240,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B240,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G240" t="str">
         <f>IF(ISERROR(VLOOKUP(B240,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6778,17 +6785,17 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C241">
-        <v>2.3257141171661302</v>
+        <v>2.32748325862612</v>
       </c>
       <c r="D241">
-        <v>48.887433655789003</v>
+        <v>48.893001441013702</v>
       </c>
       <c r="F241" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B241,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B241,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G241" t="str">
         <f>IF(ISERROR(VLOOKUP(B241,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6800,17 +6807,17 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C242">
-        <v>2.32748325862612</v>
+        <v>2.3290483407446501</v>
       </c>
       <c r="D242">
-        <v>48.893001441013702</v>
+        <v>48.8974978363796</v>
       </c>
       <c r="F242" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B242,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B242,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G242" t="str">
         <f>IF(ISERROR(VLOOKUP(B242,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6822,17 +6829,17 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C243">
-        <v>2.3290483407446501</v>
+        <v>2.3199048172093599</v>
       </c>
       <c r="D243">
-        <v>48.8974978363796</v>
+        <v>48.890651870242102</v>
       </c>
       <c r="F243" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B243,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B243,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G243" t="str">
         <f>IF(ISERROR(VLOOKUP(B243,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6844,17 +6851,17 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C244">
-        <v>2.3199048172093599</v>
+        <v>2.3132083507588099</v>
       </c>
       <c r="D244">
-        <v>48.890651870242102</v>
+        <v>48.894431287069501</v>
       </c>
       <c r="F244" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B244,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B244,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G244" t="str">
         <f>IF(ISERROR(VLOOKUP(B244,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6866,17 +6873,17 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C245">
-        <v>2.3132083507588099</v>
+        <v>2.3153681405051501</v>
       </c>
       <c r="D245">
-        <v>48.894431287069501</v>
+        <v>48.888103402695002</v>
       </c>
       <c r="F245" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B245,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B245,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G245" t="str">
         <f>IF(ISERROR(VLOOKUP(B245,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6888,17 +6895,17 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C246">
-        <v>2.3153681405051501</v>
+        <v>2.3866178502140598</v>
       </c>
       <c r="D246">
-        <v>48.888103402695002</v>
+        <v>48.833319302895099</v>
       </c>
       <c r="F246" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B246,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B246,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G246" t="str">
         <f>IF(ISERROR(VLOOKUP(B246,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6910,17 +6917,17 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C247">
-        <v>2.3866178502140598</v>
+        <v>2.3764873711683001</v>
       </c>
       <c r="D247">
-        <v>48.833319302895099</v>
+        <v>48.829925764980601</v>
       </c>
       <c r="F247" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B247,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B247,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G247" t="str">
         <f>IF(ISERROR(VLOOKUP(B247,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
@@ -6932,42 +6939,20 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C248">
-        <v>2.3764873711683001</v>
+        <v>2.3669231215308102</v>
       </c>
       <c r="D248">
-        <v>48.829925764980601</v>
+        <v>48.827123440481003</v>
       </c>
       <c r="F248" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B248,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
+        <f>IF(ISNUMBER(MATCH(Sheet1!B248,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
       </c>
       <c r="G248" t="str">
         <f>IF(ISERROR(VLOOKUP(B248,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A249">
-        <v>248</v>
-      </c>
-      <c r="B249" t="s">
-        <v>247</v>
-      </c>
-      <c r="C249">
-        <v>2.3669231215308102</v>
-      </c>
-      <c r="D249">
-        <v>48.827123440481003</v>
-      </c>
-      <c r="F249" t="str">
-        <f>IF(ISNUMBER(MATCH(Sheet1!B249,Sheet2!B:B,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="G249" t="str">
-        <f>IF(ISERROR(VLOOKUP(B249,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
         <v>C</v>
       </c>
     </row>
@@ -6981,8 +6966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7446,6 +7431,12 @@
       </c>
       <c r="B21" t="s">
         <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D21" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">

--- a/Metro_Arcs_Par_Station_IDs.xlsx
+++ b/Metro_Arcs_Par_Station_IDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aurel\Documents\GitHub\ProbSciANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F9D41B-AEF1-46EB-9557-34555AFACD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36123B24-41A0-439F-B1C6-7A79B4584091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="340">
   <si>
     <t>ID STATION</t>
   </si>
@@ -1053,6 +1053,15 @@
   </si>
   <si>
     <t>(obligatoire pour que Château de Vincennes soit comptabilisée) Arête non créer car protégé par la Fonction LectureFichier</t>
+  </si>
+  <si>
+    <t>Pont de Neuilly</t>
+  </si>
+  <si>
+    <t>Esplanade de la Défense</t>
+  </si>
+  <si>
+    <t>La Défense</t>
   </si>
 </sst>
 </file>
@@ -1463,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G248"/>
+  <dimension ref="A1:G252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="B250" sqref="B250"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1478,7 +1487,7 @@
     <col min="9" max="9" width="28.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1499,17 +1508,14 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>2.2825838473615501</v>
-      </c>
-      <c r="D2">
-        <v>48.878162652696503</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="B2" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2.2385389999999998</v>
+      </c>
+      <c r="D2" s="5">
+        <v>48.891852</v>
       </c>
       <c r="F2" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B2,Sheet2!B:B,0)),"C","Différent")</f>
@@ -1517,24 +1523,21 @@
       </c>
       <c r="G2" t="str">
         <f>IF(ISERROR(VLOOKUP(B2,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
-        <v>C</v>
+        <v>Différent</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>2.2894354185422099</v>
-      </c>
-      <c r="D3">
-        <v>48.875667375651702</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
+      <c r="B3" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="D3" s="5">
+        <v>48.888330000000003</v>
       </c>
       <c r="F3" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B3,Sheet2!B:B,0)),"C","Différent")</f>
@@ -1549,17 +1552,14 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>2.2958117752357601</v>
-      </c>
-      <c r="D4">
-        <v>48.874994575222999</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
+      <c r="B4" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.257692</v>
+      </c>
+      <c r="D4" s="5">
+        <v>48.885660999999999</v>
       </c>
       <c r="F4" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B4,Sheet2!B:B,0)),"C","Différent")</f>
@@ -1574,17 +1574,14 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>2.3007597849789199</v>
-      </c>
-      <c r="D5">
-        <v>48.872037763641003</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="B5" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.27223</v>
+      </c>
+      <c r="D5" s="5">
+        <v>48.880940000000002</v>
       </c>
       <c r="F5" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B5,Sheet2!B:B,0)),"C","Différent")</f>
@@ -1600,13 +1597,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>2.3094881923371098</v>
+        <v>2.2825838473615501</v>
       </c>
       <c r="D6">
-        <v>48.868724887050497</v>
+        <v>48.878162652696503</v>
       </c>
       <c r="F6" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B6,Sheet2!B:B,0)),"C","Différent")</f>
@@ -1622,16 +1619,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>2.3144645013227798</v>
+        <v>2.2894354185422099</v>
       </c>
       <c r="D7">
-        <v>48.867656291245702</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
+        <v>48.875667375651702</v>
       </c>
       <c r="F7" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B7,Sheet2!B:B,0)),"C","Différent")</f>
@@ -1647,13 +1641,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>2.3229614457982599</v>
+        <v>2.2958117752357601</v>
       </c>
       <c r="D8">
-        <v>48.866557992001603</v>
+        <v>48.874994575222999</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
       </c>
       <c r="F8" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B8,Sheet2!B:B,0)),"C","Différent")</f>
@@ -1669,16 +1666,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>2.3296780947116398</v>
+        <v>2.3007597849789199</v>
       </c>
       <c r="D9">
-        <v>48.864477838366497</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
+        <v>48.872037763641003</v>
       </c>
       <c r="F9" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B9,Sheet2!B:B,0)),"C","Différent")</f>
@@ -1694,16 +1688,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>2.33645436775425</v>
+        <v>2.3094881923371098</v>
       </c>
       <c r="D10">
-        <v>48.862222264625998</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
+        <v>48.868724887050497</v>
       </c>
       <c r="F10" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B10,Sheet2!B:B,0)),"C","Différent")</f>
@@ -1719,16 +1710,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>2.3409696232852699</v>
+        <v>2.3144645013227798</v>
       </c>
       <c r="D11">
-        <v>48.860871211759502</v>
+        <v>48.867656291245702</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B11,Sheet2!B:B,0)),"C","Différent")</f>
@@ -1744,16 +1735,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>2.3481609912345802</v>
+        <v>2.3229614457982599</v>
       </c>
       <c r="D12">
-        <v>48.8569534598372</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
+        <v>48.866557992001603</v>
       </c>
       <c r="F12" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B12,Sheet2!B:B,0)),"C","Différent")</f>
@@ -1769,13 +1757,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>2.3520676701391001</v>
+        <v>2.3296780947116398</v>
       </c>
       <c r="D13">
-        <v>48.857352404237702</v>
+        <v>48.864477838366497</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
       </c>
       <c r="F13" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B13,Sheet2!B:B,0)),"C","Différent")</f>
@@ -1791,13 +1782,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>2.3608852562751901</v>
+        <v>2.33645436775425</v>
       </c>
       <c r="D14">
-        <v>48.8551874206563</v>
+        <v>48.862222264625998</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
       </c>
       <c r="F14" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B14,Sheet2!B:B,0)),"C","Différent")</f>
@@ -1813,13 +1807,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>2.36871896103409</v>
+        <v>2.3409696232852699</v>
       </c>
       <c r="D15">
-        <v>48.852054292549496</v>
+        <v>48.860871211759502</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
       </c>
       <c r="F15" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B15,Sheet2!B:B,0)),"C","Différent")</f>
@@ -1835,13 +1832,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>2.3731565937891999</v>
+        <v>2.3481609912345802</v>
       </c>
       <c r="D16">
-        <v>48.845683205787601</v>
+        <v>48.8569534598372</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
       </c>
       <c r="F16" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B16,Sheet2!B:B,0)),"C","Différent")</f>
@@ -1857,13 +1857,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>2.38720107040939</v>
+        <v>2.3520676701391001</v>
       </c>
       <c r="D17">
-        <v>48.847212925749702</v>
+        <v>48.857352404237702</v>
       </c>
       <c r="F17" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B17,Sheet2!B:B,0)),"C","Différent")</f>
@@ -1879,13 +1879,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>2.3958439887237399</v>
+        <v>2.3608852562751901</v>
       </c>
       <c r="D18">
-        <v>48.848084289025799</v>
+        <v>48.8551874206563</v>
       </c>
       <c r="F18" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B18,Sheet2!B:B,0)),"C","Différent")</f>
@@ -1901,13 +1901,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>2.4108049967015002</v>
+        <v>2.36871896103409</v>
       </c>
       <c r="D19">
-        <v>48.847007730140398</v>
+        <v>48.852054292549496</v>
       </c>
       <c r="F19" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B19,Sheet2!B:B,0)),"C","Différent")</f>
@@ -1923,13 +1923,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>2.4405400954061101</v>
+        <v>2.3731565937891999</v>
       </c>
       <c r="D20">
-        <v>48.844317513365297</v>
+        <v>48.845683205787601</v>
       </c>
       <c r="F20" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B20,Sheet2!B:B,0)),"C","Différent")</f>
@@ -1945,13 +1945,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C21">
-        <v>2.27763271754527</v>
+        <v>2.38720107040939</v>
       </c>
       <c r="D21">
-        <v>48.871396794300303</v>
+        <v>48.847212925749702</v>
       </c>
       <c r="F21" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B21,Sheet2!B:B,0)),"C","Différent")</f>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="G21" t="str">
         <f>IF(ISERROR(VLOOKUP(B21,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
-        <v>Différent</v>
+        <v>C</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1967,13 +1967,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>2.2858287659129801</v>
+        <v>2.3958439887237399</v>
       </c>
       <c r="D22">
-        <v>48.869926081462602</v>
+        <v>48.848084289025799</v>
       </c>
       <c r="F22" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B22,Sheet2!B:B,0)),"C","Différent")</f>
@@ -1989,13 +1989,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C23">
-        <v>2.2981132886172402</v>
+        <v>2.4108049967015002</v>
       </c>
       <c r="D23">
-        <v>48.8782277299144</v>
+        <v>48.847007730140398</v>
       </c>
       <c r="F23" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B23,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2011,13 +2011,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C24">
-        <v>2.30329436242521</v>
+        <v>2.4405400954061101</v>
       </c>
       <c r="D24">
-        <v>48.879265253165102</v>
+        <v>48.844317513365297</v>
       </c>
       <c r="F24" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B24,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2033,13 +2033,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C25">
-        <v>2.3094129673746999</v>
+        <v>2.27763271754527</v>
       </c>
       <c r="D25">
-        <v>48.880568769178801</v>
+        <v>48.871396794300303</v>
       </c>
       <c r="F25" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B25,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="G25" t="str">
         <f>IF(ISERROR(VLOOKUP(B25,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
-        <v>C</v>
+        <v>Différent</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -2055,13 +2055,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C26">
-        <v>2.3158150926463801</v>
+        <v>2.2858287659129801</v>
       </c>
       <c r="D26">
-        <v>48.881073182127601</v>
+        <v>48.869926081462602</v>
       </c>
       <c r="F26" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B26,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2077,13 +2077,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C27">
-        <v>2.32135917382297</v>
+        <v>2.2981132886172402</v>
       </c>
       <c r="D27">
-        <v>48.882345817848098</v>
+        <v>48.8782277299144</v>
       </c>
       <c r="F27" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B27,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2099,13 +2099,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C28">
-        <v>2.3279583280102201</v>
+        <v>2.30329436242521</v>
       </c>
       <c r="D28">
-        <v>48.883669087324698</v>
+        <v>48.879265253165102</v>
       </c>
       <c r="F28" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B28,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2121,13 +2121,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C29">
-        <v>2.33248437543436</v>
+        <v>2.3094129673746999</v>
       </c>
       <c r="D29">
-        <v>48.883766353529197</v>
+        <v>48.880568769178801</v>
       </c>
       <c r="F29" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B29,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2143,13 +2143,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C30">
-        <v>2.33721116470113</v>
+        <v>2.3158150926463801</v>
       </c>
       <c r="D30">
-        <v>48.8820209311193</v>
+        <v>48.881073182127601</v>
       </c>
       <c r="F30" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B30,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2165,13 +2165,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C31">
-        <v>2.3441548403302899</v>
+        <v>2.32135917382297</v>
       </c>
       <c r="D31">
-        <v>48.882868567895898</v>
+        <v>48.882345817848098</v>
       </c>
       <c r="F31" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B31,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2187,13 +2187,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C32">
-        <v>2.3506070793550999</v>
+        <v>2.3279583280102201</v>
       </c>
       <c r="D32">
-        <v>48.883776088608897</v>
+        <v>48.883669087324698</v>
       </c>
       <c r="F32" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B32,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2209,13 +2209,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C33">
-        <v>2.3604041692741</v>
+        <v>2.33248437543436</v>
       </c>
       <c r="D33">
-        <v>48.884386409904799</v>
+        <v>48.883766353529197</v>
       </c>
       <c r="F33" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B33,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2231,13 +2231,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C34">
-        <v>2.36577437055817</v>
+        <v>2.33721116470113</v>
       </c>
       <c r="D34">
-        <v>48.884320547921902</v>
+        <v>48.8820209311193</v>
       </c>
       <c r="F34" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B34,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2253,13 +2253,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C35">
-        <v>2.3714389599856101</v>
+        <v>2.3441548403302899</v>
       </c>
       <c r="D35">
-        <v>48.883023912481399</v>
+        <v>48.882868567895898</v>
       </c>
       <c r="F35" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B35,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2275,13 +2275,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C36">
-        <v>2.3704675747938602</v>
+        <v>2.3506070793550999</v>
       </c>
       <c r="D36">
-        <v>48.877649807573398</v>
+        <v>48.883776088608897</v>
       </c>
       <c r="F36" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B36,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2297,13 +2297,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C37">
-        <v>2.3767355865572899</v>
+        <v>2.3604041692741</v>
       </c>
       <c r="D37">
-        <v>48.872286601164802</v>
+        <v>48.884386409904799</v>
       </c>
       <c r="F37" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B37,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2319,13 +2319,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C38">
-        <v>2.38028898292719</v>
+        <v>2.36577437055817</v>
       </c>
       <c r="D38">
-        <v>48.869193344184303</v>
+        <v>48.884320547921902</v>
       </c>
       <c r="F38" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B38,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2341,13 +2341,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C39">
-        <v>2.3834303882303001</v>
+        <v>2.3714389599856101</v>
       </c>
       <c r="D39">
-        <v>48.8663901391973</v>
+        <v>48.883023912481399</v>
       </c>
       <c r="F39" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B39,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2363,13 +2363,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C40">
-        <v>2.3875798912544499</v>
+        <v>2.3704675747938602</v>
       </c>
       <c r="D40">
-        <v>48.862449843989303</v>
+        <v>48.877649807573398</v>
       </c>
       <c r="F40" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B40,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2385,13 +2385,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C41">
-        <v>2.3904975967452899</v>
+        <v>2.3767355865572899</v>
       </c>
       <c r="D41">
-        <v>48.858089427187601</v>
+        <v>48.872286601164802</v>
       </c>
       <c r="F41" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B41,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2407,13 +2407,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C42">
-        <v>2.3947127337554801</v>
+        <v>2.38028898292719</v>
       </c>
       <c r="D42">
-        <v>48.856244677489201</v>
+        <v>48.869193344184303</v>
       </c>
       <c r="F42" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B42,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2429,13 +2429,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C43">
-        <v>2.3981875566594</v>
+        <v>2.3834303882303001</v>
       </c>
       <c r="D43">
-        <v>48.851648542649002</v>
+        <v>48.8663901391973</v>
       </c>
       <c r="F43" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B43,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2451,13 +2451,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C44">
-        <v>2.2921124821588399</v>
+        <v>2.3875798912544499</v>
       </c>
       <c r="D44">
-        <v>48.885652392185897</v>
+        <v>48.862449843989303</v>
       </c>
       <c r="F44" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B44,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2473,13 +2473,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C45">
-        <v>2.2976831860125801</v>
+        <v>2.3904975967452899</v>
       </c>
       <c r="D45">
-        <v>48.884844321791903</v>
+        <v>48.858089427187601</v>
       </c>
       <c r="F45" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B45,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2495,13 +2495,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C46">
-        <v>2.3046730875844301</v>
+        <v>2.3947127337554801</v>
       </c>
       <c r="D46">
-        <v>48.883846389779201</v>
+        <v>48.856244677489201</v>
       </c>
       <c r="F46" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B46,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2517,13 +2517,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C47">
-        <v>2.30948784696001</v>
+        <v>2.3981875566594</v>
       </c>
       <c r="D47">
-        <v>48.882840021629796</v>
+        <v>48.851648542649002</v>
       </c>
       <c r="F47" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B47,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2539,13 +2539,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C48">
-        <v>2.3221859195205101</v>
+        <v>2.2921124821588399</v>
       </c>
       <c r="D48">
-        <v>48.878753163096697</v>
+        <v>48.885652392185897</v>
       </c>
       <c r="F48" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B48,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2561,13 +2561,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C49">
-        <v>2.3254883906726098</v>
+        <v>2.2976831860125801</v>
       </c>
       <c r="D49">
-        <v>48.875381315059897</v>
+        <v>48.884844321791903</v>
       </c>
       <c r="F49" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B49,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2583,13 +2583,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C50">
-        <v>2.3276511034187801</v>
+        <v>2.3046730875844301</v>
       </c>
       <c r="D50">
-        <v>48.873666750997103</v>
+        <v>48.883846389779201</v>
       </c>
       <c r="F50" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B50,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2605,13 +2605,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C51">
-        <v>2.33104728671124</v>
+        <v>2.30948784696001</v>
       </c>
       <c r="D51">
-        <v>48.871437428049198</v>
+        <v>48.882840021629796</v>
       </c>
       <c r="F51" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B51,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2627,13 +2627,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C52">
-        <v>2.3363187355954902</v>
+        <v>2.3221859195205101</v>
       </c>
       <c r="D52">
-        <v>48.869659096436202</v>
+        <v>48.878753163096697</v>
       </c>
       <c r="F52" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B52,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2649,13 +2649,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C53">
-        <v>2.3406653707110401</v>
+        <v>2.3254883906726098</v>
       </c>
       <c r="D53">
-        <v>48.868756796707601</v>
+        <v>48.875381315059897</v>
       </c>
       <c r="F53" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B53,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2671,13 +2671,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C54">
-        <v>2.3475538159377898</v>
+        <v>2.3276511034187801</v>
       </c>
       <c r="D54">
-        <v>48.867346603345702</v>
+        <v>48.873666750997103</v>
       </c>
       <c r="F54" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B54,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2693,13 +2693,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C55">
-        <v>2.35205078710284</v>
+        <v>2.33104728671124</v>
       </c>
       <c r="D55">
-        <v>48.866381755803502</v>
+        <v>48.871437428049198</v>
       </c>
       <c r="F55" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B55,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2715,13 +2715,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C56">
-        <v>2.35650814364354</v>
+        <v>2.3363187355954902</v>
       </c>
       <c r="D56">
-        <v>48.865299611696798</v>
+        <v>48.869659096436202</v>
       </c>
       <c r="F56" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B56,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2737,13 +2737,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C57">
-        <v>2.3615612345263601</v>
+        <v>2.3406653707110401</v>
       </c>
       <c r="D57">
-        <v>48.8667566284863</v>
+        <v>48.868756796707601</v>
       </c>
       <c r="F57" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B57,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2759,13 +2759,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C58">
-        <v>2.3633023407804501</v>
+        <v>2.3475538159377898</v>
       </c>
       <c r="D58">
-        <v>48.867512356863102</v>
+        <v>48.867346603345702</v>
       </c>
       <c r="F58" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B58,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2781,13 +2781,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C59">
-        <v>2.3747477503599002</v>
+        <v>2.35205078710284</v>
       </c>
       <c r="D59">
-        <v>48.865252394862502</v>
+        <v>48.866381755803502</v>
       </c>
       <c r="F59" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B59,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2803,13 +2803,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C60">
-        <v>2.3805077560898602</v>
+        <v>2.35650814364354</v>
       </c>
       <c r="D60">
-        <v>48.864117700014603</v>
+        <v>48.865299611696798</v>
       </c>
       <c r="F60" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B60,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2825,13 +2825,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C61">
-        <v>2.3985373057045698</v>
+        <v>2.3615612345263601</v>
       </c>
       <c r="D61">
-        <v>48.865032563515904</v>
+        <v>48.8667566284863</v>
       </c>
       <c r="F61" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B61,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2847,13 +2847,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C62">
-        <v>2.4087542211895401</v>
+        <v>2.3633023407804501</v>
       </c>
       <c r="D62">
-        <v>48.864539371986403</v>
+        <v>48.867512356863102</v>
       </c>
       <c r="F62" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B62,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2869,13 +2869,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C63">
-        <v>2.4070619733808001</v>
+        <v>2.3747477503599002</v>
       </c>
       <c r="D63">
-        <v>48.876568598079999</v>
+        <v>48.865252394862502</v>
       </c>
       <c r="F63" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B63,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2891,13 +2891,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C64">
-        <v>2.4044981831688701</v>
+        <v>2.3805077560898602</v>
       </c>
       <c r="D64">
-        <v>48.871843371274899</v>
+        <v>48.864117700014603</v>
       </c>
       <c r="F64" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B64,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2913,13 +2913,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C65">
-        <v>2.40149679228792</v>
+        <v>2.3985373057045698</v>
       </c>
       <c r="D65">
-        <v>48.868464886066697</v>
+        <v>48.865032563515904</v>
       </c>
       <c r="F65" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B65,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2935,13 +2935,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C66">
-        <v>2.34462409910279</v>
+        <v>2.4087542211895401</v>
       </c>
       <c r="D66">
-        <v>48.897525630330101</v>
+        <v>48.864539371986403</v>
       </c>
       <c r="F66" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B66,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="G66" t="str">
         <f>IF(ISERROR(VLOOKUP(B66,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
-        <v>Différent</v>
+        <v>C</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -2957,13 +2957,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C67">
-        <v>2.34759605535164</v>
+        <v>2.4070619733808001</v>
       </c>
       <c r="D67">
-        <v>48.894124442685502</v>
+        <v>48.876568598079999</v>
       </c>
       <c r="F67" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B67,Sheet2!B:B,0)),"C","Différent")</f>
@@ -2979,13 +2979,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C68">
-        <v>2.3496815417224801</v>
+        <v>2.4044981831688701</v>
       </c>
       <c r="D68">
-        <v>48.891280438896601</v>
+        <v>48.871843371274899</v>
       </c>
       <c r="F68" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B68,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3001,13 +3001,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C69">
-        <v>2.3493658080048401</v>
+        <v>2.40149679228792</v>
       </c>
       <c r="D69">
-        <v>48.887078876519602</v>
+        <v>48.868464886066697</v>
       </c>
       <c r="F69" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B69,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3023,13 +3023,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C70">
-        <v>2.3568087882054098</v>
+        <v>2.34462409910279</v>
       </c>
       <c r="D70">
-        <v>48.879591706462101</v>
+        <v>48.897525630330101</v>
       </c>
       <c r="F70" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B70,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="G70" t="str">
         <f>IF(ISERROR(VLOOKUP(B70,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
-        <v>C</v>
+        <v>Différent</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -3045,13 +3045,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C71">
-        <v>2.35806459441865</v>
+        <v>2.34759605535164</v>
       </c>
       <c r="D71">
-        <v>48.876162993518399</v>
+        <v>48.894124442685502</v>
       </c>
       <c r="F71" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B71,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3067,13 +3067,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C72">
-        <v>2.35605174140158</v>
+        <v>2.3496815417224801</v>
       </c>
       <c r="D72">
-        <v>48.872446916647398</v>
+        <v>48.891280438896601</v>
       </c>
       <c r="F72" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B72,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3089,13 +3089,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C73">
-        <v>2.3544916165638301</v>
+        <v>2.3493658080048401</v>
       </c>
       <c r="D73">
-        <v>48.869623581689503</v>
+        <v>48.887078876519602</v>
       </c>
       <c r="F73" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B73,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3111,13 +3111,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C74">
-        <v>2.3489761968791099</v>
+        <v>2.3568087882054098</v>
       </c>
       <c r="D74">
-        <v>48.863703011076197</v>
+        <v>48.879591706462101</v>
       </c>
       <c r="F74" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B74,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3133,13 +3133,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C75">
-        <v>2.3461273251736801</v>
+        <v>2.35806459441865</v>
       </c>
       <c r="D75">
-        <v>48.862504839391299</v>
+        <v>48.876162993518399</v>
       </c>
       <c r="F75" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B75,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3155,13 +3155,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C76">
-        <v>2.3472322349319099</v>
+        <v>2.35605174140158</v>
       </c>
       <c r="D76">
-        <v>48.854933848158502</v>
+        <v>48.872446916647398</v>
       </c>
       <c r="F76" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B76,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3177,13 +3177,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C77">
-        <v>2.3439917990332901</v>
+        <v>2.3544916165638301</v>
       </c>
       <c r="D77">
-        <v>48.853594076619899</v>
+        <v>48.869623581689503</v>
       </c>
       <c r="F77" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B77,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3199,13 +3199,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C78">
-        <v>2.34069229106652</v>
+        <v>2.3489761968791099</v>
       </c>
       <c r="D78">
-        <v>48.8520245535667</v>
+        <v>48.863703011076197</v>
       </c>
       <c r="F78" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B78,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3221,13 +3221,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C79">
-        <v>2.3339478107981901</v>
+        <v>2.3461273251736801</v>
       </c>
       <c r="D79">
-        <v>48.853574562874201</v>
+        <v>48.862504839391299</v>
       </c>
       <c r="F79" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B79,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3243,13 +3243,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C80">
-        <v>2.3306119530815401</v>
+        <v>2.3472322349319099</v>
       </c>
       <c r="D80">
-        <v>48.851208626618501</v>
+        <v>48.854933848158502</v>
       </c>
       <c r="F80" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B80,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3265,13 +3265,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C81">
-        <v>2.32705481506631</v>
+        <v>2.3439917990332901</v>
       </c>
       <c r="D81">
-        <v>48.847006650641099</v>
+        <v>48.853594076619899</v>
       </c>
       <c r="F81" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B81,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3287,13 +3287,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C82">
-        <v>2.3239891852049999</v>
+        <v>2.34069229106652</v>
       </c>
       <c r="D82">
-        <v>48.843823610306202</v>
+        <v>48.8520245535667</v>
       </c>
       <c r="F82" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B82,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3309,13 +3309,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C83">
-        <v>2.3288628540690999</v>
+        <v>2.3339478107981901</v>
       </c>
       <c r="D83">
-        <v>48.842052322344102</v>
+        <v>48.853574562874201</v>
       </c>
       <c r="F83" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B83,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3331,13 +3331,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C84">
-        <v>2.3304669937198699</v>
+        <v>2.3306119530815401</v>
       </c>
       <c r="D84">
-        <v>48.839156358577299</v>
+        <v>48.851208626618501</v>
       </c>
       <c r="F84" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B84,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3353,13 +3353,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C85">
-        <v>2.33201883521639</v>
+        <v>2.32705481506631</v>
       </c>
       <c r="D85">
-        <v>48.833948692744002</v>
+        <v>48.847006650641099</v>
       </c>
       <c r="F85" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B85,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3375,13 +3375,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C86">
-        <v>2.3298876404084199</v>
+        <v>2.3239891852049999</v>
       </c>
       <c r="D86">
-        <v>48.831337584623199</v>
+        <v>48.843823610306202</v>
       </c>
       <c r="F86" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B86,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3397,13 +3397,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C87">
-        <v>2.3270932349484501</v>
+        <v>2.3288628540690999</v>
       </c>
       <c r="D87">
-        <v>48.828201063270903</v>
+        <v>48.842052322344102</v>
       </c>
       <c r="F87" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B87,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3419,13 +3419,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C88">
-        <v>2.3254932653821001</v>
+        <v>2.3304669937198699</v>
       </c>
       <c r="D88">
-        <v>48.823416350191799</v>
+        <v>48.839156358577299</v>
       </c>
       <c r="F88" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B88,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3441,13 +3441,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C89">
-        <v>2.3921229723281501</v>
+        <v>2.33201883521639</v>
       </c>
       <c r="D89">
-        <v>48.888459210398899</v>
+        <v>48.833948692744002</v>
       </c>
       <c r="F89" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B89,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3463,13 +3463,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C90">
-        <v>2.3866520167598799</v>
+        <v>2.3298876404084199</v>
       </c>
       <c r="D90">
-        <v>48.886915952247001</v>
+        <v>48.831337584623199</v>
       </c>
       <c r="F90" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B90,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3485,13 +3485,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C91">
-        <v>2.3793909893523901</v>
+        <v>2.3270932349484501</v>
       </c>
       <c r="D91">
-        <v>48.885133847137801</v>
+        <v>48.828201063270903</v>
       </c>
       <c r="F91" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B91,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3507,13 +3507,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C92">
-        <v>2.3610239020489199</v>
+        <v>2.3254932653821001</v>
       </c>
       <c r="D92">
-        <v>48.870620925317198</v>
+        <v>48.823416350191799</v>
       </c>
       <c r="F92" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B92,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3529,13 +3529,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C93">
-        <v>2.3681558453945502</v>
+        <v>2.3921229723281501</v>
       </c>
       <c r="D93">
-        <v>48.864777097573203</v>
+        <v>48.888459210398899</v>
       </c>
       <c r="F93" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B93,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3551,13 +3551,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C94">
-        <v>2.3718136304769502</v>
+        <v>2.3866520167598799</v>
       </c>
       <c r="D94">
-        <v>48.8598769369206</v>
+        <v>48.886915952247001</v>
       </c>
       <c r="F94" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B94,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3573,13 +3573,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C95">
-        <v>2.3701946685897499</v>
+        <v>2.3793909893523901</v>
       </c>
       <c r="D95">
-        <v>48.856244053738202</v>
+        <v>48.885133847137801</v>
       </c>
       <c r="F95" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B95,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3595,13 +3595,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C96">
-        <v>2.3658846507504001</v>
+        <v>2.3610239020489199</v>
       </c>
       <c r="D96">
-        <v>48.846427324531497</v>
+        <v>48.870620925317198</v>
       </c>
       <c r="F96" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B96,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3617,13 +3617,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C97">
-        <v>2.3641773106918298</v>
+        <v>2.3681558453945502</v>
       </c>
       <c r="D97">
-        <v>48.843405408577198</v>
+        <v>48.864777097573203</v>
       </c>
       <c r="F97" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B97,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3639,13 +3639,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C98">
-        <v>2.36072185971764</v>
+        <v>2.3718136304769502</v>
       </c>
       <c r="D98">
-        <v>48.838512445735603</v>
+        <v>48.8598769369206</v>
       </c>
       <c r="F98" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B98,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3661,13 +3661,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C99">
-        <v>2.3587419566993399</v>
+        <v>2.3701946685897499</v>
       </c>
       <c r="D99">
-        <v>48.835542932800998</v>
+        <v>48.856244053738202</v>
       </c>
       <c r="F99" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B99,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3683,13 +3683,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C100">
-        <v>2.3555015914814801</v>
+        <v>2.3658846507504001</v>
       </c>
       <c r="D100">
-        <v>48.830965712344302</v>
+        <v>48.846427324531497</v>
       </c>
       <c r="F100" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B100,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3705,13 +3705,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C101">
-        <v>2.2931461372486299</v>
+        <v>2.3641773106918298</v>
       </c>
       <c r="D101">
-        <v>48.871489411987</v>
+        <v>48.843405408577198</v>
       </c>
       <c r="F101" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B101,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3727,13 +3727,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C102">
-        <v>2.2900328376074399</v>
+        <v>2.36072185971764</v>
       </c>
       <c r="D102">
-        <v>48.866848342469197</v>
+        <v>48.838512445735603</v>
       </c>
       <c r="F102" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B102,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3749,13 +3749,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C103">
-        <v>2.2874927969664398</v>
+        <v>2.3587419566993399</v>
       </c>
       <c r="D103">
-        <v>48.8634876640714</v>
+        <v>48.835542932800998</v>
       </c>
       <c r="F103" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B103,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3771,13 +3771,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C104">
-        <v>2.2858394188814599</v>
+        <v>2.3555015914814801</v>
       </c>
       <c r="D104">
-        <v>48.857515088672201</v>
+        <v>48.830965712344302</v>
       </c>
       <c r="F104" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B104,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3793,13 +3793,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C105">
-        <v>2.2894007376346002</v>
+        <v>2.2931461372486299</v>
       </c>
       <c r="D105">
-        <v>48.853925367427799</v>
+        <v>48.871489411987</v>
       </c>
       <c r="F105" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B105,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3815,13 +3815,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C106">
-        <v>2.2936637267310398</v>
+        <v>2.2900328376074399</v>
       </c>
       <c r="D106">
-        <v>48.850411624858502</v>
+        <v>48.866848342469197</v>
       </c>
       <c r="F106" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B106,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3837,13 +3837,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C107">
-        <v>2.2985257262366301</v>
+        <v>2.2874927969664398</v>
       </c>
       <c r="D107">
-        <v>48.849630803484203</v>
+        <v>48.8634876640714</v>
       </c>
       <c r="F107" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B107,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3859,13 +3859,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C108">
-        <v>2.3029417283376099</v>
+        <v>2.2858394188814599</v>
       </c>
       <c r="D108">
-        <v>48.847543111245301</v>
+        <v>48.857515088672201</v>
       </c>
       <c r="F108" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B108,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3881,13 +3881,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C109">
-        <v>2.3095296104303902</v>
+        <v>2.2894007376346002</v>
       </c>
       <c r="D109">
-        <v>48.845647681702502</v>
+        <v>48.853925367427799</v>
       </c>
       <c r="F109" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B109,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3903,13 +3903,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C110">
-        <v>2.31291468047394</v>
+        <v>2.2936637267310398</v>
       </c>
       <c r="D110">
-        <v>48.842528386594999</v>
+        <v>48.850411624858502</v>
       </c>
       <c r="F110" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B110,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3925,13 +3925,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C111">
-        <v>2.3252865779433001</v>
+        <v>2.2985257262366301</v>
       </c>
       <c r="D111">
-        <v>48.840903500750002</v>
+        <v>48.849630803484203</v>
       </c>
       <c r="F111" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B111,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3947,13 +3947,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C112">
-        <v>2.3371543709250102</v>
+        <v>2.3029417283376099</v>
       </c>
       <c r="D112">
-        <v>48.832916005270803</v>
+        <v>48.847543111245301</v>
       </c>
       <c r="F112" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B112,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3969,13 +3969,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C113">
-        <v>2.3434382366787001</v>
+        <v>2.3095296104303902</v>
       </c>
       <c r="D113">
-        <v>48.831115946668099</v>
+        <v>48.845647681702502</v>
       </c>
       <c r="F113" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B113,Sheet2!B:B,0)),"C","Différent")</f>
@@ -3991,13 +3991,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C114">
-        <v>2.35061122592617</v>
+        <v>2.31291468047394</v>
       </c>
       <c r="D114">
-        <v>48.829860012364001</v>
+        <v>48.842528386594999</v>
       </c>
       <c r="F114" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B114,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4013,13 +4013,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C115">
-        <v>2.3628041715935102</v>
+        <v>2.3252865779433001</v>
       </c>
       <c r="D115">
-        <v>48.833235278727898</v>
+        <v>48.840903500750002</v>
       </c>
       <c r="F115" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B115,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4035,13 +4035,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C116">
-        <v>2.36808128297274</v>
+        <v>2.3371543709250102</v>
       </c>
       <c r="D116">
-        <v>48.8349630811609</v>
+        <v>48.832916005270803</v>
       </c>
       <c r="F116" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B116,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4057,13 +4057,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C117">
-        <v>2.37276624894817</v>
+        <v>2.3434382366787001</v>
       </c>
       <c r="D117">
-        <v>48.837074269661301</v>
+        <v>48.831115946668099</v>
       </c>
       <c r="F117" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B117,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4079,13 +4079,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C118">
-        <v>2.3794630701852602</v>
+        <v>2.35061122592617</v>
       </c>
       <c r="D118">
-        <v>48.840176027173598</v>
+        <v>48.829860012364001</v>
       </c>
       <c r="F118" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B118,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4101,13 +4101,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C119">
-        <v>2.3895997700798102</v>
+        <v>2.3628041715935102</v>
       </c>
       <c r="D119">
-        <v>48.8390365273806</v>
+        <v>48.833235278727898</v>
       </c>
       <c r="F119" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B119,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4123,13 +4123,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C120">
-        <v>2.39614862848937</v>
+        <v>2.36808128297274</v>
       </c>
       <c r="D120">
-        <v>48.839434007104899</v>
+        <v>48.8349630811609</v>
       </c>
       <c r="F120" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B120,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4145,13 +4145,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C121">
-        <v>2.4008671319952599</v>
+        <v>2.37276624894817</v>
       </c>
       <c r="D121">
-        <v>48.841427331285303</v>
+        <v>48.837074269661301</v>
       </c>
       <c r="F121" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B121,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4167,13 +4167,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C122">
-        <v>2.4012745388223702</v>
+        <v>2.3794630701852602</v>
       </c>
       <c r="D122">
-        <v>48.845103246553599</v>
+        <v>48.840176027173598</v>
       </c>
       <c r="F122" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B122,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4189,13 +4189,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C123">
-        <v>2.3858690331433401</v>
+        <v>2.3895997700798102</v>
       </c>
       <c r="D123">
-        <v>48.897802691407797</v>
+        <v>48.8390365273806</v>
       </c>
       <c r="F123" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B123,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4211,13 +4211,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C124">
-        <v>2.3822915571646299</v>
+        <v>2.39614862848937</v>
       </c>
       <c r="D124">
-        <v>48.894672659108402</v>
+        <v>48.839434007104899</v>
       </c>
       <c r="F124" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B124,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4233,13 +4233,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C125">
-        <v>2.37693573698238</v>
+        <v>2.4008671319952599</v>
       </c>
       <c r="D125">
-        <v>48.890885757980897</v>
+        <v>48.841427331285303</v>
       </c>
       <c r="F125" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B125,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4255,13 +4255,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C126">
-        <v>2.3736694647432</v>
+        <v>2.4012745388223702</v>
       </c>
       <c r="D126">
-        <v>48.888157261117797</v>
+        <v>48.845103246553599</v>
       </c>
       <c r="F126" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B126,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4277,13 +4277,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C127">
-        <v>2.3644248624936801</v>
+        <v>2.3858690331433401</v>
       </c>
       <c r="D127">
-        <v>48.881206210877998</v>
+        <v>48.897802691407797</v>
       </c>
       <c r="F127" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B127,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4299,13 +4299,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C128">
-        <v>2.3620179355106101</v>
+        <v>2.3822915571646299</v>
       </c>
       <c r="D128">
-        <v>48.878441454784401</v>
+        <v>48.894672659108402</v>
       </c>
       <c r="F128" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B128,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4321,13 +4321,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C129">
-        <v>2.3487397513900699</v>
+        <v>2.37693573698238</v>
       </c>
       <c r="D129">
-        <v>48.877164848302201</v>
+        <v>48.890885757980897</v>
       </c>
       <c r="F129" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B129,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4343,13 +4343,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C130">
-        <v>2.3444463097022701</v>
+        <v>2.3736694647432</v>
       </c>
       <c r="D130">
-        <v>48.875963284127501</v>
+        <v>48.888157261117797</v>
       </c>
       <c r="F130" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B130,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4365,13 +4365,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C131">
-        <v>2.3401505597063701</v>
+        <v>2.3644248624936801</v>
       </c>
       <c r="D131">
-        <v>48.874959405092902</v>
+        <v>48.881206210877998</v>
       </c>
       <c r="F131" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B131,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4387,13 +4387,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C132">
-        <v>2.3337385944086999</v>
+        <v>2.3620179355106101</v>
       </c>
       <c r="D132">
-        <v>48.873134204826599</v>
+        <v>48.878441454784401</v>
       </c>
       <c r="F132" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B132,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4409,13 +4409,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C133">
-        <v>2.3346236060049201</v>
+        <v>2.3487397513900699</v>
       </c>
       <c r="D133">
-        <v>48.8657555264287</v>
+        <v>48.877164848302201</v>
       </c>
       <c r="F133" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B133,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4431,13 +4431,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C134">
-        <v>2.3417767491485399</v>
+        <v>2.3444463097022701</v>
       </c>
       <c r="D134">
-        <v>48.858546338320203</v>
+        <v>48.875963284127501</v>
       </c>
       <c r="F134" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B134,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4453,13 +4453,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>275</v>
+        <v>133</v>
       </c>
       <c r="C135">
-        <v>2.3573766690443998</v>
+        <v>2.3401505597063701</v>
       </c>
       <c r="D135">
-        <v>48.853459859479599</v>
+        <v>48.874959405092902</v>
       </c>
       <c r="F135" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B135,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4475,13 +4475,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C136">
-        <v>2.36185316969725</v>
+        <v>2.3337385944086999</v>
       </c>
       <c r="D136">
-        <v>48.851271407445601</v>
+        <v>48.873134204826599</v>
       </c>
       <c r="F136" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B136,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4497,13 +4497,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C137">
-        <v>2.35493167182323</v>
+        <v>2.3346236060049201</v>
       </c>
       <c r="D137">
-        <v>48.846197890688799</v>
+        <v>48.8657555264287</v>
       </c>
       <c r="F137" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B137,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4519,13 +4519,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C138">
-        <v>2.3521548685787699</v>
+        <v>2.3417767491485399</v>
       </c>
       <c r="D138">
-        <v>48.842666384694603</v>
+        <v>48.858546338320203</v>
       </c>
       <c r="F138" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B138,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4541,13 +4541,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="C139">
-        <v>2.3516265726054999</v>
+        <v>2.3573766690443998</v>
       </c>
       <c r="D139">
-        <v>48.840226247565703</v>
+        <v>48.853459859479599</v>
       </c>
       <c r="F139" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B139,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4563,13 +4563,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C140">
-        <v>2.3524168018982698</v>
+        <v>2.36185316969725</v>
       </c>
       <c r="D140">
-        <v>48.835841621396199</v>
+        <v>48.851271407445601</v>
       </c>
       <c r="F140" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B140,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4585,13 +4585,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C141">
-        <v>2.3573184392131901</v>
+        <v>2.35493167182323</v>
       </c>
       <c r="D141">
-        <v>48.826136860805299</v>
+        <v>48.846197890688799</v>
       </c>
       <c r="F141" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B141,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4607,13 +4607,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C142">
-        <v>2.3584129461559402</v>
+        <v>2.3521548685787699</v>
       </c>
       <c r="D142">
-        <v>48.822149505126603</v>
+        <v>48.842666384694603</v>
       </c>
       <c r="F142" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B142,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4629,13 +4629,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C143">
-        <v>2.3595297331071698</v>
+        <v>2.3516265726054999</v>
       </c>
       <c r="D143">
-        <v>48.8191065956103</v>
+        <v>48.840226247565703</v>
       </c>
       <c r="F143" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B143,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4651,13 +4651,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C144">
-        <v>2.3646785940494599</v>
+        <v>2.3524168018982698</v>
       </c>
       <c r="D144">
-        <v>48.8200559281997</v>
+        <v>48.835841621396199</v>
       </c>
       <c r="F144" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B144,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4673,13 +4673,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C145">
-        <v>2.3695112543194901</v>
+        <v>2.3573184392131901</v>
       </c>
       <c r="D145">
-        <v>48.821489034614402</v>
+        <v>48.826136860805299</v>
       </c>
       <c r="F145" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B145,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4695,13 +4695,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C146">
-        <v>2.37412487118754</v>
+        <v>2.3584129461559402</v>
       </c>
       <c r="D146">
-        <v>48.880789662027098</v>
+        <v>48.822149505126603</v>
       </c>
       <c r="F146" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B146,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4717,13 +4717,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C147">
-        <v>2.3815698420880098</v>
+        <v>2.3595297331071698</v>
       </c>
       <c r="D147">
-        <v>48.878499087450599</v>
+        <v>48.8191065956103</v>
       </c>
       <c r="F147" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B147,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4739,13 +4739,13 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C148">
-        <v>2.38890095131574</v>
+        <v>2.3646785940494599</v>
       </c>
       <c r="D148">
-        <v>48.879534990320401</v>
+        <v>48.8200559281997</v>
       </c>
       <c r="F148" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B148,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4761,13 +4761,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C149">
-        <v>2.3931393703605002</v>
+        <v>2.3695112543194901</v>
       </c>
       <c r="D149">
-        <v>48.876723661025203</v>
+        <v>48.821489034614402</v>
       </c>
       <c r="F149" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B149,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4783,13 +4783,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C150">
-        <v>2.3985807706935298</v>
+        <v>2.37412487118754</v>
       </c>
       <c r="D150">
-        <v>48.880159579716299</v>
+        <v>48.880789662027098</v>
       </c>
       <c r="F150" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B150,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4805,13 +4805,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C151">
-        <v>2.3932284712274901</v>
+        <v>2.3815698420880098</v>
       </c>
       <c r="D151">
-        <v>48.881949213972597</v>
+        <v>48.878499087450599</v>
       </c>
       <c r="F151" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B151,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4827,13 +4827,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C152">
-        <v>2.2783626618091999</v>
+        <v>2.38890095131574</v>
       </c>
       <c r="D152">
-        <v>48.836667893882797</v>
+        <v>48.879534990320401</v>
       </c>
       <c r="F152" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B152,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="G152" t="str">
         <f>IF(ISERROR(VLOOKUP(B152,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
-        <v>Différent</v>
+        <v>C</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
@@ -4849,13 +4849,13 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C153">
-        <v>2.2822419598550701</v>
+        <v>2.3931393703605002</v>
       </c>
       <c r="D153">
-        <v>48.838660862711599</v>
+        <v>48.876723661025203</v>
       </c>
       <c r="F153" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B153,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4871,13 +4871,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C154">
-        <v>2.2879184311245599</v>
+        <v>2.3985807706935298</v>
       </c>
       <c r="D154">
-        <v>48.841024160045002</v>
+        <v>48.880159579716299</v>
       </c>
       <c r="F154" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B154,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4893,13 +4893,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C155">
-        <v>2.2918472203679698</v>
+        <v>2.3932284712274901</v>
       </c>
       <c r="D155">
-        <v>48.842684333848403</v>
+        <v>48.881949213972597</v>
       </c>
       <c r="F155" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B155,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4915,13 +4915,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C156">
-        <v>2.2937968421928598</v>
+        <v>2.2783626618091999</v>
       </c>
       <c r="D156">
-        <v>48.844611511420197</v>
+        <v>48.836667893882797</v>
       </c>
       <c r="F156" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B156,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="G156" t="str">
         <f>IF(ISERROR(VLOOKUP(B156,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
-        <v>C</v>
+        <v>Différent</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
@@ -4937,13 +4937,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C157">
-        <v>2.30634568382008</v>
+        <v>2.2822419598550701</v>
       </c>
       <c r="D157">
-        <v>48.854919659638902</v>
+        <v>48.838660862711599</v>
       </c>
       <c r="F157" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B157,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4959,13 +4959,13 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C158">
-        <v>2.3104735359369801</v>
+        <v>2.2879184311245599</v>
       </c>
       <c r="D158">
-        <v>48.857727022586403</v>
+        <v>48.841024160045002</v>
       </c>
       <c r="F158" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B158,Sheet2!B:B,0)),"C","Différent")</f>
@@ -4981,13 +4981,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C159">
-        <v>2.31463266044452</v>
+        <v>2.2918472203679698</v>
       </c>
       <c r="D159">
-        <v>48.861092010432998</v>
+        <v>48.842684333848403</v>
       </c>
       <c r="F159" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B159,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5003,13 +5003,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C160">
-        <v>2.3258100487932798</v>
+        <v>2.2937968421928598</v>
       </c>
       <c r="D160">
-        <v>48.870544675768201</v>
+        <v>48.844611511420197</v>
       </c>
       <c r="F160" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B160,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5025,13 +5025,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C161">
-        <v>2.33859122153854</v>
+        <v>2.30634568382008</v>
       </c>
       <c r="D161">
-        <v>48.872135869369899</v>
+        <v>48.854919659638902</v>
       </c>
       <c r="F161" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B161,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5047,13 +5047,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C162">
-        <v>2.34320726640509</v>
+        <v>2.3104735359369801</v>
       </c>
       <c r="D162">
-        <v>48.871504768814702</v>
+        <v>48.857727022586403</v>
       </c>
       <c r="F162" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B162,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5069,13 +5069,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C163">
-        <v>2.3484813657183898</v>
+        <v>2.31463266044452</v>
       </c>
       <c r="D163">
-        <v>48.8705712985549</v>
+        <v>48.861092010432998</v>
       </c>
       <c r="F163" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B163,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5091,13 +5091,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C164">
-        <v>2.3667452977427001</v>
+        <v>2.3258100487932798</v>
       </c>
       <c r="D164">
-        <v>48.8630698825026</v>
+        <v>48.870544675768201</v>
       </c>
       <c r="F164" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B164,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5113,13 +5113,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C165">
-        <v>2.36726153971727</v>
+        <v>2.33859122153854</v>
       </c>
       <c r="D165">
-        <v>48.860968144808197</v>
+        <v>48.872135869369899</v>
       </c>
       <c r="F165" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B165,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5135,13 +5135,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C166">
-        <v>2.3680950853859901</v>
+        <v>2.34320726640509</v>
       </c>
       <c r="D166">
-        <v>48.857087366872101</v>
+        <v>48.871504768814702</v>
       </c>
       <c r="F166" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B166,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5157,13 +5157,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C167">
-        <v>2.3761412233185899</v>
+        <v>2.3484813657183898</v>
       </c>
       <c r="D167">
-        <v>48.851337765850197</v>
+        <v>48.8705712985549</v>
       </c>
       <c r="F167" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B167,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5179,13 +5179,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C168">
-        <v>2.38402856638311</v>
+        <v>2.3667452977427001</v>
       </c>
       <c r="D168">
-        <v>48.850110543185501</v>
+        <v>48.8630698825026</v>
       </c>
       <c r="F168" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B168,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5201,13 +5201,13 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C169">
-        <v>2.39040001363536</v>
+        <v>2.36726153971727</v>
       </c>
       <c r="D169">
-        <v>48.844005074760702</v>
+        <v>48.860968144808197</v>
       </c>
       <c r="F169" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B169,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5223,13 +5223,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C170">
-        <v>2.402366739988</v>
+        <v>2.3680950853859901</v>
       </c>
       <c r="D170">
-        <v>48.837077430087497</v>
+        <v>48.857087366872101</v>
       </c>
       <c r="F170" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B170,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5245,13 +5245,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C171">
-        <v>2.4058739129875599</v>
+        <v>2.3761412233185899</v>
       </c>
       <c r="D171">
-        <v>48.835017373145597</v>
+        <v>48.851337765850197</v>
       </c>
       <c r="F171" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B171,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5267,13 +5267,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C172">
-        <v>2.4025118728500701</v>
+        <v>2.38402856638311</v>
       </c>
       <c r="D172">
-        <v>48.833449221931097</v>
+        <v>48.850110543185501</v>
       </c>
       <c r="F172" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B172,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5289,13 +5289,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C173">
-        <v>2.2570461929221501</v>
+        <v>2.39040001363536</v>
       </c>
       <c r="D173">
-        <v>48.837958404671198</v>
+        <v>48.844005074760702</v>
       </c>
       <c r="F173" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B173,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5311,13 +5311,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C174">
-        <v>2.2598008451443401</v>
+        <v>2.402366739988</v>
       </c>
       <c r="D174">
-        <v>48.842580275328302</v>
+        <v>48.837077430087497</v>
       </c>
       <c r="F174" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B174,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5333,13 +5333,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C175">
-        <v>2.2615119169051998</v>
+        <v>2.4058739129875599</v>
       </c>
       <c r="D175">
-        <v>48.844911226614997</v>
+        <v>48.835017373145597</v>
       </c>
       <c r="F175" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B175,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5355,13 +5355,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C176">
-        <v>2.2639895253333302</v>
+        <v>2.4025118728500701</v>
       </c>
       <c r="D176">
-        <v>48.847975353228101</v>
+        <v>48.833449221931097</v>
       </c>
       <c r="F176" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B176,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5377,13 +5377,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C177">
-        <v>2.2679332916470698</v>
+        <v>2.2570461929221501</v>
       </c>
       <c r="D177">
-        <v>48.852433417777398</v>
+        <v>48.837958404671198</v>
       </c>
       <c r="F177" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B177,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5399,13 +5399,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C178">
-        <v>2.2699481579346301</v>
+        <v>2.2598008451443401</v>
       </c>
       <c r="D178">
-        <v>48.855503557447499</v>
+        <v>48.842580275328302</v>
       </c>
       <c r="F178" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B178,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5421,13 +5421,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C179">
-        <v>2.2740962446697202</v>
+        <v>2.2615119169051998</v>
       </c>
       <c r="D179">
-        <v>48.8580919659505</v>
+        <v>48.844911226614997</v>
       </c>
       <c r="F179" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B179,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5443,13 +5443,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C180">
-        <v>2.2778858979590599</v>
+        <v>2.2639895253333302</v>
       </c>
       <c r="D180">
-        <v>48.863951707931797</v>
+        <v>48.847975353228101</v>
       </c>
       <c r="F180" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B180,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5465,13 +5465,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C181">
-        <v>2.2938642256822699</v>
+        <v>2.2679332916470698</v>
       </c>
       <c r="D181">
-        <v>48.864780021309301</v>
+        <v>48.852433417777398</v>
       </c>
       <c r="F181" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B181,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5487,13 +5487,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C182">
-        <v>2.3011043523926702</v>
+        <v>2.2699481579346301</v>
       </c>
       <c r="D182">
-        <v>48.864647146957701</v>
+        <v>48.855503557447499</v>
       </c>
       <c r="F182" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B182,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5509,13 +5509,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C183">
-        <v>2.3101372056878202</v>
+        <v>2.2740962446697202</v>
       </c>
       <c r="D183">
-        <v>48.8721551301294</v>
+        <v>48.8580919659505</v>
       </c>
       <c r="F183" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B183,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5531,13 +5531,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C184">
-        <v>2.31601069312102</v>
+        <v>2.2778858979590599</v>
       </c>
       <c r="D184">
-        <v>48.873447914847198</v>
+        <v>48.863951707931797</v>
       </c>
       <c r="F184" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B184,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5553,13 +5553,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C185">
-        <v>2.3210135978086002</v>
+        <v>2.2938642256822699</v>
       </c>
       <c r="D185">
-        <v>48.874546611986801</v>
+        <v>48.864780021309301</v>
       </c>
       <c r="F185" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B185,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5575,13 +5575,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C186">
-        <v>2.3738805382115502</v>
+        <v>2.3011043523926702</v>
       </c>
       <c r="D186">
-        <v>48.861416656960998</v>
+        <v>48.864647146957701</v>
       </c>
       <c r="F186" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B186,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5597,13 +5597,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C187">
-        <v>2.3800316941488</v>
+        <v>2.3101372056878202</v>
       </c>
       <c r="D187">
-        <v>48.857662433437902</v>
+        <v>48.8721551301294</v>
       </c>
       <c r="F187" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B187,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5619,13 +5619,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C188">
-        <v>2.3847823964488901</v>
+        <v>2.31601069312102</v>
       </c>
       <c r="D188">
-        <v>48.854939442500303</v>
+        <v>48.873447914847198</v>
       </c>
       <c r="F188" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B188,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5641,13 +5641,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C189">
-        <v>2.3891047050322398</v>
+        <v>2.3210135978086002</v>
       </c>
       <c r="D189">
-        <v>48.852214072383703</v>
+        <v>48.874546611986801</v>
       </c>
       <c r="F189" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B189,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5663,13 +5663,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C190">
-        <v>2.4011707693684099</v>
+        <v>2.3738805382115502</v>
       </c>
       <c r="D190">
-        <v>48.851762438884101</v>
+        <v>48.861416656960998</v>
       </c>
       <c r="F190" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B190,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5685,13 +5685,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C191">
-        <v>2.4060385447980499</v>
+        <v>2.3800316941488</v>
       </c>
       <c r="D191">
-        <v>48.852731019531802</v>
+        <v>48.857662433437902</v>
       </c>
       <c r="F191" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B191,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5707,13 +5707,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C192">
-        <v>2.41071815402749</v>
+        <v>2.3847823964488901</v>
       </c>
       <c r="D192">
-        <v>48.853482630258299</v>
+        <v>48.854939442500303</v>
       </c>
       <c r="F192" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B192,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5729,13 +5729,13 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C193">
-        <v>2.3513280016731799</v>
+        <v>2.3891047050322398</v>
       </c>
       <c r="D193">
-        <v>48.8467000343149</v>
+        <v>48.852214072383703</v>
       </c>
       <c r="F193" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B193,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5751,13 +5751,13 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C194">
-        <v>2.3482804131694901</v>
+        <v>2.4011707693684099</v>
       </c>
       <c r="D194">
-        <v>48.850195465121303</v>
+        <v>48.851762438884101</v>
       </c>
       <c r="F194" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B194,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5773,13 +5773,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C195">
-        <v>2.34489630121208</v>
+        <v>2.4060385447980499</v>
       </c>
       <c r="D195">
-        <v>48.851026875926301</v>
+        <v>48.852731019531802</v>
       </c>
       <c r="F195" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B195,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5795,13 +5795,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C196">
-        <v>2.3351428193464701</v>
+        <v>2.41071815402749</v>
       </c>
       <c r="D196">
-        <v>48.8528437373513</v>
+        <v>48.853482630258299</v>
       </c>
       <c r="F196" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B196,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5817,13 +5817,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C197">
-        <v>2.32685966312174</v>
+        <v>2.3513280016731799</v>
       </c>
       <c r="D197">
-        <v>48.851565305443202</v>
+        <v>48.8467000343149</v>
       </c>
       <c r="F197" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B197,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5839,13 +5839,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C198">
-        <v>2.32135124235473</v>
+        <v>2.3482804131694901</v>
       </c>
       <c r="D198">
-        <v>48.848894569110698</v>
+        <v>48.850195465121303</v>
       </c>
       <c r="F198" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B198,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5861,13 +5861,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C199">
-        <v>2.3165212194565199</v>
+        <v>2.34489630121208</v>
       </c>
       <c r="D199">
-        <v>48.847009892663699</v>
+        <v>48.851026875926301</v>
       </c>
       <c r="F199" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B199,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5883,13 +5883,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C200">
-        <v>2.3071378494033801</v>
+        <v>2.3351428193464701</v>
       </c>
       <c r="D200">
-        <v>48.8471672690468</v>
+        <v>48.8528437373513</v>
       </c>
       <c r="F200" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B200,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5905,13 +5905,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C201">
-        <v>2.2950189971435502</v>
+        <v>2.32685966312174</v>
       </c>
       <c r="D201">
-        <v>48.847038012756897</v>
+        <v>48.851565305443202</v>
       </c>
       <c r="F201" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B201,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5927,13 +5927,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C202">
-        <v>2.2856210133667201</v>
+        <v>2.32135124235473</v>
       </c>
       <c r="D202">
-        <v>48.846604531449202</v>
+        <v>48.848894569110698</v>
       </c>
       <c r="F202" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B202,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5949,13 +5949,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C203">
-        <v>2.2780094965273601</v>
+        <v>2.3165212194565199</v>
       </c>
       <c r="D203">
-        <v>48.846181105275001</v>
+        <v>48.847009892663699</v>
       </c>
       <c r="F203" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B203,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5971,13 +5971,13 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C204">
-        <v>2.2691113890218899</v>
+        <v>2.3071378494033801</v>
       </c>
       <c r="D204">
-        <v>48.847143360508902</v>
+        <v>48.8471672690468</v>
       </c>
       <c r="F204" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B204,Sheet2!B:B,0)),"C","Différent")</f>
@@ -5993,13 +5993,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C205">
-        <v>2.25828074459554</v>
+        <v>2.2950189971435502</v>
       </c>
       <c r="D205">
-        <v>48.847904122681001</v>
+        <v>48.847038012756897</v>
       </c>
       <c r="F205" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B205,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6015,13 +6015,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C206">
-        <v>2.2669054759402898</v>
+        <v>2.2856210133667201</v>
       </c>
       <c r="D206">
-        <v>48.8450882982306</v>
+        <v>48.846604531449202</v>
       </c>
       <c r="F206" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B206,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6037,13 +6037,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>297</v>
-      </c>
-      <c r="C207" s="5">
-        <v>2.2283309999999998</v>
-      </c>
-      <c r="D207" s="5">
-        <v>48.840684000000003</v>
+        <v>204</v>
+      </c>
+      <c r="C207">
+        <v>2.2780094965273601</v>
+      </c>
+      <c r="D207">
+        <v>48.846181105275001</v>
       </c>
       <c r="F207" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B207,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="G207" t="str">
         <f>IF(ISERROR(VLOOKUP(B207,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
-        <v>Différent</v>
+        <v>C</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
@@ -6059,13 +6059,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>298</v>
-      </c>
-      <c r="C208" s="5">
-        <v>2.2388774200000001</v>
-      </c>
-      <c r="D208" s="5">
-        <v>48.840684009999997</v>
+        <v>205</v>
+      </c>
+      <c r="C208">
+        <v>2.2691113890218899</v>
+      </c>
+      <c r="D208">
+        <v>48.847143360508902</v>
       </c>
       <c r="F208" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B208,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6081,13 +6081,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C209">
-        <v>2.2730641263728302</v>
+        <v>2.25828074459554</v>
       </c>
       <c r="D209">
-        <v>48.847077506397802</v>
+        <v>48.847904122681001</v>
       </c>
       <c r="F209" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B209,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6103,13 +6103,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C210">
-        <v>2.35327394859477</v>
+        <v>2.2669054759402898</v>
       </c>
       <c r="D210">
-        <v>48.861190156002202</v>
+        <v>48.8450882982306</v>
       </c>
       <c r="F210" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B210,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6125,13 +6125,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>210</v>
-      </c>
-      <c r="C211">
-        <v>2.3707644347483998</v>
-      </c>
-      <c r="D211">
-        <v>48.870007016890497</v>
+        <v>297</v>
+      </c>
+      <c r="C211" s="5">
+        <v>2.2283309999999998</v>
+      </c>
+      <c r="D211" s="5">
+        <v>48.840684000000003</v>
       </c>
       <c r="F211" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B211,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="G211" t="str">
         <f>IF(ISERROR(VLOOKUP(B211,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
-        <v>C</v>
+        <v>Différent</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
@@ -6147,13 +6147,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>211</v>
-      </c>
-      <c r="C212">
-        <v>2.38520291556953</v>
-      </c>
-      <c r="D212">
-        <v>48.873818789232502</v>
+        <v>298</v>
+      </c>
+      <c r="C212" s="5">
+        <v>2.2388774200000001</v>
+      </c>
+      <c r="D212" s="5">
+        <v>48.840684009999997</v>
       </c>
       <c r="F212" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B212,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6169,13 +6169,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C213">
-        <v>2.3893253789101001</v>
+        <v>2.2730641263728302</v>
       </c>
       <c r="D213">
-        <v>48.875247347693403</v>
+        <v>48.847077506397802</v>
       </c>
       <c r="F213" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B213,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6191,13 +6191,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C214">
-        <v>2.3986480899605902</v>
+        <v>2.35327394859477</v>
       </c>
       <c r="D214">
-        <v>48.875510383232701</v>
+        <v>48.861190156002202</v>
       </c>
       <c r="F214" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B214,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6213,13 +6213,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C215">
-        <v>2.3592485423103602</v>
+        <v>2.3707644347483998</v>
       </c>
       <c r="D215">
-        <v>48.897402421722497</v>
+        <v>48.870007016890497</v>
       </c>
       <c r="F215" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B215,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6235,13 +6235,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C216">
-        <v>2.3598084780840201</v>
+        <v>2.38520291556953</v>
       </c>
       <c r="D216">
-        <v>48.890579577619299</v>
+        <v>48.873818789232502</v>
       </c>
       <c r="F216" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B216,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6257,13 +6257,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C217">
-        <v>2.34432002938048</v>
+        <v>2.3893253789101001</v>
       </c>
       <c r="D217">
-        <v>48.892492267253999</v>
+        <v>48.875247347693403</v>
       </c>
       <c r="F217" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B217,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6279,13 +6279,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C218">
-        <v>2.33858382438319</v>
+        <v>2.3986480899605902</v>
       </c>
       <c r="D218">
-        <v>48.889681809018903</v>
+        <v>48.875510383232701</v>
       </c>
       <c r="F218" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B218,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6301,13 +6301,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C219">
-        <v>2.3383946352209102</v>
+        <v>2.3592485423103602</v>
       </c>
       <c r="D219">
-        <v>48.884392717043397</v>
+        <v>48.897402421722497</v>
       </c>
       <c r="F219" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B219,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6323,13 +6323,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C220">
-        <v>2.3375706403796701</v>
+        <v>2.3598084780840201</v>
       </c>
       <c r="D220">
-        <v>48.878416593953702</v>
+        <v>48.890579577619299</v>
       </c>
       <c r="F220" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B220,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6345,13 +6345,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C221">
-        <v>2.3378736192226399</v>
+        <v>2.34432002938048</v>
       </c>
       <c r="D221">
-        <v>48.876035030332602</v>
+        <v>48.892492267253999</v>
       </c>
       <c r="F221" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B221,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6367,13 +6367,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C222">
-        <v>2.3330491724182401</v>
+        <v>2.33858382438319</v>
       </c>
       <c r="D222">
-        <v>48.876336506359301</v>
+        <v>48.889681809018903</v>
       </c>
       <c r="F222" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B222,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6389,13 +6389,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C223">
-        <v>2.3205758366475502</v>
+        <v>2.3383946352209102</v>
       </c>
       <c r="D223">
-        <v>48.861071938577901</v>
+        <v>48.884392717043397</v>
       </c>
       <c r="F223" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B223,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6411,13 +6411,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C224">
-        <v>2.3230759642515402</v>
+        <v>2.3375706403796701</v>
       </c>
       <c r="D224">
-        <v>48.858531948780403</v>
+        <v>48.878416593953702</v>
       </c>
       <c r="F224" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B224,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6433,13 +6433,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C225">
-        <v>2.32569989845241</v>
+        <v>2.3378736192226399</v>
       </c>
       <c r="D225">
-        <v>48.855884677537297</v>
+        <v>48.876035030332602</v>
       </c>
       <c r="F225" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B225,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6455,13 +6455,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C226">
-        <v>2.3277871847873901</v>
+        <v>2.3330491724182401</v>
       </c>
       <c r="D226">
-        <v>48.848332828092403</v>
+        <v>48.876336506359301</v>
       </c>
       <c r="F226" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B226,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6477,13 +6477,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C227">
-        <v>2.3286958054987101</v>
+        <v>2.3205758366475502</v>
       </c>
       <c r="D227">
-        <v>48.845077744689597</v>
+        <v>48.861071938577901</v>
       </c>
       <c r="F227" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B227,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6499,13 +6499,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C228">
-        <v>2.3175512356170298</v>
+        <v>2.3230759642515402</v>
       </c>
       <c r="D228">
-        <v>48.844317682586102</v>
+        <v>48.858531948780403</v>
       </c>
       <c r="F228" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B228,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6521,13 +6521,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C229">
-        <v>2.3079833805768502</v>
+        <v>2.32569989845241</v>
       </c>
       <c r="D229">
-        <v>48.841411727466699</v>
+        <v>48.855884677537297</v>
       </c>
       <c r="F229" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B229,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6543,13 +6543,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C230">
-        <v>2.30107451565455</v>
+        <v>2.3277871847873901</v>
       </c>
       <c r="D230">
-        <v>48.839437917128599</v>
+        <v>48.848332828092403</v>
       </c>
       <c r="F230" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B230,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6565,13 +6565,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C231">
-        <v>2.29639138648092</v>
+        <v>2.3286958054987101</v>
       </c>
       <c r="D231">
-        <v>48.837135052856702</v>
+        <v>48.845077744689597</v>
       </c>
       <c r="F231" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B231,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6587,13 +6587,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C232">
-        <v>2.2877417091423302</v>
+        <v>2.3175512356170298</v>
       </c>
       <c r="D232">
-        <v>48.832519531565197</v>
+        <v>48.844317682586102</v>
       </c>
       <c r="F232" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B232,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6609,13 +6609,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C233">
-        <v>2.30533238665747</v>
+        <v>2.3079833805768502</v>
       </c>
       <c r="D233">
-        <v>48.827613463055897</v>
+        <v>48.841411727466699</v>
       </c>
       <c r="F233" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B233,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6631,13 +6631,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C234">
-        <v>2.31386048934431</v>
+        <v>2.30107451565455</v>
       </c>
       <c r="D234">
-        <v>48.831750362119102</v>
+        <v>48.839437917128599</v>
       </c>
       <c r="F234" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B234,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6653,13 +6653,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C235">
-        <v>2.3183937066147</v>
+        <v>2.29639138648092</v>
       </c>
       <c r="D235">
-        <v>48.8340786788266</v>
+        <v>48.837135052856702</v>
       </c>
       <c r="F235" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B235,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6675,13 +6675,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C236">
-        <v>2.3223539967788098</v>
+        <v>2.2877417091423302</v>
       </c>
       <c r="D236">
-        <v>48.838526084074203</v>
+        <v>48.832519531565197</v>
       </c>
       <c r="F236" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B236,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6697,13 +6697,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C237">
-        <v>2.31428594618056</v>
+        <v>2.30533238665747</v>
       </c>
       <c r="D237">
-        <v>48.8512915499903</v>
+        <v>48.827613463055897</v>
       </c>
       <c r="F237" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B237,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6719,13 +6719,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C238">
-        <v>2.3151139305096602</v>
+        <v>2.31386048934431</v>
       </c>
       <c r="D238">
-        <v>48.856624981798397</v>
+        <v>48.831750362119102</v>
       </c>
       <c r="F238" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B238,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6741,13 +6741,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C239">
-        <v>2.3268526712397599</v>
+        <v>2.3183937066147</v>
       </c>
       <c r="D239">
-        <v>48.879534936427703</v>
+        <v>48.8340786788266</v>
       </c>
       <c r="F239" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B239,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6763,13 +6763,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C240">
-        <v>2.3257141171661302</v>
+        <v>2.3223539967788098</v>
       </c>
       <c r="D240">
-        <v>48.887433655789003</v>
+        <v>48.838526084074203</v>
       </c>
       <c r="F240" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B240,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6785,13 +6785,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C241">
-        <v>2.32748325862612</v>
+        <v>2.31428594618056</v>
       </c>
       <c r="D241">
-        <v>48.893001441013702</v>
+        <v>48.8512915499903</v>
       </c>
       <c r="F241" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B241,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6807,13 +6807,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C242">
-        <v>2.3290483407446501</v>
+        <v>2.3151139305096602</v>
       </c>
       <c r="D242">
-        <v>48.8974978363796</v>
+        <v>48.856624981798397</v>
       </c>
       <c r="F242" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B242,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6829,13 +6829,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C243">
-        <v>2.3199048172093599</v>
+        <v>2.3268526712397599</v>
       </c>
       <c r="D243">
-        <v>48.890651870242102</v>
+        <v>48.879534936427703</v>
       </c>
       <c r="F243" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B243,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6851,13 +6851,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C244">
-        <v>2.3132083507588099</v>
+        <v>2.3257141171661302</v>
       </c>
       <c r="D244">
-        <v>48.894431287069501</v>
+        <v>48.887433655789003</v>
       </c>
       <c r="F244" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B244,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6873,13 +6873,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C245">
-        <v>2.3153681405051501</v>
+        <v>2.32748325862612</v>
       </c>
       <c r="D245">
-        <v>48.888103402695002</v>
+        <v>48.893001441013702</v>
       </c>
       <c r="F245" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B245,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6895,13 +6895,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C246">
-        <v>2.3866178502140598</v>
+        <v>2.3290483407446501</v>
       </c>
       <c r="D246">
-        <v>48.833319302895099</v>
+        <v>48.8974978363796</v>
       </c>
       <c r="F246" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B246,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6917,13 +6917,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C247">
-        <v>2.3764873711683001</v>
+        <v>2.3199048172093599</v>
       </c>
       <c r="D247">
-        <v>48.829925764980601</v>
+        <v>48.890651870242102</v>
       </c>
       <c r="F247" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B247,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6939,13 +6939,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C248">
-        <v>2.3669231215308102</v>
+        <v>2.3132083507588099</v>
       </c>
       <c r="D248">
-        <v>48.827123440481003</v>
+        <v>48.894431287069501</v>
       </c>
       <c r="F248" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B248,Sheet2!B:B,0)),"C","Différent")</f>
@@ -6953,6 +6953,94 @@
       </c>
       <c r="G248" t="str">
         <f>IF(ISERROR(VLOOKUP(B248,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>244</v>
+      </c>
+      <c r="C249">
+        <v>2.3153681405051501</v>
+      </c>
+      <c r="D249">
+        <v>48.888103402695002</v>
+      </c>
+      <c r="F249" t="str">
+        <f>IF(ISNUMBER(MATCH(Sheet1!B249,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
+      </c>
+      <c r="G249" t="str">
+        <f>IF(ISERROR(VLOOKUP(B249,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>245</v>
+      </c>
+      <c r="C250">
+        <v>2.3866178502140598</v>
+      </c>
+      <c r="D250">
+        <v>48.833319302895099</v>
+      </c>
+      <c r="F250" t="str">
+        <f>IF(ISNUMBER(MATCH(Sheet1!B250,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
+      </c>
+      <c r="G250" t="str">
+        <f>IF(ISERROR(VLOOKUP(B250,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>246</v>
+      </c>
+      <c r="C251">
+        <v>2.3764873711683001</v>
+      </c>
+      <c r="D251">
+        <v>48.829925764980601</v>
+      </c>
+      <c r="F251" t="str">
+        <f>IF(ISNUMBER(MATCH(Sheet1!B251,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
+      </c>
+      <c r="G251" t="str">
+        <f>IF(ISERROR(VLOOKUP(B251,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>247</v>
+      </c>
+      <c r="C252">
+        <v>2.3669231215308102</v>
+      </c>
+      <c r="D252">
+        <v>48.827123440481003</v>
+      </c>
+      <c r="F252" t="str">
+        <f>IF(ISNUMBER(MATCH(Sheet1!B252,Sheet2!B:B,0)),"C","Différent")</f>
+        <v>C</v>
+      </c>
+      <c r="G252" t="str">
+        <f>IF(ISERROR(VLOOKUP(B252,Sheet2!C:C,1,FALSE)),"Différent","C")</f>
         <v>C</v>
       </c>
     </row>
@@ -6964,10 +7052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H374"/>
+  <dimension ref="A1:H377"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7008,16 +7096,17 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>251</v>
       </c>
-      <c r="B2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B2" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="7"/>
       <c r="E2">
         <v>1</v>
       </c>
@@ -7032,16 +7121,17 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>251</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="7"/>
       <c r="E3">
         <v>2</v>
       </c>
@@ -7056,16 +7146,17 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>251</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B4" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="7"/>
       <c r="E4">
         <v>3</v>
       </c>
@@ -7084,11 +7175,11 @@
       <c r="A5" t="s">
         <v>251</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
+      <c r="B5" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
         <v>269</v>
@@ -7109,10 +7200,10 @@
         <v>251</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -7133,10 +7224,10 @@
         <v>251</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -7157,10 +7248,10 @@
         <v>251</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -7181,10 +7272,10 @@
         <v>251</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -7205,10 +7296,10 @@
         <v>251</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
         <v>278</v>
@@ -7229,10 +7320,10 @@
         <v>251</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -7253,10 +7344,10 @@
         <v>251</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -7277,10 +7368,10 @@
         <v>251</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -7301,10 +7392,10 @@
         <v>251</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>11</v>
@@ -7325,10 +7416,10 @@
         <v>251</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>12</v>
@@ -7349,10 +7440,10 @@
         <v>251</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>13</v>
@@ -7373,10 +7464,10 @@
         <v>251</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>14</v>
@@ -7397,10 +7488,10 @@
         <v>251</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -7408,10 +7499,10 @@
         <v>251</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -7419,106 +7510,105 @@
         <v>251</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>1</v>
+      <c r="A21" t="s">
+        <v>251</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>335</v>
-      </c>
-      <c r="D21" t="s">
-        <v>336</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="4"/>
+        <v>335</v>
+      </c>
+      <c r="D24" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>253</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="5"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>253</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="5"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>253</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>253</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -7526,11 +7616,12 @@
         <v>253</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -7538,10 +7629,10 @@
         <v>253</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F30" s="5"/>
     </row>
@@ -7550,10 +7641,10 @@
         <v>253</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F31" s="5"/>
     </row>
@@ -7562,10 +7653,10 @@
         <v>253</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F32" s="5"/>
     </row>
@@ -7574,10 +7665,10 @@
         <v>253</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F33" s="5"/>
     </row>
@@ -7586,10 +7677,10 @@
         <v>253</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F34" s="5"/>
     </row>
@@ -7598,10 +7689,10 @@
         <v>253</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F35" s="5"/>
     </row>
@@ -7610,10 +7701,10 @@
         <v>253</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F36" s="5"/>
     </row>
@@ -7622,10 +7713,10 @@
         <v>253</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F37" s="5"/>
     </row>
@@ -7634,10 +7725,10 @@
         <v>253</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F38" s="5"/>
     </row>
@@ -7646,10 +7737,10 @@
         <v>253</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F39" s="5"/>
     </row>
@@ -7658,10 +7749,10 @@
         <v>253</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F40" s="5"/>
     </row>
@@ -7670,43 +7761,46 @@
         <v>253</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>253</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>253</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>253</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -7714,43 +7808,43 @@
         <v>253</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B46" t="s">
-        <v>255</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>256</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B47" t="s">
-        <v>256</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>257</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B48" t="s">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -7758,10 +7852,10 @@
         <v>254</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>255</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -7769,10 +7863,10 @@
         <v>254</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>256</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -7780,10 +7874,10 @@
         <v>254</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -7791,10 +7885,10 @@
         <v>254</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -7802,10 +7896,10 @@
         <v>254</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -7813,10 +7907,10 @@
         <v>254</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -7824,10 +7918,10 @@
         <v>254</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -7835,10 +7929,10 @@
         <v>254</v>
       </c>
       <c r="B56" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -7846,10 +7940,10 @@
         <v>254</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -7857,10 +7951,10 @@
         <v>254</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -7868,10 +7962,10 @@
         <v>254</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>258</v>
       </c>
       <c r="C59" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -7879,10 +7973,10 @@
         <v>254</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C60" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -7890,10 +7984,10 @@
         <v>254</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -7901,10 +7995,10 @@
         <v>254</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C62" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -7912,10 +8006,10 @@
         <v>254</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C63" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -7923,10 +8017,10 @@
         <v>254</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -7934,10 +8028,10 @@
         <v>254</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -7945,10 +8039,10 @@
         <v>254</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C66" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
@@ -7956,10 +8050,10 @@
         <v>254</v>
       </c>
       <c r="B67" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
@@ -7967,10 +8061,10 @@
         <v>254</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -7978,43 +8072,43 @@
         <v>254</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C69" t="s">
-        <v>259</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C70" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C72" t="s">
-        <v>71</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
@@ -8022,10 +8116,10 @@
         <v>260</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
@@ -8033,10 +8127,10 @@
         <v>260</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
@@ -8044,10 +8138,10 @@
         <v>260</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
@@ -8055,10 +8149,10 @@
         <v>260</v>
       </c>
       <c r="B76" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C76" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -8066,10 +8160,10 @@
         <v>260</v>
       </c>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="C77" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
@@ -8077,10 +8171,10 @@
         <v>260</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C78" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -8088,10 +8182,10 @@
         <v>260</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C79" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
@@ -8099,10 +8193,10 @@
         <v>260</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C80" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -8110,10 +8204,10 @@
         <v>260</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -8121,10 +8215,10 @@
         <v>260</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C82" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -8132,10 +8226,10 @@
         <v>260</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C83" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -8143,10 +8237,10 @@
         <v>260</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C84" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -8154,10 +8248,10 @@
         <v>260</v>
       </c>
       <c r="B85" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -8165,10 +8259,10 @@
         <v>260</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C86" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -8176,10 +8270,10 @@
         <v>260</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C87" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
@@ -8187,10 +8281,10 @@
         <v>260</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C88" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
@@ -8198,10 +8292,10 @@
         <v>260</v>
       </c>
       <c r="B89" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C89" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
@@ -8209,10 +8303,10 @@
         <v>260</v>
       </c>
       <c r="B90" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C90" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
@@ -8220,10 +8314,10 @@
         <v>260</v>
       </c>
       <c r="B91" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C91" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
@@ -8231,10 +8325,10 @@
         <v>260</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C92" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
@@ -8242,10 +8336,10 @@
         <v>260</v>
       </c>
       <c r="B93" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C93" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
@@ -8253,10 +8347,10 @@
         <v>260</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C94" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -8264,10 +8358,10 @@
         <v>260</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C95" t="s">
-        <v>261</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
@@ -8275,10 +8369,10 @@
         <v>260</v>
       </c>
       <c r="B96" t="s">
-        <v>261</v>
+        <v>88</v>
       </c>
       <c r="C96" t="s">
-        <v>262</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
@@ -8286,43 +8380,43 @@
         <v>260</v>
       </c>
       <c r="B97" t="s">
-        <v>262</v>
+        <v>89</v>
       </c>
       <c r="C97" t="s">
-        <v>263</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B98" t="s">
-        <v>265</v>
+        <v>90</v>
       </c>
       <c r="C98" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B99" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C99" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B100" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C100" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
@@ -8330,10 +8424,10 @@
         <v>264</v>
       </c>
       <c r="B101" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C101" t="s">
-        <v>91</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -8341,10 +8435,10 @@
         <v>264</v>
       </c>
       <c r="B102" t="s">
-        <v>91</v>
+        <v>266</v>
       </c>
       <c r="C102" t="s">
-        <v>92</v>
+        <v>267</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
@@ -8352,10 +8446,10 @@
         <v>264</v>
       </c>
       <c r="B103" t="s">
-        <v>92</v>
+        <v>267</v>
       </c>
       <c r="C103" t="s">
-        <v>93</v>
+        <v>268</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
@@ -8363,10 +8457,10 @@
         <v>264</v>
       </c>
       <c r="B104" t="s">
-        <v>93</v>
+        <v>268</v>
       </c>
       <c r="C104" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -8374,10 +8468,10 @@
         <v>264</v>
       </c>
       <c r="B105" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="C105" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
@@ -8385,10 +8479,10 @@
         <v>264</v>
       </c>
       <c r="B106" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="C106" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -8396,10 +8490,10 @@
         <v>264</v>
       </c>
       <c r="B107" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C107" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
@@ -8407,10 +8501,10 @@
         <v>264</v>
       </c>
       <c r="B108" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C108" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
@@ -8418,10 +8512,10 @@
         <v>264</v>
       </c>
       <c r="B109" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="C109" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
@@ -8429,10 +8523,10 @@
         <v>264</v>
       </c>
       <c r="B110" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C110" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
@@ -8440,10 +8534,10 @@
         <v>264</v>
       </c>
       <c r="B111" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C111" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
@@ -8451,10 +8545,10 @@
         <v>264</v>
       </c>
       <c r="B112" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C112" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
@@ -8462,10 +8556,10 @@
         <v>264</v>
       </c>
       <c r="B113" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="C113" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
@@ -8473,10 +8567,10 @@
         <v>264</v>
       </c>
       <c r="B114" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="C114" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
@@ -8484,10 +8578,10 @@
         <v>264</v>
       </c>
       <c r="B115" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C115" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
@@ -8495,10 +8589,10 @@
         <v>264</v>
       </c>
       <c r="B116" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C116" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
@@ -8506,10 +8600,10 @@
         <v>264</v>
       </c>
       <c r="B117" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="C117" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
@@ -8517,76 +8611,76 @@
         <v>264</v>
       </c>
       <c r="B118" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C118" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B119" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="C119" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B120" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C120" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B121" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="C121" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C122" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B123" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="C123" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B124" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="C124" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
@@ -8594,10 +8688,10 @@
         <v>270</v>
       </c>
       <c r="B125" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
@@ -8605,10 +8699,10 @@
         <v>270</v>
       </c>
       <c r="B126" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C126" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
@@ -8616,10 +8710,10 @@
         <v>270</v>
       </c>
       <c r="B127" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C127" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
@@ -8627,10 +8721,10 @@
         <v>270</v>
       </c>
       <c r="B128" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C128" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
@@ -8638,10 +8732,10 @@
         <v>270</v>
       </c>
       <c r="B129" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C129" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
@@ -8649,10 +8743,10 @@
         <v>270</v>
       </c>
       <c r="B130" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C130" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
@@ -8660,10 +8754,10 @@
         <v>270</v>
       </c>
       <c r="B131" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C131" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
@@ -8671,10 +8765,10 @@
         <v>270</v>
       </c>
       <c r="B132" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C132" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
@@ -8682,10 +8776,10 @@
         <v>270</v>
       </c>
       <c r="B133" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C133" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
@@ -8693,10 +8787,10 @@
         <v>270</v>
       </c>
       <c r="B134" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C134" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
@@ -8704,10 +8798,10 @@
         <v>270</v>
       </c>
       <c r="B135" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="C135" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
@@ -8715,10 +8809,10 @@
         <v>270</v>
       </c>
       <c r="B136" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C136" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
@@ -8726,10 +8820,10 @@
         <v>270</v>
       </c>
       <c r="B137" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C137" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
@@ -8737,10 +8831,10 @@
         <v>270</v>
       </c>
       <c r="B138" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C138" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
@@ -8748,10 +8842,10 @@
         <v>270</v>
       </c>
       <c r="B139" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C139" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
@@ -8759,10 +8853,10 @@
         <v>270</v>
       </c>
       <c r="B140" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C140" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
@@ -8770,10 +8864,10 @@
         <v>270</v>
       </c>
       <c r="B141" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C141" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
@@ -8781,10 +8875,10 @@
         <v>270</v>
       </c>
       <c r="B142" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C142" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
@@ -8792,10 +8886,10 @@
         <v>270</v>
       </c>
       <c r="B143" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C143" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
@@ -8803,10 +8897,10 @@
         <v>270</v>
       </c>
       <c r="B144" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C144" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
@@ -8814,10 +8908,10 @@
         <v>270</v>
       </c>
       <c r="B145" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C145" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
@@ -8825,10 +8919,10 @@
         <v>270</v>
       </c>
       <c r="B146" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C146" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
@@ -8836,10 +8930,10 @@
         <v>270</v>
       </c>
       <c r="B147" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C147" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
@@ -8847,43 +8941,43 @@
         <v>270</v>
       </c>
       <c r="B148" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C148" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B149" t="s">
-        <v>272</v>
+        <v>122</v>
       </c>
       <c r="C149" t="s">
-        <v>273</v>
+        <v>123</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B150" t="s">
-        <v>273</v>
+        <v>123</v>
       </c>
       <c r="C150" t="s">
-        <v>274</v>
+        <v>124</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B151" t="s">
-        <v>274</v>
+        <v>124</v>
       </c>
       <c r="C151" t="s">
-        <v>125</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
@@ -8891,10 +8985,10 @@
         <v>271</v>
       </c>
       <c r="B152" t="s">
-        <v>125</v>
+        <v>272</v>
       </c>
       <c r="C152" t="s">
-        <v>126</v>
+        <v>273</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
@@ -8902,10 +8996,10 @@
         <v>271</v>
       </c>
       <c r="B153" t="s">
-        <v>126</v>
+        <v>273</v>
       </c>
       <c r="C153" t="s">
-        <v>127</v>
+        <v>274</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
@@ -8913,10 +9007,10 @@
         <v>271</v>
       </c>
       <c r="B154" t="s">
-        <v>127</v>
+        <v>274</v>
       </c>
       <c r="C154" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
@@ -8924,10 +9018,10 @@
         <v>271</v>
       </c>
       <c r="B155" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C155" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
@@ -8935,10 +9029,10 @@
         <v>271</v>
       </c>
       <c r="B156" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="C156" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
@@ -8946,10 +9040,10 @@
         <v>271</v>
       </c>
       <c r="B157" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C157" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
@@ -8957,10 +9051,10 @@
         <v>271</v>
       </c>
       <c r="B158" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C158" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
@@ -8968,10 +9062,10 @@
         <v>271</v>
       </c>
       <c r="B159" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C159" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
@@ -8979,10 +9073,10 @@
         <v>271</v>
       </c>
       <c r="B160" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C160" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
@@ -8990,10 +9084,10 @@
         <v>271</v>
       </c>
       <c r="B161" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C161" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
@@ -9001,10 +9095,10 @@
         <v>271</v>
       </c>
       <c r="B162" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="C162" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
@@ -9012,10 +9106,10 @@
         <v>271</v>
       </c>
       <c r="B163" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C163" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
@@ -9023,10 +9117,10 @@
         <v>271</v>
       </c>
       <c r="B164" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="C164" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
@@ -9034,10 +9128,10 @@
         <v>271</v>
       </c>
       <c r="B165" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C165" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
@@ -9045,10 +9139,10 @@
         <v>271</v>
       </c>
       <c r="B166" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="C166" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
@@ -9056,10 +9150,10 @@
         <v>271</v>
       </c>
       <c r="B167" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="C167" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
@@ -9067,10 +9161,10 @@
         <v>271</v>
       </c>
       <c r="B168" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="C168" t="s">
-        <v>275</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
@@ -9078,10 +9172,10 @@
         <v>271</v>
       </c>
       <c r="B169" t="s">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="C169" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
@@ -9089,10 +9183,10 @@
         <v>271</v>
       </c>
       <c r="B170" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C170" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
@@ -9100,10 +9194,10 @@
         <v>271</v>
       </c>
       <c r="B171" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="C171" t="s">
-        <v>139</v>
+        <v>275</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
@@ -9111,10 +9205,10 @@
         <v>271</v>
       </c>
       <c r="B172" t="s">
-        <v>139</v>
+        <v>275</v>
       </c>
       <c r="C172" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
@@ -9122,10 +9216,10 @@
         <v>271</v>
       </c>
       <c r="B173" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C173" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
@@ -9133,10 +9227,10 @@
         <v>271</v>
       </c>
       <c r="B174" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C174" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
@@ -9144,10 +9238,10 @@
         <v>271</v>
       </c>
       <c r="B175" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="C175" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
@@ -9155,10 +9249,10 @@
         <v>271</v>
       </c>
       <c r="B176" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C176" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
@@ -9166,10 +9260,10 @@
         <v>271</v>
       </c>
       <c r="B177" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C177" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
@@ -9177,10 +9271,10 @@
         <v>271</v>
       </c>
       <c r="B178" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="C178" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
@@ -9188,10 +9282,10 @@
         <v>271</v>
       </c>
       <c r="B179" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C179" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
@@ -9199,10 +9293,10 @@
         <v>271</v>
       </c>
       <c r="B180" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C180" t="s">
-        <v>276</v>
+        <v>144</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
@@ -9210,43 +9304,43 @@
         <v>271</v>
       </c>
       <c r="B181" t="s">
-        <v>276</v>
+        <v>144</v>
       </c>
       <c r="C181" t="s">
-        <v>277</v>
+        <v>145</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B182" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C182" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B183" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="C183" t="s">
-        <v>147</v>
+        <v>276</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B184" t="s">
-        <v>147</v>
+        <v>276</v>
       </c>
       <c r="C184" t="s">
-        <v>148</v>
+        <v>277</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
@@ -9254,10 +9348,10 @@
         <v>278</v>
       </c>
       <c r="B185" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C185" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
@@ -9265,13 +9359,10 @@
         <v>278</v>
       </c>
       <c r="B186" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="C186" t="s">
-        <v>150</v>
-      </c>
-      <c r="D186">
-        <v>1</v>
+        <v>147</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
@@ -9279,13 +9370,10 @@
         <v>278</v>
       </c>
       <c r="B187" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C187" t="s">
-        <v>151</v>
-      </c>
-      <c r="D187">
-        <v>1</v>
+        <v>148</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
@@ -9293,13 +9381,10 @@
         <v>278</v>
       </c>
       <c r="B188" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C188" t="s">
-        <v>152</v>
-      </c>
-      <c r="D188">
-        <v>1</v>
+        <v>149</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
@@ -9307,10 +9392,10 @@
         <v>278</v>
       </c>
       <c r="B189" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C189" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -9318,35 +9403,44 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B190" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C190" t="s">
-        <v>154</v>
+        <v>151</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B191" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C191" t="s">
-        <v>155</v>
+        <v>152</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B192" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C192" t="s">
-        <v>156</v>
+        <v>149</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
@@ -9354,10 +9448,10 @@
         <v>279</v>
       </c>
       <c r="B193" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C193" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
@@ -9365,10 +9459,10 @@
         <v>279</v>
       </c>
       <c r="B194" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C194" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
@@ -9376,10 +9470,10 @@
         <v>279</v>
       </c>
       <c r="B195" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="C195" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
@@ -9387,10 +9481,10 @@
         <v>279</v>
       </c>
       <c r="B196" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C196" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
@@ -9398,10 +9492,10 @@
         <v>279</v>
       </c>
       <c r="B197" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C197" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
@@ -9409,10 +9503,10 @@
         <v>279</v>
       </c>
       <c r="B198" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="C198" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
@@ -9420,10 +9514,10 @@
         <v>279</v>
       </c>
       <c r="B199" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="C199" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
@@ -9431,10 +9525,10 @@
         <v>279</v>
       </c>
       <c r="B200" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C200" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
@@ -9442,10 +9536,10 @@
         <v>279</v>
       </c>
       <c r="B201" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="C201" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
@@ -9453,10 +9547,10 @@
         <v>279</v>
       </c>
       <c r="B202" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="C202" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
@@ -9464,10 +9558,10 @@
         <v>279</v>
       </c>
       <c r="B203" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C203" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
@@ -9475,10 +9569,10 @@
         <v>279</v>
       </c>
       <c r="B204" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="C204" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
@@ -9486,10 +9580,10 @@
         <v>279</v>
       </c>
       <c r="B205" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="C205" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
@@ -9497,10 +9591,10 @@
         <v>279</v>
       </c>
       <c r="B206" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="C206" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
@@ -9508,10 +9602,10 @@
         <v>279</v>
       </c>
       <c r="B207" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C207" t="s">
-        <v>166</v>
+        <v>75</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
@@ -9519,10 +9613,10 @@
         <v>279</v>
       </c>
       <c r="B208" t="s">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="C208" t="s">
-        <v>167</v>
+        <v>60</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
@@ -9530,10 +9624,10 @@
         <v>279</v>
       </c>
       <c r="B209" t="s">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="C209" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
@@ -9541,10 +9635,10 @@
         <v>279</v>
       </c>
       <c r="B210" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="C210" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
@@ -9552,10 +9646,10 @@
         <v>279</v>
       </c>
       <c r="B211" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C211" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
@@ -9563,10 +9657,10 @@
         <v>279</v>
       </c>
       <c r="B212" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C212" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
@@ -9574,10 +9668,10 @@
         <v>279</v>
       </c>
       <c r="B213" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C213" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
@@ -9585,10 +9679,10 @@
         <v>279</v>
       </c>
       <c r="B214" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C214" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
@@ -9596,10 +9690,10 @@
         <v>279</v>
       </c>
       <c r="B215" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="C215" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
@@ -9607,10 +9701,10 @@
         <v>279</v>
       </c>
       <c r="B216" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="C216" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
@@ -9618,10 +9712,10 @@
         <v>279</v>
       </c>
       <c r="B217" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C217" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
@@ -9629,10 +9723,10 @@
         <v>279</v>
       </c>
       <c r="B218" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="C218" t="s">
-        <v>280</v>
+        <v>171</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
@@ -9640,10 +9734,10 @@
         <v>279</v>
       </c>
       <c r="B219" t="s">
-        <v>280</v>
+        <v>171</v>
       </c>
       <c r="C219" t="s">
-        <v>281</v>
+        <v>172</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
@@ -9651,10 +9745,10 @@
         <v>279</v>
       </c>
       <c r="B220" t="s">
-        <v>281</v>
+        <v>172</v>
       </c>
       <c r="C220" t="s">
-        <v>282</v>
+        <v>173</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
@@ -9662,10 +9756,10 @@
         <v>279</v>
       </c>
       <c r="B221" t="s">
-        <v>282</v>
+        <v>173</v>
       </c>
       <c r="C221" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
@@ -9673,10 +9767,10 @@
         <v>279</v>
       </c>
       <c r="B222" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C222" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
@@ -9684,10 +9778,10 @@
         <v>279</v>
       </c>
       <c r="B223" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C223" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
@@ -9695,10 +9789,10 @@
         <v>279</v>
       </c>
       <c r="B224" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C224" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
@@ -9706,10 +9800,10 @@
         <v>279</v>
       </c>
       <c r="B225" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C225" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.35">
@@ -9717,43 +9811,43 @@
         <v>279</v>
       </c>
       <c r="B226" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C226" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B227" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C227" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B228" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C228" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B229" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C229" t="s">
-        <v>174</v>
+        <v>288</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
@@ -9761,10 +9855,10 @@
         <v>289</v>
       </c>
       <c r="B230" t="s">
-        <v>174</v>
+        <v>290</v>
       </c>
       <c r="C230" t="s">
-        <v>175</v>
+        <v>291</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
@@ -9772,10 +9866,10 @@
         <v>289</v>
       </c>
       <c r="B231" t="s">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="C231" t="s">
-        <v>176</v>
+        <v>292</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
@@ -9783,10 +9877,10 @@
         <v>289</v>
       </c>
       <c r="B232" t="s">
-        <v>176</v>
+        <v>292</v>
       </c>
       <c r="C232" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
@@ -9794,10 +9888,10 @@
         <v>289</v>
       </c>
       <c r="B233" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C233" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
@@ -9805,10 +9899,10 @@
         <v>289</v>
       </c>
       <c r="B234" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C234" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
@@ -9816,10 +9910,10 @@
         <v>289</v>
       </c>
       <c r="B235" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C235" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
@@ -9827,10 +9921,10 @@
         <v>289</v>
       </c>
       <c r="B236" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C236" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
@@ -9838,10 +9932,10 @@
         <v>289</v>
       </c>
       <c r="B237" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C237" t="s">
-        <v>105</v>
+        <v>179</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
@@ -9849,10 +9943,10 @@
         <v>289</v>
       </c>
       <c r="B238" t="s">
-        <v>105</v>
+        <v>179</v>
       </c>
       <c r="C238" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
@@ -9860,10 +9954,10 @@
         <v>289</v>
       </c>
       <c r="B239" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C239" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
@@ -9871,10 +9965,10 @@
         <v>289</v>
       </c>
       <c r="B240" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C240" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
@@ -9882,10 +9976,10 @@
         <v>289</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C241" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
@@ -9893,10 +9987,10 @@
         <v>289</v>
       </c>
       <c r="B242" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C242" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
@@ -9904,10 +9998,10 @@
         <v>289</v>
       </c>
       <c r="B243" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C243" t="s">
-        <v>186</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
@@ -9915,10 +10009,10 @@
         <v>289</v>
       </c>
       <c r="B244" t="s">
-        <v>186</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>52</v>
+        <v>184</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
@@ -9926,10 +10020,10 @@
         <v>289</v>
       </c>
       <c r="B245" t="s">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c r="C245" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
@@ -9937,10 +10031,10 @@
         <v>289</v>
       </c>
       <c r="B246" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="C246" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
@@ -9948,10 +10042,10 @@
         <v>289</v>
       </c>
       <c r="B247" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="C247" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
@@ -9959,10 +10053,10 @@
         <v>289</v>
       </c>
       <c r="B248" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="C248" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
@@ -9970,10 +10064,10 @@
         <v>289</v>
       </c>
       <c r="B249" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="C249" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">
@@ -9981,10 +10075,10 @@
         <v>289</v>
       </c>
       <c r="B250" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="C250" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.35">
@@ -9992,10 +10086,10 @@
         <v>289</v>
       </c>
       <c r="B251" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="C251" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.35">
@@ -10003,10 +10097,10 @@
         <v>289</v>
       </c>
       <c r="B252" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="C252" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
@@ -10014,10 +10108,10 @@
         <v>289</v>
       </c>
       <c r="B253" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="C253" t="s">
-        <v>188</v>
+        <v>60</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
@@ -10025,10 +10119,10 @@
         <v>289</v>
       </c>
       <c r="B254" t="s">
-        <v>188</v>
+        <v>60</v>
       </c>
       <c r="C254" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
@@ -10036,10 +10130,10 @@
         <v>289</v>
       </c>
       <c r="B255" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="C255" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
@@ -10047,10 +10141,10 @@
         <v>289</v>
       </c>
       <c r="B256" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C256" t="s">
-        <v>20</v>
+        <v>188</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
@@ -10058,10 +10152,10 @@
         <v>289</v>
       </c>
       <c r="B257" t="s">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="C257" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
@@ -10069,10 +10163,10 @@
         <v>289</v>
       </c>
       <c r="B258" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C258" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
@@ -10080,10 +10174,10 @@
         <v>289</v>
       </c>
       <c r="B259" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C259" t="s">
-        <v>193</v>
+        <v>20</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
@@ -10091,10 +10185,10 @@
         <v>289</v>
       </c>
       <c r="B260" t="s">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="C260" t="s">
-        <v>293</v>
+        <v>191</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
@@ -10102,10 +10196,10 @@
         <v>289</v>
       </c>
       <c r="B261" t="s">
-        <v>293</v>
+        <v>191</v>
       </c>
       <c r="C261" t="s">
-        <v>294</v>
+        <v>192</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
@@ -10113,49 +10207,43 @@
         <v>289</v>
       </c>
       <c r="B262" t="s">
-        <v>294</v>
+        <v>192</v>
       </c>
       <c r="C262" t="s">
-        <v>295</v>
+        <v>193</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B263" t="s">
-        <v>297</v>
+        <v>193</v>
       </c>
       <c r="C263" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B264" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C264" t="s">
-        <v>176</v>
-      </c>
-      <c r="D264">
-        <v>1</v>
+        <v>294</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B265" t="s">
-        <v>206</v>
+        <v>294</v>
       </c>
       <c r="C265" t="s">
-        <v>298</v>
-      </c>
-      <c r="D265">
-        <v>1</v>
+        <v>295</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
@@ -10163,13 +10251,10 @@
         <v>296</v>
       </c>
       <c r="B266" t="s">
-        <v>177</v>
+        <v>297</v>
       </c>
       <c r="C266" t="s">
-        <v>206</v>
-      </c>
-      <c r="D266">
-        <v>1</v>
+        <v>298</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
@@ -10177,10 +10262,10 @@
         <v>296</v>
       </c>
       <c r="B267" t="s">
+        <v>298</v>
+      </c>
+      <c r="C267" t="s">
         <v>176</v>
-      </c>
-      <c r="C267" t="s">
-        <v>207</v>
       </c>
       <c r="D267">
         <v>1</v>
@@ -10191,10 +10276,10 @@
         <v>296</v>
       </c>
       <c r="B268" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C268" t="s">
-        <v>208</v>
+        <v>298</v>
       </c>
       <c r="D268">
         <v>1</v>
@@ -10205,10 +10290,10 @@
         <v>296</v>
       </c>
       <c r="B269" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="C269" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D269">
         <v>1</v>
@@ -10219,10 +10304,10 @@
         <v>296</v>
       </c>
       <c r="B270" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="C270" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D270">
         <v>1</v>
@@ -10233,10 +10318,10 @@
         <v>296</v>
       </c>
       <c r="B271" t="s">
+        <v>207</v>
+      </c>
+      <c r="C271" t="s">
         <v>208</v>
-      </c>
-      <c r="C271" t="s">
-        <v>204</v>
       </c>
       <c r="D271">
         <v>1</v>
@@ -10250,183 +10335,192 @@
         <v>204</v>
       </c>
       <c r="C272" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>296</v>
       </c>
       <c r="B273" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C273" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>296</v>
       </c>
       <c r="B274" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C274" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>296</v>
       </c>
       <c r="B275" t="s">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c r="C275" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>296</v>
       </c>
       <c r="B276" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C276" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>296</v>
       </c>
       <c r="B277" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C277" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>296</v>
       </c>
       <c r="B278" t="s">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="C278" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>296</v>
       </c>
       <c r="B279" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C279" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>296</v>
       </c>
       <c r="B280" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C280" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>296</v>
       </c>
       <c r="B281" t="s">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="C281" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>296</v>
       </c>
       <c r="B282" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C282" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>296</v>
       </c>
       <c r="B283" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C283" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>296</v>
       </c>
       <c r="B284" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="C284" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>296</v>
       </c>
       <c r="B285" t="s">
+        <v>196</v>
+      </c>
+      <c r="C285" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>296</v>
+      </c>
+      <c r="B286" t="s">
+        <v>195</v>
+      </c>
+      <c r="C286" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>296</v>
+      </c>
+      <c r="B287" t="s">
+        <v>194</v>
+      </c>
+      <c r="C287" t="s">
         <v>138</v>
       </c>
-      <c r="C285" t="s">
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>296</v>
+      </c>
+      <c r="B288" t="s">
+        <v>138</v>
+      </c>
+      <c r="C288" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A286" t="s">
-        <v>299</v>
-      </c>
-      <c r="B286" t="s">
-        <v>14</v>
-      </c>
-      <c r="C286" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A287" t="s">
-        <v>299</v>
-      </c>
-      <c r="B287" t="s">
-        <v>15</v>
-      </c>
-      <c r="C287" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A288" t="s">
-        <v>299</v>
-      </c>
-      <c r="B288" t="s">
-        <v>209</v>
-      </c>
-      <c r="C288" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.35">
@@ -10434,10 +10528,10 @@
         <v>299</v>
       </c>
       <c r="B289" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="C289" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.35">
@@ -10445,10 +10539,10 @@
         <v>299</v>
       </c>
       <c r="B290" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C290" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.35">
@@ -10456,10 +10550,10 @@
         <v>299</v>
       </c>
       <c r="B291" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C291" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.35">
@@ -10467,10 +10561,10 @@
         <v>299</v>
       </c>
       <c r="B292" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C292" t="s">
-        <v>211</v>
+        <v>60</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.35">
@@ -10478,10 +10572,10 @@
         <v>299</v>
       </c>
       <c r="B293" t="s">
-        <v>211</v>
+        <v>60</v>
       </c>
       <c r="C293" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.35">
@@ -10489,10 +10583,10 @@
         <v>299</v>
       </c>
       <c r="B294" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C294" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.35">
@@ -10500,10 +10594,10 @@
         <v>299</v>
       </c>
       <c r="B295" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="C295" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.35">
@@ -10511,10 +10605,10 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C296" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.35">
@@ -10522,43 +10616,43 @@
         <v>299</v>
       </c>
       <c r="B297" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="C297" t="s">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B298" t="s">
-        <v>302</v>
+        <v>150</v>
       </c>
       <c r="C298" t="s">
-        <v>303</v>
+        <v>213</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B299" t="s">
-        <v>303</v>
+        <v>213</v>
       </c>
       <c r="C299" t="s">
-        <v>304</v>
+        <v>65</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>304</v>
+        <v>65</v>
       </c>
       <c r="C300" t="s">
-        <v>214</v>
+        <v>300</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.35">
@@ -10566,10 +10660,10 @@
         <v>301</v>
       </c>
       <c r="B301" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>215</v>
+        <v>303</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.35">
@@ -10577,10 +10671,10 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>70</v>
+        <v>304</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.35">
@@ -10588,10 +10682,10 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>70</v>
+        <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.35">
@@ -10599,10 +10693,10 @@
         <v>301</v>
       </c>
       <c r="B304" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C304" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.35">
@@ -10610,10 +10704,10 @@
         <v>301</v>
       </c>
       <c r="B305" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C305" t="s">
-        <v>218</v>
+        <v>70</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.35">
@@ -10621,10 +10715,10 @@
         <v>301</v>
       </c>
       <c r="B306" t="s">
-        <v>218</v>
+        <v>70</v>
       </c>
       <c r="C306" t="s">
-        <v>32</v>
+        <v>216</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.35">
@@ -10632,10 +10726,10 @@
         <v>301</v>
       </c>
       <c r="B307" t="s">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="C307" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.35">
@@ -10643,10 +10737,10 @@
         <v>301</v>
       </c>
       <c r="B308" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C308" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.35">
@@ -10654,10 +10748,10 @@
         <v>301</v>
       </c>
       <c r="B309" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C309" t="s">
-        <v>221</v>
+        <v>32</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.35">
@@ -10665,10 +10759,10 @@
         <v>301</v>
       </c>
       <c r="B310" t="s">
-        <v>221</v>
+        <v>32</v>
       </c>
       <c r="C310" t="s">
-        <v>51</v>
+        <v>219</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.35">
@@ -10676,10 +10770,10 @@
         <v>301</v>
       </c>
       <c r="B311" t="s">
-        <v>51</v>
+        <v>219</v>
       </c>
       <c r="C311" t="s">
-        <v>161</v>
+        <v>220</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.35">
@@ -10687,10 +10781,10 @@
         <v>301</v>
       </c>
       <c r="B312" t="s">
-        <v>161</v>
+        <v>220</v>
       </c>
       <c r="C312" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.35">
@@ -10698,10 +10792,10 @@
         <v>301</v>
       </c>
       <c r="B313" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="C313" t="s">
-        <v>222</v>
+        <v>51</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.35">
@@ -10709,10 +10803,10 @@
         <v>301</v>
       </c>
       <c r="B314" t="s">
-        <v>222</v>
+        <v>51</v>
       </c>
       <c r="C314" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.35">
@@ -10720,10 +10814,10 @@
         <v>301</v>
       </c>
       <c r="B315" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="C315" t="s">
-        <v>224</v>
+        <v>10</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.35">
@@ -10731,10 +10825,10 @@
         <v>301</v>
       </c>
       <c r="B316" t="s">
-        <v>224</v>
+        <v>10</v>
       </c>
       <c r="C316" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.35">
@@ -10742,10 +10836,10 @@
         <v>301</v>
       </c>
       <c r="B317" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="C317" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.35">
@@ -10753,10 +10847,10 @@
         <v>301</v>
       </c>
       <c r="B318" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C318" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.35">
@@ -10764,10 +10858,10 @@
         <v>301</v>
       </c>
       <c r="B319" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C319" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.35">
@@ -10775,10 +10869,10 @@
         <v>301</v>
       </c>
       <c r="B320" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="C320" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.35">
@@ -10786,10 +10880,10 @@
         <v>301</v>
       </c>
       <c r="B321" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C321" t="s">
-        <v>112</v>
+        <v>226</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.35">
@@ -10797,10 +10891,10 @@
         <v>301</v>
       </c>
       <c r="B322" t="s">
-        <v>112</v>
+        <v>226</v>
       </c>
       <c r="C322" t="s">
-        <v>228</v>
+        <v>84</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.35">
@@ -10808,10 +10902,10 @@
         <v>301</v>
       </c>
       <c r="B323" t="s">
-        <v>228</v>
+        <v>84</v>
       </c>
       <c r="C323" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.35">
@@ -10819,10 +10913,10 @@
         <v>301</v>
       </c>
       <c r="B324" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C324" t="s">
-        <v>230</v>
+        <v>112</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.35">
@@ -10830,10 +10924,10 @@
         <v>301</v>
       </c>
       <c r="B325" t="s">
-        <v>230</v>
+        <v>112</v>
       </c>
       <c r="C325" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.35">
@@ -10841,10 +10935,10 @@
         <v>301</v>
       </c>
       <c r="B326" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C326" t="s">
-        <v>305</v>
+        <v>229</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.35">
@@ -10852,43 +10946,43 @@
         <v>301</v>
       </c>
       <c r="B327" t="s">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="C327" t="s">
-        <v>306</v>
+        <v>230</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B328" t="s">
-        <v>308</v>
+        <v>230</v>
       </c>
       <c r="C328" t="s">
-        <v>309</v>
+        <v>231</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B329" t="s">
-        <v>309</v>
+        <v>231</v>
       </c>
       <c r="C329" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B330" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C330" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.35">
@@ -10896,10 +10990,10 @@
         <v>307</v>
       </c>
       <c r="B331" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C331" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.35">
@@ -10907,10 +11001,10 @@
         <v>307</v>
       </c>
       <c r="B332" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C332" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.35">
@@ -10918,10 +11012,10 @@
         <v>307</v>
       </c>
       <c r="B333" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C333" t="s">
-        <v>241</v>
+        <v>311</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.35">
@@ -10929,10 +11023,10 @@
         <v>307</v>
       </c>
       <c r="B334" t="s">
-        <v>241</v>
+        <v>311</v>
       </c>
       <c r="C334" t="s">
-        <v>240</v>
+        <v>312</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.35">
@@ -10940,10 +11034,10 @@
         <v>307</v>
       </c>
       <c r="B335" t="s">
-        <v>240</v>
+        <v>312</v>
       </c>
       <c r="C335" t="s">
-        <v>239</v>
+        <v>313</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.35">
@@ -10951,10 +11045,10 @@
         <v>307</v>
       </c>
       <c r="B336" t="s">
-        <v>239</v>
+        <v>313</v>
       </c>
       <c r="C336" t="s">
-        <v>30</v>
+        <v>241</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.35">
@@ -10962,10 +11056,10 @@
         <v>307</v>
       </c>
       <c r="B337" t="s">
-        <v>30</v>
+        <v>241</v>
       </c>
       <c r="C337" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.35">
@@ -10973,10 +11067,10 @@
         <v>307</v>
       </c>
       <c r="B338" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C338" t="s">
-        <v>51</v>
+        <v>239</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.35">
@@ -10984,10 +11078,10 @@
         <v>307</v>
       </c>
       <c r="B339" t="s">
-        <v>51</v>
+        <v>239</v>
       </c>
       <c r="C339" t="s">
-        <v>185</v>
+        <v>30</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.35">
@@ -10995,10 +11089,10 @@
         <v>307</v>
       </c>
       <c r="B340" t="s">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="C340" t="s">
-        <v>314</v>
+        <v>238</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.35">
@@ -11006,10 +11100,10 @@
         <v>307</v>
       </c>
       <c r="B341" t="s">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="C341" t="s">
-        <v>160</v>
+        <v>51</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.35">
@@ -11017,10 +11111,10 @@
         <v>307</v>
       </c>
       <c r="B342" t="s">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="C342" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.35">
@@ -11028,10 +11122,10 @@
         <v>307</v>
       </c>
       <c r="B343" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="C343" t="s">
-        <v>236</v>
+        <v>314</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.35">
@@ -11039,10 +11133,10 @@
         <v>307</v>
       </c>
       <c r="B344" t="s">
-        <v>236</v>
+        <v>314</v>
       </c>
       <c r="C344" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.35">
@@ -11050,10 +11144,10 @@
         <v>307</v>
       </c>
       <c r="B345" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C345" t="s">
-        <v>84</v>
+        <v>237</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.35">
@@ -11061,10 +11155,10 @@
         <v>307</v>
       </c>
       <c r="B346" t="s">
-        <v>84</v>
+        <v>237</v>
       </c>
       <c r="C346" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.35">
@@ -11072,10 +11166,10 @@
         <v>307</v>
       </c>
       <c r="B347" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C347" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.35">
@@ -11083,10 +11177,10 @@
         <v>307</v>
       </c>
       <c r="B348" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="C348" t="s">
-        <v>233</v>
+        <v>84</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.35">
@@ -11094,10 +11188,10 @@
         <v>307</v>
       </c>
       <c r="B349" t="s">
-        <v>233</v>
+        <v>84</v>
       </c>
       <c r="C349" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.35">
@@ -11105,10 +11199,10 @@
         <v>307</v>
       </c>
       <c r="B350" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C350" t="s">
-        <v>315</v>
+        <v>234</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.35">
@@ -11116,10 +11210,10 @@
         <v>307</v>
       </c>
       <c r="B351" t="s">
-        <v>315</v>
+        <v>234</v>
       </c>
       <c r="C351" t="s">
-        <v>316</v>
+        <v>233</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.35">
@@ -11127,10 +11221,10 @@
         <v>307</v>
       </c>
       <c r="B352" t="s">
-        <v>316</v>
+        <v>233</v>
       </c>
       <c r="C352" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.35">
@@ -11138,10 +11232,10 @@
         <v>307</v>
       </c>
       <c r="B353" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C353" t="s">
-        <v>239</v>
+        <v>315</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.35">
@@ -11149,43 +11243,43 @@
         <v>307</v>
       </c>
       <c r="B354" t="s">
+        <v>315</v>
+      </c>
+      <c r="C354" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>307</v>
+      </c>
+      <c r="B355" t="s">
+        <v>316</v>
+      </c>
+      <c r="C355" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>307</v>
+      </c>
+      <c r="B356" t="s">
+        <v>242</v>
+      </c>
+      <c r="C356" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>307</v>
+      </c>
+      <c r="B357" t="s">
         <v>243</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C357" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A355">
-        <v>14</v>
-      </c>
-      <c r="B355" t="s">
-        <v>318</v>
-      </c>
-      <c r="C355" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A356">
-        <v>14</v>
-      </c>
-      <c r="B356" t="s">
-        <v>312</v>
-      </c>
-      <c r="C356" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A357">
-        <v>14</v>
-      </c>
-      <c r="B357" t="s">
-        <v>319</v>
-      </c>
-      <c r="C357" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.35">
@@ -11193,10 +11287,10 @@
         <v>14</v>
       </c>
       <c r="B358" t="s">
-        <v>243</v>
+        <v>318</v>
       </c>
       <c r="C358" t="s">
-        <v>244</v>
+        <v>312</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.35">
@@ -11204,10 +11298,10 @@
         <v>14</v>
       </c>
       <c r="B359" t="s">
-        <v>244</v>
+        <v>312</v>
       </c>
       <c r="C359" t="s">
-        <v>51</v>
+        <v>319</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.35">
@@ -11215,10 +11309,10 @@
         <v>14</v>
       </c>
       <c r="B360" t="s">
-        <v>51</v>
+        <v>319</v>
       </c>
       <c r="C360" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.35">
@@ -11226,10 +11320,10 @@
         <v>14</v>
       </c>
       <c r="B361" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="C361" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.35">
@@ -11237,10 +11331,10 @@
         <v>14</v>
       </c>
       <c r="B362" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="C362" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.35">
@@ -11248,10 +11342,10 @@
         <v>14</v>
       </c>
       <c r="B363" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C363" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.35">
@@ -11259,10 +11353,10 @@
         <v>14</v>
       </c>
       <c r="B364" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="C364" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.35">
@@ -11270,10 +11364,10 @@
         <v>14</v>
       </c>
       <c r="B365" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C365" t="s">
-        <v>245</v>
+        <v>14</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.35">
@@ -11281,10 +11375,10 @@
         <v>14</v>
       </c>
       <c r="B366" t="s">
-        <v>245</v>
+        <v>14</v>
       </c>
       <c r="C366" t="s">
-        <v>246</v>
+        <v>18</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.35">
@@ -11292,10 +11386,10 @@
         <v>14</v>
       </c>
       <c r="B367" t="s">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="C367" t="s">
-        <v>247</v>
+        <v>120</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.35">
@@ -11303,10 +11397,10 @@
         <v>14</v>
       </c>
       <c r="B368" t="s">
-        <v>247</v>
+        <v>120</v>
       </c>
       <c r="C368" t="s">
-        <v>143</v>
+        <v>245</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.35">
@@ -11314,10 +11408,10 @@
         <v>14</v>
       </c>
       <c r="B369" t="s">
-        <v>143</v>
+        <v>245</v>
       </c>
       <c r="C369" t="s">
-        <v>320</v>
+        <v>246</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.35">
@@ -11325,10 +11419,10 @@
         <v>14</v>
       </c>
       <c r="B370" t="s">
-        <v>320</v>
+        <v>246</v>
       </c>
       <c r="C370" t="s">
-        <v>321</v>
+        <v>247</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.35">
@@ -11336,10 +11430,10 @@
         <v>14</v>
       </c>
       <c r="B371" t="s">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c r="C371" t="s">
-        <v>322</v>
+        <v>143</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.35">
@@ -11347,10 +11441,10 @@
         <v>14</v>
       </c>
       <c r="B372" t="s">
-        <v>322</v>
+        <v>143</v>
       </c>
       <c r="C372" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.35">
@@ -11358,10 +11452,10 @@
         <v>14</v>
       </c>
       <c r="B373" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C373" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.35">
@@ -11369,9 +11463,42 @@
         <v>14</v>
       </c>
       <c r="B374" t="s">
+        <v>321</v>
+      </c>
+      <c r="C374" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A375">
+        <v>14</v>
+      </c>
+      <c r="B375" t="s">
+        <v>322</v>
+      </c>
+      <c r="C375" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A376">
+        <v>14</v>
+      </c>
+      <c r="B376" t="s">
+        <v>323</v>
+      </c>
+      <c r="C376" t="s">
         <v>324</v>
       </c>
-      <c r="C374" t="s">
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A377">
+        <v>14</v>
+      </c>
+      <c r="B377" t="s">
+        <v>324</v>
+      </c>
+      <c r="C377" t="s">
         <v>325</v>
       </c>
     </row>
@@ -11380,7 +11507,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2 A6" numberStoredAsText="1"/>
+    <ignoredError sqref="A9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/Metro_Arcs_Par_Station_IDs.xlsx
+++ b/Metro_Arcs_Par_Station_IDs.xlsx
@@ -8,19 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aurel\Documents\GitHub\ProbSciANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36123B24-41A0-439F-B1C6-7A79B4584091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39671CE-5587-4077-8F70-2556E38E2C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2 (2)" sheetId="3" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sheet1 (2)'!$A$1:$E$249</definedName>
-  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="337">
   <si>
     <t>ID STATION</t>
   </si>
@@ -1038,15 +1033,6 @@
   </si>
   <si>
     <t>Sens unique</t>
-  </si>
-  <si>
-    <t>Boulogne – Pont de Saint-Cloud</t>
-  </si>
-  <si>
-    <t>Boulogne – Jean Jaurès</t>
-  </si>
-  <si>
-    <t>Alésiaaaa</t>
   </si>
   <si>
     <t>a</t>
@@ -1146,7 +1132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1163,11 +1149,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1474,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G252"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="E249" sqref="E249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1509,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C2" s="5">
         <v>2.2385389999999998</v>
@@ -1531,7 +1515,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C3" s="5">
         <v>2.25</v>
@@ -1553,7 +1537,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C4" s="5">
         <v>2.257692</v>
@@ -1650,7 +1634,7 @@
         <v>48.874994575222999</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B8,Sheet2!B:B,0)),"C","Différent")</f>
@@ -1696,6 +1680,9 @@
       <c r="D10">
         <v>48.868724887050497</v>
       </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
       <c r="F10" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B10,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -1719,7 +1706,7 @@
         <v>48.867656291245702</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B11,Sheet2!B:B,0)),"C","Différent")</f>
@@ -1743,6 +1730,9 @@
       <c r="D12">
         <v>48.866557992001603</v>
       </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
       <c r="F12" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B12,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -1765,9 +1755,6 @@
       <c r="D13">
         <v>48.864477838366497</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
       <c r="F13" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B13,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -1815,9 +1802,6 @@
       <c r="D15">
         <v>48.860871211759502</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
       <c r="F15" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B15,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -1841,7 +1825,7 @@
         <v>48.8569534598372</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B16,Sheet2!B:B,0)),"C","Différent")</f>
@@ -1865,6 +1849,9 @@
       <c r="D17">
         <v>48.857352404237702</v>
       </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
       <c r="F17" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B17,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -1909,6 +1896,9 @@
       <c r="D19">
         <v>48.852054292549496</v>
       </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
       <c r="F19" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B19,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -1931,6 +1921,9 @@
       <c r="D20">
         <v>48.845683205787601</v>
       </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
       <c r="F20" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B20,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -1975,6 +1968,9 @@
       <c r="D22">
         <v>48.848084289025799</v>
       </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
       <c r="F22" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B22,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -2151,6 +2147,9 @@
       <c r="D30">
         <v>48.881073182127601</v>
       </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
       <c r="F30" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B30,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -2195,6 +2194,9 @@
       <c r="D32">
         <v>48.883669087324698</v>
       </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
       <c r="F32" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B32,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -2239,6 +2241,9 @@
       <c r="D34">
         <v>48.8820209311193</v>
       </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
       <c r="F34" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B34,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -2283,6 +2288,9 @@
       <c r="D36">
         <v>48.883776088608897</v>
       </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
       <c r="F36" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B36,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -2327,6 +2335,9 @@
       <c r="D38">
         <v>48.884320547921902</v>
       </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
       <c r="F38" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B38,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -2349,6 +2360,9 @@
       <c r="D39">
         <v>48.883023912481399</v>
       </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
       <c r="F39" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B39,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -2393,6 +2407,9 @@
       <c r="D41">
         <v>48.872286601164802</v>
       </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
       <c r="F41" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B41,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -2459,6 +2476,9 @@
       <c r="D44">
         <v>48.862449843989303</v>
       </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
       <c r="F44" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B44,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -2657,6 +2677,9 @@
       <c r="D53">
         <v>48.875381315059897</v>
       </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
       <c r="F53" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B53,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -2679,6 +2702,9 @@
       <c r="D54">
         <v>48.873666750997103</v>
       </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
       <c r="F54" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B54,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -2701,6 +2727,9 @@
       <c r="D55">
         <v>48.871437428049198</v>
       </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
       <c r="F55" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B55,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -2789,6 +2818,9 @@
       <c r="D59">
         <v>48.866381755803502</v>
       </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
       <c r="F59" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B59,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -2811,6 +2843,9 @@
       <c r="D60">
         <v>48.865299611696798</v>
       </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
       <c r="F60" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B60,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -2855,6 +2890,9 @@
       <c r="D62">
         <v>48.867512356863102</v>
       </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
       <c r="F62" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B62,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -2921,6 +2959,9 @@
       <c r="D65">
         <v>48.865032563515904</v>
       </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
       <c r="F65" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B65,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -2965,6 +3006,9 @@
       <c r="D67">
         <v>48.876568598079999</v>
       </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
       <c r="F67" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B67,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -3075,6 +3119,9 @@
       <c r="D72">
         <v>48.891280438896601</v>
       </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
       <c r="F72" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B72,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -3119,6 +3166,9 @@
       <c r="D74">
         <v>48.879591706462101</v>
       </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
       <c r="F74" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B74,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -3141,6 +3191,9 @@
       <c r="D75">
         <v>48.876162993518399</v>
       </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
       <c r="F75" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B75,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -3185,6 +3238,9 @@
       <c r="D77">
         <v>48.869623581689503</v>
       </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
       <c r="F77" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B77,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -3295,6 +3351,9 @@
       <c r="D82">
         <v>48.8520245535667</v>
       </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
       <c r="F82" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B82,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -3383,6 +3442,9 @@
       <c r="D86">
         <v>48.843823610306202</v>
       </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
       <c r="F86" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B86,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -3427,6 +3489,9 @@
       <c r="D88">
         <v>48.839156358577299</v>
       </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
       <c r="F88" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B88,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -3449,6 +3514,9 @@
       <c r="D89">
         <v>48.833948692744002</v>
       </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
       <c r="F89" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B89,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -3625,6 +3693,9 @@
       <c r="D97">
         <v>48.864777097573203</v>
       </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
       <c r="F97" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B97,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -3713,6 +3784,9 @@
       <c r="D101">
         <v>48.843405408577198</v>
       </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
       <c r="F101" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B101,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -3779,6 +3853,9 @@
       <c r="D104">
         <v>48.830965712344302</v>
       </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
       <c r="F104" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B104,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -3845,6 +3922,9 @@
       <c r="D107">
         <v>48.8634876640714</v>
       </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
       <c r="F107" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B107,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -3933,6 +4013,9 @@
       <c r="D111">
         <v>48.849630803484203</v>
       </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
       <c r="F111" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B111,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -3999,6 +4082,9 @@
       <c r="D114">
         <v>48.842528386594999</v>
       </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
       <c r="F114" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B114,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -4175,6 +4261,9 @@
       <c r="D122">
         <v>48.840176027173598</v>
       </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
       <c r="F122" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B122,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -4219,6 +4308,9 @@
       <c r="D124">
         <v>48.839434007104899</v>
       </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
       <c r="F124" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B124,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -4373,6 +4465,9 @@
       <c r="D131">
         <v>48.881206210877998</v>
       </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
       <c r="F131" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B131,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -4483,6 +4578,9 @@
       <c r="D136">
         <v>48.873134204826599</v>
       </c>
+      <c r="E136">
+        <v>3</v>
+      </c>
       <c r="F136" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B136,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -4505,6 +4603,9 @@
       <c r="D137">
         <v>48.8657555264287</v>
       </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
       <c r="F137" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B137,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -4593,6 +4694,9 @@
       <c r="D141">
         <v>48.846197890688799</v>
       </c>
+      <c r="E141">
+        <v>3</v>
+      </c>
       <c r="F141" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B141,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -4703,6 +4807,9 @@
       <c r="D146">
         <v>48.822149505126603</v>
       </c>
+      <c r="E146">
+        <v>2</v>
+      </c>
       <c r="F146" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B146,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -4857,6 +4964,9 @@
       <c r="D153">
         <v>48.876723661025203</v>
       </c>
+      <c r="E153">
+        <v>3</v>
+      </c>
       <c r="F153" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B153,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -5077,6 +5187,9 @@
       <c r="D163">
         <v>48.861092010432998</v>
       </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
       <c r="F163" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B163,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -5099,6 +5212,9 @@
       <c r="D164">
         <v>48.870544675768201</v>
       </c>
+      <c r="E164">
+        <v>3</v>
+      </c>
       <c r="F164" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B164,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -5121,6 +5237,9 @@
       <c r="D165">
         <v>48.872135869369899</v>
       </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
       <c r="F165" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B165,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -5143,6 +5262,9 @@
       <c r="D166">
         <v>48.871504768814702</v>
       </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
       <c r="F166" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B166,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -5165,6 +5287,9 @@
       <c r="D167">
         <v>48.8705712985549</v>
       </c>
+      <c r="E167">
+        <v>2</v>
+      </c>
       <c r="F167" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B167,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -5429,6 +5554,9 @@
       <c r="D179">
         <v>48.844911226614997</v>
       </c>
+      <c r="E179">
+        <v>2</v>
+      </c>
       <c r="F179" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B179,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -5451,6 +5579,9 @@
       <c r="D180">
         <v>48.847975353228101</v>
       </c>
+      <c r="E180">
+        <v>3</v>
+      </c>
       <c r="F180" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B180,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -5627,6 +5758,9 @@
       <c r="D188">
         <v>48.873447914847198</v>
       </c>
+      <c r="E188">
+        <v>2</v>
+      </c>
       <c r="F188" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B188,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -5649,6 +5783,9 @@
       <c r="D189">
         <v>48.874546611986801</v>
       </c>
+      <c r="E189">
+        <v>3</v>
+      </c>
       <c r="F189" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B189,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -5913,6 +6050,9 @@
       <c r="D201">
         <v>48.851565305443202</v>
       </c>
+      <c r="E201">
+        <v>2</v>
+      </c>
       <c r="F201" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B201,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -5957,6 +6097,9 @@
       <c r="D203">
         <v>48.847009892663699</v>
       </c>
+      <c r="E203">
+        <v>3</v>
+      </c>
       <c r="F203" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B203,Sheet2!B:B,0)),"C","Différent")</f>
         <v>C</v>
@@ -6946,6 +7089,9 @@
       </c>
       <c r="D248">
         <v>48.894431287069501</v>
+      </c>
+      <c r="E248">
+        <v>3</v>
       </c>
       <c r="F248" t="str">
         <f>IF(ISNUMBER(MATCH(Sheet1!B248,Sheet2!B:B,0)),"C","Différent")</f>
@@ -7054,7 +7200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H377"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -7101,12 +7247,12 @@
         <v>251</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D2" s="7"/>
+        <v>335</v>
+      </c>
+      <c r="D2" s="6"/>
       <c r="E2">
         <v>1</v>
       </c>
@@ -7126,12 +7272,12 @@
         <v>251</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="D3" s="7"/>
+        <v>334</v>
+      </c>
+      <c r="D3" s="6"/>
       <c r="E3">
         <v>2</v>
       </c>
@@ -7151,12 +7297,12 @@
         <v>251</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="6"/>
       <c r="E4">
         <v>3</v>
       </c>
@@ -7557,10 +7703,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D24" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -11510,8442 +11656,4 @@
     <ignoredError sqref="A9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E45169-26DB-4D88-A293-D6A1660EECBC}">
-  <dimension ref="A1:G372"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="28.6328125" customWidth="1"/>
-    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6">
-        <v>2.3383946352209102</v>
-      </c>
-      <c r="D2" s="6">
-        <v>48.884392717043397</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="G2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A3,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Différent</v>
-      </c>
-      <c r="C3">
-        <v>2.3270932349484501</v>
-      </c>
-      <c r="D3">
-        <v>48.828201063270903</v>
-      </c>
-      <c r="G3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A4,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C4">
-        <v>2.3947127337554801</v>
-      </c>
-      <c r="D4">
-        <v>48.856244677489201</v>
-      </c>
-      <c r="G4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A5,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Différent</v>
-      </c>
-      <c r="C5">
-        <v>2.3011043523926702</v>
-      </c>
-      <c r="D5">
-        <v>48.864647146957701</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A6,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C6">
-        <v>2.3441548403302899</v>
-      </c>
-      <c r="D6">
-        <v>48.882868567895898</v>
-      </c>
-      <c r="G6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A7,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C7">
-        <v>2.2894354185422099</v>
-      </c>
-      <c r="D7">
-        <v>48.875667375651702</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A8,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C8">
-        <v>2.35650814364354</v>
-      </c>
-      <c r="D8">
-        <v>48.865299611696798</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A9,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C9">
-        <v>2.3205758366475502</v>
-      </c>
-      <c r="D9">
-        <v>48.861071938577901</v>
-      </c>
-      <c r="G9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B10" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A10,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C10">
-        <v>2.2950189971435502</v>
-      </c>
-      <c r="D10">
-        <v>48.847038012756897</v>
-      </c>
-      <c r="G10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A11,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C11">
-        <v>2.3981875566594</v>
-      </c>
-      <c r="D11">
-        <v>48.851648542649002</v>
-      </c>
-      <c r="G11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A12,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C12">
-        <v>2.2783626618091999</v>
-      </c>
-      <c r="D12">
-        <v>48.836667893882797</v>
-      </c>
-      <c r="G12" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A13,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C13">
-        <v>2.3506070793550999</v>
-      </c>
-      <c r="D13">
-        <v>48.883776088608897</v>
-      </c>
-      <c r="G13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A14,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C14">
-        <v>2.36871896103409</v>
-      </c>
-      <c r="D14">
-        <v>48.852054292549496</v>
-      </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A15,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C15">
-        <v>2.4008671319952599</v>
-      </c>
-      <c r="D15">
-        <v>48.841427331285303</v>
-      </c>
-      <c r="G15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A16,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C16">
-        <v>2.3767355865572899</v>
-      </c>
-      <c r="D16">
-        <v>48.872286601164802</v>
-      </c>
-      <c r="G16" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A17,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C17">
-        <v>2.3794630701852602</v>
-      </c>
-      <c r="D17">
-        <v>48.840176027173598</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>246</v>
-      </c>
-      <c r="B18" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A18,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C18">
-        <v>2.3764873711683001</v>
-      </c>
-      <c r="D18">
-        <v>48.829925764980601</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A19,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C19">
-        <v>2.2894007376346002</v>
-      </c>
-      <c r="D19">
-        <v>48.853925367427799</v>
-      </c>
-      <c r="G19" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A20,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C20">
-        <v>2.33248437543436</v>
-      </c>
-      <c r="D20">
-        <v>48.883766353529197</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A21,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C21">
-        <v>2.2900328376074399</v>
-      </c>
-      <c r="D21">
-        <v>48.866848342469197</v>
-      </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A22,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C22">
-        <v>2.37412487118754</v>
-      </c>
-      <c r="D22">
-        <v>48.880789662027098</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A23,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C23">
-        <v>2.3484813657183898</v>
-      </c>
-      <c r="D23">
-        <v>48.8705712985549</v>
-      </c>
-      <c r="G23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B24" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A24,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C24">
-        <v>2.38890095131574</v>
-      </c>
-      <c r="D24">
-        <v>48.879534990320401</v>
-      </c>
-      <c r="G24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A25,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C25">
-        <v>2.2879184311245599</v>
-      </c>
-      <c r="D25">
-        <v>48.841024160045002</v>
-      </c>
-      <c r="G25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B26" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A26,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Différent</v>
-      </c>
-      <c r="C26" s="5">
-        <v>2.2388774200000001</v>
-      </c>
-      <c r="D26" s="5">
-        <v>48.840684009999997</v>
-      </c>
-      <c r="G26" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B27" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A27,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Différent</v>
-      </c>
-      <c r="C27" s="5">
-        <v>2.2283309999999998</v>
-      </c>
-      <c r="D27" s="5">
-        <v>48.840684000000003</v>
-      </c>
-      <c r="G27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A28,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C28">
-        <v>2.3406653707110401</v>
-      </c>
-      <c r="D28">
-        <v>48.868756796707601</v>
-      </c>
-      <c r="G28" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A29,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C29">
-        <v>2.3701946685897499</v>
-      </c>
-      <c r="D29">
-        <v>48.856244053738202</v>
-      </c>
-      <c r="G29" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>242</v>
-      </c>
-      <c r="B30" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A30,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C30">
-        <v>2.3199048172093599</v>
-      </c>
-      <c r="D30">
-        <v>48.890651870242102</v>
-      </c>
-      <c r="G30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>148</v>
-      </c>
-      <c r="B31" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A31,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C31">
-        <v>2.3815698420880098</v>
-      </c>
-      <c r="D31">
-        <v>48.878499087450599</v>
-      </c>
-      <c r="G31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>191</v>
-      </c>
-      <c r="B32" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A32,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C32">
-        <v>2.4011707693684099</v>
-      </c>
-      <c r="D32">
-        <v>48.851762438884101</v>
-      </c>
-      <c r="G32" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>132</v>
-      </c>
-      <c r="B33" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A33,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C33">
-        <v>2.3444463097022701</v>
-      </c>
-      <c r="D33">
-        <v>48.875963284127501</v>
-      </c>
-      <c r="G33" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A34,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C34">
-        <v>2.3029417283376099</v>
-      </c>
-      <c r="D34">
-        <v>48.847543111245301</v>
-      </c>
-      <c r="G34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A35,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C35">
-        <v>2.3587419566993399</v>
-      </c>
-      <c r="D35">
-        <v>48.835542932800998</v>
-      </c>
-      <c r="G35" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>194</v>
-      </c>
-      <c r="B36" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A36,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C36">
-        <v>2.3513280016731799</v>
-      </c>
-      <c r="D36">
-        <v>48.8467000343149</v>
-      </c>
-      <c r="G36" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>140</v>
-      </c>
-      <c r="B37" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A37,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C37">
-        <v>2.3516265726054999</v>
-      </c>
-      <c r="D37">
-        <v>48.840226247565703</v>
-      </c>
-      <c r="G37" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A38,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C38">
-        <v>2.3144645013227798</v>
-      </c>
-      <c r="D38">
-        <v>48.867656291245702</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="G38" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>207</v>
-      </c>
-      <c r="B39" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A39,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C39">
-        <v>2.2669054759402898</v>
-      </c>
-      <c r="D39">
-        <v>48.8450882982306</v>
-      </c>
-      <c r="G39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A40,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C40">
-        <v>2.2958117752357601</v>
-      </c>
-      <c r="D40">
-        <v>48.874994575222999</v>
-      </c>
-      <c r="E40">
-        <v>3</v>
-      </c>
-      <c r="G40" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>203</v>
-      </c>
-      <c r="B41" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A41,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C41">
-        <v>2.2856210133667201</v>
-      </c>
-      <c r="D41">
-        <v>48.846604531449202</v>
-      </c>
-      <c r="G41" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>189</v>
-      </c>
-      <c r="B42" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A42,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C42">
-        <v>2.3847823964488901</v>
-      </c>
-      <c r="D42">
-        <v>48.854939442500303</v>
-      </c>
-      <c r="G42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A43,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Différent</v>
-      </c>
-      <c r="C43">
-        <v>2.4405400954061101</v>
-      </c>
-      <c r="D43">
-        <v>48.844317513365297</v>
-      </c>
-      <c r="G43" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A44,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C44">
-        <v>2.35605174140158</v>
-      </c>
-      <c r="D44">
-        <v>48.872446916647398</v>
-      </c>
-      <c r="G44" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B45" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A45,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C45">
-        <v>2.3620179355106101</v>
-      </c>
-      <c r="D45">
-        <v>48.878441454784401</v>
-      </c>
-      <c r="G45" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A46,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C46">
-        <v>2.3493658080048401</v>
-      </c>
-      <c r="D46">
-        <v>48.887078876519602</v>
-      </c>
-      <c r="G46" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A47,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C47">
-        <v>2.3481609912345802</v>
-      </c>
-      <c r="D47">
-        <v>48.8569534598372</v>
-      </c>
-      <c r="E47">
-        <v>6</v>
-      </c>
-      <c r="G47" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>134</v>
-      </c>
-      <c r="B48" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A48,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C48">
-        <v>2.3337385944086999</v>
-      </c>
-      <c r="D48">
-        <v>48.873134204826599</v>
-      </c>
-      <c r="G48" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>167</v>
-      </c>
-      <c r="B49" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A49,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C49">
-        <v>2.3680950853859901</v>
-      </c>
-      <c r="D49">
-        <v>48.857087366872101</v>
-      </c>
-      <c r="G49" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A50,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C50">
-        <v>2.36808128297274</v>
-      </c>
-      <c r="D50">
-        <v>48.8349630811609</v>
-      </c>
-      <c r="G50" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A51,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C51">
-        <v>2.3472322349319099</v>
-      </c>
-      <c r="D51">
-        <v>48.854933848158502</v>
-      </c>
-      <c r="G51" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>196</v>
-      </c>
-      <c r="B52" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A52,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C52">
-        <v>2.34489630121208</v>
-      </c>
-      <c r="D52">
-        <v>48.851026875926301</v>
-      </c>
-      <c r="G52" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>38</v>
-      </c>
-      <c r="B53" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A53,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C53">
-        <v>2.3704675747938602</v>
-      </c>
-      <c r="D53">
-        <v>48.877649807573398</v>
-      </c>
-      <c r="G53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>157</v>
-      </c>
-      <c r="B54" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A54,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C54">
-        <v>2.2937968421928598</v>
-      </c>
-      <c r="D54">
-        <v>48.844611511420197</v>
-      </c>
-      <c r="G54" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A55,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C55">
-        <v>2.3229614457982599</v>
-      </c>
-      <c r="D55">
-        <v>48.866557992001603</v>
-      </c>
-      <c r="G55" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>230</v>
-      </c>
-      <c r="B56" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A56,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C56">
-        <v>2.29639138648092</v>
-      </c>
-      <c r="D56">
-        <v>48.837135052856702</v>
-      </c>
-      <c r="G56" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>126</v>
-      </c>
-      <c r="B57" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A57,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C57">
-        <v>2.3822915571646299</v>
-      </c>
-      <c r="D57">
-        <v>48.894672659108402</v>
-      </c>
-      <c r="G57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>116</v>
-      </c>
-      <c r="B58" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A58,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C58">
-        <v>2.35061122592617</v>
-      </c>
-      <c r="D58">
-        <v>48.829860012364001</v>
-      </c>
-      <c r="G58" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>245</v>
-      </c>
-      <c r="B59" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A59,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C59">
-        <v>2.3866178502140598</v>
-      </c>
-      <c r="D59">
-        <v>48.833319302895099</v>
-      </c>
-      <c r="G59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>26</v>
-      </c>
-      <c r="B60" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A60,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C60">
-        <v>2.30329436242521</v>
-      </c>
-      <c r="D60">
-        <v>48.879265253165102</v>
-      </c>
-      <c r="G60" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>40</v>
-      </c>
-      <c r="B61" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A61,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C61">
-        <v>2.38028898292719</v>
-      </c>
-      <c r="D61">
-        <v>48.869193344184303</v>
-      </c>
-      <c r="G61" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>127</v>
-      </c>
-      <c r="B62" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A62,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C62">
-        <v>2.37693573698238</v>
-      </c>
-      <c r="D62">
-        <v>48.890885757980897</v>
-      </c>
-      <c r="G62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>152</v>
-      </c>
-      <c r="B63" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A63,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C63">
-        <v>2.3932284712274901</v>
-      </c>
-      <c r="D63">
-        <v>48.881949213972597</v>
-      </c>
-      <c r="G63" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>122</v>
-      </c>
-      <c r="B64" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A64,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C64">
-        <v>2.39614862848937</v>
-      </c>
-      <c r="D64">
-        <v>48.839434007104899</v>
-      </c>
-      <c r="G64" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>87</v>
-      </c>
-      <c r="B65" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A65,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C65">
-        <v>2.33201883521639</v>
-      </c>
-      <c r="D65">
-        <v>48.833948692744002</v>
-      </c>
-      <c r="G65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>121</v>
-      </c>
-      <c r="B66" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A66,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C66">
-        <v>2.3895997700798102</v>
-      </c>
-      <c r="D66">
-        <v>48.8390365273806</v>
-      </c>
-      <c r="G66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>108</v>
-      </c>
-      <c r="B67" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A67,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C67">
-        <v>2.2936637267310398</v>
-      </c>
-      <c r="D67">
-        <v>48.850411624858502</v>
-      </c>
-      <c r="G67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>200</v>
-      </c>
-      <c r="B68" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A68,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C68">
-        <v>2.3165212194565199</v>
-      </c>
-      <c r="D68">
-        <v>48.847009892663699</v>
-      </c>
-      <c r="G68" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>158</v>
-      </c>
-      <c r="B69" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A69,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C69">
-        <v>2.30634568382008</v>
-      </c>
-      <c r="D69">
-        <v>48.854919659638902</v>
-      </c>
-      <c r="G69" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>113</v>
-      </c>
-      <c r="B70" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A70,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C70">
-        <v>2.3252865779433001</v>
-      </c>
-      <c r="D70">
-        <v>48.840903500750002</v>
-      </c>
-      <c r="G70" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>205</v>
-      </c>
-      <c r="B71" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A71,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C71">
-        <v>2.2691113890218899</v>
-      </c>
-      <c r="D71">
-        <v>48.847143360508902</v>
-      </c>
-      <c r="G71" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A72,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C72">
-        <v>2.3489761968791099</v>
-      </c>
-      <c r="D72">
-        <v>48.863703011076197</v>
-      </c>
-      <c r="G72" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>50</v>
-      </c>
-      <c r="B73" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A73,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C73">
-        <v>2.3221859195205101</v>
-      </c>
-      <c r="D73">
-        <v>48.878753163096697</v>
-      </c>
-      <c r="G73" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>175</v>
-      </c>
-      <c r="B74" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A74,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C74">
-        <v>2.2598008451443401</v>
-      </c>
-      <c r="D74">
-        <v>48.842580275328302</v>
-      </c>
-      <c r="G74" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>169</v>
-      </c>
-      <c r="B75" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A75,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C75">
-        <v>2.38402856638311</v>
-      </c>
-      <c r="D75">
-        <v>48.850110543185501</v>
-      </c>
-      <c r="G75" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>227</v>
-      </c>
-      <c r="B76" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A76,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C76">
-        <v>2.3175512356170298</v>
-      </c>
-      <c r="D76">
-        <v>48.844317682586102</v>
-      </c>
-      <c r="G76" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>156</v>
-      </c>
-      <c r="B77" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A77,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C77">
-        <v>2.2918472203679698</v>
-      </c>
-      <c r="D77">
-        <v>48.842684333848403</v>
-      </c>
-      <c r="G77" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>165</v>
-      </c>
-      <c r="B78" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A78,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C78">
-        <v>2.3667452977427001</v>
-      </c>
-      <c r="D78">
-        <v>48.8630698825026</v>
-      </c>
-      <c r="G78" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A79,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C79">
-        <v>2.3094881923371098</v>
-      </c>
-      <c r="D79">
-        <v>48.868724887050497</v>
-      </c>
-      <c r="G79" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>235</v>
-      </c>
-      <c r="B80" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A80,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C80">
-        <v>2.3223539967788098</v>
-      </c>
-      <c r="D80">
-        <v>48.838526084074203</v>
-      </c>
-      <c r="G80" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>63</v>
-      </c>
-      <c r="B81" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A81,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C81">
-        <v>2.3985373057045698</v>
-      </c>
-      <c r="D81">
-        <v>48.865032563515904</v>
-      </c>
-      <c r="G81" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>99</v>
-      </c>
-      <c r="B82" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A82,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C82">
-        <v>2.3641773106918298</v>
-      </c>
-      <c r="D82">
-        <v>48.843405408577198</v>
-      </c>
-      <c r="G82" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>73</v>
-      </c>
-      <c r="B83" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A83,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C83">
-        <v>2.35806459441865</v>
-      </c>
-      <c r="D83">
-        <v>48.876162993518399</v>
-      </c>
-      <c r="G83" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>18</v>
-      </c>
-      <c r="B84" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A84,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C84">
-        <v>2.3731565937891999</v>
-      </c>
-      <c r="D84">
-        <v>48.845683205787601</v>
-      </c>
-      <c r="G84" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>72</v>
-      </c>
-      <c r="B85" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A85,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C85">
-        <v>2.3568087882054098</v>
-      </c>
-      <c r="D85">
-        <v>48.879591706462101</v>
-      </c>
-      <c r="G85" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A86,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C86">
-        <v>2.3007597849789199</v>
-      </c>
-      <c r="D86">
-        <v>48.872037763641003</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="G86" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>115</v>
-      </c>
-      <c r="B87" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A87,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C87">
-        <v>2.3434382366787001</v>
-      </c>
-      <c r="D87">
-        <v>48.831115946668099</v>
-      </c>
-      <c r="G87" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>210</v>
-      </c>
-      <c r="B88" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A88,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C88">
-        <v>2.3707644347483998</v>
-      </c>
-      <c r="D88">
-        <v>48.870007016890497</v>
-      </c>
-      <c r="G88" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>163</v>
-      </c>
-      <c r="B89" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A89,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C89">
-        <v>2.34320726640509</v>
-      </c>
-      <c r="D89">
-        <v>48.871504768814702</v>
-      </c>
-      <c r="G89" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>240</v>
-      </c>
-      <c r="B90" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A90,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C90">
-        <v>2.32748325862612</v>
-      </c>
-      <c r="D90">
-        <v>48.893001441013702</v>
-      </c>
-      <c r="G90" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>52</v>
-      </c>
-      <c r="B91" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A91,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C91">
-        <v>2.3276511034187801</v>
-      </c>
-      <c r="D91">
-        <v>48.873666750997103</v>
-      </c>
-      <c r="G91" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>15</v>
-      </c>
-      <c r="B92" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A92,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C92">
-        <v>2.3520676701391001</v>
-      </c>
-      <c r="D92">
-        <v>48.857352404237702</v>
-      </c>
-      <c r="G92" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>182</v>
-      </c>
-      <c r="B93" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A93,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C93">
-        <v>2.2938642256822699</v>
-      </c>
-      <c r="D93">
-        <v>48.864780021309301</v>
-      </c>
-      <c r="G93" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>160</v>
-      </c>
-      <c r="B94" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A94,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C94">
-        <v>2.31463266044452</v>
-      </c>
-      <c r="D94">
-        <v>48.861092010432998</v>
-      </c>
-      <c r="G94" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A95,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C95">
-        <v>2.3610239020489199</v>
-      </c>
-      <c r="D95">
-        <v>48.870620925317198</v>
-      </c>
-      <c r="G95" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>178</v>
-      </c>
-      <c r="B96" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A96,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C96">
-        <v>2.2679332916470698</v>
-      </c>
-      <c r="D96">
-        <v>48.852433417777398</v>
-      </c>
-      <c r="G96" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>37</v>
-      </c>
-      <c r="B97" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A97,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C97">
-        <v>2.3714389599856101</v>
-      </c>
-      <c r="D97">
-        <v>48.883023912481399</v>
-      </c>
-      <c r="G97" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>204</v>
-      </c>
-      <c r="B98" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A98,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C98">
-        <v>2.2780094965273601</v>
-      </c>
-      <c r="D98">
-        <v>48.846181105275001</v>
-      </c>
-      <c r="G98" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>212</v>
-      </c>
-      <c r="B99" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A99,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C99">
-        <v>2.3893253789101001</v>
-      </c>
-      <c r="D99">
-        <v>48.875247347693403</v>
-      </c>
-      <c r="G99" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>216</v>
-      </c>
-      <c r="B100" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A100,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C100">
-        <v>2.34432002938048</v>
-      </c>
-      <c r="D100">
-        <v>48.892492267253999</v>
-      </c>
-      <c r="G100" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>138</v>
-      </c>
-      <c r="B101" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A101,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C101">
-        <v>2.35493167182323</v>
-      </c>
-      <c r="D101">
-        <v>48.846197890688799</v>
-      </c>
-      <c r="G101" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A102,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C102">
-        <v>2.2931461372486299</v>
-      </c>
-      <c r="D102">
-        <v>48.871489411987</v>
-      </c>
-      <c r="G102" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>35</v>
-      </c>
-      <c r="B103" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A103,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C103">
-        <v>2.3604041692741</v>
-      </c>
-      <c r="D103">
-        <v>48.884386409904799</v>
-      </c>
-      <c r="G103" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>239</v>
-      </c>
-      <c r="B104" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A104,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C104">
-        <v>2.3257141171661302</v>
-      </c>
-      <c r="D104">
-        <v>48.887433655789003</v>
-      </c>
-      <c r="G104" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>109</v>
-      </c>
-      <c r="B105" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A105,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C105">
-        <v>2.2985257262366301</v>
-      </c>
-      <c r="D105">
-        <v>48.849630803484203</v>
-      </c>
-      <c r="G105" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>180</v>
-      </c>
-      <c r="B106" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A106,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C106">
-        <v>2.2740962446697202</v>
-      </c>
-      <c r="D106">
-        <v>48.8580919659505</v>
-      </c>
-      <c r="G106" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>159</v>
-      </c>
-      <c r="B107" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A107,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C107">
-        <v>2.3104735359369801</v>
-      </c>
-      <c r="D107">
-        <v>48.857727022586403</v>
-      </c>
-      <c r="G107" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>217</v>
-      </c>
-      <c r="B108" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A108,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C108">
-        <v>2.33858382438319</v>
-      </c>
-      <c r="D108">
-        <v>48.889681809018903</v>
-      </c>
-      <c r="G108" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>93</v>
-      </c>
-      <c r="B109" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A109,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C109">
-        <v>2.3793909893523901</v>
-      </c>
-      <c r="D109">
-        <v>48.885133847137801</v>
-      </c>
-      <c r="G109" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>133</v>
-      </c>
-      <c r="B110" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A110,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C110">
-        <v>2.3401505597063701</v>
-      </c>
-      <c r="D110">
-        <v>48.874959405092902</v>
-      </c>
-      <c r="G110" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>168</v>
-      </c>
-      <c r="B111" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A111,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C111">
-        <v>2.3761412233185899</v>
-      </c>
-      <c r="D111">
-        <v>48.851337765850197</v>
-      </c>
-      <c r="G111" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>141</v>
-      </c>
-      <c r="B112" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A112,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C112">
-        <v>2.3524168018982698</v>
-      </c>
-      <c r="D112">
-        <v>48.835841621396199</v>
-      </c>
-      <c r="G112" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>77</v>
-      </c>
-      <c r="B113" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A113,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C113">
-        <v>2.3461273251736801</v>
-      </c>
-      <c r="D113">
-        <v>48.862504839391299</v>
-      </c>
-      <c r="G113" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>238</v>
-      </c>
-      <c r="B114" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A114,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C114">
-        <v>2.3268526712397599</v>
-      </c>
-      <c r="D114">
-        <v>48.879534936427703</v>
-      </c>
-      <c r="G114" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>129</v>
-      </c>
-      <c r="B115" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A115,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C115">
-        <v>2.3644248624936801</v>
-      </c>
-      <c r="D115">
-        <v>48.881206210877998</v>
-      </c>
-      <c r="G115" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>154</v>
-      </c>
-      <c r="B116" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A116,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C116">
-        <v>2.2822419598550701</v>
-      </c>
-      <c r="D116">
-        <v>48.838660862711599</v>
-      </c>
-      <c r="G116" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>13</v>
-      </c>
-      <c r="B117" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A117,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C117">
-        <v>2.3409696232852699</v>
-      </c>
-      <c r="D117">
-        <v>48.860871211759502</v>
-      </c>
-      <c r="E117">
-        <v>1</v>
-      </c>
-      <c r="G117" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>197</v>
-      </c>
-      <c r="B118" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A118,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C118">
-        <v>2.3351428193464701</v>
-      </c>
-      <c r="D118">
-        <v>48.8528437373513</v>
-      </c>
-      <c r="G118" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>161</v>
-      </c>
-      <c r="B119" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A119,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C119">
-        <v>2.3258100487932798</v>
-      </c>
-      <c r="D119">
-        <v>48.870544675768201</v>
-      </c>
-      <c r="G119" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>143</v>
-      </c>
-      <c r="B120" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A120,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C120">
-        <v>2.3584129461559402</v>
-      </c>
-      <c r="D120">
-        <v>48.822149505126603</v>
-      </c>
-      <c r="G120" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>49</v>
-      </c>
-      <c r="B121" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A121,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C121">
-        <v>2.30948784696001</v>
-      </c>
-      <c r="D121">
-        <v>48.882840021629796</v>
-      </c>
-      <c r="G121" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>192</v>
-      </c>
-      <c r="B122" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A122,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C122">
-        <v>2.4060385447980499</v>
-      </c>
-      <c r="D122">
-        <v>48.852731019531802</v>
-      </c>
-      <c r="G122" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>70</v>
-      </c>
-      <c r="B123" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A123,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C123">
-        <v>2.3496815417224801</v>
-      </c>
-      <c r="D123">
-        <v>48.891280438896601</v>
-      </c>
-      <c r="G123" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>215</v>
-      </c>
-      <c r="B124" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A124,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C124">
-        <v>2.3598084780840201</v>
-      </c>
-      <c r="D124">
-        <v>48.890579577619299</v>
-      </c>
-      <c r="G124" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>195</v>
-      </c>
-      <c r="B125" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A125,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C125">
-        <v>2.3482804131694901</v>
-      </c>
-      <c r="D125">
-        <v>48.850195465121303</v>
-      </c>
-      <c r="G125" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>41</v>
-      </c>
-      <c r="B126" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A126,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C126">
-        <v>2.3834303882303001</v>
-      </c>
-      <c r="D126">
-        <v>48.8663901391973</v>
-      </c>
-      <c r="G126" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>171</v>
-      </c>
-      <c r="B127" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A127,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C127">
-        <v>2.402366739988</v>
-      </c>
-      <c r="D127">
-        <v>48.837077430087497</v>
-      </c>
-      <c r="G127" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>177</v>
-      </c>
-      <c r="B128" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A128,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C128">
-        <v>2.2639895253333302</v>
-      </c>
-      <c r="D128">
-        <v>48.847975353228101</v>
-      </c>
-      <c r="G128" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>176</v>
-      </c>
-      <c r="B129" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A129,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C129">
-        <v>2.2615119169051998</v>
-      </c>
-      <c r="D129">
-        <v>48.844911226614997</v>
-      </c>
-      <c r="G129" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>208</v>
-      </c>
-      <c r="B130" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A130,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C130">
-        <v>2.2730641263728302</v>
-      </c>
-      <c r="D130">
-        <v>48.847077506397802</v>
-      </c>
-      <c r="G130" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>185</v>
-      </c>
-      <c r="B131" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A131,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C131">
-        <v>2.31601069312102</v>
-      </c>
-      <c r="D131">
-        <v>48.873447914847198</v>
-      </c>
-      <c r="G131" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>27</v>
-      </c>
-      <c r="B132" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A132,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C132">
-        <v>2.3094129673746999</v>
-      </c>
-      <c r="D132">
-        <v>48.880568769178801</v>
-      </c>
-      <c r="G132" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>170</v>
-      </c>
-      <c r="B133" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A133,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C133">
-        <v>2.39040001363536</v>
-      </c>
-      <c r="D133">
-        <v>48.844005074760702</v>
-      </c>
-      <c r="G133" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>84</v>
-      </c>
-      <c r="B134" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A134,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C134">
-        <v>2.3239891852049999</v>
-      </c>
-      <c r="D134">
-        <v>48.843823610306202</v>
-      </c>
-      <c r="G134" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>88</v>
-      </c>
-      <c r="B135" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A135,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C135">
-        <v>2.3298876404084199</v>
-      </c>
-      <c r="D135">
-        <v>48.831337584623199</v>
-      </c>
-      <c r="G135" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>20</v>
-      </c>
-      <c r="B136" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A136,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C136">
-        <v>2.3958439887237399</v>
-      </c>
-      <c r="D136">
-        <v>48.848084289025799</v>
-      </c>
-      <c r="G136" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>117</v>
-      </c>
-      <c r="B137" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A137,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C137">
-        <v>2.3628041715935102</v>
-      </c>
-      <c r="D137">
-        <v>48.833235278727898</v>
-      </c>
-      <c r="G137" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>226</v>
-      </c>
-      <c r="B138" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A138,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C138">
-        <v>2.3286958054987101</v>
-      </c>
-      <c r="D138">
-        <v>48.845077744689597</v>
-      </c>
-      <c r="G138" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>220</v>
-      </c>
-      <c r="B139" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A139,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C139">
-        <v>2.3378736192226399</v>
-      </c>
-      <c r="D139">
-        <v>48.876035030332602</v>
-      </c>
-      <c r="G139" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>95</v>
-      </c>
-      <c r="B140" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A140,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C140">
-        <v>2.3681558453945502</v>
-      </c>
-      <c r="D140">
-        <v>48.864777097573203</v>
-      </c>
-      <c r="G140" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>80</v>
-      </c>
-      <c r="B141" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A141,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C141">
-        <v>2.34069229106652</v>
-      </c>
-      <c r="D141">
-        <v>48.8520245535667</v>
-      </c>
-      <c r="G141" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>247</v>
-      </c>
-      <c r="B142" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A142,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C142">
-        <v>2.3669231215308102</v>
-      </c>
-      <c r="D142">
-        <v>48.827123440481003</v>
-      </c>
-      <c r="G142" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>53</v>
-      </c>
-      <c r="B143" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A143,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C143">
-        <v>2.33104728671124</v>
-      </c>
-      <c r="D143">
-        <v>48.871437428049198</v>
-      </c>
-      <c r="G143" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>92</v>
-      </c>
-      <c r="B144" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A144,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C144">
-        <v>2.3866520167598799</v>
-      </c>
-      <c r="D144">
-        <v>48.886915952247001</v>
-      </c>
-      <c r="G144" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>12</v>
-      </c>
-      <c r="B145" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A145,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C145">
-        <v>2.33645436775425</v>
-      </c>
-      <c r="D145">
-        <v>48.862222264625998</v>
-      </c>
-      <c r="E145">
-        <v>1</v>
-      </c>
-      <c r="G145" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>61</v>
-      </c>
-      <c r="B146" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A146,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C146">
-        <v>2.3747477503599002</v>
-      </c>
-      <c r="D146">
-        <v>48.865252394862502</v>
-      </c>
-      <c r="G146" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>106</v>
-      </c>
-      <c r="B147" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A147,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C147">
-        <v>2.2858394188814599</v>
-      </c>
-      <c r="D147">
-        <v>48.857515088672201</v>
-      </c>
-      <c r="G147" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>112</v>
-      </c>
-      <c r="B148" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A148,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C148">
-        <v>2.31291468047394</v>
-      </c>
-      <c r="D148">
-        <v>48.842528386594999</v>
-      </c>
-      <c r="G148" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>67</v>
-      </c>
-      <c r="B149" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A149,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C149">
-        <v>2.40149679228792</v>
-      </c>
-      <c r="D149">
-        <v>48.868464886066697</v>
-      </c>
-      <c r="G149" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>42</v>
-      </c>
-      <c r="B150" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A150,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C150">
-        <v>2.3875798912544499</v>
-      </c>
-      <c r="D150">
-        <v>48.862449843989303</v>
-      </c>
-      <c r="G150" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>47</v>
-      </c>
-      <c r="B151" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A151,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C151">
-        <v>2.2976831860125801</v>
-      </c>
-      <c r="D151">
-        <v>48.884844321791903</v>
-      </c>
-      <c r="G151" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>234</v>
-      </c>
-      <c r="B152" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A152,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C152">
-        <v>2.3183937066147</v>
-      </c>
-      <c r="D152">
-        <v>48.8340786788266</v>
-      </c>
-      <c r="G152" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>43</v>
-      </c>
-      <c r="B153" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A153,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C153">
-        <v>2.3904975967452899</v>
-      </c>
-      <c r="D153">
-        <v>48.858089427187601</v>
-      </c>
-      <c r="G153" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>124</v>
-      </c>
-      <c r="B154" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A154,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C154">
-        <v>2.4012745388223702</v>
-      </c>
-      <c r="D154">
-        <v>48.845103246553599</v>
-      </c>
-      <c r="G154" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>32</v>
-      </c>
-      <c r="B155" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A155,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C155">
-        <v>2.33721116470113</v>
-      </c>
-      <c r="D155">
-        <v>48.8820209311193</v>
-      </c>
-      <c r="G155" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>30</v>
-      </c>
-      <c r="B156" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A156,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C156">
-        <v>2.3279583280102201</v>
-      </c>
-      <c r="D156">
-        <v>48.883669087324698</v>
-      </c>
-      <c r="G156" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>150</v>
-      </c>
-      <c r="B157" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A157,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C157">
-        <v>2.3931393703605002</v>
-      </c>
-      <c r="D157">
-        <v>48.876723661025203</v>
-      </c>
-      <c r="G157" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>150</v>
-      </c>
-      <c r="B158" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A158,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C158">
-        <v>2.3931393703605002</v>
-      </c>
-      <c r="D158">
-        <v>48.876723661025203</v>
-      </c>
-      <c r="G158" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>102</v>
-      </c>
-      <c r="B159" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A159,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C159">
-        <v>2.3555015914814801</v>
-      </c>
-      <c r="D159">
-        <v>48.830965712344302</v>
-      </c>
-      <c r="G159" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>139</v>
-      </c>
-      <c r="B160" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A160,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C160">
-        <v>2.3521548685787699</v>
-      </c>
-      <c r="D160">
-        <v>48.842666384694603</v>
-      </c>
-      <c r="G160" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>233</v>
-      </c>
-      <c r="B161" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A161,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C161">
-        <v>2.31386048934431</v>
-      </c>
-      <c r="D161">
-        <v>48.831750362119102</v>
-      </c>
-      <c r="G161" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>131</v>
-      </c>
-      <c r="B162" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A162,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C162">
-        <v>2.3487397513900699</v>
-      </c>
-      <c r="D162">
-        <v>48.877164848302201</v>
-      </c>
-      <c r="G162" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>244</v>
-      </c>
-      <c r="B163" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A163,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C163">
-        <v>2.3153681405051501</v>
-      </c>
-      <c r="D163">
-        <v>48.888103402695002</v>
-      </c>
-      <c r="G163" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>275</v>
-      </c>
-      <c r="B164" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A164,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C164">
-        <v>2.3573766690443998</v>
-      </c>
-      <c r="D164">
-        <v>48.853459859479599</v>
-      </c>
-      <c r="G164" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>136</v>
-      </c>
-      <c r="B165" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A165,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C165">
-        <v>2.3417767491485399</v>
-      </c>
-      <c r="D165">
-        <v>48.858546338320203</v>
-      </c>
-      <c r="G165" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>23</v>
-      </c>
-      <c r="B166" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A166,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C166">
-        <v>2.27763271754527</v>
-      </c>
-      <c r="D166">
-        <v>48.871396794300303</v>
-      </c>
-      <c r="G166" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>206</v>
-      </c>
-      <c r="B167" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A167,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C167">
-        <v>2.25828074459554</v>
-      </c>
-      <c r="D167">
-        <v>48.847904122681001</v>
-      </c>
-      <c r="G167" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>64</v>
-      </c>
-      <c r="B168" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A168,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C168">
-        <v>2.4087542211895401</v>
-      </c>
-      <c r="D168">
-        <v>48.864539371986403</v>
-      </c>
-      <c r="G168" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>46</v>
-      </c>
-      <c r="B169" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A169,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C169">
-        <v>2.2921124821588399</v>
-      </c>
-      <c r="D169">
-        <v>48.885652392185897</v>
-      </c>
-      <c r="G169" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>173</v>
-      </c>
-      <c r="B170" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A170,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C170">
-        <v>2.4025118728500701</v>
-      </c>
-      <c r="D170">
-        <v>48.833449221931097</v>
-      </c>
-      <c r="G170" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>145</v>
-      </c>
-      <c r="B171" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A171,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C171">
-        <v>2.3646785940494599</v>
-      </c>
-      <c r="D171">
-        <v>48.8200559281997</v>
-      </c>
-      <c r="G171" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>243</v>
-      </c>
-      <c r="B172" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A172,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C172">
-        <v>2.3132083507588099</v>
-      </c>
-      <c r="D172">
-        <v>48.894431287069501</v>
-      </c>
-      <c r="G172" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>68</v>
-      </c>
-      <c r="B173" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A173,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C173">
-        <v>2.34462409910279</v>
-      </c>
-      <c r="D173">
-        <v>48.897525630330101</v>
-      </c>
-      <c r="G173" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>214</v>
-      </c>
-      <c r="B174" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A174,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C174">
-        <v>2.3592485423103602</v>
-      </c>
-      <c r="D174">
-        <v>48.897402421722497</v>
-      </c>
-      <c r="G174" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>125</v>
-      </c>
-      <c r="B175" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A175,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C175">
-        <v>2.3858690331433401</v>
-      </c>
-      <c r="D175">
-        <v>48.897802691407797</v>
-      </c>
-      <c r="G175" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>193</v>
-      </c>
-      <c r="B176" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A176,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C176">
-        <v>2.41071815402749</v>
-      </c>
-      <c r="D176">
-        <v>48.853482630258299</v>
-      </c>
-      <c r="G176" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
-        <v>91</v>
-      </c>
-      <c r="B177" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A177,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C177">
-        <v>2.3921229723281501</v>
-      </c>
-      <c r="D177">
-        <v>48.888459210398899</v>
-      </c>
-      <c r="G177" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
-        <v>174</v>
-      </c>
-      <c r="B178" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A178,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C178">
-        <v>2.2570461929221501</v>
-      </c>
-      <c r="D178">
-        <v>48.837958404671198</v>
-      </c>
-      <c r="G178" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>241</v>
-      </c>
-      <c r="B179" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A179,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C179">
-        <v>2.3290483407446501</v>
-      </c>
-      <c r="D179">
-        <v>48.8974978363796</v>
-      </c>
-      <c r="G179" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>232</v>
-      </c>
-      <c r="B180" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A180,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C180">
-        <v>2.30533238665747</v>
-      </c>
-      <c r="D180">
-        <v>48.827613463055897</v>
-      </c>
-      <c r="G180" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>231</v>
-      </c>
-      <c r="B181" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A181,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C181">
-        <v>2.2877417091423302</v>
-      </c>
-      <c r="D181">
-        <v>48.832519531565197</v>
-      </c>
-      <c r="G181" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>21</v>
-      </c>
-      <c r="B182" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A182,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C182">
-        <v>2.4108049967015002</v>
-      </c>
-      <c r="D182">
-        <v>48.847007730140398</v>
-      </c>
-      <c r="G182" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>65</v>
-      </c>
-      <c r="B183" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A183,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C183">
-        <v>2.4070619733808001</v>
-      </c>
-      <c r="D183">
-        <v>48.876568598079999</v>
-      </c>
-      <c r="G183" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>144</v>
-      </c>
-      <c r="B184" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A184,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C184">
-        <v>2.3595297331071698</v>
-      </c>
-      <c r="D184">
-        <v>48.8191065956103</v>
-      </c>
-      <c r="G184" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>146</v>
-      </c>
-      <c r="B185" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A185,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C185">
-        <v>2.3695112543194901</v>
-      </c>
-      <c r="D185">
-        <v>48.821489034614402</v>
-      </c>
-      <c r="G185" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
-        <v>172</v>
-      </c>
-      <c r="B186" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A186,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C186">
-        <v>2.4058739129875599</v>
-      </c>
-      <c r="D186">
-        <v>48.835017373145597</v>
-      </c>
-      <c r="G186" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>90</v>
-      </c>
-      <c r="B187" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A187,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C187">
-        <v>2.3254932653821001</v>
-      </c>
-      <c r="D187">
-        <v>48.823416350191799</v>
-      </c>
-      <c r="G187" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
-        <v>4</v>
-      </c>
-      <c r="B188" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A188,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C188">
-        <v>2.2825838473615501</v>
-      </c>
-      <c r="D188">
-        <v>48.878162652696503</v>
-      </c>
-      <c r="E188">
-        <v>1</v>
-      </c>
-      <c r="G188" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>151</v>
-      </c>
-      <c r="B189" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A189,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C189">
-        <v>2.3985807706935298</v>
-      </c>
-      <c r="D189">
-        <v>48.880159579716299</v>
-      </c>
-      <c r="G189" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>135</v>
-      </c>
-      <c r="B190" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A190,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C190">
-        <v>2.3346236060049201</v>
-      </c>
-      <c r="D190">
-        <v>48.8657555264287</v>
-      </c>
-      <c r="G190" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>211</v>
-      </c>
-      <c r="B191" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A191,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C191">
-        <v>2.38520291556953</v>
-      </c>
-      <c r="D191">
-        <v>48.873818789232502</v>
-      </c>
-      <c r="G191" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>119</v>
-      </c>
-      <c r="B192" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A192,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C192">
-        <v>2.37276624894817</v>
-      </c>
-      <c r="D192">
-        <v>48.837074269661301</v>
-      </c>
-      <c r="G192" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>98</v>
-      </c>
-      <c r="B193" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A193,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C193">
-        <v>2.3658846507504001</v>
-      </c>
-      <c r="D193">
-        <v>48.846427324531497</v>
-      </c>
-      <c r="G193" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>54</v>
-      </c>
-      <c r="B194" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A194,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C194">
-        <v>2.3363187355954902</v>
-      </c>
-      <c r="D194">
-        <v>48.869659096436202</v>
-      </c>
-      <c r="G194" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>209</v>
-      </c>
-      <c r="B195" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A195,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C195">
-        <v>2.35327394859477</v>
-      </c>
-      <c r="D195">
-        <v>48.861190156002202</v>
-      </c>
-      <c r="G195" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>179</v>
-      </c>
-      <c r="B196" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A196,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C196">
-        <v>2.2699481579346301</v>
-      </c>
-      <c r="D196">
-        <v>48.855503557447499</v>
-      </c>
-      <c r="G196" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>86</v>
-      </c>
-      <c r="B197" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A197,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C197">
-        <v>2.3304669937198699</v>
-      </c>
-      <c r="D197">
-        <v>48.839156358577299</v>
-      </c>
-      <c r="G197" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>57</v>
-      </c>
-      <c r="B198" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A198,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C198">
-        <v>2.35205078710284</v>
-      </c>
-      <c r="D198">
-        <v>48.866381755803502</v>
-      </c>
-      <c r="G198" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>225</v>
-      </c>
-      <c r="B199" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A199,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C199">
-        <v>2.3277871847873901</v>
-      </c>
-      <c r="D199">
-        <v>48.848332828092403</v>
-      </c>
-      <c r="G199" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>60</v>
-      </c>
-      <c r="B200" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A200,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C200">
-        <v>2.3633023407804501</v>
-      </c>
-      <c r="D200">
-        <v>48.867512356863102</v>
-      </c>
-      <c r="G200" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>19</v>
-      </c>
-      <c r="B201" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A201,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C201">
-        <v>2.38720107040939</v>
-      </c>
-      <c r="D201">
-        <v>48.847212925749702</v>
-      </c>
-      <c r="G201" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
-        <v>96</v>
-      </c>
-      <c r="B202" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A202,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C202">
-        <v>2.3718136304769502</v>
-      </c>
-      <c r="D202">
-        <v>48.8598769369206</v>
-      </c>
-      <c r="G202" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>162</v>
-      </c>
-      <c r="B203" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A203,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C203">
-        <v>2.33859122153854</v>
-      </c>
-      <c r="D203">
-        <v>48.872135869369899</v>
-      </c>
-      <c r="G203" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
-        <v>128</v>
-      </c>
-      <c r="B204" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A204,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C204">
-        <v>2.3736694647432</v>
-      </c>
-      <c r="D204">
-        <v>48.888157261117797</v>
-      </c>
-      <c r="G204" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>29</v>
-      </c>
-      <c r="B205" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A205,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C205">
-        <v>2.32135917382297</v>
-      </c>
-      <c r="D205">
-        <v>48.882345817848098</v>
-      </c>
-      <c r="G205" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
-        <v>181</v>
-      </c>
-      <c r="B206" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A206,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C206">
-        <v>2.2778858979590599</v>
-      </c>
-      <c r="D206">
-        <v>48.863951707931797</v>
-      </c>
-      <c r="G206" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
-        <v>190</v>
-      </c>
-      <c r="B207" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A207,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C207">
-        <v>2.3891047050322398</v>
-      </c>
-      <c r="D207">
-        <v>48.852214072383703</v>
-      </c>
-      <c r="G207" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
-        <v>224</v>
-      </c>
-      <c r="B208" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A208,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C208">
-        <v>2.32569989845241</v>
-      </c>
-      <c r="D208">
-        <v>48.855884677537297</v>
-      </c>
-      <c r="G208" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
-        <v>62</v>
-      </c>
-      <c r="B209" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A209,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C209">
-        <v>2.3805077560898602</v>
-      </c>
-      <c r="D209">
-        <v>48.864117700014603</v>
-      </c>
-      <c r="G209" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
-        <v>187</v>
-      </c>
-      <c r="B210" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A210,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C210">
-        <v>2.3738805382115502</v>
-      </c>
-      <c r="D210">
-        <v>48.861416656960998</v>
-      </c>
-      <c r="G210" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
-        <v>186</v>
-      </c>
-      <c r="B211" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A211,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C211">
-        <v>2.3210135978086002</v>
-      </c>
-      <c r="D211">
-        <v>48.874546611986801</v>
-      </c>
-      <c r="G211" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
-        <v>66</v>
-      </c>
-      <c r="B212" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A212,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C212">
-        <v>2.4044981831688701</v>
-      </c>
-      <c r="D212">
-        <v>48.871843371274899</v>
-      </c>
-      <c r="G212" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
-        <v>236</v>
-      </c>
-      <c r="B213" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A213,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C213">
-        <v>2.31428594618056</v>
-      </c>
-      <c r="D213">
-        <v>48.8512915499903</v>
-      </c>
-      <c r="G213" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A214" t="s">
-        <v>219</v>
-      </c>
-      <c r="B214" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A214,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C214">
-        <v>2.3375706403796701</v>
-      </c>
-      <c r="D214">
-        <v>48.878416593953702</v>
-      </c>
-      <c r="G214" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
-        <v>81</v>
-      </c>
-      <c r="B215" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A215,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C215">
-        <v>2.3339478107981901</v>
-      </c>
-      <c r="D215">
-        <v>48.853574562874201</v>
-      </c>
-      <c r="G215" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
-        <v>114</v>
-      </c>
-      <c r="B216" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A216,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C216">
-        <v>2.3371543709250102</v>
-      </c>
-      <c r="D216">
-        <v>48.832916005270803</v>
-      </c>
-      <c r="G216" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
-        <v>51</v>
-      </c>
-      <c r="B217" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A217,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C217">
-        <v>2.3254883906726098</v>
-      </c>
-      <c r="D217">
-        <v>48.875381315059897</v>
-      </c>
-      <c r="G217" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
-        <v>100</v>
-      </c>
-      <c r="B218" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A218,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C218">
-        <v>2.36072185971764</v>
-      </c>
-      <c r="D218">
-        <v>48.838512445735603</v>
-      </c>
-      <c r="G218" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
-        <v>79</v>
-      </c>
-      <c r="B219" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A219,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C219">
-        <v>2.3439917990332901</v>
-      </c>
-      <c r="D219">
-        <v>48.853594076619899</v>
-      </c>
-      <c r="G219" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
-        <v>16</v>
-      </c>
-      <c r="B220" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A220,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C220">
-        <v>2.3608852562751901</v>
-      </c>
-      <c r="D220">
-        <v>48.8551874206563</v>
-      </c>
-      <c r="G220" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
-        <v>184</v>
-      </c>
-      <c r="B221" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A221,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C221">
-        <v>2.3101372056878202</v>
-      </c>
-      <c r="D221">
-        <v>48.8721551301294</v>
-      </c>
-      <c r="G221" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
-        <v>83</v>
-      </c>
-      <c r="B222" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A222,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C222">
-        <v>2.32705481506631</v>
-      </c>
-      <c r="D222">
-        <v>48.847006650641099</v>
-      </c>
-      <c r="G222" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
-        <v>166</v>
-      </c>
-      <c r="B223" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A223,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C223">
-        <v>2.36726153971727</v>
-      </c>
-      <c r="D223">
-        <v>48.860968144808197</v>
-      </c>
-      <c r="G223" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
-        <v>82</v>
-      </c>
-      <c r="B224" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A224,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C224">
-        <v>2.3306119530815401</v>
-      </c>
-      <c r="D224">
-        <v>48.851208626618501</v>
-      </c>
-      <c r="G224" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
-        <v>201</v>
-      </c>
-      <c r="B225" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A225,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C225">
-        <v>2.3071378494033801</v>
-      </c>
-      <c r="D225">
-        <v>48.8471672690468</v>
-      </c>
-      <c r="G225" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
-        <v>56</v>
-      </c>
-      <c r="B226" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A226,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C226">
-        <v>2.3475538159377898</v>
-      </c>
-      <c r="D226">
-        <v>48.867346603345702</v>
-      </c>
-      <c r="G226" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
-        <v>198</v>
-      </c>
-      <c r="B227" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A227,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C227">
-        <v>2.32685966312174</v>
-      </c>
-      <c r="D227">
-        <v>48.851565305443202</v>
-      </c>
-      <c r="G227" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
-        <v>111</v>
-      </c>
-      <c r="B228" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A228,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C228">
-        <v>2.3095296104303902</v>
-      </c>
-      <c r="D228">
-        <v>48.845647681702502</v>
-      </c>
-      <c r="G228" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
-        <v>69</v>
-      </c>
-      <c r="B229" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A229,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C229">
-        <v>2.34759605535164</v>
-      </c>
-      <c r="D229">
-        <v>48.894124442685502</v>
-      </c>
-      <c r="G229" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
-        <v>223</v>
-      </c>
-      <c r="B230" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A230,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C230">
-        <v>2.3230759642515402</v>
-      </c>
-      <c r="D230">
-        <v>48.858531948780403</v>
-      </c>
-      <c r="G230" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
-        <v>36</v>
-      </c>
-      <c r="B231" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A231,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C231">
-        <v>2.36577437055817</v>
-      </c>
-      <c r="D231">
-        <v>48.884320547921902</v>
-      </c>
-      <c r="G231" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
-        <v>75</v>
-      </c>
-      <c r="B232" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A232,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C232">
-        <v>2.3544916165638301</v>
-      </c>
-      <c r="D232">
-        <v>48.869623581689503</v>
-      </c>
-      <c r="G232" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
-        <v>137</v>
-      </c>
-      <c r="B233" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A233,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C233">
-        <v>2.36185316969725</v>
-      </c>
-      <c r="D233">
-        <v>48.851271407445601</v>
-      </c>
-      <c r="G233" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
-        <v>213</v>
-      </c>
-      <c r="B234" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A234,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C234">
-        <v>2.3986480899605902</v>
-      </c>
-      <c r="D234">
-        <v>48.875510383232701</v>
-      </c>
-      <c r="G234" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
-        <v>59</v>
-      </c>
-      <c r="B235" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A235,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C235">
-        <v>2.3615612345263601</v>
-      </c>
-      <c r="D235">
-        <v>48.8667566284863</v>
-      </c>
-      <c r="G235" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
-        <v>25</v>
-      </c>
-      <c r="B236" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A236,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C236">
-        <v>2.2981132886172402</v>
-      </c>
-      <c r="D236">
-        <v>48.8782277299144</v>
-      </c>
-      <c r="G236" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
-        <v>142</v>
-      </c>
-      <c r="B237" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A237,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C237">
-        <v>2.3573184392131901</v>
-      </c>
-      <c r="D237">
-        <v>48.826136860805299</v>
-      </c>
-      <c r="G237" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
-        <v>221</v>
-      </c>
-      <c r="B238" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A238,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C238">
-        <v>2.3330491724182401</v>
-      </c>
-      <c r="D238">
-        <v>48.876336506359301</v>
-      </c>
-      <c r="G238" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
-        <v>105</v>
-      </c>
-      <c r="B239" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A239,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C239">
-        <v>2.2874927969664398</v>
-      </c>
-      <c r="D239">
-        <v>48.8634876640714</v>
-      </c>
-      <c r="G239" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
-        <v>11</v>
-      </c>
-      <c r="B240" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A240,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C240">
-        <v>2.3296780947116398</v>
-      </c>
-      <c r="D240">
-        <v>48.864477838366497</v>
-      </c>
-      <c r="E240">
-        <v>3</v>
-      </c>
-      <c r="G240" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
-        <v>199</v>
-      </c>
-      <c r="B241" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A241,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C241">
-        <v>2.32135124235473</v>
-      </c>
-      <c r="D241">
-        <v>48.848894569110698</v>
-      </c>
-      <c r="G241" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A242" t="s">
-        <v>237</v>
-      </c>
-      <c r="B242" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A242,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C242">
-        <v>2.3151139305096602</v>
-      </c>
-      <c r="D242">
-        <v>48.856624981798397</v>
-      </c>
-      <c r="G242" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
-        <v>229</v>
-      </c>
-      <c r="B243" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A243,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C243">
-        <v>2.30107451565455</v>
-      </c>
-      <c r="D243">
-        <v>48.839437917128599</v>
-      </c>
-      <c r="G243" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
-        <v>85</v>
-      </c>
-      <c r="B244" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A244,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C244">
-        <v>2.3288628540690999</v>
-      </c>
-      <c r="D244">
-        <v>48.842052322344102</v>
-      </c>
-      <c r="G244" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A245" t="s">
-        <v>24</v>
-      </c>
-      <c r="B245" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A245,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C245">
-        <v>2.2858287659129801</v>
-      </c>
-      <c r="D245">
-        <v>48.869926081462602</v>
-      </c>
-      <c r="G245" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
-        <v>28</v>
-      </c>
-      <c r="B246" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A246,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C246">
-        <v>2.3158150926463801</v>
-      </c>
-      <c r="D246">
-        <v>48.881073182127601</v>
-      </c>
-      <c r="G246" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
-        <v>228</v>
-      </c>
-      <c r="B247" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A247,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C247">
-        <v>2.3079833805768502</v>
-      </c>
-      <c r="D247">
-        <v>48.841411727466699</v>
-      </c>
-      <c r="G247" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A248" t="s">
-        <v>188</v>
-      </c>
-      <c r="B248" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A248,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C248">
-        <v>2.3800316941488</v>
-      </c>
-      <c r="D248">
-        <v>48.857662433437902</v>
-      </c>
-      <c r="G248" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A249" t="s">
-        <v>48</v>
-      </c>
-      <c r="B249" s="6" t="str">
-        <f>IF(ISNUMBER(MATCH(A249,'Sheet2 (2)'!A:A,0)),"Commun","Différent")</f>
-        <v>Commun</v>
-      </c>
-      <c r="C249">
-        <v>2.3046730875844301</v>
-      </c>
-      <c r="D249">
-        <v>48.883846389779201</v>
-      </c>
-      <c r="G249" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G250" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G251" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G252" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G253" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G254" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G255" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G256" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="257" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G257" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="258" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G258" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="259" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G259" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="260" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G260" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="261" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G261" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="262" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G262" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="263" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G263" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="264" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G264" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="265" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G265" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="266" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G266" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="267" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G267" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="268" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G268" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="269" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G269" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="270" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G270" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="271" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G271" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="272" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G272" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="273" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G273" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="274" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G274" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="275" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G275" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="276" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G276" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="277" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G277" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="278" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G278" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="279" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G279" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="280" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G280" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="281" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G281" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="282" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G282" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="283" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G283" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="284" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G284" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="285" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G285" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="286" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G286" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="287" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G287" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="288" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G288" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="289" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G289" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="290" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G290" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="291" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G291" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="292" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G292" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="293" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G293" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="294" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G294" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="295" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G295" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="296" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G296" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="297" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G297" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="298" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G298" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="299" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G299" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="300" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G300" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="301" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G301" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="302" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G302" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="303" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G303" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="304" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G304" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="305" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G305" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="306" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G306" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="307" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G307" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="308" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G308" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="309" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G309" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="310" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G310" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="311" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G311" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="312" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G312" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="313" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G313" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="314" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G314" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="315" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G315" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="316" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G316" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="317" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G317" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="318" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G318" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="319" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G319" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="320" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G320" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="321" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G321" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="322" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G322" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="323" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G323" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="324" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G324" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="325" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G325" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="326" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G326" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="327" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G327" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="328" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G328" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="329" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G329" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="330" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G330" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="331" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G331" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="332" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G332" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="333" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G333" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="334" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G334" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="335" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G335" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="336" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G336" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="337" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G337" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="338" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G338" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="339" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G339" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="340" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G340" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="341" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G341" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="342" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G342" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="343" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G343" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="344" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G344" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="345" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G345" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="346" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G346" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="347" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G347" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="348" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G348" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="349" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G349" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="350" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G350" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="351" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G351" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="352" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G352" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="353" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G353" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="354" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G354" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="355" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G355" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="356" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G356" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="357" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G357" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="358" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G358" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="359" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G359" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="360" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G360" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="361" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G361" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="362" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G362" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="363" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G363" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="364" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G364" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="365" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G365" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="366" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G366" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="367" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G367" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="368" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G368" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="369" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G369" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="370" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G370" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="371" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G371" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="372" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G372" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E249" xr:uid="{E6E45169-26DB-4D88-A293-D6A1660EECBC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F250">
-    <sortCondition ref="A15:A250"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE695AE2-0599-4D0B-9819-BB93F86942B5}">
-  <dimension ref="A1:H373"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.54296875" customWidth="1"/>
-    <col min="3" max="3" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7265625" customWidth="1"/>
-    <col min="9" max="9" width="26.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F17" si="0">H2/G2</f>
-        <v>0.55333333333333334</v>
-      </c>
-      <c r="G2" s="5">
-        <v>30</v>
-      </c>
-      <c r="H2" s="5">
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>0.496</v>
-      </c>
-      <c r="G3" s="5">
-        <v>25</v>
-      </c>
-      <c r="H3" s="5">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0.43333333333333329</v>
-      </c>
-      <c r="G4" s="5">
-        <v>27</v>
-      </c>
-      <c r="H4" s="5">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="G5" s="5">
-        <v>4</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0.40333333333333332</v>
-      </c>
-      <c r="G6" s="5">
-        <v>30</v>
-      </c>
-      <c r="H6" s="5">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0.54074074074074074</v>
-      </c>
-      <c r="G7" s="5">
-        <v>27</v>
-      </c>
-      <c r="H7" s="5">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0.48571428571428571</v>
-      </c>
-      <c r="G8" s="5">
-        <v>28</v>
-      </c>
-      <c r="H8" s="5">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0.59210526315789469</v>
-      </c>
-      <c r="G9" s="5">
-        <v>38</v>
-      </c>
-      <c r="H9" s="5">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>278</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0.38750000000000001</v>
-      </c>
-      <c r="G10" s="5">
-        <v>8</v>
-      </c>
-      <c r="H10" s="5">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="G11" s="5">
-        <v>39</v>
-      </c>
-      <c r="H11" s="5">
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>274</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>9</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G12" s="5">
-        <v>35</v>
-      </c>
-      <c r="H12" s="5">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0.46799999999999997</v>
-      </c>
-      <c r="G13" s="5">
-        <v>25</v>
-      </c>
-      <c r="H13" s="5">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14">
-        <v>11</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0.48461538461538461</v>
-      </c>
-      <c r="G14" s="5">
-        <v>13</v>
-      </c>
-      <c r="H14" s="5">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15">
-        <v>12</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0.51724137931034486</v>
-      </c>
-      <c r="G15" s="5">
-        <v>29</v>
-      </c>
-      <c r="H15" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>262</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16">
-        <v>13</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0.60750000000000004</v>
-      </c>
-      <c r="G16" s="5">
-        <v>40</v>
-      </c>
-      <c r="H16" s="5">
-        <v>24.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17">
-        <v>14</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0.79428571428571426</v>
-      </c>
-      <c r="G17" s="5">
-        <v>35</v>
-      </c>
-      <c r="H17" s="5">
-        <v>27.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>246</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>291</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>265</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>266</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>164</v>
-      </c>
-      <c r="C36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>164</v>
-      </c>
-      <c r="C37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>155</v>
-      </c>
-      <c r="C39" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>298</v>
-      </c>
-      <c r="C40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>297</v>
-      </c>
-      <c r="C41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>242</v>
-      </c>
-      <c r="C44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>191</v>
-      </c>
-      <c r="C46" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>132</v>
-      </c>
-      <c r="C47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>194</v>
-      </c>
-      <c r="C50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>311</v>
-      </c>
-      <c r="C51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>140</v>
-      </c>
-      <c r="C52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>314</v>
-      </c>
-      <c r="C54" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>207</v>
-      </c>
-      <c r="C55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>281</v>
-      </c>
-      <c r="C56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>203</v>
-      </c>
-      <c r="C60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>189</v>
-      </c>
-      <c r="C61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>130</v>
-      </c>
-      <c r="C63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>134</v>
-      </c>
-      <c r="C71" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>167</v>
-      </c>
-      <c r="C72" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>118</v>
-      </c>
-      <c r="C73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>323</v>
-      </c>
-      <c r="C74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>196</v>
-      </c>
-      <c r="C76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>38</v>
-      </c>
-      <c r="C77" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>157</v>
-      </c>
-      <c r="C78" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>230</v>
-      </c>
-      <c r="C82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>126</v>
-      </c>
-      <c r="C83" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>305</v>
-      </c>
-      <c r="C84" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>116</v>
-      </c>
-      <c r="C85" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>245</v>
-      </c>
-      <c r="C86" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>26</v>
-      </c>
-      <c r="C87" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>40</v>
-      </c>
-      <c r="C88" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>285</v>
-      </c>
-      <c r="C89" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>287</v>
-      </c>
-      <c r="C90" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>286</v>
-      </c>
-      <c r="C91" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>127</v>
-      </c>
-      <c r="C92" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>294</v>
-      </c>
-      <c r="C93" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>152</v>
-      </c>
-      <c r="C94" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>122</v>
-      </c>
-      <c r="C95" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>122</v>
-      </c>
-      <c r="C96" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>87</v>
-      </c>
-      <c r="C97" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>87</v>
-      </c>
-      <c r="C98" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>121</v>
-      </c>
-      <c r="C99" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>108</v>
-      </c>
-      <c r="C100" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>200</v>
-      </c>
-      <c r="C101" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>200</v>
-      </c>
-      <c r="C102" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>158</v>
-      </c>
-      <c r="C103" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>282</v>
-      </c>
-      <c r="C104" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>113</v>
-      </c>
-      <c r="C105" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>205</v>
-      </c>
-      <c r="C106" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>267</v>
-      </c>
-      <c r="C107" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>76</v>
-      </c>
-      <c r="C108" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>50</v>
-      </c>
-      <c r="C109" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>175</v>
-      </c>
-      <c r="C110" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>169</v>
-      </c>
-      <c r="C111" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>227</v>
-      </c>
-      <c r="C112" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>156</v>
-      </c>
-      <c r="C113" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>165</v>
-      </c>
-      <c r="C114" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>273</v>
-      </c>
-      <c r="C115" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>304</v>
-      </c>
-      <c r="C118" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>235</v>
-      </c>
-      <c r="C119" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>63</v>
-      </c>
-      <c r="C120" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>63</v>
-      </c>
-      <c r="C121" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>99</v>
-      </c>
-      <c r="C122" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>73</v>
-      </c>
-      <c r="C123" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>73</v>
-      </c>
-      <c r="C124" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>73</v>
-      </c>
-      <c r="C125" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>18</v>
-      </c>
-      <c r="C126" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>18</v>
-      </c>
-      <c r="C127" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>72</v>
-      </c>
-      <c r="C128" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>72</v>
-      </c>
-      <c r="C129" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>313</v>
-      </c>
-      <c r="C130" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>115</v>
-      </c>
-      <c r="C132" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>210</v>
-      </c>
-      <c r="C133" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>163</v>
-      </c>
-      <c r="C134" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>163</v>
-      </c>
-      <c r="C135" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>240</v>
-      </c>
-      <c r="C136" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>258</v>
-      </c>
-      <c r="C137" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>52</v>
-      </c>
-      <c r="C138" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>268</v>
-      </c>
-      <c r="C139" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>320</v>
-      </c>
-      <c r="C140" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>15</v>
-      </c>
-      <c r="C141" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>15</v>
-      </c>
-      <c r="C142" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>182</v>
-      </c>
-      <c r="C143" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>160</v>
-      </c>
-      <c r="C144" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>160</v>
-      </c>
-      <c r="C145" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>94</v>
-      </c>
-      <c r="C146" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>178</v>
-      </c>
-      <c r="C147" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>37</v>
-      </c>
-      <c r="C148" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>37</v>
-      </c>
-      <c r="C149" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>37</v>
-      </c>
-      <c r="C150" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>204</v>
-      </c>
-      <c r="C151" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>204</v>
-      </c>
-      <c r="C152" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>212</v>
-      </c>
-      <c r="C153" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>216</v>
-      </c>
-      <c r="C154" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>138</v>
-      </c>
-      <c r="C155" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>138</v>
-      </c>
-      <c r="C156" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>103</v>
-      </c>
-      <c r="C157" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>322</v>
-      </c>
-      <c r="C158" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>35</v>
-      </c>
-      <c r="C159" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>272</v>
-      </c>
-      <c r="C160" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>239</v>
-      </c>
-      <c r="C161" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>109</v>
-      </c>
-      <c r="C162" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>109</v>
-      </c>
-      <c r="C163" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>109</v>
-      </c>
-      <c r="C164" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>180</v>
-      </c>
-      <c r="C165" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>159</v>
-      </c>
-      <c r="C166" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>217</v>
-      </c>
-      <c r="C167" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>93</v>
-      </c>
-      <c r="C168" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>133</v>
-      </c>
-      <c r="C169" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>168</v>
-      </c>
-      <c r="C170" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>141</v>
-      </c>
-      <c r="C171" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>77</v>
-      </c>
-      <c r="C172" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>252</v>
-      </c>
-      <c r="C173" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>280</v>
-      </c>
-      <c r="C174" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>238</v>
-      </c>
-      <c r="C175" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>129</v>
-      </c>
-      <c r="C176" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
-        <v>129</v>
-      </c>
-      <c r="C177" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
-        <v>257</v>
-      </c>
-      <c r="C178" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>154</v>
-      </c>
-      <c r="C179" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>13</v>
-      </c>
-      <c r="C180" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>197</v>
-      </c>
-      <c r="C181" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>161</v>
-      </c>
-      <c r="C182" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>161</v>
-      </c>
-      <c r="C183" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>161</v>
-      </c>
-      <c r="C184" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>302</v>
-      </c>
-      <c r="C185" t="s">
-        <v>150</v>
-      </c>
-      <c r="D185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
-        <v>261</v>
-      </c>
-      <c r="C186" t="s">
-        <v>151</v>
-      </c>
-      <c r="D186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>312</v>
-      </c>
-      <c r="C187" t="s">
-        <v>152</v>
-      </c>
-      <c r="D187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
-        <v>312</v>
-      </c>
-      <c r="C188" t="s">
-        <v>149</v>
-      </c>
-      <c r="D188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>143</v>
-      </c>
-      <c r="C189" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>143</v>
-      </c>
-      <c r="C190" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>284</v>
-      </c>
-      <c r="C191" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>283</v>
-      </c>
-      <c r="C192" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>315</v>
-      </c>
-      <c r="C193" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>316</v>
-      </c>
-      <c r="C194" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>49</v>
-      </c>
-      <c r="C195" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>192</v>
-      </c>
-      <c r="C196" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>70</v>
-      </c>
-      <c r="C197" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>70</v>
-      </c>
-      <c r="C198" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>292</v>
-      </c>
-      <c r="C199" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>215</v>
-      </c>
-      <c r="C200" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>195</v>
-      </c>
-      <c r="C201" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
-        <v>41</v>
-      </c>
-      <c r="C202" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>171</v>
-      </c>
-      <c r="C203" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
-        <v>177</v>
-      </c>
-      <c r="C204" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>177</v>
-      </c>
-      <c r="C205" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
-        <v>176</v>
-      </c>
-      <c r="C206" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
-        <v>176</v>
-      </c>
-      <c r="C207" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
-        <v>208</v>
-      </c>
-      <c r="C208" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
-        <v>185</v>
-      </c>
-      <c r="C209" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
-        <v>185</v>
-      </c>
-      <c r="C210" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
-        <v>27</v>
-      </c>
-      <c r="C211" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
-        <v>170</v>
-      </c>
-      <c r="C212" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
-        <v>84</v>
-      </c>
-      <c r="C213" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A214" t="s">
-        <v>84</v>
-      </c>
-      <c r="C214" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
-        <v>84</v>
-      </c>
-      <c r="C215" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
-        <v>84</v>
-      </c>
-      <c r="C216" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
-        <v>88</v>
-      </c>
-      <c r="C217" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
-        <v>20</v>
-      </c>
-      <c r="C218" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
-        <v>20</v>
-      </c>
-      <c r="C219" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
-        <v>117</v>
-      </c>
-      <c r="C220" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
-        <v>226</v>
-      </c>
-      <c r="C221" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
-        <v>220</v>
-      </c>
-      <c r="C222" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
-        <v>95</v>
-      </c>
-      <c r="C223" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
-        <v>95</v>
-      </c>
-      <c r="C224" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
-        <v>80</v>
-      </c>
-      <c r="C225" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
-        <v>80</v>
-      </c>
-      <c r="C226" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
-        <v>247</v>
-      </c>
-      <c r="C227" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
-        <v>53</v>
-      </c>
-      <c r="C228" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
-        <v>53</v>
-      </c>
-      <c r="C229" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
-        <v>53</v>
-      </c>
-      <c r="C230" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
-        <v>92</v>
-      </c>
-      <c r="C231" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
-        <v>12</v>
-      </c>
-      <c r="C232" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
-        <v>12</v>
-      </c>
-      <c r="C233" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
-        <v>61</v>
-      </c>
-      <c r="C234" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
-        <v>106</v>
-      </c>
-      <c r="C235" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
-        <v>112</v>
-      </c>
-      <c r="C236" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
-        <v>112</v>
-      </c>
-      <c r="C237" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
-        <v>67</v>
-      </c>
-      <c r="C238" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
-        <v>42</v>
-      </c>
-      <c r="C239" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
-        <v>42</v>
-      </c>
-      <c r="C240" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
-        <v>47</v>
-      </c>
-      <c r="C241" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A242" t="s">
-        <v>234</v>
-      </c>
-      <c r="C242" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
-        <v>43</v>
-      </c>
-      <c r="C243" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
-        <v>124</v>
-      </c>
-      <c r="C244" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A245" t="s">
-        <v>276</v>
-      </c>
-      <c r="C245" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
-        <v>32</v>
-      </c>
-      <c r="C246" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
-        <v>32</v>
-      </c>
-      <c r="C247" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A248" t="s">
-        <v>30</v>
-      </c>
-      <c r="C248" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A249" t="s">
-        <v>30</v>
-      </c>
-      <c r="C249" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
-        <v>150</v>
-      </c>
-      <c r="C250" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A251" t="s">
-        <v>150</v>
-      </c>
-      <c r="C251" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A252" t="s">
-        <v>102</v>
-      </c>
-      <c r="C252" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A253" t="s">
-        <v>102</v>
-      </c>
-      <c r="C253" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A254" t="s">
-        <v>139</v>
-      </c>
-      <c r="C254" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
-        <v>233</v>
-      </c>
-      <c r="C255" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
-        <v>131</v>
-      </c>
-      <c r="C256" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
-        <v>244</v>
-      </c>
-      <c r="C257" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
-        <v>255</v>
-      </c>
-      <c r="C258" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
-        <v>290</v>
-      </c>
-      <c r="C259" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A260" t="s">
-        <v>275</v>
-      </c>
-      <c r="C260" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A261" t="s">
-        <v>136</v>
-      </c>
-      <c r="C261" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A262" t="s">
-        <v>23</v>
-      </c>
-      <c r="C262" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A263" t="s">
-        <v>206</v>
-      </c>
-      <c r="C263" t="s">
-        <v>176</v>
-      </c>
-      <c r="D263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A264" t="s">
-        <v>64</v>
-      </c>
-      <c r="C264" t="s">
-        <v>298</v>
-      </c>
-      <c r="D264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A265" t="s">
-        <v>46</v>
-      </c>
-      <c r="C265" t="s">
-        <v>206</v>
-      </c>
-      <c r="D265">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A266" t="s">
-        <v>173</v>
-      </c>
-      <c r="C266" t="s">
-        <v>207</v>
-      </c>
-      <c r="D266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A267" t="s">
-        <v>145</v>
-      </c>
-      <c r="C267" t="s">
-        <v>208</v>
-      </c>
-      <c r="D267">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A268" t="s">
-        <v>243</v>
-      </c>
-      <c r="C268" t="s">
-        <v>205</v>
-      </c>
-      <c r="D268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A269" t="s">
-        <v>243</v>
-      </c>
-      <c r="C269" t="s">
-        <v>177</v>
-      </c>
-      <c r="D269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A270" t="s">
-        <v>68</v>
-      </c>
-      <c r="C270" t="s">
-        <v>204</v>
-      </c>
-      <c r="D270">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A271" t="s">
-        <v>214</v>
-      </c>
-      <c r="C271" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A272" t="s">
-        <v>125</v>
-      </c>
-      <c r="C272" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A273" t="s">
-        <v>193</v>
-      </c>
-      <c r="C273" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A274" t="s">
-        <v>91</v>
-      </c>
-      <c r="C274" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A275" t="s">
-        <v>174</v>
-      </c>
-      <c r="C275" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A276" t="s">
-        <v>241</v>
-      </c>
-      <c r="C276" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A277" t="s">
-        <v>232</v>
-      </c>
-      <c r="C277" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A278" t="s">
-        <v>231</v>
-      </c>
-      <c r="C278" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A279" t="s">
-        <v>21</v>
-      </c>
-      <c r="C279" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A280" t="s">
-        <v>65</v>
-      </c>
-      <c r="C280" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A281" t="s">
-        <v>144</v>
-      </c>
-      <c r="C281" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A282" t="s">
-        <v>146</v>
-      </c>
-      <c r="C282" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A283" t="s">
-        <v>172</v>
-      </c>
-      <c r="C283" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A284" t="s">
-        <v>90</v>
-      </c>
-      <c r="C284" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A285" t="s">
-        <v>4</v>
-      </c>
-      <c r="C285" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A286" t="s">
-        <v>151</v>
-      </c>
-      <c r="C286" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A287" t="s">
-        <v>135</v>
-      </c>
-      <c r="C287" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A288" t="s">
-        <v>135</v>
-      </c>
-      <c r="C288" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A289" t="s">
-        <v>211</v>
-      </c>
-      <c r="C289" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A290" t="s">
-        <v>119</v>
-      </c>
-      <c r="C290" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A291" t="s">
-        <v>98</v>
-      </c>
-      <c r="C291" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A292" t="s">
-        <v>54</v>
-      </c>
-      <c r="C292" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A293" t="s">
-        <v>209</v>
-      </c>
-      <c r="C293" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A294" t="s">
-        <v>179</v>
-      </c>
-      <c r="C294" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A295" t="s">
-        <v>86</v>
-      </c>
-      <c r="C295" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A296" t="s">
-        <v>86</v>
-      </c>
-      <c r="C296" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A297" t="s">
-        <v>57</v>
-      </c>
-      <c r="C297" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A298" t="s">
-        <v>57</v>
-      </c>
-      <c r="C298" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A299" t="s">
-        <v>225</v>
-      </c>
-      <c r="C299" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A300" t="s">
-        <v>60</v>
-      </c>
-      <c r="C300" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A301" t="s">
-        <v>60</v>
-      </c>
-      <c r="C301" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A302" t="s">
-        <v>60</v>
-      </c>
-      <c r="C302" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A303" t="s">
-        <v>60</v>
-      </c>
-      <c r="C303" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A304" t="s">
-        <v>60</v>
-      </c>
-      <c r="C304" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A305" t="s">
-        <v>19</v>
-      </c>
-      <c r="C305" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A306" t="s">
-        <v>19</v>
-      </c>
-      <c r="C306" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A307" t="s">
-        <v>96</v>
-      </c>
-      <c r="C307" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A308" t="s">
-        <v>162</v>
-      </c>
-      <c r="C308" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A309" t="s">
-        <v>162</v>
-      </c>
-      <c r="C309" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A310" t="s">
-        <v>128</v>
-      </c>
-      <c r="C310" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A311" t="s">
-        <v>293</v>
-      </c>
-      <c r="C311" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A312" t="s">
-        <v>29</v>
-      </c>
-      <c r="C312" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A313" t="s">
-        <v>181</v>
-      </c>
-      <c r="C313" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A314" t="s">
-        <v>190</v>
-      </c>
-      <c r="C314" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A315" t="s">
-        <v>224</v>
-      </c>
-      <c r="C315" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A316" t="s">
-        <v>62</v>
-      </c>
-      <c r="C316" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A317" t="s">
-        <v>187</v>
-      </c>
-      <c r="C317" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A318" t="s">
-        <v>186</v>
-      </c>
-      <c r="C318" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A319" t="s">
-        <v>310</v>
-      </c>
-      <c r="C319" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A320" t="s">
-        <v>308</v>
-      </c>
-      <c r="C320" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A321" t="s">
-        <v>318</v>
-      </c>
-      <c r="C321" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A322" t="s">
-        <v>66</v>
-      </c>
-      <c r="C322" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A323" t="s">
-        <v>236</v>
-      </c>
-      <c r="C323" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A324" t="s">
-        <v>219</v>
-      </c>
-      <c r="C324" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A325" t="s">
-        <v>81</v>
-      </c>
-      <c r="C325" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A326" t="s">
-        <v>114</v>
-      </c>
-      <c r="C326" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A327" t="s">
-        <v>51</v>
-      </c>
-      <c r="C327" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A328" t="s">
-        <v>51</v>
-      </c>
-      <c r="C328" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A329" t="s">
-        <v>51</v>
-      </c>
-      <c r="C329" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A330" t="s">
-        <v>51</v>
-      </c>
-      <c r="C330" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A331" t="s">
-        <v>100</v>
-      </c>
-      <c r="C331" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A332" t="s">
-        <v>79</v>
-      </c>
-      <c r="C332" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A333" t="s">
-        <v>319</v>
-      </c>
-      <c r="C333" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A334" t="s">
-        <v>16</v>
-      </c>
-      <c r="C334" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A335" t="s">
-        <v>184</v>
-      </c>
-      <c r="C335" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A336" t="s">
-        <v>83</v>
-      </c>
-      <c r="C336" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A337" t="s">
-        <v>166</v>
-      </c>
-      <c r="C337" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A338" t="s">
-        <v>82</v>
-      </c>
-      <c r="C338" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A339" t="s">
-        <v>201</v>
-      </c>
-      <c r="C339" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A340" t="s">
-        <v>56</v>
-      </c>
-      <c r="C340" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A341" t="s">
-        <v>198</v>
-      </c>
-      <c r="C341" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A342" t="s">
-        <v>198</v>
-      </c>
-      <c r="C342" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A343" t="s">
-        <v>111</v>
-      </c>
-      <c r="C343" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A344" t="s">
-        <v>69</v>
-      </c>
-      <c r="C344" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A345" t="s">
-        <v>223</v>
-      </c>
-      <c r="C345" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A346" t="s">
-        <v>36</v>
-      </c>
-      <c r="C346" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A347" t="s">
-        <v>36</v>
-      </c>
-      <c r="C347" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A348" t="s">
-        <v>36</v>
-      </c>
-      <c r="C348" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A349" t="s">
-        <v>75</v>
-      </c>
-      <c r="C349" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A350" t="s">
-        <v>75</v>
-      </c>
-      <c r="C350" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A351" t="s">
-        <v>75</v>
-      </c>
-      <c r="C351" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A352" t="s">
-        <v>137</v>
-      </c>
-      <c r="C352" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A353" t="s">
-        <v>213</v>
-      </c>
-      <c r="C353" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A354" t="s">
-        <v>59</v>
-      </c>
-      <c r="C354" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A355" t="s">
-        <v>25</v>
-      </c>
-      <c r="C355" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A356" t="s">
-        <v>324</v>
-      </c>
-      <c r="C356" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A357" t="s">
-        <v>142</v>
-      </c>
-      <c r="C357" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A358" t="s">
-        <v>221</v>
-      </c>
-      <c r="C358" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A359" t="s">
-        <v>105</v>
-      </c>
-      <c r="C359" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A360" t="s">
-        <v>105</v>
-      </c>
-      <c r="C360" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A361" t="s">
-        <v>11</v>
-      </c>
-      <c r="C361" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A362" t="s">
-        <v>199</v>
-      </c>
-      <c r="C362" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A363" t="s">
-        <v>237</v>
-      </c>
-      <c r="C363" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A364" t="s">
-        <v>229</v>
-      </c>
-      <c r="C364" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A365" t="s">
-        <v>85</v>
-      </c>
-      <c r="C365" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A366" t="s">
-        <v>24</v>
-      </c>
-      <c r="C366" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A367" t="s">
-        <v>321</v>
-      </c>
-      <c r="C367" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A368" t="s">
-        <v>28</v>
-      </c>
-      <c r="C368" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A369" t="s">
-        <v>28</v>
-      </c>
-      <c r="C369" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A370" t="s">
-        <v>228</v>
-      </c>
-      <c r="C370" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A371" t="s">
-        <v>188</v>
-      </c>
-      <c r="C371" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A372" t="s">
-        <v>48</v>
-      </c>
-      <c r="C372" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C373" t="s">
-        <v>325</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A374">
-    <sortCondition ref="A1:A374"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Metro_Arcs_Par_Station_IDs.xlsx
+++ b/Metro_Arcs_Par_Station_IDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aurel\Documents\GitHub\ProbSciANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39671CE-5587-4077-8F70-2556E38E2C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F183079A-FF23-4B19-89F2-07F8CB574AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1458,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="E249" sqref="E249"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="K133" sqref="K133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Metro_Arcs_Par_Station_IDs.xlsx
+++ b/Metro_Arcs_Par_Station_IDs.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aurel\Documents\GitHub\ProbSciANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F183079A-FF23-4B19-89F2-07F8CB574AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80491F6-9DB4-4A23-9E81-6F0D70BE288F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1167,6 +1170,4297 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>La Défense</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Esplanade de la Défense</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Pont de Neuilly</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Les Sablons</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Porte Maillot</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Argentine</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Charles de Gaulle - Etoile</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>George V</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Franklin D. Roosevelt</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>Champs-Elysées - Clemenceau</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>Concorde</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Tuileries</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>Palais Royal - Musée du Louvre</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>Louvre - Rivoli</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>Châtelet</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>Hôtel de Ville</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>Saint-Paul</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>Bastille</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>Gare de Lyon</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>Reuilly - Diderot</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>Nation</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>Porte de Vincennes</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>Château de Vincennes</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>Porte Dauphine</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>Victor Hugo</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>Ternes</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>Courcelles</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>Monceau</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>Villiers</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>Rome</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>Place de Clichy</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>Blanche</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>Pigalle</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>Anvers</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>Barbès - Rochechouart</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>La Chapelle</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>Stalingrad</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>Jaurès</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>Colonel Fabien</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>Belleville</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>Couronnes</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>Ménilmontant</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>Père Lachaise</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>Philippe Auguste</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>Alexandre Dumas</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>Avron</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>Porte de Champerret</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>Pereire</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>Wagram</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>Malesherbes</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>Europe</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>Saint-Lazare</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>Havre-Caumartin</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>Opéra</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>Quatre Septembre</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>Bourse</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>Sentier</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>Réaumur - Sébastopol</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>Arts et Métiers</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>Temple</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>République</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>Parmentier</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>Rue Saint-Maur</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>Gambetta</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>Porte de Bagnolet</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>Porte des Lilas</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>Saint-Fargeau</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>Pelleport</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>Porte de Clignancourt</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>Simplon</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>Marcadet - Poissonniers</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>Château Rouge</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>Gare du Nord</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>Gare de l'Est</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>Château d'Eau</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>Strasbourg - Saint-Denis</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>Etienne Marcel</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>Les Halles</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80" t="str">
+            <v>Cité</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81" t="str">
+            <v>Saint-Michel</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82" t="str">
+            <v>Odéon</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83" t="str">
+            <v>Saint-Germain-des-Prés</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84" t="str">
+            <v>Saint-Sulpice</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85" t="str">
+            <v>Saint-Placide</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86" t="str">
+            <v>Montparnasse Bienvenue</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87" t="str">
+            <v>Vavin</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88" t="str">
+            <v>Raspail</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89" t="str">
+            <v>Denfert-Rochereau</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90" t="str">
+            <v>Mouton-Duvernet</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91" t="str">
+            <v>Alésia</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92" t="str">
+            <v>Porte d'Orléans</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93" t="str">
+            <v>Porte de Pantin</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94" t="str">
+            <v>Ourcq</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95" t="str">
+            <v>Laumière</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96" t="str">
+            <v>Jacques Bonsergent</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97" t="str">
+            <v>Oberkampf</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98" t="str">
+            <v>Richard-Lenoir</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99" t="str">
+            <v>Bréguet-Sabin</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100" t="str">
+            <v>Quai de la Rapée</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101" t="str">
+            <v>Gare d'Austerlitz</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102" t="str">
+            <v>Saint-Marcel</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103" t="str">
+            <v>Campo-Formio</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104" t="str">
+            <v>Place d'Italie</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105" t="str">
+            <v>Kléber</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106" t="str">
+            <v>Boissière</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107" t="str">
+            <v>Trocadéro</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108" t="str">
+            <v>Passy</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109" t="str">
+            <v>Bir-Hakeim</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110" t="str">
+            <v>Dupleix</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111" t="str">
+            <v>La Motte-Picquet - Grenelle</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112" t="str">
+            <v>Cambronne</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113" t="str">
+            <v>Sèvres-Lecourbe</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114" t="str">
+            <v>Pasteur</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115" t="str">
+            <v>Edgar Quinet</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116" t="str">
+            <v>Saint-Jacques</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117" t="str">
+            <v>Glacière</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118" t="str">
+            <v>Corvisart</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119" t="str">
+            <v>Nationale</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120" t="str">
+            <v>Chevaleret</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121" t="str">
+            <v>Quai de la Gare</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122" t="str">
+            <v>Bercy</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123" t="str">
+            <v>Dugommier</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124" t="str">
+            <v>Daumesnil</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125" t="str">
+            <v>Bel-Air</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126" t="str">
+            <v>Picpus</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127" t="str">
+            <v>Porte de la Villette</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128" t="str">
+            <v>Corentin Cariou</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129" t="str">
+            <v>Crimée</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130" t="str">
+            <v>Riquet</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131" t="str">
+            <v>Louis Blanc</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132" t="str">
+            <v>Château Landon</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133" t="str">
+            <v>Poissonnière</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134" t="str">
+            <v>Cadet</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135" t="str">
+            <v>Le Peletier</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136" t="str">
+            <v>Chaussée d'Antin - La Fayette</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137" t="str">
+            <v>Pyramides</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138" t="str">
+            <v>Pont Neuf</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139" t="str">
+            <v>Pont Marie</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140" t="str">
+            <v>Sully - Morland</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141" t="str">
+            <v>Jussieu</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142" t="str">
+            <v>Place Monge</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143" t="str">
+            <v>Censier - Daubenton</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144" t="str">
+            <v>Les Gobelins</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145" t="str">
+            <v>Tolbiac</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146" t="str">
+            <v>Maison Blanche</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147" t="str">
+            <v>Porte d'Italie</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148" t="str">
+            <v>Porte de Choisy</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149" t="str">
+            <v>Porte d'Ivry</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150" t="str">
+            <v>Bolivar</v>
+    